--- a/PS-VRP/Dati_output/insert_inter_post.xlsx
+++ b/PS-VRP/Dati_output/insert_inter_post.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S90"/>
+  <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,41 +515,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251466</v>
+        <v>251547</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>80.68115942028986</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:30:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:30:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-12 08:50:40</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>5567</v>
+        <v>13129</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -562,66 +562,71 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>70</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
+      <c r="N2" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>0</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>0</v>
+        <v>-1.443691314548611</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251284</v>
+        <v>250759</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>40.5</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>297.0909090909091</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>16340</v>
+        <v>8398</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -630,14 +635,14 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N3" t="n">
         <v>39747</v>
@@ -652,53 +657,53 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-0.5466647104861111</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>244204</v>
+        <v>250894</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>36.5</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>63.12727272727273</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-09 13:14:05</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-09 13:14:05</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-09 14:17:13</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>3472</v>
+        <v>44262</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -707,14 +712,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N4" t="n">
+        <v>39755</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -724,7 +732,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
@@ -736,41 +744,41 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251283</v>
+        <v>251519</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>34.5</v>
+        <v>36</v>
       </c>
       <c r="D5" t="n">
-        <v>13.70909090909091</v>
+        <v>185.5633802816901</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-09 14:17:13</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-09 14:51:43</t>
+          <t>2025-05-12 08:23:36</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-09 14:51:43</t>
+          <t>2025-05-12 08:23:36</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-12 07:05:25</t>
+          <t>2025-05-12 11:29:10</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>754</v>
+        <v>13175</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -779,11 +787,11 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
@@ -796,7 +804,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-03-18 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
@@ -812,33 +820,33 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>38.5</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>204.0363636363636</v>
+        <v>158.056338028169</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-12 07:05:25</t>
+          <t>2025-05-12 11:29:10</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-12 07:43:55</t>
+          <t>2025-05-12 11:44:10</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-12 07:43:55</t>
+          <t>2025-05-12 11:44:10</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-12 11:07:57</t>
+          <t>2025-05-12 14:22:13</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -883,41 +891,41 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251809</v>
+        <v>251373</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>34.5</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8363636363636</v>
+        <v>240.7605633802817</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-12 11:07:57</t>
+          <t>2025-05-12 14:22:13</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-12 11:42:27</t>
+          <t>2025-05-12 14:43:13</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-12 11:42:27</t>
+          <t>2025-05-12 14:43:13</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-12 14:20:18</t>
+          <t>2025-05-13 10:43:59</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>8681</v>
+        <v>17094</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -930,7 +938,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
@@ -943,7 +951,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
@@ -955,41 +963,41 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251462</v>
+        <v>251626</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>34.5</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>113.2</v>
+        <v>176.056338028169</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-12 14:20:18</t>
+          <t>2025-05-13 10:43:59</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-12 14:54:48</t>
+          <t>2025-05-13 11:02:59</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-12 14:54:48</t>
+          <t>2025-05-13 11:02:59</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-13 08:48:00</t>
+          <t>2025-05-13 13:59:02</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>6226</v>
+        <v>12500</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1002,7 +1010,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
@@ -1015,7 +1023,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
@@ -1027,41 +1035,41 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251520</v>
+        <v>251846</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>40.5</v>
+        <v>17</v>
       </c>
       <c r="D9" t="n">
-        <v>297.0909090909091</v>
+        <v>160.4507042253521</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-13 08:48:00</t>
+          <t>2025-05-13 13:59:02</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-13 09:28:30</t>
+          <t>2025-05-13 14:16:02</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-13 09:28:30</t>
+          <t>2025-05-13 14:16:02</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-13 14:25:35</t>
+          <t>2025-05-14 08:56:29</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>16340</v>
+        <v>11392</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1070,11 +1078,11 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
@@ -1087,7 +1095,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
@@ -1099,61 +1107,61 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251706</v>
+        <v>251229</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D10" t="n">
-        <v>50.79365079365079</v>
+        <v>263.9295774647887</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-14 08:56:29</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-14 09:19:29</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-14 09:19:29</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-14 13:43:25</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>3200</v>
+        <v>18739</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>39764 (esterno)</t>
+          <t>39723 (esterno)</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1162,11 +1170,11 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39764</v>
+        <v>39723</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
@@ -1178,41 +1186,41 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251455</v>
+        <v>251061</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D11" t="n">
-        <v>82.765625</v>
+        <v>337.9859154929578</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-14 13:43:25</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-14 13:58:25</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-14 13:58:25</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-15 11:36:24</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>5297</v>
+        <v>23997</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1221,75 +1229,70 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
-      <c r="N11" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O11" t="n">
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>0</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251391</v>
+        <v>235572</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>17</v>
       </c>
       <c r="D12" t="n">
-        <v>91.640625</v>
+        <v>140.2535211267606</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-15 11:36:24</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-15 11:53:24</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-15 11:53:24</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-15 14:13:39</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>5865</v>
+        <v>9958</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1298,7 +1301,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -1307,66 +1310,61 @@
       <c r="M12" t="n">
         <v>70</v>
       </c>
-      <c r="N12" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O12" t="n">
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2023-11-06 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>0</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251395</v>
+        <v>251475</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>17</v>
       </c>
       <c r="D13" t="n">
-        <v>35.34375</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-15 14:13:39</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-15 14:30:39</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-15 14:30:39</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-16 08:32:55</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>2262</v>
+        <v>8681</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1379,71 +1377,66 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
-      <c r="N13" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O13" t="n">
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>0</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251371</v>
+        <v>251809</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-16 08:32:55</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-16 08:47:55</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-16 08:47:55</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-16 10:50:11</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>8681</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1461,68 +1454,61 @@
       <c r="M14" t="n">
         <v>70</v>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O14" t="n">
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>39666</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>0</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251453</v>
+        <v>251466</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>17</v>
       </c>
       <c r="D15" t="n">
-        <v>78.125</v>
+        <v>78.40845070422536</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-16 10:50:11</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-07 11:58:45</t>
+          <t>2025-05-16 11:07:11</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-07 11:58:45</t>
+          <t>2025-05-16 11:07:11</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-07 13:16:52</t>
+          <t>2025-05-16 12:25:36</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>5000</v>
+        <v>5567</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1540,68 +1526,61 @@
       <c r="M15" t="n">
         <v>70</v>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>39742 (non in estrazione)</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O15" t="n">
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>39742</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-9.553385416666666</v>
+        <v>0</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>-9.553385416666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251396</v>
+        <v>251465</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>35.34375</v>
+        <v>87.69014084507042</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-07 13:16:52</t>
+          <t>2025-05-16 12:25:36</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-07 13:37:52</t>
+          <t>2025-05-16 12:42:36</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-07 13:37:52</t>
+          <t>2025-05-16 12:42:36</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-07 14:13:13</t>
+          <t>2025-05-16 14:10:17</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>2262</v>
+        <v>6226</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1614,71 +1593,66 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
       </c>
-      <c r="N16" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O16" t="n">
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-0.5925130208333333</v>
+        <v>0</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>-0.5925130208333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251548</v>
+        <v>251557</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D17" t="n">
-        <v>206.90625</v>
+        <v>94.43661971830986</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-07 14:13:13</t>
+          <t>2025-05-16 14:10:17</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-07 14:32:13</t>
+          <t>2025-05-16 14:25:17</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-07 14:32:13</t>
+          <t>2025-05-16 14:25:17</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-08 09:59:07</t>
+          <t>2025-05-19 07:59:43</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>13242</v>
+        <v>6705</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1691,71 +1665,66 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
       </c>
-      <c r="N17" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O17" t="n">
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-1.416059027777778</v>
+        <v>0</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>-1.416059027777778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>250923</v>
+        <v>251742</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>109.46875</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-08 09:59:07</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-08 10:31:07</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-08 10:31:07</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-08 12:20:35</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>7006</v>
+        <v>8226</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1764,14 +1733,14 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N18" t="n">
         <v>39749</v>
@@ -1786,53 +1755,53 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-1.514301215277778</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>-1.514301215277778</v>
+        <v>-1.406147540983796</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251225</v>
+        <v>251840</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-08 12:20:35</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:35</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:35</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:35</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>5714</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1841,17 +1810,17 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N19" t="n">
-        <v>39747</v>
+        <v>39758</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1859,57 +1828,57 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39747</v>
+        <v>39758</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-0.5261067708333333</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>-0.5261067708333333</v>
+        <v>-0.4885587431712963</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251227</v>
+        <v>251456</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>147.5245901639344</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:35</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-08 12:52:35</t>
+          <t>2025-05-08 12:13:31</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-08 12:52:35</t>
+          <t>2025-05-08 12:13:31</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-08 12:52:35</t>
+          <t>2025-05-08 14:41:02</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>8999</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1918,14 +1887,14 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M20" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N20" t="n">
         <v>39746</v>
@@ -1940,53 +1909,53 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-2.5365234375</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-2.5365234375</v>
+        <v>-2.611839708564815</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251421</v>
+        <v>251505</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D21" t="n">
-        <v>81.9375</v>
+        <v>233.6885245901639</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-08 12:52:35</t>
+          <t>2025-05-08 14:41:02</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-08 13:09:35</t>
+          <t>2025-05-09 07:11:02</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-08 13:09:35</t>
+          <t>2025-05-09 07:11:02</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-08 14:31:31</t>
+          <t>2025-05-09 11:04:44</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>5244</v>
+        <v>14255</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1995,77 +1964,70 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>76</v>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>39762 (non in estrazione)</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>39762</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-0.6052300347222223</v>
+        <v>0</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>-0.6052300347222223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251782</v>
+        <v>251594</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D22" t="n">
-        <v>188.640625</v>
+        <v>106</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-08 14:31:31</t>
+          <t>2025-05-09 11:04:44</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-08 14:46:31</t>
+          <t>2025-05-09 11:29:44</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-08 14:46:31</t>
+          <t>2025-05-09 11:29:44</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-09 09:55:10</t>
+          <t>2025-05-09 13:15:44</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>12073</v>
+        <v>6466</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2074,75 +2036,70 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>76</v>
-      </c>
-      <c r="N22" t="n">
-        <v>39754</v>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>39754</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-0.4133138020833333</v>
+        <v>0</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>-0.4133138020833333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251651</v>
+        <v>251580</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D23" t="n">
-        <v>731.71875</v>
+        <v>117.2622950819672</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-09 09:55:10</t>
+          <t>2025-05-09 13:15:44</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-09 10:14:10</t>
+          <t>2025-05-09 13:35:44</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-09 10:14:10</t>
+          <t>2025-05-09 13:35:44</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-12 14:25:53</t>
+          <t>2025-05-12 07:33:00</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>46830</v>
+        <v>7153</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2151,17 +2108,14 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>76</v>
-      </c>
-      <c r="N23" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -2171,7 +2125,7 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
@@ -2183,41 +2137,41 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>245089</v>
+        <v>251743</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D24" t="n">
-        <v>1916.640625</v>
+        <v>176.655737704918</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-12 14:25:53</t>
+          <t>2025-05-12 07:33:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-12 14:42:53</t>
+          <t>2025-05-12 07:53:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-12 14:42:53</t>
+          <t>2025-05-12 07:53:00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-16 14:39:31</t>
+          <t>2025-05-12 10:49:39</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>122665</v>
+        <v>10776</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2226,14 +2180,14 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
         <v>4</v>
       </c>
       <c r="M24" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -2243,7 +2197,7 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
@@ -2255,41 +2209,41 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>244354</v>
+        <v>244204</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D25" t="n">
-        <v>67.34375</v>
+        <v>56.91803278688525</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-16 14:39:31</t>
+          <t>2025-05-12 10:49:39</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-19 07:09:31</t>
+          <t>2025-05-12 11:09:39</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-19 07:09:31</t>
+          <t>2025-05-12 11:09:39</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-19 08:16:52</t>
+          <t>2025-05-12 12:06:34</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>4310</v>
+        <v>3472</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2327,41 +2281,41 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251846</v>
+        <v>251566</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D26" t="n">
-        <v>178</v>
+        <v>112.9344262295082</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-19 08:16:52</t>
+          <t>2025-05-12 12:06:34</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-19 08:35:52</t>
+          <t>2025-05-12 12:26:34</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-19 08:35:52</t>
+          <t>2025-05-12 12:26:34</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-19 11:33:52</t>
+          <t>2025-05-12 14:19:30</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>11392</v>
+        <v>6889</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2374,7 +2328,7 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
         <v>70</v>
@@ -2387,7 +2341,7 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
@@ -2399,41 +2353,41 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251562</v>
+        <v>251424</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D27" t="n">
-        <v>127.21875</v>
+        <v>158.3934426229508</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-19 11:33:52</t>
+          <t>2025-05-12 14:19:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-19 11:48:52</t>
+          <t>2025-05-12 14:39:30</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-19 11:48:52</t>
+          <t>2025-05-12 14:39:30</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-19 13:56:05</t>
+          <t>2025-05-13 09:17:54</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>8142</v>
+        <v>9662</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2446,7 +2400,7 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M27" t="n">
         <v>70</v>
@@ -2459,7 +2413,7 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
@@ -2471,41 +2425,41 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251475</v>
+        <v>244355</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D28" t="n">
-        <v>135.640625</v>
+        <v>70.65573770491804</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-19 13:56:05</t>
+          <t>2025-05-13 09:17:54</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-19 14:15:05</t>
+          <t>2025-05-13 09:37:54</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-19 14:15:05</t>
+          <t>2025-05-13 09:37:54</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-20 08:30:44</t>
+          <t>2025-05-13 10:48:33</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>8681</v>
+        <v>4310</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2531,7 +2485,7 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
@@ -2543,41 +2497,41 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>245275</v>
+        <v>251761</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D29" t="n">
-        <v>379.59375</v>
+        <v>217.6885245901639</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-20 08:30:44</t>
+          <t>2025-05-13 10:48:33</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-20 09:05:44</t>
+          <t>2025-05-13 11:08:33</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-20 09:05:44</t>
+          <t>2025-05-13 11:08:33</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-21 07:25:19</t>
+          <t>2025-05-13 14:46:14</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>24294</v>
+        <v>13279</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2586,11 +2540,11 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
@@ -2603,7 +2557,7 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-19 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
@@ -2615,41 +2569,41 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251561</v>
+        <v>251225</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D30" t="n">
-        <v>84.921875</v>
+        <v>0</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-21 07:25:19</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-21 07:58:19</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-21 07:58:19</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-21 09:23:15</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>5435</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2658,70 +2612,75 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M30" t="n">
-        <v>70</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N30" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>0</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="S30" s="1" t="n">
-        <v>0</v>
+        <v>-0.5131944444444444</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251546</v>
+        <v>251227</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>15</v>
       </c>
       <c r="D31" t="n">
-        <v>101.03125</v>
+        <v>0</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-21 09:23:15</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-21 09:38:15</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-21 09:38:15</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-21 11:19:16</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>6466</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2730,70 +2689,75 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M31" t="n">
-        <v>70</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N31" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>0</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="S31" s="1" t="n">
-        <v>0</v>
+        <v>-2.523611111111111</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251519</v>
+        <v>251782</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D32" t="n">
-        <v>205.859375</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-21 11:19:16</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-21 11:40:16</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-21 11:40:16</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-22 07:06:08</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>13175</v>
+        <v>12073</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2802,70 +2766,75 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M32" t="n">
-        <v>70</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N32" t="n">
+        <v>39754</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>39754</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>0</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="S32" s="1" t="n">
-        <v>0</v>
+        <v>-0.3201682316087963</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251397</v>
+        <v>251651</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D33" t="n">
-        <v>84.921875</v>
+        <v>659.5774647887324</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-22 07:06:08</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-22 07:23:08</t>
+          <t>2025-05-09 08:00:02</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-22 07:23:08</t>
+          <t>2025-05-09 08:00:02</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-22 08:48:03</t>
+          <t>2025-05-12 10:59:37</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>5435</v>
+        <v>46830</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2874,14 +2843,17 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M33" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N33" t="n">
+        <v>39755</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -2891,7 +2863,7 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
@@ -2903,41 +2875,41 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251594</v>
+        <v>245089</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>17</v>
       </c>
       <c r="D34" t="n">
-        <v>101.03125</v>
+        <v>1727.676056338028</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-22 08:48:03</t>
+          <t>2025-05-12 10:59:37</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-22 09:05:03</t>
+          <t>2025-05-12 11:16:37</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-22 09:05:03</t>
+          <t>2025-05-12 11:16:37</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-22 10:46:05</t>
+          <t>2025-05-16 08:04:17</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>6466</v>
+        <v>122665</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2946,14 +2918,14 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L34" t="n">
         <v>4</v>
       </c>
       <c r="M34" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -2963,7 +2935,7 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
@@ -2975,41 +2947,41 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>250819</v>
+        <v>251987</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>19</v>
       </c>
       <c r="D35" t="n">
-        <v>133.234375</v>
+        <v>2965.154929577465</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-22 10:46:05</t>
+          <t>2025-05-16 08:04:17</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-22 11:05:05</t>
+          <t>2025-05-16 08:23:17</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-22 11:05:05</t>
+          <t>2025-05-16 08:23:17</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-22 13:18:19</t>
+          <t>2025-05-26 09:48:27</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>8527</v>
+        <v>210526</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -3018,14 +2990,14 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L35" t="n">
         <v>6</v>
       </c>
       <c r="M35" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -3035,7 +3007,7 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-09-01 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
@@ -3047,41 +3019,41 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>251245</v>
+        <v>250670</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D36" t="n">
-        <v>11.78125</v>
+        <v>22.01408450704225</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-22 13:18:19</t>
+          <t>2025-05-26 09:48:27</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-22 13:33:19</t>
+          <t>2025-05-26 10:07:27</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-22 13:33:19</t>
+          <t>2025-05-26 10:07:27</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-22 13:45:06</t>
+          <t>2025-05-26 10:29:27</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>754</v>
+        <v>1563</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3090,14 +3062,14 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M36" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -3107,7 +3079,7 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
@@ -3119,41 +3091,41 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>251247</v>
+        <v>251340</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D37" t="n">
-        <v>420.84375</v>
+        <v>461.9718309859155</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-22 13:45:06</t>
+          <t>2025-05-26 10:29:27</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-22 14:00:06</t>
+          <t>2025-05-26 10:48:27</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-22 14:00:06</t>
+          <t>2025-05-26 10:48:27</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-23 13:00:57</t>
+          <t>2025-05-27 10:30:26</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>26934</v>
+        <v>32800</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3162,14 +3134,14 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M37" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -3179,7 +3151,7 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
@@ -3191,41 +3163,41 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251062</v>
+        <v>245623</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D38" t="n">
-        <v>353.5</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-23 13:00:57</t>
+          <t>2025-05-27 10:30:26</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-23 13:15:57</t>
+          <t>2025-05-27 11:00:26</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-23 13:15:57</t>
+          <t>2025-05-27 11:00:26</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-26 11:09:27</t>
+          <t>2025-05-28 09:12:32</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>22624</v>
+        <v>26419</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3234,14 +3206,14 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M38" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -3251,7 +3223,7 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
@@ -3263,41 +3235,41 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>251050</v>
+        <v>243335</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>217</v>
+        <v>19</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-28 09:12:32</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-28 09:31:32</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-28 09:31:32</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-29 09:16:22</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>33004</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3306,75 +3278,70 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M39" t="n">
-        <v>70</v>
-      </c>
-      <c r="N39" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>0</v>
       </c>
       <c r="S39" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251054</v>
+        <v>251750</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>54.80281690140845</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-29 09:16:22</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-29 09:33:22</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-29 09:33:22</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-29 10:28:10</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>3891</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3383,75 +3350,70 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="M40" t="n">
-        <v>70</v>
-      </c>
-      <c r="N40" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>0</v>
       </c>
       <c r="S40" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>251081</v>
+        <v>251164</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="D41" t="n">
-        <v>42.42253521126761</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>3012</v>
+        <v>10000</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3460,19 +3422,17 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="M41" t="n">
         <v>70</v>
       </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+      <c r="N41" t="n">
+        <v>39749</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -3480,57 +3440,57 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>39750</v>
+        <v>39749</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-1.471584467118056</v>
       </c>
       <c r="S41" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-1.471584467118056</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251109</v>
+        <v>251485</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D42" t="n">
-        <v>266.5915492957747</v>
+        <v>78.81967213114754</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-09 14:54:25</t>
+          <t>2025-05-09 07:44:00</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-09 14:54:25</t>
+          <t>2025-05-09 07:44:00</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-12 11:21:00</t>
+          <t>2025-05-09 09:02:49</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>18928</v>
+        <v>4808</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3539,11 +3499,11 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="M42" t="n">
         <v>70</v>
@@ -3556,7 +3516,7 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
@@ -3568,41 +3528,41 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251547</v>
+        <v>251374</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D43" t="n">
-        <v>184.9154929577465</v>
+        <v>448.2459016393443</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 09:02:49</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 09:31:49</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 09:31:49</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-12 09:00:03</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>13129</v>
+        <v>27343</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3611,75 +3571,70 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M43" t="n">
         <v>70</v>
       </c>
-      <c r="N43" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O43" t="n">
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>0</v>
       </c>
       <c r="S43" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>250759</v>
+        <v>244023</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D44" t="n">
-        <v>118.2816901408451</v>
+        <v>16.34426229508197</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-12 09:00:03</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-12 09:27:03</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-12 09:27:03</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-12 09:43:24</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>8398</v>
+        <v>997</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3688,75 +3643,70 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M44" t="n">
-        <v>76</v>
-      </c>
-      <c r="N44" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>0</v>
       </c>
       <c r="S44" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>250894</v>
+        <v>251283</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D45" t="n">
-        <v>623.4084507042254</v>
+        <v>12.36065573770492</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-12 09:43:24</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-12 10:08:24</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-12 10:08:24</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-12 10:20:46</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>44262</v>
+        <v>754</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3765,17 +3715,14 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M45" t="n">
-        <v>76</v>
-      </c>
-      <c r="N45" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -3785,7 +3732,7 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-03-18 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
@@ -3797,41 +3744,41 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>251463</v>
+        <v>251464</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D46" t="n">
-        <v>98.12676056338029</v>
+        <v>117.2622950819672</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-12 10:20:46</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-12 08:19:36</t>
+          <t>2025-05-12 10:49:46</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-12 08:19:36</t>
+          <t>2025-05-12 10:49:46</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-12 09:57:43</t>
+          <t>2025-05-12 12:47:01</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>6967</v>
+        <v>7153</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3869,41 +3816,41 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>251229</v>
+        <v>251467</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D47" t="n">
-        <v>263.9295774647887</v>
+        <v>102.0655737704918</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-05-12 09:57:43</t>
+          <t>2025-05-12 12:47:01</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-12 10:16:43</t>
+          <t>2025-05-12 13:16:01</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-05-12 10:16:43</t>
+          <t>2025-05-12 13:16:01</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-05-12 14:40:39</t>
+          <t>2025-05-12 14:58:05</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>18739</v>
+        <v>6226</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3912,31 +3859,24 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M47" t="n">
         <v>70</v>
       </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O47" t="n">
+        <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>39723</v>
+        <v>0</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
@@ -3948,41 +3888,41 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>235572</v>
+        <v>251260</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D48" t="n">
-        <v>140.2535211267606</v>
+        <v>153.5901639344262</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-12 14:40:39</t>
+          <t>2025-05-12 14:58:05</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-12 14:57:39</t>
+          <t>2025-05-13 07:31:05</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-12 14:57:39</t>
+          <t>2025-05-13 07:31:05</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-05-13 09:17:54</t>
+          <t>2025-05-13 10:04:41</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>9958</v>
+        <v>9369</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3991,11 +3931,11 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M48" t="n">
         <v>70</v>
@@ -4008,7 +3948,7 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2023-11-06 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
@@ -4020,41 +3960,41 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>251373</v>
+        <v>251249</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D49" t="n">
-        <v>240.7605633802817</v>
+        <v>78</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-13 09:17:54</t>
+          <t>2025-05-13 10:04:41</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-13 09:32:54</t>
+          <t>2025-05-13 10:29:41</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-13 09:32:54</t>
+          <t>2025-05-13 10:29:41</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-13 13:33:40</t>
+          <t>2025-05-13 11:47:41</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>17094</v>
+        <v>4758</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4063,11 +4003,11 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M49" t="n">
         <v>70</v>
@@ -4080,7 +4020,7 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
@@ -4092,41 +4032,41 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251743</v>
+        <v>245090</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D50" t="n">
-        <v>151.7746478873239</v>
+        <v>8470.786885245901</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-13 13:33:40</t>
+          <t>2025-05-13 11:47:41</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-13 13:50:40</t>
+          <t>2025-05-13 12:29:41</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-13 13:50:40</t>
+          <t>2025-05-13 12:29:41</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-14 08:22:27</t>
+          <t>2025-06-06 09:40:28</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>10776</v>
+        <v>516718</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4135,14 +4075,14 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M50" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -4152,7 +4092,7 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
@@ -4164,41 +4104,41 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251564</v>
+        <v>251455</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D51" t="n">
-        <v>38.26760563380282</v>
+        <v>82.765625</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-14 08:22:27</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-14 08:39:27</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-14 08:39:27</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-14 09:17:43</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>2717</v>
+        <v>5297</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4211,66 +4151,71 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M51" t="n">
         <v>70</v>
       </c>
-      <c r="O51" t="n">
-        <v>0</v>
+      <c r="N51" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P51" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>0</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="S51" s="1" t="n">
-        <v>0</v>
+        <v>-0.3623372395833334</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>251626</v>
+        <v>251391</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D52" t="n">
-        <v>176.056338028169</v>
+        <v>91.640625</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-14 09:17:43</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-14 09:32:43</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-14 09:32:43</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-14 12:28:46</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>12500</v>
+        <v>5865</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4283,66 +4228,71 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M52" t="n">
         <v>70</v>
       </c>
-      <c r="O52" t="n">
-        <v>0</v>
+      <c r="N52" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P52" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>0</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="S52" s="1" t="n">
-        <v>0</v>
+        <v>-0.4377821180555556</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>245350</v>
+        <v>251395</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D53" t="n">
-        <v>393.943661971831</v>
+        <v>35.34375</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-14 12:28:46</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-14 12:57:46</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-14 12:57:46</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-15 11:31:43</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>27970</v>
+        <v>2262</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4351,70 +4301,75 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M53" t="n">
         <v>70</v>
       </c>
-      <c r="O53" t="n">
-        <v>0</v>
+      <c r="N53" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P53" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>0</v>
+        <v>-0.4741319444444445</v>
       </c>
       <c r="S53" s="1" t="n">
-        <v>0</v>
+        <v>-0.4741319444444445</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>251485</v>
+        <v>251371</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D54" t="n">
-        <v>67.71830985915493</v>
+        <v>0</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-15 11:31:43</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-15 11:56:43</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-15 11:56:43</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-15 13:04:26</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>4808</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4427,66 +4382,73 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M54" t="n">
         <v>70</v>
       </c>
-      <c r="O54" t="n">
-        <v>0</v>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P54" t="n">
-        <v>0</v>
+        <v>39666</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>0</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="S54" s="1" t="n">
-        <v>0</v>
+        <v>-13.48732638888889</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>251761</v>
+        <v>251396</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D55" t="n">
-        <v>187.0281690140845</v>
+        <v>35.34375</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-15 13:04:26</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-15 13:21:26</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-15 13:21:26</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-16 08:28:27</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>13279</v>
+        <v>2262</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4499,66 +4461,71 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M55" t="n">
         <v>70</v>
       </c>
-      <c r="O55" t="n">
-        <v>0</v>
+      <c r="N55" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P55" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2025-05-19 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>0</v>
+        <v>-0.5250651041666666</v>
       </c>
       <c r="S55" s="1" t="n">
-        <v>0</v>
+        <v>-0.5250651041666666</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>251464</v>
+        <v>251548</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D56" t="n">
-        <v>100.7464788732394</v>
+        <v>206.90625</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-16 08:28:27</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-16 08:43:27</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-16 08:43:27</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-16 10:24:12</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>7153</v>
+        <v>13242</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4576,61 +4543,66 @@
       <c r="M56" t="n">
         <v>70</v>
       </c>
-      <c r="O56" t="n">
-        <v>0</v>
+      <c r="N56" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P56" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>0</v>
+        <v>-1.348611111111111</v>
       </c>
       <c r="S56" s="1" t="n">
-        <v>0</v>
+        <v>-1.348611111111111</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>251467</v>
+        <v>250923</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D57" t="n">
-        <v>87.69014084507042</v>
+        <v>109.46875</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-16 10:24:12</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-16 10:43:12</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-16 10:43:12</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-16 12:10:54</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>6226</v>
+        <v>7006</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4639,70 +4611,75 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M57" t="n">
-        <v>70</v>
-      </c>
-      <c r="O57" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N57" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P57" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>0</v>
+        <v>-1.446853298611111</v>
       </c>
       <c r="S57" s="1" t="n">
-        <v>0</v>
+        <v>-1.446853298611111</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251557</v>
+        <v>251477</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D58" t="n">
-        <v>94.43661971830986</v>
+        <v>468.734375</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-16 12:10:54</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-16 12:25:54</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-16 12:25:54</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-16 14:00:20</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>6705</v>
+        <v>29999</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4711,70 +4688,75 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M58" t="n">
-        <v>70</v>
-      </c>
-      <c r="O58" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N58" t="n">
+        <v>39760</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P58" t="n">
-        <v>0</v>
+        <v>39760</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>0</v>
+        <v>-2.452224392361111</v>
       </c>
       <c r="S58" s="1" t="n">
-        <v>0</v>
+        <v>-2.452224392361111</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>251252</v>
+        <v>243569</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D59" t="n">
-        <v>212.4366197183099</v>
+        <v>40.640625</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-16 14:00:20</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-16 14:23:20</t>
+          <t>2025-05-09 11:06:12</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-16 14:23:20</t>
+          <t>2025-05-09 11:06:12</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-19 09:55:46</t>
+          <t>2025-05-09 11:46:50</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>15083</v>
+        <v>2601</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4783,14 +4765,14 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M59" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -4800,7 +4782,7 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2024-09-16 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
@@ -4812,41 +4794,41 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>251987</v>
+        <v>251397</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C60" t="n">
         <v>30</v>
       </c>
       <c r="D60" t="n">
-        <v>2965.154929577465</v>
+        <v>84.921875</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-19 09:55:46</t>
+          <t>2025-05-09 11:46:50</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-19 10:25:46</t>
+          <t>2025-05-09 12:16:50</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-19 10:25:46</t>
+          <t>2025-05-09 12:16:50</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-27 11:50:55</t>
+          <t>2025-05-09 13:41:45</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>210526</v>
+        <v>5435</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4855,14 +4837,14 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M60" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
@@ -4872,7 +4854,7 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2025-09-01 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
@@ -4884,41 +4866,41 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>251742</v>
+        <v>251564</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D61" t="n">
-        <v>134.8524590163935</v>
+        <v>42.453125</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 13:41:45</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-09 13:56:45</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-09 13:56:45</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-09 14:39:13</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>8226</v>
+        <v>2717</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4931,71 +4913,66 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M61" t="n">
         <v>70</v>
       </c>
-      <c r="N61" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O61" t="n">
+        <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>0</v>
       </c>
       <c r="S61" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>251840</v>
+        <v>245275</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D62" t="n">
-        <v>93.67213114754098</v>
+        <v>379.59375</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-09 14:39:13</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-12 07:16:13</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-12 07:16:13</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-12 13:35:48</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>5714</v>
+        <v>24294</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -5004,75 +4981,70 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="M62" t="n">
         <v>70</v>
       </c>
-      <c r="N62" t="n">
-        <v>39758</v>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O62" t="n">
+        <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>39758</v>
+        <v>0</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>0</v>
       </c>
       <c r="S62" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>251456</v>
+        <v>251561</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D63" t="n">
-        <v>147.5245901639344</v>
+        <v>84.921875</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-12 13:35:48</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-08 12:13:31</t>
+          <t>2025-05-12 14:08:48</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-08 12:13:31</t>
+          <t>2025-05-12 14:08:48</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-08 14:41:02</t>
+          <t>2025-05-13 07:33:44</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>8999</v>
+        <v>5435</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5085,71 +5057,66 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M63" t="n">
         <v>70</v>
       </c>
-      <c r="N63" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O63" t="n">
+        <v>0</v>
       </c>
       <c r="P63" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>-2.611839708564815</v>
+        <v>0</v>
       </c>
       <c r="S63" s="1" t="n">
-        <v>-2.611839708564815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>251465</v>
+        <v>251346</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D64" t="n">
-        <v>102.0655737704918</v>
+        <v>60.296875</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-08 14:41:02</t>
+          <t>2025-05-13 07:33:44</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-09 07:06:02</t>
+          <t>2025-05-13 07:54:44</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-09 07:06:02</t>
+          <t>2025-05-13 07:54:44</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-09 08:48:06</t>
+          <t>2025-05-13 08:55:01</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>6226</v>
+        <v>3859</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5162,7 +5129,7 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M64" t="n">
         <v>70</v>
@@ -5175,7 +5142,7 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
@@ -5187,41 +5154,41 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>251566</v>
+        <v>251062</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D65" t="n">
-        <v>112.9344262295082</v>
+        <v>353.5</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-09 08:48:06</t>
+          <t>2025-05-13 08:55:01</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-09 09:18:06</t>
+          <t>2025-05-13 09:14:01</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-09 09:18:06</t>
+          <t>2025-05-13 09:14:01</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-09 11:11:02</t>
+          <t>2025-05-14 07:07:31</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>6889</v>
+        <v>22624</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5230,11 +5197,11 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M65" t="n">
         <v>70</v>
@@ -5247,7 +5214,7 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
@@ -5259,41 +5226,41 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>250641</v>
+        <v>251546</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D66" t="n">
-        <v>83.8688524590164</v>
+        <v>101.03125</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-09 11:11:02</t>
+          <t>2025-05-14 07:07:31</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-09 11:41:02</t>
+          <t>2025-05-14 07:24:31</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-09 11:41:02</t>
+          <t>2025-05-14 07:24:31</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-09 13:04:55</t>
+          <t>2025-05-14 09:05:33</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>5116</v>
+        <v>6466</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5306,7 +5273,7 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M66" t="n">
         <v>70</v>
@@ -5319,7 +5286,7 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
@@ -5331,41 +5298,41 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>251505</v>
+        <v>251245</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D67" t="n">
-        <v>233.6885245901639</v>
+        <v>11.78125</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-09 13:04:55</t>
+          <t>2025-05-14 09:05:33</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-09 13:29:55</t>
+          <t>2025-05-14 09:22:33</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-09 13:29:55</t>
+          <t>2025-05-14 09:22:33</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-12 09:23:36</t>
+          <t>2025-05-14 09:34:20</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>14255</v>
+        <v>754</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5374,11 +5341,11 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M67" t="n">
         <v>70</v>
@@ -5391,7 +5358,7 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
@@ -5403,41 +5370,41 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>251424</v>
+        <v>251463</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D68" t="n">
-        <v>158.3934426229508</v>
+        <v>108.859375</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-12 09:23:36</t>
+          <t>2025-05-14 09:34:20</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-12 09:48:36</t>
+          <t>2025-05-14 09:53:20</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-12 09:48:36</t>
+          <t>2025-05-14 09:53:20</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-12 12:27:00</t>
+          <t>2025-05-14 11:42:12</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>9662</v>
+        <v>6967</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5463,7 +5430,7 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
@@ -5475,41 +5442,41 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>244355</v>
+        <v>251462</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D69" t="n">
-        <v>70.65573770491804</v>
+        <v>97.28125</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-12 12:27:00</t>
+          <t>2025-05-14 11:42:12</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-12 12:47:00</t>
+          <t>2025-05-14 12:01:12</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-12 12:47:00</t>
+          <t>2025-05-14 12:01:12</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-12 13:57:39</t>
+          <t>2025-05-14 13:38:29</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>4310</v>
+        <v>6226</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5522,7 +5489,7 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M69" t="n">
         <v>70</v>
@@ -5535,7 +5502,7 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
@@ -5547,41 +5514,41 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>251259</v>
+        <v>251562</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D70" t="n">
-        <v>81.9672131147541</v>
+        <v>127.21875</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-12 13:57:39</t>
+          <t>2025-05-14 13:38:29</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-12 14:42:39</t>
+          <t>2025-05-14 13:53:29</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-12 14:42:39</t>
+          <t>2025-05-14 13:53:29</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-13 08:04:37</t>
+          <t>2025-05-15 08:00:42</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>5000</v>
+        <v>8142</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5594,7 +5561,7 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M70" t="n">
         <v>70</v>
@@ -5607,7 +5574,7 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
@@ -5619,41 +5586,41 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>251346</v>
+        <v>251251</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D71" t="n">
-        <v>63.26229508196721</v>
+        <v>247.8125</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-13 08:04:37</t>
+          <t>2025-05-15 08:00:42</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-13 08:29:37</t>
+          <t>2025-05-15 08:23:42</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-13 08:29:37</t>
+          <t>2025-05-15 08:23:42</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-13 09:32:53</t>
+          <t>2025-05-15 12:31:30</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>3859</v>
+        <v>15860</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5662,11 +5629,11 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M71" t="n">
         <v>70</v>
@@ -5679,7 +5646,7 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
@@ -5691,41 +5658,41 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>244023</v>
+        <v>244354</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D72" t="n">
-        <v>16.34426229508197</v>
+        <v>62.46376811594203</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-13 09:32:53</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-13 10:02:53</t>
+          <t>2025-05-12 07:35:00</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-13 10:02:53</t>
+          <t>2025-05-12 07:35:00</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-13 10:19:13</t>
+          <t>2025-05-12 08:37:27</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>997</v>
+        <v>4310</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5738,7 +5705,7 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M72" t="n">
         <v>70</v>
@@ -5751,7 +5718,7 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
@@ -5763,41 +5730,41 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>251061</v>
+        <v>251259</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D73" t="n">
-        <v>393.3934426229508</v>
+        <v>72.46376811594203</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-13 10:19:13</t>
+          <t>2025-05-12 08:37:27</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-13 10:39:13</t>
+          <t>2025-05-12 09:27:27</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-13 10:39:13</t>
+          <t>2025-05-12 09:27:27</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-14 09:12:37</t>
+          <t>2025-05-12 10:39:55</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>23997</v>
+        <v>5000</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5806,11 +5773,11 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M73" t="n">
         <v>70</v>
@@ -5823,7 +5790,7 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
@@ -5835,41 +5802,41 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>251260</v>
+        <v>245350</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D74" t="n">
-        <v>153.5901639344262</v>
+        <v>405.3623188405797</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-14 09:12:37</t>
+          <t>2025-05-12 10:39:55</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-14 09:32:37</t>
+          <t>2025-05-12 11:09:55</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-14 09:32:37</t>
+          <t>2025-05-12 11:09:55</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-14 12:06:12</t>
+          <t>2025-05-13 09:55:17</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>9369</v>
+        <v>27970</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -5878,11 +5845,11 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M74" t="n">
         <v>70</v>
@@ -5895,7 +5862,7 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
@@ -5907,41 +5874,41 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>251795</v>
+        <v>250641</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D75" t="n">
-        <v>307.1967213114754</v>
+        <v>74.14492753623189</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-14 12:06:12</t>
+          <t>2025-05-13 09:55:17</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-14 12:26:12</t>
+          <t>2025-05-13 10:40:17</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-14 12:26:12</t>
+          <t>2025-05-13 10:40:17</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-15 09:33:24</t>
+          <t>2025-05-13 11:54:26</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>18739</v>
+        <v>5116</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -5950,7 +5917,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L75" t="n">
@@ -5967,7 +5934,7 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2025-06-19 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
@@ -5979,41 +5946,41 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>250670</v>
+        <v>251246</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D76" t="n">
-        <v>25.62295081967213</v>
+        <v>173.9420289855072</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-13 11:54:26</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-05-09 07:27:00</t>
+          <t>2025-05-13 12:19:26</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-05-09 07:27:00</t>
+          <t>2025-05-13 12:19:26</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:37</t>
+          <t>2025-05-14 07:13:22</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>1563</v>
+        <v>12002</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -6022,14 +5989,14 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M76" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O76" t="n">
         <v>0</v>
@@ -6039,7 +6006,7 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R76" s="1" t="n">
@@ -6051,41 +6018,41 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>243335</v>
+        <v>251252</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D77" t="n">
-        <v>541.0491803278688</v>
+        <v>218.5942028985507</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:37</t>
+          <t>2025-05-14 07:13:22</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-05-09 08:32:37</t>
+          <t>2025-05-14 07:38:22</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-05-09 08:32:37</t>
+          <t>2025-05-14 07:38:22</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-05-12 09:33:40</t>
+          <t>2025-05-14 11:16:58</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>33004</v>
+        <v>15083</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -6094,14 +6061,14 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M77" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O77" t="n">
         <v>0</v>
@@ -6111,7 +6078,7 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R77" s="1" t="n">
@@ -6123,67 +6090,74 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>251246</v>
+        <v>251706</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>196.7540983606557</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-05-12 09:33:40</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-05-12 10:17:40</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-05-12 10:17:40</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-05-12 13:34:25</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>12002</v>
+        <v>3200</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M78" t="n">
-        <v>70</v>
-      </c>
-      <c r="O78" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P78" t="n">
-        <v>0</v>
+        <v>39764</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R78" s="1" t="n">
@@ -6195,41 +6169,41 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>251249</v>
+        <v>251050</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>25</v>
+        <v>217</v>
       </c>
       <c r="D79" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-05-12 13:34:25</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-05-12 13:59:25</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-05-12 13:59:25</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-05-13 07:17:25</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>4758</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -6238,70 +6212,75 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="M79" t="n">
         <v>70</v>
       </c>
-      <c r="O79" t="n">
-        <v>0</v>
+      <c r="N79" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P79" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R79" s="1" t="n">
-        <v>0</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S79" s="1" t="n">
-        <v>0</v>
+        <v>-1.442361111111111</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>245090</v>
+        <v>251054</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D80" t="n">
-        <v>8470.786885245901</v>
+        <v>0</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-05-13 07:17:25</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-05-13 07:59:25</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-05-13 07:59:25</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-06-05 13:10:12</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>516718</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -6310,70 +6289,75 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="M80" t="n">
-        <v>76</v>
-      </c>
-      <c r="O80" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N80" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P80" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R80" s="1" t="n">
-        <v>0</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S80" s="1" t="n">
-        <v>0</v>
+        <v>-1.466666666666667</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>251477</v>
+        <v>251081</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="D81" t="n">
-        <v>422.5211267605634</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-05-09 11:19:31</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>29999</v>
+        <v>3012</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -6382,17 +6366,19 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="M81" t="n">
-        <v>76</v>
-      </c>
-      <c r="N81" t="n">
-        <v>39760</v>
+        <v>70</v>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -6400,57 +6386,57 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>39760</v>
+        <v>39750</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R81" s="1" t="n">
-        <v>-2.471889671365741</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S81" s="1" t="n">
-        <v>-2.471889671365741</v>
+        <v>-16.58293231612268</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>251340</v>
+        <v>251109</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="D82" t="n">
-        <v>461.9718309859155</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-05-09 11:19:31</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-05-09 11:36:31</t>
+          <t>2025-05-09 14:54:25</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-05-09 11:36:31</t>
+          <t>2025-05-09 14:54:25</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2025-05-12 11:18:29</t>
+          <t>2025-05-12 11:21:00</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>32800</v>
+        <v>18928</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -6459,14 +6445,14 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="M82" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O82" t="n">
         <v>0</v>
@@ -6476,7 +6462,7 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R82" s="1" t="n">
@@ -6488,41 +6474,41 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>243569</v>
+        <v>251284</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>17</v>
+        <v>40.5</v>
       </c>
       <c r="D83" t="n">
-        <v>36.63380281690141</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-05-12 11:18:29</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-05-12 11:35:29</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-05-12 11:35:29</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2025-05-12 12:12:07</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>2601</v>
+        <v>16340</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -6531,70 +6517,75 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M83" t="n">
-        <v>76</v>
-      </c>
-      <c r="O83" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N83" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P83" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R83" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S83" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>245623</v>
+        <v>251520</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>32</v>
+        <v>30.5</v>
       </c>
       <c r="D84" t="n">
-        <v>372.0985915492957</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-05-12 12:12:07</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-05-12 12:44:07</t>
+          <t>2025-05-09 13:08:05</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-05-12 12:44:07</t>
+          <t>2025-05-09 13:08:05</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2025-05-13 10:56:13</t>
+          <t>2025-05-12 10:05:10</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>26419</v>
+        <v>16340</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -6603,14 +6594,14 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M84" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O84" t="n">
         <v>0</v>
@@ -6620,7 +6611,7 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R84" s="1" t="n">
@@ -6632,41 +6623,41 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>251750</v>
+        <v>250819</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>17</v>
+        <v>32.5</v>
       </c>
       <c r="D85" t="n">
-        <v>54.80281690140845</v>
+        <v>155.0363636363636</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-05-13 10:56:13</t>
+          <t>2025-05-12 10:05:10</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-05-13 11:13:13</t>
+          <t>2025-05-12 10:37:40</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-05-13 11:13:13</t>
+          <t>2025-05-12 10:37:40</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-05-13 12:08:01</t>
+          <t>2025-05-12 13:12:43</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>3891</v>
+        <v>8527</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -6675,14 +6666,14 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M85" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O85" t="n">
         <v>0</v>
@@ -6692,7 +6683,7 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R85" s="1" t="n">
@@ -6704,41 +6695,41 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>251268</v>
+        <v>251247</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>47</v>
+        <v>30.5</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>489.7090909090909</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-12 13:12:43</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-05-08 07:47:00</t>
+          <t>2025-05-12 13:43:13</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-05-08 07:47:00</t>
+          <t>2025-05-12 13:43:13</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2025-05-08 07:47:00</t>
+          <t>2025-05-13 13:52:55</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>26934</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -6747,77 +6738,70 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M86" t="n">
-        <v>76</v>
-      </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>39666 (non in estrazione)</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0</v>
       </c>
       <c r="P86" t="n">
-        <v>39666</v>
+        <v>0</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>2025-04-14 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R86" s="1" t="n">
-        <v>-24.32430555555555</v>
+        <v>0</v>
       </c>
       <c r="S86" s="1" t="n">
-        <v>-24.32430555555555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>251164</v>
+        <v>251795</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>47</v>
+        <v>30.5</v>
       </c>
       <c r="D87" t="n">
-        <v>204.0816326530612</v>
+        <v>340.7090909090909</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-05-08 07:47:00</t>
+          <t>2025-05-13 13:52:55</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-05-08 08:34:00</t>
+          <t>2025-05-13 14:23:25</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-05-08 08:34:00</t>
+          <t>2025-05-13 14:23:25</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2025-05-08 11:58:04</t>
+          <t>2025-05-14 12:04:08</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>10000</v>
+        <v>18739</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -6826,7 +6810,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L87" t="n">
@@ -6835,242 +6819,21 @@
       <c r="M87" t="n">
         <v>70</v>
       </c>
-      <c r="N87" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O87" t="n">
+        <v>0</v>
       </c>
       <c r="P87" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-06-19 00:00:00</t>
         </is>
       </c>
       <c r="R87" s="1" t="n">
-        <v>-1.498667800451389</v>
+        <v>0</v>
       </c>
       <c r="S87" s="1" t="n">
-        <v>-1.498667800451389</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>251580</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C88" t="n">
-        <v>45</v>
-      </c>
-      <c r="D88" t="n">
-        <v>145.9795918367347</v>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>2025-05-08 11:58:04</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:43:04</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:43:04</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2025-05-09 07:09:03</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
-        <v>7153</v>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>4</v>
-      </c>
-      <c r="M88" t="n">
-        <v>70</v>
-      </c>
-      <c r="O88" t="n">
-        <v>0</v>
-      </c>
-      <c r="P88" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q88" t="inlineStr">
-        <is>
-          <t>2025-05-15 00:00:00</t>
-        </is>
-      </c>
-      <c r="R88" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S88" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>251251</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C89" t="n">
-        <v>45</v>
-      </c>
-      <c r="D89" t="n">
-        <v>323.6734693877551</v>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>2025-05-09 07:09:03</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>2025-05-09 07:54:03</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>2025-05-09 07:54:03</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2025-05-09 13:17:44</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
-        <v>15860</v>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>6</v>
-      </c>
-      <c r="M89" t="n">
-        <v>70</v>
-      </c>
-      <c r="O89" t="n">
-        <v>0</v>
-      </c>
-      <c r="P89" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q89" t="inlineStr">
-        <is>
-          <t>2025-05-23 00:00:00</t>
-        </is>
-      </c>
-      <c r="R89" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S89" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>251374</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C90" t="n">
-        <v>40</v>
-      </c>
-      <c r="D90" t="n">
-        <v>558.0204081632653</v>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>2025-05-09 13:17:44</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>2025-05-09 13:57:44</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>2025-05-09 13:57:44</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2025-05-13 07:15:45</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
-        <v>27343</v>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>7</v>
-      </c>
-      <c r="M90" t="n">
-        <v>70</v>
-      </c>
-      <c r="O90" t="n">
-        <v>0</v>
-      </c>
-      <c r="P90" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q90" t="inlineStr">
-        <is>
-          <t>2025-05-15 00:00:00</t>
-        </is>
-      </c>
-      <c r="R90" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S90" s="1" t="n">
         <v>0</v>
       </c>
     </row>

--- a/PS-VRP/Dati_output/insert_inter_post.xlsx
+++ b/PS-VRP/Dati_output/insert_inter_post.xlsx
@@ -515,41 +515,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251547</v>
+        <v>251416</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D2" t="n">
-        <v>184.9154929577465</v>
+        <v>183.9672131147541</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 07:42:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 07:42:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-09 10:45:58</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>13129</v>
+        <v>11222</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -562,71 +562,69 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
         <v>70</v>
       </c>
       <c r="N2" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>0</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>250759</v>
+        <v>251519</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>118.2816901408451</v>
+        <v>215.983606557377</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-09 10:45:58</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-09 11:10:58</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-09 11:10:58</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-09 14:46:57</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>8398</v>
+        <v>13175</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -635,75 +633,70 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M3" t="n">
-        <v>76</v>
-      </c>
-      <c r="N3" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>0</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>250894</v>
+        <v>251846</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>623.4084507042254</v>
+        <v>186.7540983606557</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-09 14:46:57</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-12 07:11:57</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-12 07:11:57</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-12 10:18:42</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>44262</v>
+        <v>11392</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -712,17 +705,14 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M4" t="n">
-        <v>76</v>
-      </c>
-      <c r="N4" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -732,7 +722,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
@@ -744,41 +734,41 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251519</v>
+        <v>251464</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D5" t="n">
-        <v>185.5633802816901</v>
+        <v>117.2622950819672</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-12 10:18:42</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-12 08:23:36</t>
+          <t>2025-05-12 10:47:42</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-12 08:23:36</t>
+          <t>2025-05-12 10:47:42</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-12 11:29:10</t>
+          <t>2025-05-12 12:44:58</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>13175</v>
+        <v>7153</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -791,7 +781,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
@@ -804,7 +794,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
@@ -816,41 +806,41 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251416</v>
+        <v>251467</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D6" t="n">
-        <v>158.056338028169</v>
+        <v>102.0655737704918</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-12 11:29:10</t>
+          <t>2025-05-12 12:44:58</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-12 11:44:10</t>
+          <t>2025-05-12 13:13:58</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-12 11:44:10</t>
+          <t>2025-05-12 13:13:58</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-12 14:22:13</t>
+          <t>2025-05-12 14:56:01</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>11222</v>
+        <v>6226</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -868,9 +858,6 @@
       <c r="M6" t="n">
         <v>70</v>
       </c>
-      <c r="N6" t="n">
-        <v>39755</v>
-      </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
@@ -879,7 +866,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
@@ -891,41 +878,41 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251373</v>
+        <v>251259</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D7" t="n">
-        <v>240.7605633802817</v>
+        <v>81.9672131147541</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-12 14:22:13</t>
+          <t>2025-05-12 14:56:01</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-12 14:43:13</t>
+          <t>2025-05-13 07:35:01</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-12 14:43:13</t>
+          <t>2025-05-13 07:35:01</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-13 10:43:59</t>
+          <t>2025-05-13 08:57:00</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>17094</v>
+        <v>5000</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -938,7 +925,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
@@ -951,7 +938,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
@@ -963,41 +950,41 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251626</v>
+        <v>251374</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D8" t="n">
-        <v>176.056338028169</v>
+        <v>448.2459016393443</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-13 10:43:59</t>
+          <t>2025-05-13 08:57:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-13 11:02:59</t>
+          <t>2025-05-13 09:26:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-13 11:02:59</t>
+          <t>2025-05-13 09:26:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-13 13:59:02</t>
+          <t>2025-05-14 08:54:14</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>12500</v>
+        <v>27343</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1006,11 +993,11 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
@@ -1023,7 +1010,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
@@ -1035,41 +1022,41 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251846</v>
+        <v>251229</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D9" t="n">
-        <v>160.4507042253521</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-13 13:59:02</t>
+          <t>2025-05-14 08:54:14</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-13 14:16:02</t>
+          <t>2025-05-14 09:21:14</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-13 14:16:02</t>
+          <t>2025-05-14 09:21:14</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-14 08:56:29</t>
+          <t>2025-05-14 14:28:26</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>11392</v>
+        <v>18739</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1078,24 +1065,31 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
-      <c r="O9" t="n">
-        <v>0</v>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>39723</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
@@ -1107,41 +1101,41 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251229</v>
+        <v>251260</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>263.9295774647887</v>
+        <v>153.5901639344262</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-14 08:56:29</t>
+          <t>2025-05-14 14:28:26</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-14 09:19:29</t>
+          <t>2025-05-14 14:53:26</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-14 09:19:29</t>
+          <t>2025-05-14 14:53:26</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-14 13:43:25</t>
+          <t>2025-05-15 09:27:01</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>18739</v>
+        <v>9369</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1159,22 +1153,15 @@
       <c r="M10" t="n">
         <v>70</v>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O10" t="n">
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>39723</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
@@ -1186,41 +1173,41 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251061</v>
+        <v>251249</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>337.9859154929578</v>
+        <v>78</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-14 13:43:25</t>
+          <t>2025-05-15 09:27:01</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-14 13:58:25</t>
+          <t>2025-05-15 09:52:01</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-14 13:58:25</t>
+          <t>2025-05-15 09:52:01</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-15 11:36:24</t>
+          <t>2025-05-15 11:10:01</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>23997</v>
+        <v>4758</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1246,7 +1233,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
@@ -1258,41 +1245,41 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>235572</v>
+        <v>245090</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D12" t="n">
-        <v>140.2535211267606</v>
+        <v>8470.786885245901</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-15 11:36:24</t>
+          <t>2025-05-15 11:10:01</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-15 11:53:24</t>
+          <t>2025-05-15 11:52:01</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-15 11:53:24</t>
+          <t>2025-05-15 11:52:01</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-15 14:13:39</t>
+          <t>2025-06-10 09:02:49</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>9958</v>
+        <v>516718</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1301,14 +1288,14 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
         <v>5</v>
       </c>
       <c r="M12" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1318,7 +1305,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2023-11-06 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
@@ -1330,41 +1317,41 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251475</v>
+        <v>251987</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D13" t="n">
-        <v>122.2676056338028</v>
+        <v>3451.245901639344</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-15 14:13:39</t>
+          <t>2025-06-10 09:02:49</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-15 14:30:39</t>
+          <t>2025-06-10 09:29:49</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-15 14:30:39</t>
+          <t>2025-06-10 09:29:49</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-16 08:32:55</t>
+          <t>2025-06-19 11:01:03</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>8681</v>
+        <v>210526</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1373,14 +1360,14 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M13" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1390,7 +1377,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-09-01 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
@@ -1402,41 +1389,41 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251809</v>
+        <v>251742</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>122.2676056338028</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-16 08:32:55</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-16 08:47:55</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-16 08:47:55</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-16 10:50:11</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>8681</v>
+        <v>8226</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1454,61 +1441,66 @@
       <c r="M14" t="n">
         <v>70</v>
       </c>
-      <c r="O14" t="n">
-        <v>0</v>
+      <c r="N14" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>0</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>0</v>
+        <v>-1.406147540983796</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251466</v>
+        <v>251840</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D15" t="n">
-        <v>78.40845070422536</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-16 10:50:11</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-16 11:07:11</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-16 11:07:11</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-16 12:25:36</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>5567</v>
+        <v>5714</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1521,16 +1513,21 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
-      <c r="O15" t="n">
-        <v>0</v>
+      <c r="N15" t="n">
+        <v>39758</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>39758</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1538,49 +1535,49 @@
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>0</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>0</v>
+        <v>-0.4885587431712963</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251465</v>
+        <v>251505</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D16" t="n">
-        <v>87.69014084507042</v>
+        <v>233.6885245901639</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-16 12:25:36</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-16 12:42:36</t>
+          <t>2025-05-08 12:03:31</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-16 12:42:36</t>
+          <t>2025-05-08 12:03:31</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-16 14:10:17</t>
+          <t>2025-05-09 07:57:12</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>6226</v>
+        <v>14255</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1593,7 +1590,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
@@ -1606,7 +1603,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
@@ -1618,41 +1615,41 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251557</v>
+        <v>251626</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D17" t="n">
-        <v>94.43661971830986</v>
+        <v>204.9180327868852</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-16 14:10:17</t>
+          <t>2025-05-09 07:57:12</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-16 14:25:17</t>
+          <t>2025-05-09 08:27:12</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-16 14:25:17</t>
+          <t>2025-05-09 08:27:12</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-19 07:59:43</t>
+          <t>2025-05-09 11:52:07</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>6705</v>
+        <v>12500</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1665,7 +1662,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
@@ -1678,7 +1675,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
@@ -1690,7 +1687,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251742</v>
+        <v>244204</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1698,33 +1695,33 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D18" t="n">
-        <v>134.8524590163935</v>
+        <v>56.91803278688525</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 11:52:07</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-09 12:17:07</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-09 12:17:07</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-09 13:14:02</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>8226</v>
+        <v>3472</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1742,32 +1739,27 @@
       <c r="M18" t="n">
         <v>70</v>
       </c>
-      <c r="N18" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O18" t="n">
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>0</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251840</v>
+        <v>251594</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1775,33 +1767,33 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D19" t="n">
-        <v>93.67213114754098</v>
+        <v>106</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-09 13:14:02</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-09 13:34:02</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-09 13:34:02</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-12 07:20:02</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>5714</v>
+        <v>6466</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1814,37 +1806,32 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
       </c>
-      <c r="N19" t="n">
-        <v>39758</v>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O19" t="n">
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>39758</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>0</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251456</v>
+        <v>251580</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1852,33 +1839,33 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D20" t="n">
-        <v>147.5245901639344</v>
+        <v>117.2622950819672</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-12 07:20:02</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-08 12:13:31</t>
+          <t>2025-05-12 07:40:02</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-08 12:13:31</t>
+          <t>2025-05-12 07:40:02</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-08 14:41:02</t>
+          <t>2025-05-12 09:37:18</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>8999</v>
+        <v>7153</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1891,37 +1878,32 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
       </c>
-      <c r="N20" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O20" t="n">
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>0</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-2.611839708564815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251505</v>
+        <v>251566</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1929,33 +1911,33 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D21" t="n">
-        <v>233.6885245901639</v>
+        <v>112.9344262295082</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-08 14:41:02</t>
+          <t>2025-05-12 09:37:18</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-09 07:11:02</t>
+          <t>2025-05-12 09:57:18</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-09 07:11:02</t>
+          <t>2025-05-12 09:57:18</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-09 11:04:44</t>
+          <t>2025-05-12 11:50:14</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>14255</v>
+        <v>6889</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1968,7 +1950,7 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
         <v>70</v>
@@ -1981,7 +1963,7 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
@@ -1993,7 +1975,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251594</v>
+        <v>251424</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2001,33 +1983,33 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D22" t="n">
-        <v>106</v>
+        <v>158.3934426229508</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-09 11:04:44</t>
+          <t>2025-05-12 11:50:14</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-09 11:29:44</t>
+          <t>2025-05-12 12:10:14</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-09 11:29:44</t>
+          <t>2025-05-12 12:10:14</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-09 13:15:44</t>
+          <t>2025-05-12 14:48:38</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>6466</v>
+        <v>9662</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2053,7 +2035,7 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
@@ -2065,7 +2047,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251580</v>
+        <v>244355</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2076,30 +2058,30 @@
         <v>20</v>
       </c>
       <c r="D23" t="n">
-        <v>117.2622950819672</v>
+        <v>70.65573770491804</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-09 13:15:44</t>
+          <t>2025-05-12 14:48:38</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-09 13:35:44</t>
+          <t>2025-05-13 07:08:38</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-09 13:35:44</t>
+          <t>2025-05-13 07:08:38</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-12 07:33:00</t>
+          <t>2025-05-13 08:19:17</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>7153</v>
+        <v>4310</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2125,7 +2107,7 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
@@ -2137,7 +2119,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251743</v>
+        <v>251485</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2145,33 +2127,33 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D24" t="n">
-        <v>176.655737704918</v>
+        <v>78.81967213114754</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-12 07:33:00</t>
+          <t>2025-05-13 08:19:17</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-12 07:53:00</t>
+          <t>2025-05-13 08:44:17</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-12 07:53:00</t>
+          <t>2025-05-13 08:44:17</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-12 10:49:39</t>
+          <t>2025-05-13 10:03:06</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>10776</v>
+        <v>4808</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2184,7 +2166,7 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
@@ -2197,7 +2179,7 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
@@ -2209,7 +2191,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>244204</v>
+        <v>251761</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2217,33 +2199,33 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D25" t="n">
-        <v>56.91803278688525</v>
+        <v>217.6885245901639</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-12 10:49:39</t>
+          <t>2025-05-13 10:03:06</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-12 11:09:39</t>
+          <t>2025-05-13 10:28:06</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-12 11:09:39</t>
+          <t>2025-05-13 10:28:06</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-12 12:06:34</t>
+          <t>2025-05-13 14:05:48</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>3472</v>
+        <v>13279</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2269,7 +2251,7 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-19 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
@@ -2281,41 +2263,41 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251566</v>
+        <v>251252</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D26" t="n">
-        <v>112.9344262295082</v>
+        <v>218.5942028985507</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-12 12:06:34</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-12 12:26:34</t>
+          <t>2025-05-12 07:45:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-12 12:26:34</t>
+          <t>2025-05-12 07:45:00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-12 14:19:30</t>
+          <t>2025-05-12 11:23:35</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>6889</v>
+        <v>15083</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2324,11 +2306,11 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M26" t="n">
         <v>70</v>
@@ -2341,7 +2323,7 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
@@ -2353,41 +2335,41 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251424</v>
+        <v>251225</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D27" t="n">
-        <v>158.3934426229508</v>
+        <v>0</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-12 14:19:30</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-12 14:39:30</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-12 14:39:30</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-13 09:17:54</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>9662</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2396,70 +2378,75 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
         <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>70</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N27" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>0</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>0</v>
+        <v>-0.5131944444444444</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>244355</v>
+        <v>251227</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D28" t="n">
-        <v>70.65573770491804</v>
+        <v>0</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-13 09:17:54</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-13 09:37:54</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-13 09:37:54</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-13 10:48:33</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>4310</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2468,70 +2455,75 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
         <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>70</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N28" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>0</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="S28" s="1" t="n">
-        <v>0</v>
+        <v>-2.523611111111111</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251761</v>
+        <v>251782</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D29" t="n">
-        <v>217.6885245901639</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-13 10:48:33</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-13 11:08:33</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-13 11:08:33</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-13 14:46:14</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>13279</v>
+        <v>12073</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2540,36 +2532,41 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M29" t="n">
-        <v>70</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N29" t="n">
+        <v>39754</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>39754</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-05-19 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>0</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="S29" s="1" t="n">
-        <v>0</v>
+        <v>-0.3201682316087963</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251225</v>
+        <v>250670</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2577,33 +2574,33 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>22.01408450704225</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 07:58:02</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 07:58:02</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 08:20:03</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1563</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2612,7 +2609,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
@@ -2621,32 +2618,27 @@
       <c r="M30" t="n">
         <v>76</v>
       </c>
-      <c r="N30" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O30" t="n">
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>0</v>
       </c>
       <c r="S30" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251227</v>
+        <v>251651</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2654,33 +2646,33 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>659.5774647887324</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 08:20:03</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 08:37:03</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 08:37:03</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-12 11:36:38</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>46830</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2689,41 +2681,39 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M31" t="n">
         <v>76</v>
       </c>
       <c r="N31" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>0</v>
       </c>
       <c r="S31" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251782</v>
+        <v>245089</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2734,30 +2724,30 @@
         <v>17</v>
       </c>
       <c r="D32" t="n">
-        <v>170.0422535211268</v>
+        <v>1727.676056338028</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-12 11:36:38</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-12 11:53:38</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-12 11:53:38</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-16 08:41:18</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>12073</v>
+        <v>122665</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2766,41 +2756,36 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M32" t="n">
         <v>76</v>
       </c>
-      <c r="N32" t="n">
-        <v>39754</v>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O32" t="n">
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>39754</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>0</v>
       </c>
       <c r="S32" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251651</v>
+        <v>251340</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2811,30 +2796,30 @@
         <v>19</v>
       </c>
       <c r="D33" t="n">
-        <v>659.5774647887324</v>
+        <v>461.9718309859155</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-16 08:41:18</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-09 08:00:02</t>
+          <t>2025-05-16 09:00:18</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-09 08:00:02</t>
+          <t>2025-05-16 09:00:18</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-12 10:59:37</t>
+          <t>2025-05-19 08:42:16</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>46830</v>
+        <v>32800</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2847,14 +2832,11 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M33" t="n">
         <v>76</v>
       </c>
-      <c r="N33" t="n">
-        <v>39755</v>
-      </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
@@ -2863,7 +2845,7 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
@@ -2875,7 +2857,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>245089</v>
+        <v>245623</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2883,33 +2865,33 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D34" t="n">
-        <v>1727.676056338028</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-12 10:59:37</t>
+          <t>2025-05-19 08:42:16</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-12 11:16:37</t>
+          <t>2025-05-19 09:12:16</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-12 11:16:37</t>
+          <t>2025-05-19 09:12:16</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-16 08:04:17</t>
+          <t>2025-05-20 07:24:22</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>122665</v>
+        <v>26419</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2922,10 +2904,10 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M34" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -2935,7 +2917,7 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
@@ -2947,7 +2929,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251987</v>
+        <v>243335</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2958,30 +2940,30 @@
         <v>19</v>
       </c>
       <c r="D35" t="n">
-        <v>2965.154929577465</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-16 08:04:17</t>
+          <t>2025-05-20 07:24:22</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-16 08:23:17</t>
+          <t>2025-05-20 07:43:22</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-16 08:23:17</t>
+          <t>2025-05-20 07:43:22</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-26 09:48:27</t>
+          <t>2025-05-21 07:28:13</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>210526</v>
+        <v>33004</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2990,14 +2972,14 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M35" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -3007,7 +2989,7 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2025-09-01 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
@@ -3019,7 +3001,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>250670</v>
+        <v>251750</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -3027,33 +3009,33 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D36" t="n">
-        <v>22.01408450704225</v>
+        <v>54.80281690140845</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-26 09:48:27</t>
+          <t>2025-05-21 07:28:13</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-26 10:07:27</t>
+          <t>2025-05-21 07:45:13</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-26 10:07:27</t>
+          <t>2025-05-21 07:45:13</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-26 10:29:27</t>
+          <t>2025-05-21 08:40:01</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1563</v>
+        <v>3891</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3062,14 +3044,14 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M36" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -3079,7 +3061,7 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
@@ -3091,41 +3073,41 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>251340</v>
+        <v>251050</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>19</v>
+        <v>217</v>
       </c>
       <c r="D37" t="n">
-        <v>461.9718309859155</v>
+        <v>0</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-26 10:29:27</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-26 10:48:27</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-26 10:48:27</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-27 10:30:26</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>32800</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3134,70 +3116,75 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="M37" t="n">
-        <v>76</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N37" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>0</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S37" s="1" t="n">
-        <v>0</v>
+        <v>-1.442361111111111</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>245623</v>
+        <v>251054</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D38" t="n">
-        <v>372.0985915492957</v>
+        <v>0</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-27 10:30:26</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-27 11:00:26</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-27 11:00:26</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-28 09:12:32</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>26419</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3206,70 +3193,75 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="M38" t="n">
-        <v>152</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N38" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>0</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S38" s="1" t="n">
-        <v>0</v>
+        <v>-1.466666666666667</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>243335</v>
+        <v>251081</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="D39" t="n">
-        <v>464.8450704225352</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-28 09:12:32</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-28 09:31:32</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-28 09:31:32</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-29 09:16:22</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>33004</v>
+        <v>3012</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3278,70 +3270,77 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M39" t="n">
-        <v>152</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>39750</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>0</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S39" s="1" t="n">
-        <v>0</v>
+        <v>-16.58293231612268</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251750</v>
+        <v>251109</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="D40" t="n">
-        <v>54.80281690140845</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-29 09:16:22</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-29 09:33:22</t>
+          <t>2025-05-09 14:54:25</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-29 09:33:22</t>
+          <t>2025-05-09 14:54:25</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-29 10:28:10</t>
+          <t>2025-05-12 11:21:00</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>3891</v>
+        <v>18928</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3350,14 +3349,14 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="M40" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -3367,7 +3366,7 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
@@ -3379,41 +3378,41 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>251164</v>
+        <v>251520</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="D41" t="n">
-        <v>204.0816326530612</v>
+        <v>230.1408450704225</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-12 11:21:00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-12 12:41:00</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-12 12:41:00</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-13 08:31:09</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>10000</v>
+        <v>16340</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3422,52 +3421,47 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M41" t="n">
         <v>70</v>
       </c>
-      <c r="N41" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O41" t="n">
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>0</v>
       </c>
       <c r="S41" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251485</v>
+        <v>251284</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>44</v>
+        <v>40.5</v>
       </c>
       <c r="D42" t="n">
-        <v>78.81967213114754</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -3476,21 +3470,21 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-09 07:44:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-09 07:44:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-09 09:02:49</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>4808</v>
+        <v>16340</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3499,70 +3493,75 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M42" t="n">
         <v>70</v>
       </c>
-      <c r="O42" t="n">
-        <v>0</v>
+      <c r="N42" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S42" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251374</v>
+        <v>251373</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>29</v>
+        <v>34.5</v>
       </c>
       <c r="D43" t="n">
-        <v>448.2459016393443</v>
+        <v>310.8</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-09 09:02:49</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-09 09:31:49</t>
+          <t>2025-05-09 13:12:05</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-09 09:31:49</t>
+          <t>2025-05-09 13:12:05</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-12 09:00:03</t>
+          <t>2025-05-12 10:22:53</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>27343</v>
+        <v>17094</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3571,11 +3570,11 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M43" t="n">
         <v>70</v>
@@ -3588,7 +3587,7 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
@@ -3600,41 +3599,41 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>244023</v>
+        <v>251397</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>27</v>
+        <v>34.5</v>
       </c>
       <c r="D44" t="n">
-        <v>16.34426229508197</v>
+        <v>98.81818181818181</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-12 09:00:03</t>
+          <t>2025-05-12 10:22:53</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-12 09:27:03</t>
+          <t>2025-05-12 10:57:23</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-12 09:27:03</t>
+          <t>2025-05-12 10:57:23</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-05-12 09:43:24</t>
+          <t>2025-05-12 12:36:12</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>997</v>
+        <v>5435</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3647,7 +3646,7 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M44" t="n">
         <v>70</v>
@@ -3660,7 +3659,7 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
@@ -3672,41 +3671,41 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>251283</v>
+        <v>244354</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>25</v>
+        <v>32.5</v>
       </c>
       <c r="D45" t="n">
-        <v>12.36065573770492</v>
+        <v>78.36363636363636</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-12 09:43:24</t>
+          <t>2025-05-12 12:36:12</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-12 10:08:24</t>
+          <t>2025-05-12 13:08:42</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-12 10:08:24</t>
+          <t>2025-05-12 13:08:42</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-12 10:20:46</t>
+          <t>2025-05-12 14:27:04</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>754</v>
+        <v>4310</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3715,11 +3714,11 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M45" t="n">
         <v>70</v>
@@ -3732,7 +3731,7 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2025-03-18 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
@@ -3744,41 +3743,41 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>251464</v>
+        <v>250819</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>29</v>
+        <v>34.5</v>
       </c>
       <c r="D46" t="n">
-        <v>117.2622950819672</v>
+        <v>155.0363636363636</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-12 10:20:46</t>
+          <t>2025-05-12 14:27:04</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-12 10:49:46</t>
+          <t>2025-05-13 07:01:34</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-12 10:49:46</t>
+          <t>2025-05-13 07:01:34</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-12 12:47:01</t>
+          <t>2025-05-13 09:36:36</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>7153</v>
+        <v>8527</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3791,7 +3790,7 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M46" t="n">
         <v>70</v>
@@ -3804,7 +3803,7 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
@@ -3816,41 +3815,41 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>251467</v>
+        <v>251247</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>29</v>
+        <v>30.5</v>
       </c>
       <c r="D47" t="n">
-        <v>102.0655737704918</v>
+        <v>489.7090909090909</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-05-12 12:47:01</t>
+          <t>2025-05-13 09:36:36</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-12 13:16:01</t>
+          <t>2025-05-13 10:07:06</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-05-12 13:16:01</t>
+          <t>2025-05-13 10:07:06</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-05-12 14:58:05</t>
+          <t>2025-05-14 10:16:49</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>6226</v>
+        <v>26934</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3859,11 +3858,11 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M47" t="n">
         <v>70</v>
@@ -3888,41 +3887,41 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>251260</v>
+        <v>251795</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>33</v>
+        <v>30.5</v>
       </c>
       <c r="D48" t="n">
-        <v>153.5901639344262</v>
+        <v>340.7090909090909</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-12 14:58:05</t>
+          <t>2025-05-14 10:16:49</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-13 07:31:05</t>
+          <t>2025-05-14 10:47:19</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-13 07:31:05</t>
+          <t>2025-05-14 10:47:19</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-05-13 10:04:41</t>
+          <t>2025-05-15 08:28:01</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>9369</v>
+        <v>18739</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3948,7 +3947,7 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-06-19 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
@@ -3960,41 +3959,41 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>251249</v>
+        <v>245275</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>25</v>
+        <v>46.5</v>
       </c>
       <c r="D49" t="n">
-        <v>78</v>
+        <v>441.7090909090909</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-13 10:04:41</t>
+          <t>2025-05-15 08:28:01</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-13 10:29:41</t>
+          <t>2025-05-15 09:14:31</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-13 10:29:41</t>
+          <t>2025-05-15 09:14:31</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-13 11:47:41</t>
+          <t>2025-05-16 08:36:14</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>4758</v>
+        <v>24294</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4003,11 +4002,11 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="M49" t="n">
         <v>70</v>
@@ -4020,7 +4019,7 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
@@ -4032,41 +4031,41 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>245090</v>
+        <v>251547</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D50" t="n">
-        <v>8470.786885245901</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-13 11:47:41</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-13 12:29:41</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-13 12:29:41</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-06-06 09:40:28</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>516718</v>
+        <v>13129</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4075,70 +4074,75 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M50" t="n">
-        <v>76</v>
-      </c>
-      <c r="O50" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N50" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>0</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S50" s="1" t="n">
-        <v>0</v>
+        <v>-1.443691314548611</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251455</v>
+        <v>250759</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D51" t="n">
-        <v>82.765625</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>5297</v>
+        <v>8398</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4147,17 +4151,17 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L51" t="n">
         <v>4</v>
       </c>
       <c r="M51" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N51" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -4165,57 +4169,57 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S51" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>-0.5466647104861111</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>251391</v>
+        <v>251061</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D52" t="n">
-        <v>91.640625</v>
+        <v>337.9859154929578</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-08 13:41:11</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-08 13:41:11</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-09 11:19:10</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>5865</v>
+        <v>23997</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4224,75 +4228,70 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M52" t="n">
         <v>70</v>
       </c>
-      <c r="N52" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O52" t="n">
+        <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>0</v>
       </c>
       <c r="S52" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>251395</v>
+        <v>250894</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D53" t="n">
-        <v>35.34375</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-09 11:19:10</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-09 11:51:10</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-09 11:51:10</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-12 14:14:35</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>2262</v>
+        <v>44262</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4301,75 +4300,73 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M53" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N53" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>0</v>
       </c>
       <c r="S53" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>251371</v>
+        <v>250641</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>72.05633802816901</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-12 14:14:35</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-12 14:46:35</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-12 14:46:35</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-13 07:58:38</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>5116</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4382,73 +4379,66 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M54" t="n">
         <v>70</v>
       </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O54" t="n">
+        <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>39666</v>
+        <v>0</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>0</v>
       </c>
       <c r="S54" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>251396</v>
+        <v>251561</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D55" t="n">
-        <v>35.34375</v>
+        <v>76.54929577464789</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-13 07:58:38</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-13 08:15:38</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-13 08:15:38</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-13 09:32:11</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>2262</v>
+        <v>5435</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4461,71 +4451,66 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M55" t="n">
         <v>70</v>
       </c>
-      <c r="N55" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O55" t="n">
+        <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>0</v>
       </c>
       <c r="S55" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>251548</v>
+        <v>244023</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D56" t="n">
-        <v>206.90625</v>
+        <v>14.04225352112676</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-13 09:32:11</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-13 09:49:11</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-13 09:49:11</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-13 10:03:14</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>13242</v>
+        <v>997</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4538,71 +4523,66 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M56" t="n">
         <v>70</v>
       </c>
-      <c r="N56" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O56" t="n">
+        <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>-1.348611111111111</v>
+        <v>0</v>
       </c>
       <c r="S56" s="1" t="n">
-        <v>-1.348611111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>250923</v>
+        <v>235572</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D57" t="n">
-        <v>109.46875</v>
+        <v>140.2535211267606</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-13 10:03:14</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-13 10:20:14</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-13 10:20:14</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-13 12:40:29</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>7006</v>
+        <v>9958</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4611,75 +4591,70 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
         <v>5</v>
       </c>
       <c r="M57" t="n">
-        <v>76</v>
-      </c>
-      <c r="N57" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2023-11-06 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>0</v>
       </c>
       <c r="S57" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251477</v>
+        <v>251564</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C58" t="n">
         <v>19</v>
       </c>
       <c r="D58" t="n">
-        <v>468.734375</v>
+        <v>38.26760563380282</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-13 12:40:29</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-13 12:59:29</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-13 12:59:29</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-05-13 13:37:45</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>29999</v>
+        <v>2717</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4688,75 +4663,70 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L58" t="n">
         <v>3</v>
       </c>
       <c r="M58" t="n">
-        <v>76</v>
-      </c>
-      <c r="N58" t="n">
-        <v>39760</v>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>39760</v>
+        <v>0</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>0</v>
       </c>
       <c r="S58" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>243569</v>
+        <v>251475</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D59" t="n">
-        <v>40.640625</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-05-13 13:37:45</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-09 11:06:12</t>
+          <t>2025-05-13 13:54:45</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-09 11:06:12</t>
+          <t>2025-05-13 13:54:45</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-09 11:46:50</t>
+          <t>2025-05-14 07:57:01</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>2601</v>
+        <v>8681</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4765,14 +4735,14 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M59" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -4782,7 +4752,7 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
@@ -4794,41 +4764,41 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>251397</v>
+        <v>251809</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D60" t="n">
-        <v>84.921875</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-09 11:46:50</t>
+          <t>2025-05-14 07:57:01</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-09 12:16:50</t>
+          <t>2025-05-14 08:12:01</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-09 12:16:50</t>
+          <t>2025-05-14 08:12:01</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-09 13:41:45</t>
+          <t>2025-05-14 10:14:17</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>5435</v>
+        <v>8681</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4841,7 +4811,7 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M60" t="n">
         <v>70</v>
@@ -4854,7 +4824,7 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
@@ -4866,41 +4836,41 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>251564</v>
+        <v>251466</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D61" t="n">
-        <v>42.453125</v>
+        <v>78.40845070422536</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-09 13:41:45</t>
+          <t>2025-05-14 10:14:17</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-09 13:56:45</t>
+          <t>2025-05-14 10:31:17</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-09 13:56:45</t>
+          <t>2025-05-14 10:31:17</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-09 14:39:13</t>
+          <t>2025-05-14 11:49:42</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>2717</v>
+        <v>5567</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4926,7 +4896,7 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
@@ -4938,41 +4908,41 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>245275</v>
+        <v>251465</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D62" t="n">
-        <v>379.59375</v>
+        <v>87.69014084507042</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-09 14:39:13</t>
+          <t>2025-05-14 11:49:42</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-12 07:16:13</t>
+          <t>2025-05-14 12:06:42</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-12 07:16:13</t>
+          <t>2025-05-14 12:06:42</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-12 13:35:48</t>
+          <t>2025-05-14 13:34:23</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>24294</v>
+        <v>6226</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4981,11 +4951,11 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="M62" t="n">
         <v>70</v>
@@ -4998,7 +4968,7 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
@@ -5010,41 +4980,41 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>251561</v>
+        <v>251557</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D63" t="n">
-        <v>84.921875</v>
+        <v>94.43661971830986</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-12 13:35:48</t>
+          <t>2025-05-14 13:34:23</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-12 14:08:48</t>
+          <t>2025-05-14 13:49:23</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-12 14:08:48</t>
+          <t>2025-05-14 13:49:23</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-13 07:33:44</t>
+          <t>2025-05-15 07:23:49</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>5435</v>
+        <v>6705</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5057,7 +5027,7 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M63" t="n">
         <v>70</v>
@@ -5070,7 +5040,7 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
@@ -5082,41 +5052,41 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>251346</v>
+        <v>251062</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D64" t="n">
-        <v>60.296875</v>
+        <v>318.6478873239437</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-13 07:33:44</t>
+          <t>2025-05-15 07:23:49</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-13 07:54:44</t>
+          <t>2025-05-15 07:46:49</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-13 07:54:44</t>
+          <t>2025-05-15 07:46:49</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-13 08:55:01</t>
+          <t>2025-05-15 13:05:28</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>3859</v>
+        <v>22624</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5125,11 +5095,11 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M64" t="n">
         <v>70</v>
@@ -5142,7 +5112,7 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
@@ -5154,7 +5124,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>251062</v>
+        <v>251455</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -5165,30 +5135,30 @@
         <v>19</v>
       </c>
       <c r="D65" t="n">
-        <v>353.5</v>
+        <v>82.765625</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-13 08:55:01</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-13 09:14:01</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-13 09:14:01</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-14 07:07:31</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>22624</v>
+        <v>5297</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5197,36 +5167,41 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M65" t="n">
         <v>70</v>
       </c>
-      <c r="O65" t="n">
-        <v>0</v>
+      <c r="N65" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P65" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>0</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="S65" s="1" t="n">
-        <v>0</v>
+        <v>-0.3623372395833334</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251546</v>
+        <v>251391</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -5237,30 +5212,30 @@
         <v>17</v>
       </c>
       <c r="D66" t="n">
-        <v>101.03125</v>
+        <v>91.640625</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-14 07:07:31</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-14 07:24:31</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-14 07:24:31</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-14 09:05:33</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>6466</v>
+        <v>5865</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5278,27 +5253,32 @@
       <c r="M66" t="n">
         <v>70</v>
       </c>
-      <c r="O66" t="n">
-        <v>0</v>
+      <c r="N66" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P66" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>0</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="S66" s="1" t="n">
-        <v>0</v>
+        <v>-0.4377821180555556</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>251245</v>
+        <v>251395</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -5309,30 +5289,30 @@
         <v>17</v>
       </c>
       <c r="D67" t="n">
-        <v>11.78125</v>
+        <v>35.34375</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-14 09:05:33</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-14 09:22:33</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-14 09:22:33</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-14 09:34:20</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>754</v>
+        <v>2262</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5341,7 +5321,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L67" t="n">
@@ -5350,27 +5330,32 @@
       <c r="M67" t="n">
         <v>70</v>
       </c>
-      <c r="O67" t="n">
-        <v>0</v>
+      <c r="N67" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P67" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>0</v>
+        <v>-0.4741319444444445</v>
       </c>
       <c r="S67" s="1" t="n">
-        <v>0</v>
+        <v>-0.4741319444444445</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>251463</v>
+        <v>251371</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -5381,30 +5366,30 @@
         <v>19</v>
       </c>
       <c r="D68" t="n">
-        <v>108.859375</v>
+        <v>0</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-14 09:34:20</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-14 09:53:20</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-14 09:53:20</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-14 11:42:12</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>6967</v>
+        <v>0</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5422,27 +5407,34 @@
       <c r="M68" t="n">
         <v>70</v>
       </c>
-      <c r="O68" t="n">
-        <v>0</v>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P68" t="n">
-        <v>0</v>
+        <v>39666</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>0</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="S68" s="1" t="n">
-        <v>0</v>
+        <v>-13.48732638888889</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>251462</v>
+        <v>251396</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -5453,30 +5445,30 @@
         <v>19</v>
       </c>
       <c r="D69" t="n">
-        <v>97.28125</v>
+        <v>35.34375</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-14 11:42:12</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-14 12:01:12</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-14 12:01:12</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-14 13:38:29</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>6226</v>
+        <v>2262</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5489,32 +5481,37 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M69" t="n">
         <v>70</v>
       </c>
-      <c r="O69" t="n">
-        <v>0</v>
+      <c r="N69" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P69" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>0</v>
+        <v>-0.5250651041666666</v>
       </c>
       <c r="S69" s="1" t="n">
-        <v>0</v>
+        <v>-0.5250651041666666</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>251562</v>
+        <v>251548</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -5522,33 +5519,33 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D70" t="n">
-        <v>127.21875</v>
+        <v>206.90625</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-14 13:38:29</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-14 13:53:29</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-14 13:53:29</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-15 08:00:42</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>8142</v>
+        <v>13242</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5561,32 +5558,37 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M70" t="n">
         <v>70</v>
       </c>
-      <c r="O70" t="n">
-        <v>0</v>
+      <c r="N70" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P70" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>0</v>
+        <v>-1.348611111111111</v>
       </c>
       <c r="S70" s="1" t="n">
-        <v>0</v>
+        <v>-1.348611111111111</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>251251</v>
+        <v>250923</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -5594,33 +5596,33 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D71" t="n">
-        <v>247.8125</v>
+        <v>109.46875</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-15 08:00:42</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-15 08:23:42</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-15 08:23:42</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-15 12:31:30</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>15860</v>
+        <v>7006</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5629,70 +5631,75 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M71" t="n">
-        <v>70</v>
-      </c>
-      <c r="O71" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N71" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P71" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>0</v>
+        <v>-1.446853298611111</v>
       </c>
       <c r="S71" s="1" t="n">
-        <v>0</v>
+        <v>-1.446853298611111</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>244354</v>
+        <v>251477</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D72" t="n">
-        <v>62.46376811594203</v>
+        <v>468.734375</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-12 07:35:00</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-12 07:35:00</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-12 08:37:27</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>4310</v>
+        <v>29999</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5701,70 +5708,75 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M72" t="n">
-        <v>70</v>
-      </c>
-      <c r="O72" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N72" t="n">
+        <v>39760</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P72" t="n">
-        <v>0</v>
+        <v>39760</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>0</v>
+        <v>-2.452224392361111</v>
       </c>
       <c r="S72" s="1" t="n">
-        <v>0</v>
+        <v>-2.452224392361111</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>251259</v>
+        <v>243569</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="D73" t="n">
-        <v>72.46376811594203</v>
+        <v>40.640625</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-12 08:37:27</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-12 09:27:27</t>
+          <t>2025-05-09 11:06:12</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-12 09:27:27</t>
+          <t>2025-05-09 11:06:12</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-12 10:39:55</t>
+          <t>2025-05-09 11:46:50</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>5000</v>
+        <v>2601</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5773,14 +5785,14 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M73" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O73" t="n">
         <v>0</v>
@@ -5790,7 +5802,7 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2024-09-16 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
@@ -5806,33 +5818,33 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D74" t="n">
-        <v>405.3623188405797</v>
+        <v>437.03125</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-12 10:39:55</t>
+          <t>2025-05-09 11:46:50</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-12 11:09:55</t>
+          <t>2025-05-09 12:30:50</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-12 11:09:55</t>
+          <t>2025-05-09 12:30:50</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-13 09:55:17</t>
+          <t>2025-05-12 11:47:52</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -5874,41 +5886,41 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>250641</v>
+        <v>251346</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="D75" t="n">
-        <v>74.14492753623189</v>
+        <v>60.296875</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-13 09:55:17</t>
+          <t>2025-05-12 11:47:52</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-13 10:40:17</t>
+          <t>2025-05-12 12:06:52</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-13 10:40:17</t>
+          <t>2025-05-12 12:06:52</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-13 11:54:26</t>
+          <t>2025-05-12 13:07:10</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>5116</v>
+        <v>3859</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -5921,7 +5933,7 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M75" t="n">
         <v>70</v>
@@ -5950,33 +5962,33 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D76" t="n">
-        <v>173.9420289855072</v>
+        <v>187.53125</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-05-13 11:54:26</t>
+          <t>2025-05-12 13:07:10</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-05-13 12:19:26</t>
+          <t>2025-05-12 13:26:10</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-05-13 12:19:26</t>
+          <t>2025-05-12 13:26:10</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-05-14 07:13:22</t>
+          <t>2025-05-13 08:33:42</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -6018,41 +6030,41 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>251252</v>
+        <v>251283</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D77" t="n">
-        <v>218.5942028985507</v>
+        <v>11.78125</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-05-14 07:13:22</t>
+          <t>2025-05-13 08:33:42</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-05-14 07:38:22</t>
+          <t>2025-05-13 08:48:42</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-05-14 07:38:22</t>
+          <t>2025-05-13 08:48:42</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-05-14 11:16:58</t>
+          <t>2025-05-13 09:00:29</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>15083</v>
+        <v>754</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -6078,7 +6090,7 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-03-18 00:00:00</t>
         </is>
       </c>
       <c r="R77" s="1" t="n">
@@ -6090,74 +6102,67 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>251706</v>
+        <v>251546</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D78" t="n">
-        <v>50.79365079365079</v>
+        <v>101.03125</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-13 09:00:29</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-13 09:17:29</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-13 09:17:29</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-13 10:58:30</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>3200</v>
+        <v>6466</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M78" t="n">
-        <v>0</v>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>39764</v>
+        <v>0</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R78" s="1" t="n">
@@ -6169,41 +6174,41 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>251050</v>
+        <v>251743</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>217</v>
+        <v>17</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>168.375</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-13 10:58:30</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-13 11:15:30</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-13 11:15:30</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-13 14:03:53</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>10776</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -6212,75 +6217,70 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M79" t="n">
         <v>70</v>
       </c>
-      <c r="N79" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O79" t="n">
+        <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R79" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>0</v>
       </c>
       <c r="S79" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>251054</v>
+        <v>251245</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>11.78125</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-13 14:03:53</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-13 14:22:53</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-13 14:22:53</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-13 14:34:40</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>754</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -6289,75 +6289,70 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="M80" t="n">
         <v>70</v>
       </c>
-      <c r="N80" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O80" t="n">
+        <v>0</v>
       </c>
       <c r="P80" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R80" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>0</v>
       </c>
       <c r="S80" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>251081</v>
+        <v>251463</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="D81" t="n">
-        <v>42.42253521126761</v>
+        <v>108.859375</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-13 14:34:40</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-13 14:53:40</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-13 14:53:40</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-14 08:42:31</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>3012</v>
+        <v>6967</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -6366,77 +6361,70 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="M81" t="n">
         <v>70</v>
       </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O81" t="n">
+        <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>39750</v>
+        <v>0</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R81" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>0</v>
       </c>
       <c r="S81" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>251109</v>
+        <v>251462</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="D82" t="n">
-        <v>266.5915492957747</v>
+        <v>97.28125</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-14 08:42:31</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-05-09 14:54:25</t>
+          <t>2025-05-14 09:01:31</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-05-09 14:54:25</t>
+          <t>2025-05-14 09:01:31</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2025-05-12 11:21:00</t>
+          <t>2025-05-14 10:38:48</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>18928</v>
+        <v>6226</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -6445,11 +6433,11 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="M82" t="n">
         <v>70</v>
@@ -6462,7 +6450,7 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R82" s="1" t="n">
@@ -6474,41 +6462,41 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>251284</v>
+        <v>251562</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>40.5</v>
+        <v>15</v>
       </c>
       <c r="D83" t="n">
-        <v>297.0909090909091</v>
+        <v>127.21875</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-14 10:38:48</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-14 10:53:48</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-14 10:53:48</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-14 13:01:01</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>16340</v>
+        <v>8142</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -6517,75 +6505,70 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M83" t="n">
         <v>70</v>
       </c>
-      <c r="N83" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O83" t="n">
+        <v>0</v>
       </c>
       <c r="P83" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R83" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>0</v>
       </c>
       <c r="S83" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>251520</v>
+        <v>251251</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>30.5</v>
+        <v>23</v>
       </c>
       <c r="D84" t="n">
-        <v>297.0909090909091</v>
+        <v>247.8125</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-14 13:01:01</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-05-09 13:08:05</t>
+          <t>2025-05-14 13:24:01</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-05-09 13:08:05</t>
+          <t>2025-05-14 13:24:01</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2025-05-12 10:05:10</t>
+          <t>2025-05-15 09:31:50</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>16340</v>
+        <v>15860</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -6594,11 +6577,11 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M84" t="n">
         <v>70</v>
@@ -6611,7 +6594,7 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R84" s="1" t="n">
@@ -6623,67 +6606,74 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>250819</v>
+        <v>251706</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>155.0363636363636</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-05-12 10:05:10</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-05-12 10:37:40</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-05-12 10:37:40</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-05-12 13:12:43</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>8527</v>
+        <v>3200</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M85" t="n">
-        <v>70</v>
-      </c>
-      <c r="O85" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P85" t="n">
-        <v>0</v>
+        <v>39764</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R85" s="1" t="n">
@@ -6695,41 +6685,41 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>251247</v>
+        <v>251164</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>30.5</v>
+        <v>55</v>
       </c>
       <c r="D86" t="n">
-        <v>489.7090909090909</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-05-12 13:12:43</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-05-12 13:43:13</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-05-12 13:43:13</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2025-05-13 13:52:55</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>26934</v>
+        <v>10000</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -6738,7 +6728,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L86" t="n">
@@ -6747,61 +6737,66 @@
       <c r="M86" t="n">
         <v>70</v>
       </c>
-      <c r="O86" t="n">
-        <v>0</v>
+      <c r="N86" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P86" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R86" s="1" t="n">
-        <v>0</v>
+        <v>-1.471584467118056</v>
       </c>
       <c r="S86" s="1" t="n">
-        <v>0</v>
+        <v>-1.471584467118056</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>251795</v>
+        <v>251456</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>30.5</v>
+        <v>50</v>
       </c>
       <c r="D87" t="n">
-        <v>340.7090909090909</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-05-13 13:52:55</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-05-13 14:23:25</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-05-13 14:23:25</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2025-05-14 12:04:08</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>18739</v>
+        <v>8999</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -6810,31 +6805,36 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M87" t="n">
         <v>70</v>
       </c>
-      <c r="O87" t="n">
-        <v>0</v>
+      <c r="N87" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P87" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>2025-06-19 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R87" s="1" t="n">
-        <v>0</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="S87" s="1" t="n">
-        <v>0</v>
+        <v>-3.300510204085648</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/insert_inter_post.xlsx
+++ b/PS-VRP/Dati_output/insert_inter_post.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S87"/>
+  <dimension ref="A1:T87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,41 +515,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251416</v>
+        <v>251252</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D2" t="n">
-        <v>183.9672131147541</v>
+        <v>218.5942028985507</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-09 07:42:00</t>
+          <t>2025-05-12 07:45:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-09 07:42:00</t>
+          <t>2025-05-12 07:45:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-09 10:45:58</t>
+          <t>2025-05-12 11:23:35</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>11222</v>
+        <v>15083</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,18 +558,15 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
         <v>70</v>
       </c>
-      <c r="N2" t="n">
-        <v>39755</v>
-      </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
@@ -578,7 +575,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
@@ -586,45 +583,48 @@
       </c>
       <c r="S2" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251519</v>
+        <v>251742</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>215.983606557377</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-09 10:45:58</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-09 11:10:58</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-09 11:10:58</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-09 14:46:57</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>13175</v>
+        <v>8226</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -637,66 +637,74 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
       </c>
-      <c r="O3" t="n">
-        <v>0</v>
+      <c r="N3" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>0</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>0</v>
+        <v>-1.406147540983796</v>
+      </c>
+      <c r="T3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251846</v>
+        <v>251840</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>186.7540983606557</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-09 14:46:57</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-12 07:11:57</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-12 07:11:57</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-12 10:18:42</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>11392</v>
+        <v>5714</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -709,66 +717,74 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
       </c>
-      <c r="O4" t="n">
-        <v>0</v>
+      <c r="N4" t="n">
+        <v>39758</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>39758</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>0</v>
+        <v>-0.4885587431712963</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251464</v>
+        <v>251456</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>117.2622950819672</v>
+        <v>147.5245901639344</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-12 10:18:42</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-12 10:47:42</t>
+          <t>2025-05-08 12:13:31</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-12 10:47:42</t>
+          <t>2025-05-08 12:13:31</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-12 12:44:58</t>
+          <t>2025-05-08 14:41:02</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>7153</v>
+        <v>8999</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -781,16 +797,21 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
-      <c r="O5" t="n">
-        <v>0</v>
+      <c r="N5" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -798,49 +819,52 @@
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>0</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>0</v>
+        <v>-2.611839708564815</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251467</v>
+        <v>251580</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>102.0655737704918</v>
+        <v>117.2622950819672</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-12 12:44:58</t>
+          <t>2025-05-08 14:41:02</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-12 13:13:58</t>
+          <t>2025-05-09 07:06:02</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-12 13:13:58</t>
+          <t>2025-05-09 07:06:02</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-12 14:56:01</t>
+          <t>2025-05-09 09:03:18</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>6226</v>
+        <v>7153</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -853,7 +877,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
@@ -866,7 +890,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
@@ -874,45 +898,48 @@
       </c>
       <c r="S6" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251259</v>
+        <v>251561</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>81.9672131147541</v>
+        <v>89.09836065573771</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-12 14:56:01</t>
+          <t>2025-05-09 09:03:18</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-13 07:35:01</t>
+          <t>2025-05-09 09:28:18</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-13 07:35:01</t>
+          <t>2025-05-09 09:28:18</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-13 08:57:00</t>
+          <t>2025-05-09 10:57:24</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>5000</v>
+        <v>5435</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -925,7 +952,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
@@ -938,7 +965,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
@@ -946,45 +973,48 @@
       </c>
       <c r="S7" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251374</v>
+        <v>251743</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>448.2459016393443</v>
+        <v>176.655737704918</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-13 08:57:00</t>
+          <t>2025-05-09 10:57:24</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-13 09:26:00</t>
+          <t>2025-05-09 11:22:24</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-13 09:26:00</t>
+          <t>2025-05-09 11:22:24</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-14 08:54:14</t>
+          <t>2025-05-09 14:19:03</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>27343</v>
+        <v>10776</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -993,11 +1023,11 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
@@ -1010,7 +1040,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
@@ -1018,45 +1048,48 @@
       </c>
       <c r="S8" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251229</v>
+        <v>251566</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D9" t="n">
-        <v>307.1967213114754</v>
+        <v>112.9344262295082</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-14 08:54:14</t>
+          <t>2025-05-09 14:19:03</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-14 09:21:14</t>
+          <t>2025-05-09 14:39:03</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-14 09:21:14</t>
+          <t>2025-05-09 14:39:03</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-14 14:28:26</t>
+          <t>2025-05-12 08:32:00</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>18739</v>
+        <v>6889</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1065,31 +1098,24 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O9" t="n">
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>39723</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
@@ -1097,45 +1123,48 @@
       </c>
       <c r="S9" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251260</v>
+        <v>251424</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>153.5901639344262</v>
+        <v>158.3934426229508</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-14 14:28:26</t>
+          <t>2025-05-12 08:32:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-14 14:53:26</t>
+          <t>2025-05-12 08:52:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-14 14:53:26</t>
+          <t>2025-05-12 08:52:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-15 09:27:01</t>
+          <t>2025-05-12 11:30:23</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>9369</v>
+        <v>9662</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1144,11 +1173,11 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
@@ -1161,7 +1190,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
@@ -1169,45 +1198,48 @@
       </c>
       <c r="S10" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251249</v>
+        <v>244355</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D11" t="n">
-        <v>78</v>
+        <v>70.65573770491804</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-15 09:27:01</t>
+          <t>2025-05-12 11:30:23</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-15 09:52:01</t>
+          <t>2025-05-12 11:50:23</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-15 09:52:01</t>
+          <t>2025-05-12 11:50:23</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-15 11:10:01</t>
+          <t>2025-05-12 13:01:02</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>4758</v>
+        <v>4310</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1216,11 +1248,11 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
@@ -1233,7 +1265,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
@@ -1241,45 +1273,48 @@
       </c>
       <c r="S11" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>245090</v>
+        <v>251761</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="D12" t="n">
-        <v>8470.786885245901</v>
+        <v>217.6885245901639</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-15 11:10:01</t>
+          <t>2025-05-12 13:01:02</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-15 11:52:01</t>
+          <t>2025-05-12 13:21:02</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-15 11:52:01</t>
+          <t>2025-05-12 13:21:02</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-06-10 09:02:49</t>
+          <t>2025-05-13 08:58:44</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>516718</v>
+        <v>13279</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1288,14 +1323,14 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1305,7 +1340,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-19 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
@@ -1313,45 +1348,48 @@
       </c>
       <c r="S12" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251987</v>
+        <v>251846</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>3451.245901639344</v>
+        <v>186.7540983606557</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-06-10 09:02:49</t>
+          <t>2025-05-13 08:58:44</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-06-10 09:29:49</t>
+          <t>2025-05-13 09:28:44</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-06-10 09:29:49</t>
+          <t>2025-05-13 09:28:44</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-06-19 11:01:03</t>
+          <t>2025-05-13 12:35:29</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>210526</v>
+        <v>11392</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1360,14 +1398,14 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M13" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1377,7 +1415,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-09-01 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
@@ -1385,11 +1423,14 @@
       </c>
       <c r="S13" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251742</v>
+        <v>251467</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1397,33 +1438,33 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D14" t="n">
-        <v>134.8524590163935</v>
+        <v>102.0655737704918</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-13 12:35:29</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-13 12:55:29</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-13 12:55:29</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-13 14:37:33</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>8226</v>
+        <v>6226</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1436,71 +1477,69 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
       </c>
-      <c r="N14" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O14" t="n">
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>0</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251840</v>
+        <v>251455</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D15" t="n">
-        <v>93.67213114754098</v>
+        <v>82.765625</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>5714</v>
+        <v>5297</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1513,13 +1552,13 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>39758</v>
+        <v>39749</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1527,57 +1566,60 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39758</v>
+        <v>39749</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-0.3623372395833334</v>
+      </c>
+      <c r="T15" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251505</v>
+        <v>251391</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>233.6885245901639</v>
+        <v>91.640625</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-08 12:03:31</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-08 12:03:31</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-09 07:57:12</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>14255</v>
+        <v>5865</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1595,61 +1637,69 @@
       <c r="M16" t="n">
         <v>70</v>
       </c>
-      <c r="O16" t="n">
-        <v>0</v>
+      <c r="N16" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>0</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>0</v>
+        <v>-0.4377821180555556</v>
+      </c>
+      <c r="T16" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251626</v>
+        <v>251395</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D17" t="n">
-        <v>204.9180327868852</v>
+        <v>35.34375</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-09 07:57:12</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-09 08:27:12</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-09 08:27:12</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-09 11:52:07</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>12500</v>
+        <v>2262</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1662,66 +1712,74 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
       </c>
-      <c r="O17" t="n">
-        <v>0</v>
+      <c r="N17" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>0</v>
+        <v>-0.4741319444444445</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>0</v>
+        <v>-0.4741319444444445</v>
+      </c>
+      <c r="T17" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>244204</v>
+        <v>251371</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D18" t="n">
-        <v>56.91803278688525</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-09 11:52:07</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-09 12:17:07</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-09 12:17:07</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-09 13:14:02</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>3472</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1739,61 +1797,71 @@
       <c r="M18" t="n">
         <v>70</v>
       </c>
-      <c r="O18" t="n">
-        <v>0</v>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>39666</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>0</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>0</v>
+        <v>-13.48732638888889</v>
+      </c>
+      <c r="T18" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251594</v>
+        <v>251396</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" t="n">
-        <v>106</v>
+        <v>35.34375</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-09 13:14:02</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-09 13:34:02</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-09 13:34:02</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-12 07:20:02</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>6466</v>
+        <v>2262</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1806,66 +1874,74 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
       </c>
-      <c r="O19" t="n">
-        <v>0</v>
+      <c r="N19" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>0</v>
+        <v>-0.5250651041666666</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>0</v>
+        <v>-0.5250651041666666</v>
+      </c>
+      <c r="T19" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251580</v>
+        <v>251548</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" t="n">
-        <v>117.2622950819672</v>
+        <v>206.90625</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-12 07:20:02</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-12 07:40:02</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-12 07:40:02</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-12 09:37:18</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>7153</v>
+        <v>13242</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1883,61 +1959,69 @@
       <c r="M20" t="n">
         <v>70</v>
       </c>
-      <c r="O20" t="n">
-        <v>0</v>
+      <c r="N20" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>0</v>
+        <v>-1.348611111111111</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>0</v>
+        <v>-1.348611111111111</v>
+      </c>
+      <c r="T20" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251566</v>
+        <v>250923</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D21" t="n">
-        <v>112.9344262295082</v>
+        <v>109.46875</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-12 09:37:18</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-12 09:57:18</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-12 09:57:18</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-12 11:50:14</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>6889</v>
+        <v>7006</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1946,70 +2030,78 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>70</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N21" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>0</v>
+        <v>-1.446853298611111</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>0</v>
+        <v>-1.446853298611111</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251424</v>
+        <v>251477</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" t="n">
-        <v>158.3934426229508</v>
+        <v>468.734375</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-12 11:50:14</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-12 12:10:14</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-12 12:10:14</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-12 14:48:38</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>9662</v>
+        <v>29999</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2018,20 +2110,25 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>70</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N22" t="n">
+        <v>39760</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>39760</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2039,49 +2136,52 @@
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>0</v>
+        <v>-2.452224392361111</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>0</v>
+        <v>-2.452224392361111</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>244355</v>
+        <v>251416</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D23" t="n">
-        <v>70.65573770491804</v>
+        <v>175.34375</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-12 14:48:38</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-13 07:08:38</t>
+          <t>2025-05-09 11:23:12</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-13 07:08:38</t>
+          <t>2025-05-09 11:23:12</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-13 08:19:17</t>
+          <t>2025-05-09 14:18:32</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>4310</v>
+        <v>11222</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2094,11 +2194,14 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
       </c>
+      <c r="N23" t="n">
+        <v>39755</v>
+      </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
@@ -2107,7 +2210,7 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
@@ -2115,45 +2218,48 @@
       </c>
       <c r="S23" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251485</v>
+        <v>251519</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D24" t="n">
-        <v>78.81967213114754</v>
+        <v>205.859375</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-13 08:19:17</t>
+          <t>2025-05-09 14:18:32</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-13 08:44:17</t>
+          <t>2025-05-09 14:33:32</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-13 08:44:17</t>
+          <t>2025-05-09 14:33:32</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-13 10:03:06</t>
+          <t>2025-05-12 09:59:24</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>4808</v>
+        <v>13175</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2166,7 +2272,7 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
@@ -2179,7 +2285,7 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
@@ -2187,45 +2293,48 @@
       </c>
       <c r="S24" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251761</v>
+        <v>251340</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D25" t="n">
-        <v>217.6885245901639</v>
+        <v>512.5</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-13 10:03:06</t>
+          <t>2025-05-12 09:59:24</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-13 10:28:06</t>
+          <t>2025-05-12 10:29:24</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-13 10:28:06</t>
+          <t>2025-05-12 10:29:24</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-13 14:05:48</t>
+          <t>2025-05-13 11:01:54</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>13279</v>
+        <v>32800</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2234,70 +2343,73 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
+        <v>2</v>
+      </c>
+      <c r="M25" t="n">
+        <v>76</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>2025-04-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="R25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
         <v>4</v>
-      </c>
-      <c r="M25" t="n">
-        <v>70</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>2025-05-19 00:00:00</t>
-        </is>
-      </c>
-      <c r="R25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" s="1" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251252</v>
+        <v>245089</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="D26" t="n">
-        <v>218.5942028985507</v>
+        <v>1916.640625</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-13 11:01:54</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-12 07:45:00</t>
+          <t>2025-05-13 11:20:54</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-12 07:45:00</t>
+          <t>2025-05-13 11:20:54</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-12 11:23:35</t>
+          <t>2025-05-19 11:17:32</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>15083</v>
+        <v>122665</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2306,14 +2418,14 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -2323,7 +2435,7 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
@@ -2331,45 +2443,48 @@
       </c>
       <c r="S26" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251225</v>
+        <v>251485</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>75.125</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-19 11:17:32</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-19 11:49:32</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-19 11:49:32</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-19 13:04:40</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>4808</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2378,75 +2493,73 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M27" t="n">
-        <v>76</v>
-      </c>
-      <c r="N27" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>0</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251227</v>
+        <v>250641</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>79.9375</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-19 13:04:40</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-19 13:21:40</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-19 13:21:40</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-19 14:41:36</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>5116</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2455,75 +2568,73 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M28" t="n">
-        <v>76</v>
-      </c>
-      <c r="N28" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>0</v>
       </c>
       <c r="S28" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251782</v>
+        <v>251564</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D29" t="n">
-        <v>170.0422535211268</v>
+        <v>42.453125</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-19 14:41:36</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-20 07:02:36</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-20 07:02:36</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-20 07:45:03</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>12073</v>
+        <v>2717</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2532,75 +2643,73 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L29" t="n">
         <v>3</v>
       </c>
       <c r="M29" t="n">
-        <v>76</v>
-      </c>
-      <c r="N29" t="n">
-        <v>39754</v>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>39754</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>0</v>
       </c>
       <c r="S29" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>250670</v>
+        <v>251546</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D30" t="n">
-        <v>22.01408450704225</v>
+        <v>101.03125</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-20 07:45:03</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-09 07:58:02</t>
+          <t>2025-05-20 08:04:03</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-09 07:58:02</t>
+          <t>2025-05-20 08:04:03</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-09 08:20:03</t>
+          <t>2025-05-20 09:45:05</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1563</v>
+        <v>6466</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2609,14 +2718,14 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M30" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -2626,7 +2735,7 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
@@ -2634,45 +2743,48 @@
       </c>
       <c r="S30" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251651</v>
+        <v>251245</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>17</v>
       </c>
       <c r="D31" t="n">
-        <v>659.5774647887324</v>
+        <v>11.78125</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-09 08:20:03</t>
+          <t>2025-05-20 09:45:05</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-09 08:37:03</t>
+          <t>2025-05-20 10:02:05</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-09 08:37:03</t>
+          <t>2025-05-20 10:02:05</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-12 11:36:38</t>
+          <t>2025-05-20 10:13:52</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>46830</v>
+        <v>754</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2681,17 +2793,14 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M31" t="n">
-        <v>76</v>
-      </c>
-      <c r="N31" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -2701,7 +2810,7 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
@@ -2709,45 +2818,48 @@
       </c>
       <c r="S31" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>245089</v>
+        <v>251463</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D32" t="n">
-        <v>1727.676056338028</v>
+        <v>108.859375</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-12 11:36:38</t>
+          <t>2025-05-20 10:13:52</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-12 11:53:38</t>
+          <t>2025-05-20 10:32:52</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-12 11:53:38</t>
+          <t>2025-05-20 10:32:52</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-16 08:41:18</t>
+          <t>2025-05-20 12:21:44</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>122665</v>
+        <v>6967</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2756,14 +2868,14 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
         <v>4</v>
       </c>
       <c r="M32" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -2773,7 +2885,7 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
@@ -2781,45 +2893,48 @@
       </c>
       <c r="S32" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251340</v>
+        <v>251462</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>19</v>
       </c>
       <c r="D33" t="n">
-        <v>461.9718309859155</v>
+        <v>97.28125</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-16 08:41:18</t>
+          <t>2025-05-20 12:21:44</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-16 09:00:18</t>
+          <t>2025-05-20 12:40:44</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-16 09:00:18</t>
+          <t>2025-05-20 12:40:44</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-19 08:42:16</t>
+          <t>2025-05-20 14:18:00</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>32800</v>
+        <v>6226</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2828,14 +2943,14 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
         <v>2</v>
       </c>
       <c r="M33" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -2845,7 +2960,7 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
@@ -2853,45 +2968,48 @@
       </c>
       <c r="S33" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>245623</v>
+        <v>251562</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D34" t="n">
-        <v>372.0985915492957</v>
+        <v>127.21875</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-19 08:42:16</t>
+          <t>2025-05-20 14:18:00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-19 09:12:16</t>
+          <t>2025-05-20 14:33:00</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-19 09:12:16</t>
+          <t>2025-05-20 14:33:00</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-20 07:24:22</t>
+          <t>2025-05-21 08:40:14</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>26419</v>
+        <v>8142</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2900,14 +3018,14 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L34" t="n">
         <v>2</v>
       </c>
       <c r="M34" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -2917,7 +3035,7 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
@@ -2925,45 +3043,48 @@
       </c>
       <c r="S34" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>243335</v>
+        <v>251251</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D35" t="n">
-        <v>464.8450704225352</v>
+        <v>247.8125</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-20 07:24:22</t>
+          <t>2025-05-21 08:40:14</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-20 07:43:22</t>
+          <t>2025-05-21 09:03:14</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-20 07:43:22</t>
+          <t>2025-05-21 09:03:14</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-21 07:28:13</t>
+          <t>2025-05-21 13:11:02</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>33004</v>
+        <v>15860</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2972,14 +3093,14 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M35" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -2989,7 +3110,7 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
@@ -2997,45 +3118,48 @@
       </c>
       <c r="S35" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>251750</v>
+        <v>245275</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D36" t="n">
-        <v>54.80281690140845</v>
+        <v>379.59375</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-21 07:28:13</t>
+          <t>2025-05-21 13:11:02</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-21 07:45:13</t>
+          <t>2025-05-21 13:42:02</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-21 07:45:13</t>
+          <t>2025-05-21 13:42:02</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-21 08:40:01</t>
+          <t>2025-05-22 12:01:38</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>3891</v>
+        <v>24294</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3044,14 +3168,14 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M36" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -3061,7 +3185,7 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
@@ -3069,6 +3193,9 @@
       </c>
       <c r="S36" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="37">
@@ -3147,6 +3274,9 @@
       <c r="S37" s="1" t="n">
         <v>-1.442361111111111</v>
       </c>
+      <c r="T37" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3224,6 +3354,9 @@
       <c r="S38" s="1" t="n">
         <v>-1.466666666666667</v>
       </c>
+      <c r="T38" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3303,6 +3436,9 @@
       <c r="S39" s="1" t="n">
         <v>-16.58293231612268</v>
       </c>
+      <c r="T39" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3375,6 +3511,9 @@
       <c r="S40" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="T40" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3447,21 +3586,24 @@
       <c r="S41" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="T41" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251284</v>
+        <v>251626</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="D42" t="n">
-        <v>297.0909090909091</v>
+        <v>204.9180327868852</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -3470,21 +3612,21 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-09 07:40:00</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-09 07:40:00</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-09 11:04:55</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>16340</v>
+        <v>12500</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3493,75 +3635,73 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M42" t="n">
         <v>70</v>
       </c>
-      <c r="N42" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O42" t="n">
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>0</v>
       </c>
       <c r="S42" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251373</v>
+        <v>251594</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>34.5</v>
+        <v>27</v>
       </c>
       <c r="D43" t="n">
-        <v>310.8</v>
+        <v>106</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-09 11:04:55</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-09 13:12:05</t>
+          <t>2025-05-09 11:31:55</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-09 13:12:05</t>
+          <t>2025-05-09 11:31:55</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-12 10:22:53</t>
+          <t>2025-05-09 13:17:55</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>17094</v>
+        <v>6466</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3574,7 +3714,7 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M43" t="n">
         <v>70</v>
@@ -3587,7 +3727,7 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
@@ -3595,45 +3735,48 @@
       </c>
       <c r="S43" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251397</v>
+        <v>244204</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>34.5</v>
+        <v>25</v>
       </c>
       <c r="D44" t="n">
-        <v>98.81818181818181</v>
+        <v>56.91803278688525</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-12 10:22:53</t>
+          <t>2025-05-09 13:17:55</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-12 10:57:23</t>
+          <t>2025-05-09 13:42:55</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-12 10:57:23</t>
+          <t>2025-05-09 13:42:55</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-05-12 12:36:12</t>
+          <t>2025-05-09 14:39:50</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>5435</v>
+        <v>3472</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3646,7 +3789,7 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M44" t="n">
         <v>70</v>
@@ -3659,7 +3802,7 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
@@ -3667,45 +3810,48 @@
       </c>
       <c r="S44" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>244354</v>
+        <v>251374</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>32.5</v>
+        <v>31</v>
       </c>
       <c r="D45" t="n">
-        <v>78.36363636363636</v>
+        <v>448.2459016393443</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-12 12:36:12</t>
+          <t>2025-05-09 14:39:50</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-12 13:08:42</t>
+          <t>2025-05-12 07:10:50</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-12 13:08:42</t>
+          <t>2025-05-12 07:10:50</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-12 14:27:04</t>
+          <t>2025-05-12 14:39:04</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>4310</v>
+        <v>27343</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3714,11 +3860,11 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M45" t="n">
         <v>70</v>
@@ -3731,7 +3877,7 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
@@ -3739,45 +3885,48 @@
       </c>
       <c r="S45" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>250819</v>
+        <v>251346</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>34.5</v>
+        <v>27</v>
       </c>
       <c r="D46" t="n">
-        <v>155.0363636363636</v>
+        <v>63.26229508196721</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-12 14:27:04</t>
+          <t>2025-05-12 14:39:04</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-13 07:01:34</t>
+          <t>2025-05-13 07:06:04</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-13 07:01:34</t>
+          <t>2025-05-13 07:06:04</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-13 09:36:36</t>
+          <t>2025-05-13 08:09:20</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>8527</v>
+        <v>3859</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3790,7 +3939,7 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M46" t="n">
         <v>70</v>
@@ -3803,7 +3952,7 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
@@ -3811,45 +3960,48 @@
       </c>
       <c r="S46" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>251247</v>
+        <v>244023</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>30.5</v>
+        <v>29</v>
       </c>
       <c r="D47" t="n">
-        <v>489.7090909090909</v>
+        <v>16.34426229508197</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-05-13 09:36:36</t>
+          <t>2025-05-13 08:09:20</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-13 10:07:06</t>
+          <t>2025-05-13 08:38:20</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-05-13 10:07:06</t>
+          <t>2025-05-13 08:38:20</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-05-14 10:16:49</t>
+          <t>2025-05-13 08:54:41</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>26934</v>
+        <v>997</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3858,7 +4010,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
@@ -3875,7 +4027,7 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
@@ -3883,45 +4035,48 @@
       </c>
       <c r="S47" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>251795</v>
+        <v>251283</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>30.5</v>
+        <v>25</v>
       </c>
       <c r="D48" t="n">
-        <v>340.7090909090909</v>
+        <v>12.36065573770492</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-14 10:16:49</t>
+          <t>2025-05-13 08:54:41</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-14 10:47:19</t>
+          <t>2025-05-13 09:19:41</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-14 10:47:19</t>
+          <t>2025-05-13 09:19:41</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-05-15 08:28:01</t>
+          <t>2025-05-13 09:32:02</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>18739</v>
+        <v>754</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3930,7 +4085,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
@@ -3947,7 +4102,7 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-06-19 00:00:00</t>
+          <t>2025-03-18 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
@@ -3955,45 +4110,48 @@
       </c>
       <c r="S48" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>245275</v>
+        <v>251464</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>46.5</v>
+        <v>29</v>
       </c>
       <c r="D49" t="n">
-        <v>441.7090909090909</v>
+        <v>117.2622950819672</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-15 08:28:01</t>
+          <t>2025-05-13 09:32:02</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-15 09:14:31</t>
+          <t>2025-05-13 10:01:02</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-15 09:14:31</t>
+          <t>2025-05-13 10:01:02</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-16 08:36:14</t>
+          <t>2025-05-13 11:58:18</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>24294</v>
+        <v>7153</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4002,11 +4160,11 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M49" t="n">
         <v>70</v>
@@ -4019,7 +4177,7 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
@@ -4027,45 +4185,48 @@
       </c>
       <c r="S49" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251547</v>
+        <v>251260</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D50" t="n">
-        <v>184.9154929577465</v>
+        <v>153.5901639344262</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-13 11:58:18</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-13 12:27:18</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-13 12:27:18</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-14 07:00:54</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>13129</v>
+        <v>9369</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4074,75 +4235,73 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M50" t="n">
         <v>70</v>
       </c>
-      <c r="N50" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O50" t="n">
+        <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>0</v>
       </c>
       <c r="S50" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>250759</v>
+        <v>251249</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D51" t="n">
-        <v>118.2816901408451</v>
+        <v>78</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-14 07:00:54</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-14 07:25:54</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-14 07:25:54</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-14 08:43:54</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>8398</v>
+        <v>4758</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4151,75 +4310,73 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M51" t="n">
-        <v>76</v>
-      </c>
-      <c r="N51" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>0</v>
       </c>
       <c r="S51" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>251061</v>
+        <v>245090</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D52" t="n">
-        <v>337.9859154929578</v>
+        <v>8470.786885245901</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-14 08:43:54</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-08 13:41:11</t>
+          <t>2025-05-14 09:25:54</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-08 13:41:11</t>
+          <t>2025-05-14 09:25:54</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-09 11:19:10</t>
+          <t>2025-06-06 14:36:41</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>23997</v>
+        <v>516718</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4228,14 +4385,14 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M52" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -4245,7 +4402,7 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
@@ -4253,45 +4410,48 @@
       </c>
       <c r="S52" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>250894</v>
+        <v>251987</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D53" t="n">
-        <v>623.4084507042254</v>
+        <v>3451.245901639344</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-09 11:19:10</t>
+          <t>2025-06-06 14:36:41</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-09 11:51:10</t>
+          <t>2025-06-09 07:03:41</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-09 11:51:10</t>
+          <t>2025-06-09 07:03:41</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-12 14:14:35</t>
+          <t>2025-06-18 08:34:56</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>44262</v>
+        <v>210526</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4300,18 +4460,15 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M53" t="n">
         <v>76</v>
       </c>
-      <c r="N53" t="n">
-        <v>39755</v>
-      </c>
       <c r="O53" t="n">
         <v>0</v>
       </c>
@@ -4320,7 +4477,7 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-09-01 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
@@ -4328,45 +4485,48 @@
       </c>
       <c r="S53" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>250641</v>
+        <v>251284</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>32</v>
+        <v>40.5</v>
       </c>
       <c r="D54" t="n">
-        <v>72.05633802816901</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-12 14:14:35</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-12 14:46:35</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-12 14:46:35</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-13 07:58:38</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>5116</v>
+        <v>16340</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4375,70 +4535,78 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M54" t="n">
         <v>70</v>
       </c>
-      <c r="O54" t="n">
-        <v>0</v>
+      <c r="N54" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P54" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S54" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
+      </c>
+      <c r="T54" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>251561</v>
+        <v>251373</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>17</v>
+        <v>34.5</v>
       </c>
       <c r="D55" t="n">
-        <v>76.54929577464789</v>
+        <v>310.8</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-13 07:58:38</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-13 08:15:38</t>
+          <t>2025-05-09 13:12:05</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-13 08:15:38</t>
+          <t>2025-05-09 13:12:05</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-13 09:32:11</t>
+          <t>2025-05-12 10:22:53</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>5435</v>
+        <v>17094</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4464,7 +4632,7 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
@@ -4472,45 +4640,48 @@
       </c>
       <c r="S55" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T55" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>244023</v>
+        <v>251397</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>17</v>
+        <v>34.5</v>
       </c>
       <c r="D56" t="n">
-        <v>14.04225352112676</v>
+        <v>98.81818181818181</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-13 09:32:11</t>
+          <t>2025-05-12 10:22:53</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-13 09:49:11</t>
+          <t>2025-05-12 10:57:23</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-13 09:49:11</t>
+          <t>2025-05-12 10:57:23</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-13 10:03:14</t>
+          <t>2025-05-12 12:36:12</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>997</v>
+        <v>5435</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4523,7 +4694,7 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M56" t="n">
         <v>70</v>
@@ -4536,7 +4707,7 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
@@ -4544,45 +4715,48 @@
       </c>
       <c r="S56" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>235572</v>
+        <v>244354</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>17</v>
+        <v>32.5</v>
       </c>
       <c r="D57" t="n">
-        <v>140.2535211267606</v>
+        <v>78.36363636363636</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-13 10:03:14</t>
+          <t>2025-05-12 12:36:12</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-13 10:20:14</t>
+          <t>2025-05-12 13:08:42</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-13 10:20:14</t>
+          <t>2025-05-12 13:08:42</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-13 12:40:29</t>
+          <t>2025-05-12 14:27:04</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>9958</v>
+        <v>4310</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4591,11 +4765,11 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M57" t="n">
         <v>70</v>
@@ -4608,7 +4782,7 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2023-11-06 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
@@ -4616,45 +4790,48 @@
       </c>
       <c r="S57" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251564</v>
+        <v>250819</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>19</v>
+        <v>34.5</v>
       </c>
       <c r="D58" t="n">
-        <v>38.26760563380282</v>
+        <v>155.0363636363636</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-13 12:40:29</t>
+          <t>2025-05-12 14:27:04</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-13 12:59:29</t>
+          <t>2025-05-13 07:01:34</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-13 12:59:29</t>
+          <t>2025-05-13 07:01:34</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-13 13:37:45</t>
+          <t>2025-05-13 09:36:36</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2717</v>
+        <v>8527</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4667,7 +4844,7 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M58" t="n">
         <v>70</v>
@@ -4680,7 +4857,7 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
@@ -4688,45 +4865,48 @@
       </c>
       <c r="S58" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>251475</v>
+        <v>251247</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>17</v>
+        <v>30.5</v>
       </c>
       <c r="D59" t="n">
-        <v>122.2676056338028</v>
+        <v>489.7090909090909</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-13 13:37:45</t>
+          <t>2025-05-13 09:36:36</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-13 13:54:45</t>
+          <t>2025-05-13 10:07:06</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-13 13:54:45</t>
+          <t>2025-05-13 10:07:06</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-14 07:57:01</t>
+          <t>2025-05-14 10:16:49</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>8681</v>
+        <v>26934</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4735,11 +4915,11 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M59" t="n">
         <v>70</v>
@@ -4752,7 +4932,7 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
@@ -4760,45 +4940,48 @@
       </c>
       <c r="S59" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T59" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>251809</v>
+        <v>251795</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>15</v>
+        <v>30.5</v>
       </c>
       <c r="D60" t="n">
-        <v>122.2676056338028</v>
+        <v>340.7090909090909</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-14 07:57:01</t>
+          <t>2025-05-14 10:16:49</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-14 08:12:01</t>
+          <t>2025-05-14 10:47:19</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-14 08:12:01</t>
+          <t>2025-05-14 10:47:19</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-14 10:14:17</t>
+          <t>2025-05-15 08:28:01</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>8681</v>
+        <v>18739</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4807,11 +4990,11 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M60" t="n">
         <v>70</v>
@@ -4824,7 +5007,7 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-06-19 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
@@ -4832,71 +5015,81 @@
       </c>
       <c r="S60" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T60" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>251466</v>
+        <v>251706</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>78.40845070422536</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-14 10:14:17</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-14 10:31:17</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-14 10:31:17</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-14 11:49:42</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>5567</v>
+        <v>3200</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>70</v>
-      </c>
-      <c r="O61" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P61" t="n">
-        <v>0</v>
+        <v>39764</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
@@ -4904,11 +5097,14 @@
       </c>
       <c r="S61" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T61" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>251465</v>
+        <v>251547</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -4916,33 +5112,33 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D62" t="n">
-        <v>87.69014084507042</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-14 11:49:42</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-14 12:06:42</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-14 12:06:42</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-14 13:34:23</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>6226</v>
+        <v>13129</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4955,32 +5151,40 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M62" t="n">
         <v>70</v>
       </c>
-      <c r="O62" t="n">
-        <v>0</v>
+      <c r="N62" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P62" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>0</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S62" s="1" t="n">
-        <v>0</v>
+        <v>-1.443691314548611</v>
+      </c>
+      <c r="T62" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>251557</v>
+        <v>250759</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -4988,33 +5192,33 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D63" t="n">
-        <v>94.43661971830986</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-14 13:34:23</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-14 13:49:23</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-14 13:49:23</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-15 07:23:49</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>6705</v>
+        <v>8398</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5023,36 +5227,44 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M63" t="n">
-        <v>70</v>
-      </c>
-      <c r="O63" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N63" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P63" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>0</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S63" s="1" t="n">
-        <v>0</v>
+        <v>-0.5466647104861111</v>
+      </c>
+      <c r="T63" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>251062</v>
+        <v>250670</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -5060,33 +5272,33 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D64" t="n">
-        <v>318.6478873239437</v>
+        <v>22.01408450704225</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-15 07:23:49</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-15 07:46:49</t>
+          <t>2025-05-08 13:22:11</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-15 07:46:49</t>
+          <t>2025-05-08 13:22:11</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-15 13:05:28</t>
+          <t>2025-05-08 13:44:12</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>22624</v>
+        <v>1563</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5095,14 +5307,14 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M64" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
@@ -5112,7 +5324,7 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
@@ -5120,45 +5332,48 @@
       </c>
       <c r="S64" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T64" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>251455</v>
+        <v>250894</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D65" t="n">
-        <v>82.765625</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-08 13:44:12</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 14:01:12</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 14:01:12</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-12 08:24:37</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>5297</v>
+        <v>44262</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5167,75 +5382,76 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L65" t="n">
+        <v>5</v>
+      </c>
+      <c r="M65" t="n">
+        <v>76</v>
+      </c>
+      <c r="N65" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>2025-05-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="R65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T65" t="n">
         <v>4</v>
-      </c>
-      <c r="M65" t="n">
-        <v>70</v>
-      </c>
-      <c r="N65" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P65" t="n">
-        <v>39749</v>
-      </c>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>2025-04-15 00:00:00</t>
-        </is>
-      </c>
-      <c r="R65" s="1" t="n">
-        <v>-0.3623372395833334</v>
-      </c>
-      <c r="S65" s="1" t="n">
-        <v>-0.3623372395833334</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251391</v>
+        <v>251505</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D66" t="n">
-        <v>91.640625</v>
+        <v>200.7746478873239</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-12 08:24:37</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-12 08:54:37</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-12 08:54:37</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-12 12:15:23</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>5865</v>
+        <v>14255</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5253,66 +5469,64 @@
       <c r="M66" t="n">
         <v>70</v>
       </c>
-      <c r="N66" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O66" t="n">
+        <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>0</v>
       </c>
       <c r="S66" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>0</v>
+      </c>
+      <c r="T66" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>251395</v>
+        <v>251229</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C67" t="n">
         <v>17</v>
       </c>
       <c r="D67" t="n">
-        <v>35.34375</v>
+        <v>263.9295774647887</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-12 12:15:23</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-12 12:32:23</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-12 12:32:23</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-13 08:56:19</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>2262</v>
+        <v>18739</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5321,7 +5535,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L67" t="n">
@@ -5330,8 +5544,10 @@
       <c r="M67" t="n">
         <v>70</v>
       </c>
-      <c r="N67" t="n">
-        <v>39749</v>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -5339,57 +5555,60 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>39749</v>
+        <v>39723</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>0</v>
       </c>
       <c r="S67" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>0</v>
+      </c>
+      <c r="T67" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>251371</v>
+        <v>251246</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>169.0422535211268</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-13 08:56:19</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-13 09:11:19</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-13 09:11:19</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-13 12:00:21</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>12002</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5398,77 +5617,73 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M68" t="n">
         <v>70</v>
       </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O68" t="n">
+        <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>39666</v>
+        <v>0</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>0</v>
       </c>
       <c r="S68" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>0</v>
+      </c>
+      <c r="T68" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>251396</v>
+        <v>235572</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D69" t="n">
-        <v>35.34375</v>
+        <v>140.2535211267606</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-13 12:00:21</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-13 12:17:21</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-13 12:17:21</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-13 14:37:37</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>2262</v>
+        <v>9958</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5477,75 +5692,73 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M69" t="n">
         <v>70</v>
       </c>
-      <c r="N69" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O69" t="n">
+        <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2023-11-06 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>0</v>
       </c>
       <c r="S69" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>0</v>
+      </c>
+      <c r="T69" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>251548</v>
+        <v>251475</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D70" t="n">
-        <v>206.90625</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-13 14:37:37</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-13 14:54:37</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-13 14:54:37</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-14 08:56:53</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>13242</v>
+        <v>8681</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5563,66 +5776,64 @@
       <c r="M70" t="n">
         <v>70</v>
       </c>
-      <c r="N70" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O70" t="n">
+        <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>-1.348611111111111</v>
+        <v>0</v>
       </c>
       <c r="S70" s="1" t="n">
-        <v>-1.348611111111111</v>
+        <v>0</v>
+      </c>
+      <c r="T70" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>250923</v>
+        <v>251809</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D71" t="n">
-        <v>109.46875</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-14 08:56:53</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-14 09:11:53</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-14 09:11:53</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-14 11:14:09</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>7006</v>
+        <v>8681</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5631,75 +5842,73 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M71" t="n">
-        <v>76</v>
-      </c>
-      <c r="N71" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>0</v>
       </c>
       <c r="S71" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>0</v>
+      </c>
+      <c r="T71" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>251477</v>
+        <v>245350</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D72" t="n">
-        <v>468.734375</v>
+        <v>393.943661971831</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-14 11:14:09</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-14 11:41:09</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-14 11:41:09</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-05-15 10:15:05</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>29999</v>
+        <v>27970</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5708,75 +5917,73 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M72" t="n">
-        <v>76</v>
-      </c>
-      <c r="N72" t="n">
-        <v>39760</v>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>39760</v>
+        <v>0</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>0</v>
       </c>
       <c r="S72" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>0</v>
+      </c>
+      <c r="T72" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>243569</v>
+        <v>251259</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D73" t="n">
-        <v>40.640625</v>
+        <v>70.4225352112676</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-05-15 10:15:05</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-09 11:06:12</t>
+          <t>2025-05-15 10:32:05</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-09 11:06:12</t>
+          <t>2025-05-15 10:32:05</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-09 11:46:50</t>
+          <t>2025-05-15 11:42:31</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>2601</v>
+        <v>5000</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5785,14 +5992,14 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M73" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O73" t="n">
         <v>0</v>
@@ -5802,7 +6009,7 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
@@ -5810,45 +6017,48 @@
       </c>
       <c r="S73" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T73" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>245350</v>
+        <v>251466</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D74" t="n">
-        <v>437.03125</v>
+        <v>78.40845070422536</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-09 11:46:50</t>
+          <t>2025-05-15 11:42:31</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-09 12:30:50</t>
+          <t>2025-05-15 12:09:31</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-09 12:30:50</t>
+          <t>2025-05-15 12:09:31</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-12 11:47:52</t>
+          <t>2025-05-15 13:27:55</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>27970</v>
+        <v>5567</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -5857,11 +6067,11 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M74" t="n">
         <v>70</v>
@@ -5874,7 +6084,7 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
@@ -5882,45 +6092,48 @@
       </c>
       <c r="S74" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T74" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>251346</v>
+        <v>251465</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D75" t="n">
-        <v>60.296875</v>
+        <v>87.69014084507042</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-12 11:47:52</t>
+          <t>2025-05-15 13:27:55</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-12 12:06:52</t>
+          <t>2025-05-15 13:44:55</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-12 12:06:52</t>
+          <t>2025-05-15 13:44:55</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-12 13:07:10</t>
+          <t>2025-05-16 07:12:37</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>3859</v>
+        <v>6226</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -5933,7 +6146,7 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M75" t="n">
         <v>70</v>
@@ -5946,7 +6159,7 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
@@ -5954,45 +6167,48 @@
       </c>
       <c r="S75" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T75" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>251246</v>
+        <v>251557</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D76" t="n">
-        <v>187.53125</v>
+        <v>94.43661971830986</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-05-12 13:07:10</t>
+          <t>2025-05-16 07:12:37</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-05-12 13:26:10</t>
+          <t>2025-05-16 07:27:37</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-05-12 13:26:10</t>
+          <t>2025-05-16 07:27:37</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-05-13 08:33:42</t>
+          <t>2025-05-16 09:02:03</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>12002</v>
+        <v>6705</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -6001,11 +6217,11 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M76" t="n">
         <v>70</v>
@@ -6018,7 +6234,7 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R76" s="1" t="n">
@@ -6026,45 +6242,48 @@
       </c>
       <c r="S76" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T76" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>251283</v>
+        <v>251062</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D77" t="n">
-        <v>11.78125</v>
+        <v>318.6478873239437</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-05-13 08:33:42</t>
+          <t>2025-05-16 09:02:03</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-05-13 08:48:42</t>
+          <t>2025-05-16 09:25:03</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-05-13 08:48:42</t>
+          <t>2025-05-16 09:25:03</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-05-13 09:00:29</t>
+          <t>2025-05-16 14:43:42</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>754</v>
+        <v>22624</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -6090,7 +6309,7 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>2025-03-18 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R77" s="1" t="n">
@@ -6098,45 +6317,48 @@
       </c>
       <c r="S77" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T77" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>251546</v>
+        <v>251164</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="D78" t="n">
-        <v>101.03125</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-05-13 09:00:29</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-05-13 09:17:29</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-05-13 09:17:29</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-05-13 10:58:30</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>6466</v>
+        <v>10000</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -6149,66 +6371,74 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M78" t="n">
         <v>70</v>
       </c>
-      <c r="O78" t="n">
-        <v>0</v>
+      <c r="N78" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P78" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R78" s="1" t="n">
-        <v>0</v>
+        <v>-1.471584467118056</v>
       </c>
       <c r="S78" s="1" t="n">
-        <v>0</v>
+        <v>-1.471584467118056</v>
+      </c>
+      <c r="T78" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>251743</v>
+        <v>251061</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D79" t="n">
-        <v>168.375</v>
+        <v>489.734693877551</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-05-13 10:58:30</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-05-13 11:15:30</t>
+          <t>2025-05-08 11:54:04</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-05-13 11:15:30</t>
+          <t>2025-05-08 11:54:04</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-05-13 14:03:53</t>
+          <t>2025-05-09 12:03:48</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>10776</v>
+        <v>23997</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -6217,11 +6447,11 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M79" t="n">
         <v>70</v>
@@ -6234,7 +6464,7 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R79" s="1" t="n">
@@ -6242,45 +6472,48 @@
       </c>
       <c r="S79" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T79" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>251245</v>
+        <v>251225</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C80" t="n">
         <v>19</v>
       </c>
       <c r="D80" t="n">
-        <v>11.78125</v>
+        <v>0</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-05-13 14:03:53</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-05-13 14:22:53</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-05-13 14:22:53</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-05-13 14:34:40</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>754</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -6289,70 +6522,78 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M80" t="n">
-        <v>70</v>
-      </c>
-      <c r="O80" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N80" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P80" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R80" s="1" t="n">
-        <v>0</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="S80" s="1" t="n">
-        <v>0</v>
+        <v>-0.5131944444444444</v>
+      </c>
+      <c r="T80" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>251463</v>
+        <v>251227</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D81" t="n">
-        <v>108.859375</v>
+        <v>0</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-05-13 14:34:40</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-05-13 14:53:40</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-05-13 14:53:40</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-05-14 08:42:31</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>6967</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -6361,70 +6602,78 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L81" t="n">
         <v>4</v>
       </c>
       <c r="M81" t="n">
-        <v>70</v>
-      </c>
-      <c r="O81" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N81" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P81" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R81" s="1" t="n">
-        <v>0</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="S81" s="1" t="n">
-        <v>0</v>
+        <v>-2.523611111111111</v>
+      </c>
+      <c r="T81" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>251462</v>
+        <v>251782</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D82" t="n">
-        <v>97.28125</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-05-14 08:42:31</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-05-14 09:01:31</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-05-14 09:01:31</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2025-05-14 10:38:48</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>6226</v>
+        <v>12073</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -6433,70 +6682,78 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M82" t="n">
-        <v>70</v>
-      </c>
-      <c r="O82" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N82" t="n">
+        <v>39754</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P82" t="n">
-        <v>0</v>
+        <v>39754</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R82" s="1" t="n">
-        <v>0</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="S82" s="1" t="n">
-        <v>0</v>
+        <v>-0.3201682316087963</v>
+      </c>
+      <c r="T82" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>251562</v>
+        <v>251651</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D83" t="n">
-        <v>127.21875</v>
+        <v>659.5774647887324</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-05-14 10:38:48</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-05-14 10:53:48</t>
+          <t>2025-05-09 08:00:02</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-05-14 10:53:48</t>
+          <t>2025-05-09 08:00:02</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2025-05-14 13:01:01</t>
+          <t>2025-05-12 10:59:37</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>8142</v>
+        <v>46830</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -6505,14 +6762,17 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M83" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N83" t="n">
+        <v>39755</v>
       </c>
       <c r="O83" t="n">
         <v>0</v>
@@ -6522,7 +6782,7 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R83" s="1" t="n">
@@ -6530,45 +6790,48 @@
       </c>
       <c r="S83" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T83" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>251251</v>
+        <v>243569</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D84" t="n">
-        <v>247.8125</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-05-14 13:01:01</t>
+          <t>2025-05-12 10:59:37</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-05-14 13:24:01</t>
+          <t>2025-05-12 11:18:37</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-05-14 13:24:01</t>
+          <t>2025-05-12 11:18:37</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2025-05-15 09:31:50</t>
+          <t>2025-05-12 11:55:15</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>15860</v>
+        <v>2601</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -6577,14 +6840,14 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M84" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O84" t="n">
         <v>0</v>
@@ -6594,7 +6857,7 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2024-09-16 00:00:00</t>
         </is>
       </c>
       <c r="R84" s="1" t="n">
@@ -6602,78 +6865,74 @@
       </c>
       <c r="S84" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T84" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>251706</v>
+        <v>245623</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D85" t="n">
-        <v>50.79365079365079</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-12 11:55:15</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-12 12:27:15</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-12 12:27:15</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-13 10:39:21</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>3200</v>
+        <v>26419</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M85" t="n">
-        <v>0</v>
-      </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
       </c>
       <c r="P85" t="n">
-        <v>39764</v>
+        <v>0</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R85" s="1" t="n">
@@ -6681,45 +6940,48 @@
       </c>
       <c r="S85" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T85" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>251164</v>
+        <v>243335</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="D86" t="n">
-        <v>204.0816326530612</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-13 10:39:21</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-13 10:58:21</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-13 10:58:21</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-14 10:43:11</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>10000</v>
+        <v>33004</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -6728,75 +6990,73 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M86" t="n">
-        <v>70</v>
-      </c>
-      <c r="N86" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0</v>
       </c>
       <c r="P86" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R86" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>0</v>
       </c>
       <c r="S86" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>0</v>
+      </c>
+      <c r="T86" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>251456</v>
+        <v>251750</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D87" t="n">
-        <v>183.6530612244898</v>
+        <v>54.80281690140845</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-14 10:43:11</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-14 11:00:11</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-14 11:00:11</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-14 11:55:00</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>8999</v>
+        <v>3891</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -6805,36 +7065,34 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L87" t="n">
         <v>3</v>
       </c>
       <c r="M87" t="n">
-        <v>70</v>
-      </c>
-      <c r="N87" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0</v>
       </c>
       <c r="P87" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R87" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>0</v>
       </c>
       <c r="S87" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>0</v>
+      </c>
+      <c r="T87" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/insert_inter_post.xlsx
+++ b/PS-VRP/Dati_output/insert_inter_post.xlsx
@@ -515,41 +515,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251252</v>
+        <v>251742</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>218.5942028985507</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:45:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:45:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-12 11:23:35</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>15083</v>
+        <v>8226</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,39 +558,44 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>70</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
+      <c r="N2" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>0</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>0</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251742</v>
+        <v>251840</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -598,33 +603,33 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>134.8524590163935</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>8226</v>
+        <v>5714</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -637,13 +642,13 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
       </c>
       <c r="N3" t="n">
-        <v>39749</v>
+        <v>39758</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -651,26 +656,26 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39749</v>
+        <v>39758</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="T3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251840</v>
+        <v>251561</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -678,33 +683,33 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>93.67213114754098</v>
+        <v>89.09836065573771</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-08 12:03:31</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-08 12:03:31</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-08 13:32:37</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>5714</v>
+        <v>5435</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -722,35 +727,30 @@
       <c r="M4" t="n">
         <v>70</v>
       </c>
-      <c r="N4" t="n">
-        <v>39758</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O4" t="n">
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>39758</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-2.465152550092593</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-1.564321493622685</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251456</v>
+        <v>244204</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -758,33 +758,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>147.5245901639344</v>
+        <v>56.91803278688525</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-08 13:32:37</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-08 12:13:31</t>
+          <t>2025-05-08 13:57:37</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-08 12:13:31</t>
+          <t>2025-05-08 13:57:37</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-08 14:41:02</t>
+          <t>2025-05-08 14:54:32</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>8999</v>
+        <v>3472</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -797,40 +797,35 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
-      <c r="N5" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O5" t="n">
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>-4.580293715844907</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-2.611839708564815</v>
+        <v>-0.6212090163888889</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251580</v>
+        <v>251416</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -838,33 +833,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>117.2622950819672</v>
+        <v>183.9672131147541</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-08 14:41:02</t>
+          <t>2025-05-08 14:54:32</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-09 07:06:02</t>
+          <t>2025-05-09 07:24:32</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-09 07:06:02</t>
+          <t>2025-05-09 07:24:32</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-09 09:03:18</t>
+          <t>2025-05-09 10:28:30</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>7153</v>
+        <v>11222</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -877,11 +872,14 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
+      <c r="N6" t="n">
+        <v>39755</v>
+      </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
@@ -890,7 +888,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
@@ -900,12 +898,12 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251561</v>
+        <v>251566</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -913,33 +911,33 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>89.09836065573771</v>
+        <v>112.9344262295082</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-09 09:03:18</t>
+          <t>2025-05-09 10:28:30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-09 09:28:18</t>
+          <t>2025-05-09 10:58:30</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-09 09:28:18</t>
+          <t>2025-05-09 10:58:30</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-09 10:57:24</t>
+          <t>2025-05-09 12:51:26</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>5435</v>
+        <v>6889</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -952,7 +950,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
@@ -969,10 +967,10 @@
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>0</v>
+        <v>-2.560940346087963</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>0</v>
+        <v>-2.535724043715278</v>
       </c>
       <c r="T7" t="n">
         <v>8</v>
@@ -980,7 +978,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251743</v>
+        <v>251519</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -988,33 +986,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>176.655737704918</v>
+        <v>215.983606557377</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-09 10:57:24</t>
+          <t>2025-05-09 12:51:26</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-09 11:22:24</t>
+          <t>2025-05-09 13:21:26</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-09 11:22:24</t>
+          <t>2025-05-09 13:21:26</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-09 14:19:03</t>
+          <t>2025-05-12 08:57:25</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>10776</v>
+        <v>13175</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1027,7 +1025,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
@@ -1040,7 +1038,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
@@ -1050,12 +1048,12 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251566</v>
+        <v>251424</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1063,33 +1061,33 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>112.9344262295082</v>
+        <v>158.3934426229508</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-09 14:19:03</t>
+          <t>2025-05-12 08:57:25</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-09 14:39:03</t>
+          <t>2025-05-12 09:27:25</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-09 14:39:03</t>
+          <t>2025-05-12 09:27:25</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-12 08:32:00</t>
+          <t>2025-05-12 12:05:49</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>6889</v>
+        <v>9662</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1115,22 +1113,22 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>0</v>
+        <v>-14.50895947177083</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>0</v>
+        <v>-14.50404143898148</v>
       </c>
       <c r="T9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251424</v>
+        <v>244355</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1141,30 +1139,30 @@
         <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>158.3934426229508</v>
+        <v>70.65573770491804</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-12 08:32:00</t>
+          <t>2025-05-12 12:05:49</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-12 08:52:00</t>
+          <t>2025-05-12 12:25:49</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-12 08:52:00</t>
+          <t>2025-05-12 12:25:49</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-12 11:30:23</t>
+          <t>2025-05-12 13:36:28</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>9662</v>
+        <v>4310</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1190,14 +1188,14 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0</v>
+        <v>-4.571914845173612</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>0</v>
+        <v>-4.566996812384259</v>
       </c>
       <c r="T10" t="n">
         <v>4</v>
@@ -1205,7 +1203,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>244355</v>
+        <v>251485</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1213,33 +1211,33 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>70.65573770491804</v>
+        <v>78.81967213114754</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-12 11:30:23</t>
+          <t>2025-05-12 13:36:28</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-12 11:50:23</t>
+          <t>2025-05-12 14:01:28</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-12 11:50:23</t>
+          <t>2025-05-12 14:01:28</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-12 13:01:02</t>
+          <t>2025-05-13 07:20:17</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>4310</v>
+        <v>4808</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1252,7 +1250,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
@@ -1265,22 +1263,22 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>0</v>
+        <v>-20.31067850637731</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>0</v>
+        <v>-20.30576047358796</v>
       </c>
       <c r="T11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251761</v>
+        <v>251245</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1288,33 +1286,33 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D12" t="n">
-        <v>217.6885245901639</v>
+        <v>12.36065573770492</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-12 13:01:02</t>
+          <t>2025-05-13 07:20:17</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-12 13:21:02</t>
+          <t>2025-05-13 07:45:17</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-12 13:21:02</t>
+          <t>2025-05-13 07:45:17</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-13 08:58:44</t>
+          <t>2025-05-13 07:57:39</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>13279</v>
+        <v>754</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1323,11 +1321,11 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
@@ -1340,22 +1338,22 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-19 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>0</v>
+        <v>-46.368359375</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>0</v>
+        <v>-46.33170537340278</v>
       </c>
       <c r="T12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251846</v>
+        <v>251246</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1363,33 +1361,33 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>186.7540983606557</v>
+        <v>196.7540983606557</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-13 08:58:44</t>
+          <t>2025-05-13 07:57:39</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-13 09:28:44</t>
+          <t>2025-05-13 08:17:39</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-13 09:28:44</t>
+          <t>2025-05-13 08:17:39</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-13 12:35:29</t>
+          <t>2025-05-13 11:34:24</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>11392</v>
+        <v>12002</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1398,11 +1396,11 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
@@ -1415,22 +1413,22 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>0</v>
+        <v>-4.505867552337963</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>0</v>
+        <v>-4.482229052824074</v>
       </c>
       <c r="T13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251467</v>
+        <v>251374</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1438,33 +1436,33 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D14" t="n">
-        <v>102.0655737704918</v>
+        <v>448.2459016393443</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-13 12:35:29</t>
+          <t>2025-05-13 11:34:24</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-13 12:55:29</t>
+          <t>2025-05-13 11:59:24</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-13 12:55:29</t>
+          <t>2025-05-13 11:59:24</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-13 14:37:33</t>
+          <t>2025-05-14 11:27:39</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>6226</v>
+        <v>27343</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1473,11 +1471,11 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
@@ -1490,7 +1488,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
@@ -1505,41 +1503,41 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251455</v>
+        <v>251795</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D15" t="n">
-        <v>82.765625</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-14 11:27:39</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-14 11:52:39</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-14 11:52:39</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-15 08:59:51</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>5297</v>
+        <v>18739</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1548,78 +1546,73 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
-      <c r="N15" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O15" t="n">
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-06-19 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>0</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251391</v>
+        <v>251062</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D16" t="n">
-        <v>91.640625</v>
+        <v>370.8852459016393</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-15 08:59:51</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-15 09:19:51</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-15 09:19:51</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-16 07:30:44</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>5865</v>
+        <v>22624</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1628,78 +1621,73 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
       </c>
-      <c r="N16" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O16" t="n">
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>0</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251395</v>
+        <v>251164</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="D17" t="n">
-        <v>35.34375</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2262</v>
+        <v>10000</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1730,56 +1718,56 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>-1.471584467118056</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>-1.471584467118056</v>
       </c>
       <c r="T17" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251371</v>
+        <v>251456</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>8999</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1792,15 +1780,13 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
       </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+      <c r="N18" t="n">
+        <v>39746</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1808,60 +1794,60 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39666</v>
+        <v>39746</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="T18" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251396</v>
+        <v>251594</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D19" t="n">
-        <v>35.34375</v>
+        <v>131.9591836734694</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-09 07:52:44</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-09 07:52:44</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-09 10:04:41</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2262</v>
+        <v>6466</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1874,74 +1860,69 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
       </c>
-      <c r="N19" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O19" t="n">
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>-5.559761345856481</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>-2.419926303854167</v>
       </c>
       <c r="T19" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251548</v>
+        <v>251626</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D20" t="n">
-        <v>206.90625</v>
+        <v>255.1020408163265</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-09 10:04:41</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-09 10:44:41</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-09 10:44:41</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-09 14:59:47</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>13242</v>
+        <v>12500</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1954,32 +1935,27 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
       </c>
-      <c r="N20" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O20" t="n">
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-1.348611111111111</v>
+        <v>-12.35892857142361</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-1.348611111111111</v>
+        <v>-9.624858276643518</v>
       </c>
       <c r="T20" t="n">
         <v>7</v>
@@ -1987,41 +1963,41 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>250923</v>
+        <v>251373</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D21" t="n">
-        <v>109.46875</v>
+        <v>348.8571428571428</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-09 14:59:47</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-12 07:44:47</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-12 07:44:47</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-12 13:33:39</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>7006</v>
+        <v>17094</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2030,78 +2006,73 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
         <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>76</v>
-      </c>
-      <c r="N21" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>-15.2991071428588</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>-14.56503684806713</v>
       </c>
       <c r="T21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251477</v>
+        <v>250670</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D22" t="n">
-        <v>468.734375</v>
+        <v>31.89795918367347</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-12 13:33:39</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-12 14:15:39</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-12 14:15:39</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-05-12 14:47:33</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>29999</v>
+        <v>1563</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2110,78 +2081,73 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
         <v>76</v>
       </c>
-      <c r="N22" t="n">
-        <v>39760</v>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O22" t="n">
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>39760</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>-8.350425170069444</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>-7.616354875277777</v>
       </c>
       <c r="T22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251416</v>
+        <v>251061</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D23" t="n">
-        <v>175.34375</v>
+        <v>489.734693877551</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-05-12 14:47:33</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-09 11:23:12</t>
+          <t>2025-05-13 07:34:33</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-09 11:23:12</t>
+          <t>2025-05-13 07:34:33</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-09 14:18:32</t>
+          <t>2025-05-14 07:44:17</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>11222</v>
+        <v>23997</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2190,18 +2156,15 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
       </c>
-      <c r="N23" t="n">
-        <v>39755</v>
-      </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
@@ -2210,56 +2173,56 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>0</v>
+        <v>-9.389824263043982</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>0</v>
+        <v>-9.322420634918981</v>
       </c>
       <c r="T23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251519</v>
+        <v>251252</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D24" t="n">
-        <v>205.859375</v>
+        <v>307.8163265306122</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-09 14:18:32</t>
+          <t>2025-05-14 07:44:17</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-09 14:33:32</t>
+          <t>2025-05-14 08:19:17</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-09 14:33:32</t>
+          <t>2025-05-14 08:19:17</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-12 09:59:24</t>
+          <t>2025-05-14 13:27:06</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>13175</v>
+        <v>15083</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2268,11 +2231,11 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
@@ -2285,7 +2248,7 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
@@ -2295,46 +2258,46 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251340</v>
+        <v>251050</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>30</v>
+        <v>217</v>
       </c>
       <c r="D25" t="n">
-        <v>512.5</v>
+        <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-12 09:59:24</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-12 10:29:24</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-12 10:29:24</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-13 11:01:54</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>32800</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2343,73 +2306,78 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L25" t="n">
+        <v>38</v>
+      </c>
+      <c r="M25" t="n">
+        <v>70</v>
+      </c>
+      <c r="N25" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>39747</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>2025-04-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="R25" s="1" t="n">
+        <v>-1.442361111111111</v>
+      </c>
+      <c r="S25" s="1" t="n">
+        <v>-1.442361111111111</v>
+      </c>
+      <c r="T25" t="n">
         <v>2</v>
-      </c>
-      <c r="M25" t="n">
-        <v>76</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>2025-04-28 00:00:00</t>
-        </is>
-      </c>
-      <c r="R25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>245089</v>
+        <v>251054</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D26" t="n">
-        <v>1916.640625</v>
+        <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-13 11:01:54</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-13 11:20:54</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-13 11:20:54</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-19 11:17:32</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>122665</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2418,73 +2386,78 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M26" t="n">
-        <v>76</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N26" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>0</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>0</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="T26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251485</v>
+        <v>251081</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="D27" t="n">
-        <v>75.125</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-19 11:17:32</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-19 11:49:32</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-19 11:49:32</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-19 13:04:40</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>4808</v>
+        <v>3012</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2493,20 +2466,27 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M27" t="n">
         <v>70</v>
       </c>
-      <c r="O27" t="n">
-        <v>0</v>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>39750</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2514,10 +2494,10 @@
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>0</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>0</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="T27" t="n">
         <v>2</v>
@@ -2525,41 +2505,41 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>250641</v>
+        <v>251109</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="D28" t="n">
-        <v>79.9375</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-19 13:04:40</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-19 13:21:40</t>
+          <t>2025-05-09 14:54:25</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-19 13:21:40</t>
+          <t>2025-05-09 14:54:25</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-19 14:41:36</t>
+          <t>2025-05-12 11:21:00</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>5116</v>
+        <v>18928</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2568,11 +2548,11 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="M28" t="n">
         <v>70</v>
@@ -2585,14 +2565,14 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>0</v>
+        <v>-25.47753325508102</v>
       </c>
       <c r="S28" s="1" t="n">
-        <v>0</v>
+        <v>-24.47292644756944</v>
       </c>
       <c r="T28" t="n">
         <v>2</v>
@@ -2600,41 +2580,41 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251564</v>
+        <v>245275</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D29" t="n">
-        <v>42.453125</v>
+        <v>342.1690140845071</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-19 14:41:36</t>
+          <t>2025-05-12 11:21:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-20 07:02:36</t>
+          <t>2025-05-12 12:06:00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-20 07:02:36</t>
+          <t>2025-05-12 12:06:00</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-20 07:45:03</t>
+          <t>2025-05-13 09:48:10</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>2717</v>
+        <v>24294</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2643,11 +2623,11 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
@@ -2660,7 +2640,7 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
@@ -2670,46 +2650,46 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251546</v>
+        <v>251520</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="D30" t="n">
-        <v>101.03125</v>
+        <v>230.1408450704225</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-20 07:45:03</t>
+          <t>2025-05-13 09:48:10</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-20 08:04:03</t>
+          <t>2025-05-13 10:58:10</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-20 08:04:03</t>
+          <t>2025-05-13 10:58:10</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-20 09:45:05</t>
+          <t>2025-05-13 14:48:19</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>6466</v>
+        <v>16340</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2718,11 +2698,11 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M30" t="n">
         <v>70</v>
@@ -2735,56 +2715,56 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>0</v>
+        <v>-2.359575508611111</v>
       </c>
       <c r="S30" s="1" t="n">
-        <v>0</v>
+        <v>-1.616891627546296</v>
       </c>
       <c r="T30" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251245</v>
+        <v>245350</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D31" t="n">
-        <v>11.78125</v>
+        <v>393.943661971831</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-20 09:45:05</t>
+          <t>2025-05-13 14:48:19</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-20 10:02:05</t>
+          <t>2025-05-14 07:38:19</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-20 10:02:05</t>
+          <t>2025-05-14 07:38:19</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-20 10:13:52</t>
+          <t>2025-05-14 14:12:16</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>754</v>
+        <v>27970</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2793,11 +2773,11 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M31" t="n">
         <v>70</v>
@@ -2810,7 +2790,7 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
@@ -2820,46 +2800,46 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251463</v>
+        <v>251225</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>19</v>
       </c>
       <c r="D32" t="n">
-        <v>108.859375</v>
+        <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-20 10:13:52</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-20 10:32:52</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-20 10:32:52</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-20 12:21:44</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>6967</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2868,31 +2848,36 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
         <v>4</v>
       </c>
       <c r="M32" t="n">
-        <v>70</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N32" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>0</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="S32" s="1" t="n">
-        <v>0</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="T32" t="n">
         <v>1</v>
@@ -2900,41 +2885,41 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251462</v>
+        <v>251227</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D33" t="n">
-        <v>97.28125</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-20 12:21:44</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-20 12:40:44</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-20 12:40:44</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-20 14:18:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>6226</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2943,31 +2928,36 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M33" t="n">
-        <v>70</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N33" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>0</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="S33" s="1" t="n">
-        <v>0</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="T33" t="n">
         <v>1</v>
@@ -2975,41 +2965,41 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251562</v>
+        <v>251782</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D34" t="n">
-        <v>127.21875</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-20 14:18:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-20 14:33:00</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-20 14:33:00</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-21 08:40:14</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>8142</v>
+        <v>12073</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -3018,31 +3008,36 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M34" t="n">
-        <v>70</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N34" t="n">
+        <v>39754</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>39754</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>0</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="S34" s="1" t="n">
-        <v>0</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="T34" t="n">
         <v>1</v>
@@ -3050,41 +3045,41 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251251</v>
+        <v>251340</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D35" t="n">
-        <v>247.8125</v>
+        <v>461.9718309859155</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-21 08:40:14</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-21 09:03:14</t>
+          <t>2025-05-09 07:58:02</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-21 09:03:14</t>
+          <t>2025-05-09 07:58:02</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-21 13:11:02</t>
+          <t>2025-05-12 07:40:00</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>15860</v>
+        <v>32800</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -3093,14 +3088,14 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M35" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -3110,56 +3105,56 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
-        <v>0</v>
+        <v>-14.31945422534722</v>
       </c>
       <c r="S35" s="1" t="n">
-        <v>0</v>
+        <v>-14.31945422534722</v>
       </c>
       <c r="T35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>245275</v>
+        <v>243569</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D36" t="n">
-        <v>379.59375</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-21 13:11:02</t>
+          <t>2025-05-12 07:40:00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-21 13:42:02</t>
+          <t>2025-05-12 07:57:00</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-21 13:42:02</t>
+          <t>2025-05-12 07:57:00</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-22 12:01:38</t>
+          <t>2025-05-12 08:33:38</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>24294</v>
+        <v>2601</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3168,14 +3163,14 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="M36" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -3185,56 +3180,56 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2024-09-16 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
-        <v>0</v>
+        <v>-238.3566999217477</v>
       </c>
       <c r="S36" s="1" t="n">
-        <v>0</v>
+        <v>-238.3566999217477</v>
       </c>
       <c r="T36" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>251050</v>
+        <v>245623</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>217</v>
+        <v>32</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-12 08:33:38</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-12 09:05:38</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-12 09:05:38</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-13 07:17:44</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>26419</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3243,36 +3238,31 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="M37" t="n">
-        <v>70</v>
-      </c>
-      <c r="N37" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-108.3039906103241</v>
       </c>
       <c r="S37" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-108.3039906103241</v>
       </c>
       <c r="T37" t="n">
         <v>2</v>
@@ -3280,41 +3270,41 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251054</v>
+        <v>243335</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-13 07:17:44</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-13 07:36:44</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-13 07:36:44</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-14 07:21:35</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>33004</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3323,78 +3313,73 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M38" t="n">
-        <v>70</v>
-      </c>
-      <c r="N38" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-285.306660798125</v>
       </c>
       <c r="S38" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-285.306660798125</v>
       </c>
       <c r="T38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>251081</v>
+        <v>251750</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="D39" t="n">
-        <v>42.42253521126761</v>
+        <v>54.80281690140845</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-14 07:21:35</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-14 07:38:35</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-14 07:38:35</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-14 08:33:23</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>3012</v>
+        <v>3891</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3403,80 +3388,73 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="M39" t="n">
-        <v>70</v>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>39750</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>0</v>
       </c>
       <c r="S39" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251109</v>
+        <v>251284</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>55</v>
+        <v>40.5</v>
       </c>
       <c r="D40" t="n">
-        <v>266.5915492957747</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-09 14:54:25</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-09 14:54:25</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-12 11:21:00</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>18928</v>
+        <v>16340</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3485,73 +3463,78 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="M40" t="n">
         <v>70</v>
       </c>
-      <c r="O40" t="n">
-        <v>0</v>
+      <c r="N40" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S40" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="T40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>251520</v>
+        <v>251505</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>80</v>
+        <v>34.5</v>
       </c>
       <c r="D41" t="n">
-        <v>230.1408450704225</v>
+        <v>259.1818181818182</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-12 11:21:00</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-12 12:41:00</t>
+          <t>2025-05-09 13:12:05</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-12 12:41:00</t>
+          <t>2025-05-09 13:12:05</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-13 08:31:09</t>
+          <t>2025-05-12 09:31:16</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>16340</v>
+        <v>14255</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3560,11 +3543,11 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M41" t="n">
         <v>70</v>
@@ -3577,56 +3560,56 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>0</v>
+        <v>-7.396717171712963</v>
       </c>
       <c r="S41" s="1" t="n">
-        <v>0</v>
+        <v>-7.396717171712963</v>
       </c>
       <c r="T41" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251626</v>
+        <v>251397</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>40</v>
+        <v>34.5</v>
       </c>
       <c r="D42" t="n">
-        <v>204.9180327868852</v>
+        <v>98.81818181818181</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-12 09:31:16</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:00</t>
+          <t>2025-05-12 10:05:46</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:00</t>
+          <t>2025-05-12 10:05:46</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-09 11:04:55</t>
+          <t>2025-05-12 11:44:35</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>12500</v>
+        <v>5435</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3652,56 +3635,56 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>0</v>
+        <v>-14.48929924241898</v>
       </c>
       <c r="S42" s="1" t="n">
-        <v>0</v>
+        <v>-14.48929924241898</v>
       </c>
       <c r="T42" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251594</v>
+        <v>244354</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>27</v>
+        <v>32.5</v>
       </c>
       <c r="D43" t="n">
-        <v>106</v>
+        <v>78.36363636363636</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-09 11:04:55</t>
+          <t>2025-05-12 11:44:35</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-09 11:31:55</t>
+          <t>2025-05-12 12:17:05</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-09 11:31:55</t>
+          <t>2025-05-12 12:17:05</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:55</t>
+          <t>2025-05-12 13:35:27</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>6466</v>
+        <v>4310</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3727,14 +3710,14 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>0</v>
+        <v>-4.566287878784722</v>
       </c>
       <c r="S43" s="1" t="n">
-        <v>0</v>
+        <v>-4.566287878784722</v>
       </c>
       <c r="T43" t="n">
         <v>4</v>
@@ -3742,41 +3725,41 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>244204</v>
+        <v>250819</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>25</v>
+        <v>34.5</v>
       </c>
       <c r="D44" t="n">
-        <v>56.91803278688525</v>
+        <v>155.0363636363636</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:55</t>
+          <t>2025-05-12 13:35:27</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-09 13:42:55</t>
+          <t>2025-05-12 14:09:57</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-09 13:42:55</t>
+          <t>2025-05-12 14:09:57</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-05-09 14:39:50</t>
+          <t>2025-05-13 08:44:59</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>3472</v>
+        <v>8527</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3789,7 +3772,7 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M44" t="n">
         <v>70</v>
@@ -3802,56 +3785,56 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>0</v>
+        <v>-25.36457702019676</v>
       </c>
       <c r="S44" s="1" t="n">
-        <v>0</v>
+        <v>-25.36457702019676</v>
       </c>
       <c r="T44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>251374</v>
+        <v>251247</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>31</v>
+        <v>30.5</v>
       </c>
       <c r="D45" t="n">
-        <v>448.2459016393443</v>
+        <v>489.7090909090909</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-09 14:39:50</t>
+          <t>2025-05-13 08:44:59</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-12 07:10:50</t>
+          <t>2025-05-13 09:15:29</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-12 07:10:50</t>
+          <t>2025-05-13 09:15:29</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-12 14:39:04</t>
+          <t>2025-05-14 09:25:12</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>27343</v>
+        <v>26934</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3864,7 +3847,7 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M45" t="n">
         <v>70</v>
@@ -3877,14 +3860,14 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>0</v>
+        <v>-5.3925</v>
       </c>
       <c r="S45" s="1" t="n">
-        <v>0</v>
+        <v>-5.3925</v>
       </c>
       <c r="T45" t="n">
         <v>1</v>
@@ -3892,7 +3875,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>251346</v>
+        <v>251651</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3900,33 +3883,33 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D46" t="n">
-        <v>63.26229508196721</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-12 14:39:04</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-13 07:06:04</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-13 07:06:04</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-13 08:09:20</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>3859</v>
+        <v>46830</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3935,14 +3918,17 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M46" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N46" t="n">
+        <v>39755</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -3952,7 +3938,7 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
@@ -3962,12 +3948,12 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>244023</v>
+        <v>251346</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3975,33 +3961,33 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D47" t="n">
-        <v>16.34426229508197</v>
+        <v>63.26229508196721</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-05-13 08:09:20</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-13 08:38:20</t>
+          <t>2025-05-12 13:02:42</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-05-13 08:38:20</t>
+          <t>2025-05-12 13:02:42</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-05-13 08:54:41</t>
+          <t>2025-05-12 14:05:58</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>997</v>
+        <v>3859</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -4014,7 +4000,7 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M47" t="n">
         <v>70</v>
@@ -4027,22 +4013,22 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>0</v>
+        <v>-15.31380919854167</v>
       </c>
       <c r="S47" s="1" t="n">
-        <v>0</v>
+        <v>-14.58747723133102</v>
       </c>
       <c r="T47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>251283</v>
+        <v>244023</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -4050,33 +4036,33 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D48" t="n">
-        <v>12.36065573770492</v>
+        <v>16.34426229508197</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-13 08:54:41</t>
+          <t>2025-05-12 14:05:58</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-13 09:19:41</t>
+          <t>2025-05-12 14:34:58</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-13 09:19:41</t>
+          <t>2025-05-12 14:34:58</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-05-13 09:32:02</t>
+          <t>2025-05-12 14:51:18</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>754</v>
+        <v>997</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -4085,7 +4071,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
@@ -4102,14 +4088,14 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-03-18 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>0</v>
+        <v>-225.3452982695833</v>
       </c>
       <c r="S48" s="1" t="n">
-        <v>0</v>
+        <v>-224.6189663023727</v>
       </c>
       <c r="T48" t="n">
         <v>1</v>
@@ -4117,7 +4103,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>251464</v>
+        <v>251283</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -4125,33 +4111,33 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D49" t="n">
-        <v>117.2622950819672</v>
+        <v>12.36065573770492</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-13 09:32:02</t>
+          <t>2025-05-12 14:51:18</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-13 10:01:02</t>
+          <t>2025-05-13 07:16:18</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-13 10:01:02</t>
+          <t>2025-05-13 07:16:18</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-13 11:58:18</t>
+          <t>2025-05-13 07:28:40</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>7153</v>
+        <v>754</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4160,11 +4146,11 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M49" t="n">
         <v>70</v>
@@ -4177,14 +4163,14 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-03-18 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>0</v>
+        <v>-56.37124316939815</v>
       </c>
       <c r="S49" s="1" t="n">
-        <v>0</v>
+        <v>-56.31157786885417</v>
       </c>
       <c r="T49" t="n">
         <v>1</v>
@@ -4192,7 +4178,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251260</v>
+        <v>251464</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -4203,30 +4189,30 @@
         <v>29</v>
       </c>
       <c r="D50" t="n">
-        <v>153.5901639344262</v>
+        <v>117.2622950819672</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-13 11:58:18</t>
+          <t>2025-05-13 07:28:40</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-13 12:27:18</t>
+          <t>2025-05-13 07:57:40</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-13 12:27:18</t>
+          <t>2025-05-13 07:57:40</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-14 07:00:54</t>
+          <t>2025-05-13 09:54:56</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>9369</v>
+        <v>7153</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4235,11 +4221,11 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M50" t="n">
         <v>70</v>
@@ -4252,14 +4238,14 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>0</v>
+        <v>-4.472814207650463</v>
       </c>
       <c r="S50" s="1" t="n">
-        <v>0</v>
+        <v>-4.413148907106482</v>
       </c>
       <c r="T50" t="n">
         <v>1</v>
@@ -4267,7 +4253,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251249</v>
+        <v>251467</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -4275,33 +4261,33 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D51" t="n">
-        <v>78</v>
+        <v>102.0655737704918</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-14 07:00:54</t>
+          <t>2025-05-13 09:54:56</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-14 07:25:54</t>
+          <t>2025-05-13 10:23:56</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-14 07:25:54</t>
+          <t>2025-05-13 10:23:56</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-14 08:43:54</t>
+          <t>2025-05-13 12:06:00</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>4758</v>
+        <v>6226</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4310,11 +4296,11 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M51" t="n">
         <v>70</v>
@@ -4327,14 +4313,14 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>0</v>
+        <v>-4.563831967210648</v>
       </c>
       <c r="S51" s="1" t="n">
-        <v>0</v>
+        <v>-4.504166666666666</v>
       </c>
       <c r="T51" t="n">
         <v>1</v>
@@ -4342,7 +4328,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>245090</v>
+        <v>251229</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -4350,33 +4336,33 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D52" t="n">
-        <v>8470.786885245901</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-14 08:43:54</t>
+          <t>2025-05-13 12:06:00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-14 09:25:54</t>
+          <t>2025-05-13 12:39:00</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-14 09:25:54</t>
+          <t>2025-05-13 12:39:00</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-06-06 14:36:41</t>
+          <t>2025-05-14 09:46:11</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>516718</v>
+        <v>18739</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4385,24 +4371,31 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M52" t="n">
-        <v>76</v>
-      </c>
-      <c r="O52" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P52" t="n">
-        <v>0</v>
+        <v>39723</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
@@ -4417,7 +4410,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>251987</v>
+        <v>251249</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -4425,33 +4418,33 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D53" t="n">
-        <v>3451.245901639344</v>
+        <v>78</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-06-06 14:36:41</t>
+          <t>2025-05-14 09:46:11</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-06-09 07:03:41</t>
+          <t>2025-05-14 10:11:11</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-06-09 07:03:41</t>
+          <t>2025-05-14 10:11:11</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-06-18 08:34:56</t>
+          <t>2025-05-14 11:29:11</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>210526</v>
+        <v>4758</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4460,14 +4453,14 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L53" t="n">
         <v>6</v>
       </c>
       <c r="M53" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -4477,7 +4470,7 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2025-09-01 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
@@ -4492,41 +4485,41 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>251284</v>
+        <v>245089</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>40.5</v>
+        <v>44</v>
       </c>
       <c r="D54" t="n">
-        <v>297.0909090909091</v>
+        <v>2010.901639344262</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-14 11:29:11</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-14 12:13:11</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-14 12:13:11</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-20 13:44:05</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>16340</v>
+        <v>122665</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4535,36 +4528,31 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M54" t="n">
-        <v>70</v>
-      </c>
-      <c r="N54" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>0</v>
       </c>
       <c r="S54" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>0</v>
       </c>
       <c r="T54" t="n">
         <v>1</v>
@@ -4572,41 +4560,41 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>251373</v>
+        <v>245090</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>34.5</v>
+        <v>27</v>
       </c>
       <c r="D55" t="n">
-        <v>310.8</v>
+        <v>8470.786885245901</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-20 13:44:05</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-09 13:12:05</t>
+          <t>2025-05-20 14:11:05</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-09 13:12:05</t>
+          <t>2025-05-20 14:11:05</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-12 10:22:53</t>
+          <t>2025-06-13 11:21:53</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>17094</v>
+        <v>516718</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4615,14 +4603,14 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
         <v>5</v>
       </c>
       <c r="M55" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -4632,7 +4620,7 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
@@ -4642,46 +4630,46 @@
         <v>0</v>
       </c>
       <c r="T55" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>251397</v>
+        <v>251987</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>34.5</v>
+        <v>27</v>
       </c>
       <c r="D56" t="n">
-        <v>98.81818181818181</v>
+        <v>3451.245901639344</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-12 10:22:53</t>
+          <t>2025-06-13 11:21:53</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-12 10:57:23</t>
+          <t>2025-06-13 11:48:53</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-12 10:57:23</t>
+          <t>2025-06-13 11:48:53</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-12 12:36:12</t>
+          <t>2025-06-24 13:20:07</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>5435</v>
+        <v>210526</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4690,14 +4678,14 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M56" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -4707,7 +4695,7 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-09-01 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
@@ -4717,46 +4705,46 @@
         <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>244354</v>
+        <v>250641</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>32.5</v>
+        <v>45</v>
       </c>
       <c r="D57" t="n">
-        <v>78.36363636363636</v>
+        <v>74.14492753623189</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-12 12:36:12</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-12 13:08:42</t>
+          <t>2025-05-12 07:45:00</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-12 13:08:42</t>
+          <t>2025-05-12 07:45:00</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-12 14:27:04</t>
+          <t>2025-05-12 08:59:08</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>4310</v>
+        <v>5116</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4769,7 +4757,7 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M57" t="n">
         <v>70</v>
@@ -4782,56 +4770,56 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>0</v>
+        <v>-15.36771336554398</v>
       </c>
       <c r="S57" s="1" t="n">
-        <v>0</v>
+        <v>-14.37440619967592</v>
       </c>
       <c r="T57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>250819</v>
+        <v>251547</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>34.5</v>
+        <v>34</v>
       </c>
       <c r="D58" t="n">
-        <v>155.0363636363636</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-12 14:27:04</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-13 07:01:34</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-13 07:01:34</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-13 09:36:36</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>8527</v>
+        <v>13129</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4844,69 +4832,74 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M58" t="n">
         <v>70</v>
       </c>
-      <c r="O58" t="n">
-        <v>0</v>
+      <c r="N58" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P58" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>0</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S58" s="1" t="n">
-        <v>0</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="T58" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>251247</v>
+        <v>250759</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>30.5</v>
+        <v>30</v>
       </c>
       <c r="D59" t="n">
-        <v>489.7090909090909</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-13 09:36:36</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-13 10:07:06</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-13 10:07:06</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-14 10:16:49</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>26934</v>
+        <v>8398</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4915,31 +4908,36 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M59" t="n">
-        <v>70</v>
-      </c>
-      <c r="O59" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N59" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P59" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>0</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S59" s="1" t="n">
-        <v>0</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="T59" t="n">
         <v>1</v>
@@ -4947,41 +4945,41 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>251795</v>
+        <v>250894</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>30.5</v>
+        <v>17</v>
       </c>
       <c r="D60" t="n">
-        <v>340.7090909090909</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-14 10:16:49</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-14 10:47:19</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-14 10:47:19</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-15 08:28:01</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>18739</v>
+        <v>44262</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4990,14 +4988,17 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M60" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N60" t="n">
+        <v>39755</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
@@ -5007,7 +5008,7 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2025-06-19 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
@@ -5017,94 +5018,87 @@
         <v>0</v>
       </c>
       <c r="T60" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>251706</v>
+        <v>235572</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D61" t="n">
-        <v>50.79365079365079</v>
+        <v>140.2535211267606</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-12 08:17:36</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-12 08:17:36</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-12 10:37:51</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>3200</v>
+        <v>9958</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>39764</v>
+        <v>0</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2023-11-06 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>0</v>
+        <v>-553.4429577464815</v>
       </c>
       <c r="S61" s="1" t="n">
-        <v>0</v>
+        <v>-553.4429577464815</v>
       </c>
       <c r="T61" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>251547</v>
+        <v>251475</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -5112,33 +5106,33 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D62" t="n">
-        <v>184.9154929577465</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-12 10:37:51</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-12 10:54:51</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-12 10:54:51</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-12 12:57:07</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>13129</v>
+        <v>8681</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -5156,35 +5150,30 @@
       <c r="M62" t="n">
         <v>70</v>
       </c>
-      <c r="N62" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O62" t="n">
+        <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-12.53967136150463</v>
       </c>
       <c r="S62" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-12.53967136150463</v>
       </c>
       <c r="T62" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>250759</v>
+        <v>251809</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -5192,33 +5181,33 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D63" t="n">
-        <v>118.2816901408451</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-12 12:57:07</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-12 13:12:07</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-12 13:12:07</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-13 07:14:23</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>8398</v>
+        <v>8681</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5227,44 +5216,39 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L63" t="n">
         <v>4</v>
       </c>
       <c r="M63" t="n">
-        <v>76</v>
-      </c>
-      <c r="N63" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
       </c>
       <c r="P63" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>0</v>
       </c>
       <c r="S63" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>0</v>
       </c>
       <c r="T63" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>250670</v>
+        <v>251259</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -5272,33 +5256,33 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D64" t="n">
-        <v>22.01408450704225</v>
+        <v>70.4225352112676</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-13 07:14:23</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-08 13:22:11</t>
+          <t>2025-05-13 07:39:23</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-08 13:22:11</t>
+          <t>2025-05-13 07:39:23</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-08 13:44:12</t>
+          <t>2025-05-13 08:49:49</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1563</v>
+        <v>5000</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5307,14 +5291,14 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M64" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
@@ -5324,14 +5308,14 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>0</v>
+        <v>-7.367928403761574</v>
       </c>
       <c r="S64" s="1" t="n">
-        <v>0</v>
+        <v>-7.367928403761574</v>
       </c>
       <c r="T64" t="n">
         <v>2</v>
@@ -5339,7 +5323,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>250894</v>
+        <v>251466</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -5347,33 +5331,33 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D65" t="n">
-        <v>623.4084507042254</v>
+        <v>78.40845070422536</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-08 13:44:12</t>
+          <t>2025-05-13 08:49:49</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-08 14:01:12</t>
+          <t>2025-05-13 09:16:49</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-08 14:01:12</t>
+          <t>2025-05-13 09:16:49</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-12 08:24:37</t>
+          <t>2025-05-13 10:35:13</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>44262</v>
+        <v>5567</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5382,17 +5366,14 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M65" t="n">
-        <v>76</v>
-      </c>
-      <c r="N65" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O65" t="n">
         <v>0</v>
@@ -5402,22 +5383,22 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>0</v>
+        <v>-4.441128716747685</v>
       </c>
       <c r="S65" s="1" t="n">
-        <v>0</v>
+        <v>-4.441128716747685</v>
       </c>
       <c r="T65" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251505</v>
+        <v>251465</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -5425,33 +5406,33 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D66" t="n">
-        <v>200.7746478873239</v>
+        <v>87.69014084507042</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-12 08:24:37</t>
+          <t>2025-05-13 10:35:13</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-12 08:54:37</t>
+          <t>2025-05-13 10:52:13</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-12 08:54:37</t>
+          <t>2025-05-13 10:52:13</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-12 12:15:23</t>
+          <t>2025-05-13 12:19:54</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>14255</v>
+        <v>6226</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5464,7 +5445,7 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M66" t="n">
         <v>70</v>
@@ -5477,22 +5458,22 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>0</v>
+        <v>-4.513830203437499</v>
       </c>
       <c r="S66" s="1" t="n">
-        <v>0</v>
+        <v>-4.513830203437499</v>
       </c>
       <c r="T66" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>251229</v>
+        <v>251562</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -5500,33 +5481,33 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D67" t="n">
-        <v>263.9295774647887</v>
+        <v>114.6760563380282</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-12 12:15:23</t>
+          <t>2025-05-13 12:19:54</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-12 12:32:23</t>
+          <t>2025-05-13 12:34:54</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-12 12:32:23</t>
+          <t>2025-05-13 12:34:54</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-13 08:56:19</t>
+          <t>2025-05-13 14:29:35</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>18739</v>
+        <v>8142</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5535,27 +5516,20 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M67" t="n">
         <v>70</v>
       </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O67" t="n">
+        <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>39723</v>
+        <v>0</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5574,7 +5548,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>251246</v>
+        <v>251846</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -5585,30 +5559,30 @@
         <v>15</v>
       </c>
       <c r="D68" t="n">
-        <v>169.0422535211268</v>
+        <v>160.4507042253521</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-13 08:56:19</t>
+          <t>2025-05-13 14:29:35</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-13 09:11:19</t>
+          <t>2025-05-13 14:44:35</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-13 09:11:19</t>
+          <t>2025-05-13 14:44:35</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-13 12:00:21</t>
+          <t>2025-05-14 09:25:02</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>12002</v>
+        <v>11392</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5617,11 +5591,11 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M68" t="n">
         <v>70</v>
@@ -5634,7 +5608,7 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
@@ -5644,12 +5618,12 @@
         <v>0</v>
       </c>
       <c r="T68" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>235572</v>
+        <v>251557</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -5657,33 +5631,33 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D69" t="n">
-        <v>140.2535211267606</v>
+        <v>94.43661971830986</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-13 12:00:21</t>
+          <t>2025-05-14 09:25:02</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-13 12:17:21</t>
+          <t>2025-05-14 09:40:02</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-13 12:17:21</t>
+          <t>2025-05-14 09:40:02</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-13 14:37:37</t>
+          <t>2025-05-14 11:14:28</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>9958</v>
+        <v>6705</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5692,11 +5666,11 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M69" t="n">
         <v>70</v>
@@ -5709,7 +5683,7 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2023-11-06 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
@@ -5719,72 +5693,79 @@
         <v>0</v>
       </c>
       <c r="T69" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>251475</v>
+        <v>251706</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>122.2676056338028</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-13 14:37:37</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-13 14:54:37</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-13 14:54:37</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-14 08:56:53</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>8681</v>
+        <v>3200</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>70</v>
-      </c>
-      <c r="O70" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P70" t="n">
-        <v>0</v>
+        <v>39764</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
@@ -5794,46 +5775,46 @@
         <v>0</v>
       </c>
       <c r="T70" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>251809</v>
+        <v>251455</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D71" t="n">
-        <v>122.2676056338028</v>
+        <v>82.765625</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-14 08:56:53</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-14 09:11:53</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-14 09:11:53</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-14 11:14:09</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>8681</v>
+        <v>5297</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5851,64 +5832,69 @@
       <c r="M71" t="n">
         <v>70</v>
       </c>
-      <c r="O71" t="n">
-        <v>0</v>
+      <c r="N71" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P71" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>0</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="S71" s="1" t="n">
-        <v>0</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="T71" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>245350</v>
+        <v>251391</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D72" t="n">
-        <v>393.943661971831</v>
+        <v>91.640625</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-14 11:14:09</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-14 11:41:09</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-14 11:41:09</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-15 10:15:05</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>27970</v>
+        <v>5865</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5917,31 +5903,36 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M72" t="n">
         <v>70</v>
       </c>
-      <c r="O72" t="n">
-        <v>0</v>
+      <c r="N72" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P72" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>0</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="S72" s="1" t="n">
-        <v>0</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="T72" t="n">
         <v>7</v>
@@ -5949,41 +5940,41 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>251259</v>
+        <v>251395</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C73" t="n">
         <v>17</v>
       </c>
       <c r="D73" t="n">
-        <v>70.4225352112676</v>
+        <v>35.34375</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-15 10:15:05</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-15 10:32:05</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-15 10:32:05</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-15 11:42:31</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>5000</v>
+        <v>2262</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5996,69 +5987,74 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M73" t="n">
         <v>70</v>
       </c>
-      <c r="O73" t="n">
-        <v>0</v>
+      <c r="N73" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P73" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
-        <v>0</v>
+        <v>-0.4741319444444445</v>
       </c>
       <c r="S73" s="1" t="n">
-        <v>0</v>
+        <v>-0.4741319444444445</v>
       </c>
       <c r="T73" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>251466</v>
+        <v>251371</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D74" t="n">
-        <v>78.40845070422536</v>
+        <v>0</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-15 11:42:31</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-15 12:09:31</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-15 12:09:31</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-15 13:27:55</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>5567</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -6071,69 +6067,76 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M74" t="n">
         <v>70</v>
       </c>
-      <c r="O74" t="n">
-        <v>0</v>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P74" t="n">
-        <v>0</v>
+        <v>39666</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
-        <v>0</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="S74" s="1" t="n">
-        <v>0</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="T74" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>251465</v>
+        <v>251396</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D75" t="n">
-        <v>87.69014084507042</v>
+        <v>35.34375</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-15 13:27:55</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-15 13:44:55</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-15 13:44:55</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-16 07:12:37</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>6226</v>
+        <v>2262</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -6146,69 +6149,74 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M75" t="n">
         <v>70</v>
       </c>
-      <c r="O75" t="n">
-        <v>0</v>
+      <c r="N75" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P75" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
-        <v>0</v>
+        <v>-0.5250651041666666</v>
       </c>
       <c r="S75" s="1" t="n">
-        <v>0</v>
+        <v>-0.5250651041666666</v>
       </c>
       <c r="T75" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>251557</v>
+        <v>251548</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D76" t="n">
-        <v>94.43661971830986</v>
+        <v>206.90625</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-05-16 07:12:37</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-05-16 07:27:37</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-05-16 07:27:37</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-05-16 09:02:03</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>6705</v>
+        <v>13242</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -6221,69 +6229,74 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M76" t="n">
         <v>70</v>
       </c>
-      <c r="O76" t="n">
-        <v>0</v>
+      <c r="N76" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P76" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R76" s="1" t="n">
-        <v>0</v>
+        <v>-1.348611111111111</v>
       </c>
       <c r="S76" s="1" t="n">
-        <v>0</v>
+        <v>-1.348611111111111</v>
       </c>
       <c r="T76" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>251062</v>
+        <v>250923</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D77" t="n">
-        <v>318.6478873239437</v>
+        <v>109.46875</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-05-16 09:02:03</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-05-16 09:25:03</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-05-16 09:25:03</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-05-16 14:43:42</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>22624</v>
+        <v>7006</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -6292,73 +6305,78 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M77" t="n">
-        <v>70</v>
-      </c>
-      <c r="O77" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N77" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P77" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R77" s="1" t="n">
-        <v>0</v>
+        <v>-1.446853298611111</v>
       </c>
       <c r="S77" s="1" t="n">
-        <v>0</v>
+        <v>-1.446853298611111</v>
       </c>
       <c r="T77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>251164</v>
+        <v>251477</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="D78" t="n">
-        <v>204.0816326530612</v>
+        <v>468.734375</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>10000</v>
+        <v>29999</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -6367,17 +6385,17 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M78" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N78" t="n">
-        <v>39749</v>
+        <v>39760</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -6385,60 +6403,60 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>39749</v>
+        <v>39760</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R78" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>-2.452224392361111</v>
       </c>
       <c r="S78" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>-2.452224392361111</v>
       </c>
       <c r="T78" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>251061</v>
+        <v>251564</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D79" t="n">
-        <v>489.734693877551</v>
+        <v>42.453125</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-05-08 11:54:04</t>
+          <t>2025-05-09 11:21:12</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-05-08 11:54:04</t>
+          <t>2025-05-09 11:21:12</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-05-09 12:03:48</t>
+          <t>2025-05-09 12:03:39</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>23997</v>
+        <v>2717</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -6447,11 +6465,11 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M79" t="n">
         <v>70</v>
@@ -6464,56 +6482,56 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R79" s="1" t="n">
-        <v>0</v>
+        <v>-2.5025390625</v>
       </c>
       <c r="S79" s="1" t="n">
-        <v>0</v>
+        <v>-2.5025390625</v>
       </c>
       <c r="T79" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>251225</v>
+        <v>251546</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C80" t="n">
         <v>19</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>101.03125</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-09 12:03:39</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 12:22:39</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 12:22:39</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 14:03:41</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>6466</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -6522,25 +6540,20 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M80" t="n">
-        <v>76</v>
-      </c>
-      <c r="N80" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0</v>
       </c>
       <c r="P80" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6548,52 +6561,52 @@
         </is>
       </c>
       <c r="R80" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-9.585894097222223</v>
       </c>
       <c r="S80" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-9.585894097222223</v>
       </c>
       <c r="T80" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>251227</v>
+        <v>251743</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>168.375</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 14:03:41</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 14:20:41</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 14:20:41</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-12 09:09:03</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>10776</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -6602,78 +6615,73 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L81" t="n">
         <v>4</v>
       </c>
       <c r="M81" t="n">
-        <v>76</v>
-      </c>
-      <c r="N81" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R81" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>0</v>
       </c>
       <c r="S81" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>0</v>
       </c>
       <c r="T81" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>251782</v>
+        <v>251463</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D82" t="n">
-        <v>170.0422535211268</v>
+        <v>108.859375</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-12 09:09:03</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-12 09:24:03</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-12 09:24:03</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-12 11:12:55</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>12073</v>
+        <v>6967</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -6682,36 +6690,31 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M82" t="n">
-        <v>76</v>
-      </c>
-      <c r="N82" t="n">
-        <v>39754</v>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0</v>
       </c>
       <c r="P82" t="n">
-        <v>39754</v>
+        <v>0</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R82" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-4.457150607638889</v>
       </c>
       <c r="S82" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-3.467306857638889</v>
       </c>
       <c r="T82" t="n">
         <v>1</v>
@@ -6719,41 +6722,41 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>251651</v>
+        <v>251462</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C83" t="n">
         <v>19</v>
       </c>
       <c r="D83" t="n">
-        <v>659.5774647887324</v>
+        <v>97.28125</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-12 11:12:55</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-05-09 08:00:02</t>
+          <t>2025-05-12 11:31:55</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-05-09 08:00:02</t>
+          <t>2025-05-12 11:31:55</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2025-05-12 10:59:37</t>
+          <t>2025-05-12 13:09:12</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>46830</v>
+        <v>6226</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -6762,17 +6765,14 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M83" t="n">
-        <v>76</v>
-      </c>
-      <c r="N83" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O83" t="n">
         <v>0</v>
@@ -6782,56 +6782,56 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R83" s="1" t="n">
-        <v>0</v>
+        <v>-4.537901475694444</v>
       </c>
       <c r="S83" s="1" t="n">
-        <v>0</v>
+        <v>-3.548057725694445</v>
       </c>
       <c r="T83" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>243569</v>
+        <v>251761</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C84" t="n">
         <v>19</v>
       </c>
       <c r="D84" t="n">
-        <v>36.63380281690141</v>
+        <v>207.484375</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-05-12 10:59:37</t>
+          <t>2025-05-12 13:09:12</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-05-12 11:18:37</t>
+          <t>2025-05-12 13:28:12</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-05-12 11:18:37</t>
+          <t>2025-05-12 13:28:12</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2025-05-12 11:55:15</t>
+          <t>2025-05-13 08:55:41</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>2601</v>
+        <v>13279</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -6840,14 +6840,14 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M84" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O84" t="n">
         <v>0</v>
@@ -6857,7 +6857,7 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-05-19 00:00:00</t>
         </is>
       </c>
       <c r="R84" s="1" t="n">
@@ -6872,41 +6872,41 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>245623</v>
+        <v>251580</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D85" t="n">
-        <v>372.0985915492957</v>
+        <v>111.765625</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-05-12 11:55:15</t>
+          <t>2025-05-13 08:55:41</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-05-12 12:27:15</t>
+          <t>2025-05-13 09:10:41</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-05-12 12:27:15</t>
+          <t>2025-05-13 09:10:41</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-05-13 10:39:21</t>
+          <t>2025-05-13 11:02:27</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>26419</v>
+        <v>7153</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -6915,14 +6915,14 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M85" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O85" t="n">
         <v>0</v>
@@ -6932,7 +6932,7 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R85" s="1" t="n">
@@ -6942,46 +6942,46 @@
         <v>0</v>
       </c>
       <c r="T85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>243335</v>
+        <v>251251</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C86" t="n">
         <v>19</v>
       </c>
       <c r="D86" t="n">
-        <v>464.8450704225352</v>
+        <v>247.8125</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-05-13 10:39:21</t>
+          <t>2025-05-13 11:02:27</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-05-13 10:58:21</t>
+          <t>2025-05-13 11:21:27</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-05-13 10:58:21</t>
+          <t>2025-05-13 11:21:27</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2025-05-14 10:43:11</t>
+          <t>2025-05-14 07:29:15</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>33004</v>
+        <v>15860</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -6990,14 +6990,14 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M86" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O86" t="n">
         <v>0</v>
@@ -7007,7 +7007,7 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R86" s="1" t="n">
@@ -7022,41 +7022,41 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>251750</v>
+        <v>251260</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D87" t="n">
-        <v>54.80281690140845</v>
+        <v>146.390625</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-05-14 10:43:11</t>
+          <t>2025-05-14 07:29:15</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-05-14 11:00:11</t>
+          <t>2025-05-14 07:44:15</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-05-14 11:00:11</t>
+          <t>2025-05-14 07:44:15</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2025-05-14 11:55:00</t>
+          <t>2025-05-14 10:10:39</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>3891</v>
+        <v>9369</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -7065,14 +7065,14 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M87" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O87" t="n">
         <v>0</v>
@@ -7082,7 +7082,7 @@
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R87" s="1" t="n">

--- a/PS-VRP/Dati_output/insert_inter_post.xlsx
+++ b/PS-VRP/Dati_output/insert_inter_post.xlsx
@@ -515,18 +515,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251742</v>
+        <v>251547</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>134.8524590163935</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -535,21 +535,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>8226</v>
+        <v>13129</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -580,14 +580,14 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="T2" t="n">
         <v>7</v>
@@ -595,41 +595,41 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251840</v>
+        <v>250759</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>93.67213114754098</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>5714</v>
+        <v>8398</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -638,17 +638,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N3" t="n">
-        <v>39758</v>
+        <v>39747</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -656,18 +656,18 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39758</v>
+        <v>39747</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="T3" t="n">
         <v>1</v>
@@ -675,41 +675,41 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251561</v>
+        <v>250894</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>89.09836065573771</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:03:31</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:03:31</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:32:37</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>5435</v>
+        <v>44262</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -718,14 +718,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
         <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N4" t="n">
+        <v>39755</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -735,56 +738,56 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-2.465152550092593</v>
+        <v>0</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>-1.564321493622685</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>244204</v>
+        <v>235572</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>56.91803278688525</v>
+        <v>140.2535211267606</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-08 13:32:37</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-08 13:57:37</t>
+          <t>2025-05-12 08:17:36</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-08 13:57:37</t>
+          <t>2025-05-12 08:17:36</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-08 14:54:32</t>
+          <t>2025-05-12 10:37:51</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>3472</v>
+        <v>9958</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -793,11 +796,11 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
@@ -810,14 +813,14 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2023-11-06 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-4.580293715844907</v>
+        <v>-553.4429577464815</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-0.6212090163888889</v>
+        <v>-553.4429577464815</v>
       </c>
       <c r="T5" t="n">
         <v>4</v>
@@ -825,41 +828,41 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251416</v>
+        <v>251475</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>183.9672131147541</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-08 14:54:32</t>
+          <t>2025-05-12 10:37:51</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-09 07:24:32</t>
+          <t>2025-05-12 10:54:51</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-09 07:24:32</t>
+          <t>2025-05-12 10:54:51</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-09 10:28:30</t>
+          <t>2025-05-12 12:57:07</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>11222</v>
+        <v>8681</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -872,14 +875,11 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
-      <c r="N6" t="n">
-        <v>39755</v>
-      </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
@@ -888,56 +888,56 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>0</v>
+        <v>-12.53967136150463</v>
       </c>
       <c r="S6" s="1" t="n">
-        <v>0</v>
+        <v>-12.53967136150463</v>
       </c>
       <c r="T6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251566</v>
+        <v>251809</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>112.9344262295082</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-09 10:28:30</t>
+          <t>2025-05-12 12:57:07</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-09 10:58:30</t>
+          <t>2025-05-12 13:12:07</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-09 10:58:30</t>
+          <t>2025-05-12 13:12:07</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-09 12:51:26</t>
+          <t>2025-05-13 07:14:23</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>6889</v>
+        <v>8681</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -963,56 +963,56 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-2.560940346087963</v>
+        <v>0</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>-2.535724043715278</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251519</v>
+        <v>251259</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>215.983606557377</v>
+        <v>70.4225352112676</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-09 12:51:26</t>
+          <t>2025-05-13 07:14:23</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-09 13:21:26</t>
+          <t>2025-05-13 07:39:23</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-09 13:21:26</t>
+          <t>2025-05-13 07:39:23</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-12 08:57:25</t>
+          <t>2025-05-13 08:49:49</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>13175</v>
+        <v>5000</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
@@ -1038,56 +1038,56 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>0</v>
+        <v>-7.367928403761574</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>0</v>
+        <v>-7.367928403761574</v>
       </c>
       <c r="T8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251424</v>
+        <v>251466</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D9" t="n">
-        <v>158.3934426229508</v>
+        <v>78.40845070422536</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-12 08:57:25</t>
+          <t>2025-05-13 08:49:49</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-12 09:27:25</t>
+          <t>2025-05-13 09:16:49</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-12 09:27:25</t>
+          <t>2025-05-13 09:16:49</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-12 12:05:49</t>
+          <t>2025-05-13 10:35:13</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>9662</v>
+        <v>5567</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
@@ -1113,56 +1113,56 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-14.50895947177083</v>
+        <v>-4.441128716747685</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-14.50404143898148</v>
+        <v>-4.441128716747685</v>
       </c>
       <c r="T9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>244355</v>
+        <v>251465</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D10" t="n">
-        <v>70.65573770491804</v>
+        <v>87.69014084507042</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-12 12:05:49</t>
+          <t>2025-05-13 10:35:13</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-12 12:25:49</t>
+          <t>2025-05-13 10:52:13</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-12 12:25:49</t>
+          <t>2025-05-13 10:52:13</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-12 13:36:28</t>
+          <t>2025-05-13 12:19:54</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>4310</v>
+        <v>6226</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
@@ -1188,56 +1188,56 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-4.571914845173612</v>
+        <v>-4.513830203437499</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>-4.566996812384259</v>
+        <v>-4.513830203437499</v>
       </c>
       <c r="T10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251485</v>
+        <v>251252</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11" t="n">
-        <v>78.81967213114754</v>
+        <v>212.4366197183099</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-12 13:36:28</t>
+          <t>2025-05-13 12:19:54</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-12 14:01:28</t>
+          <t>2025-05-13 12:42:54</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-12 14:01:28</t>
+          <t>2025-05-13 12:42:54</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-13 07:20:17</t>
+          <t>2025-05-14 08:15:21</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>4808</v>
+        <v>15083</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1246,11 +1246,11 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
@@ -1263,56 +1263,56 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-20.31067850637731</v>
+        <v>0</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>-20.30576047358796</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251245</v>
+        <v>251557</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" t="n">
-        <v>12.36065573770492</v>
+        <v>94.43661971830986</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-13 07:20:17</t>
+          <t>2025-05-14 08:15:21</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-13 07:45:17</t>
+          <t>2025-05-14 08:38:21</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-13 07:45:17</t>
+          <t>2025-05-14 08:38:21</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-13 07:57:39</t>
+          <t>2025-05-14 10:12:47</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>754</v>
+        <v>6705</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1321,11 +1321,11 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
@@ -1338,14 +1338,14 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-46.368359375</v>
+        <v>0</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>-46.33170537340278</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>1</v>
@@ -1353,41 +1353,41 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251246</v>
+        <v>251229</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D13" t="n">
-        <v>196.7540983606557</v>
+        <v>263.9295774647887</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-13 07:57:39</t>
+          <t>2025-05-14 10:12:47</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-13 08:17:39</t>
+          <t>2025-05-14 10:35:47</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-13 08:17:39</t>
+          <t>2025-05-14 10:35:47</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-13 11:34:24</t>
+          <t>2025-05-14 14:59:43</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>12002</v>
+        <v>18739</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -1405,22 +1405,29 @@
       <c r="M13" t="n">
         <v>70</v>
       </c>
-      <c r="O13" t="n">
-        <v>0</v>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>39723</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-4.505867552337963</v>
+        <v>0</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>-4.482229052824074</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>1</v>
@@ -1428,41 +1435,41 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251374</v>
+        <v>251795</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D14" t="n">
-        <v>448.2459016393443</v>
+        <v>263.9295774647887</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-13 11:34:24</t>
+          <t>2025-05-14 14:59:43</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-13 11:59:24</t>
+          <t>2025-05-15 07:14:43</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-13 11:59:24</t>
+          <t>2025-05-15 07:14:43</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-14 11:27:39</t>
+          <t>2025-05-15 11:38:38</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>27343</v>
+        <v>18739</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1471,11 +1478,11 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
@@ -1488,7 +1495,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-06-19 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
@@ -1503,41 +1510,41 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251795</v>
+        <v>245350</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15" t="n">
-        <v>307.1967213114754</v>
+        <v>393.943661971831</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-14 11:27:39</t>
+          <t>2025-05-15 11:38:38</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-14 11:52:39</t>
+          <t>2025-05-15 12:01:38</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-14 11:52:39</t>
+          <t>2025-05-15 12:01:38</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-15 08:59:51</t>
+          <t>2025-05-16 10:35:35</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>18739</v>
+        <v>27970</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1546,11 +1553,11 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
@@ -1563,7 +1570,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-06-19 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
@@ -1573,46 +1580,46 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251062</v>
+        <v>251519</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D16" t="n">
-        <v>370.8852459016393</v>
+        <v>185.5633802816901</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-15 08:59:51</t>
+          <t>2025-05-16 10:35:35</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-15 09:19:51</t>
+          <t>2025-05-16 11:06:35</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-15 09:19:51</t>
+          <t>2025-05-16 11:06:35</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-16 07:30:44</t>
+          <t>2025-05-16 14:12:09</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>22624</v>
+        <v>13175</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1621,11 +1628,11 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
@@ -1638,7 +1645,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
@@ -1648,46 +1655,46 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251164</v>
+        <v>251846</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="D17" t="n">
-        <v>204.0816326530612</v>
+        <v>160.4507042253521</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-16 14:12:09</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-16 14:27:09</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-16 14:27:09</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-19 09:07:36</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>10000</v>
+        <v>11392</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1700,74 +1707,69 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
       </c>
-      <c r="N17" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O17" t="n">
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>0</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251456</v>
+        <v>251742</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>183.6530612244898</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>8999</v>
+        <v>8226</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1780,13 +1782,13 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
       </c>
       <c r="N18" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1794,60 +1796,60 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="T18" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251594</v>
+        <v>251840</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D19" t="n">
-        <v>131.9591836734694</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:44</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:44</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-09 10:04:41</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>6466</v>
+        <v>5714</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1860,69 +1862,74 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
       </c>
-      <c r="O19" t="n">
-        <v>0</v>
+      <c r="N19" t="n">
+        <v>39758</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>39758</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-5.559761345856481</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>-2.419926303854167</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="T19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251626</v>
+        <v>251561</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D20" t="n">
-        <v>255.1020408163265</v>
+        <v>89.09836065573771</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-09 10:04:41</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-09 10:44:41</t>
+          <t>2025-05-08 12:03:31</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-09 10:44:41</t>
+          <t>2025-05-08 12:03:31</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-09 14:59:47</t>
+          <t>2025-05-08 13:32:37</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>12500</v>
+        <v>5435</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1935,7 +1942,7 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
@@ -1948,56 +1955,56 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-12.35892857142361</v>
+        <v>-2.465152550092593</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-9.624858276643518</v>
+        <v>-1.564321493622685</v>
       </c>
       <c r="T20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251373</v>
+        <v>244204</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D21" t="n">
-        <v>348.8571428571428</v>
+        <v>56.91803278688525</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-09 14:59:47</t>
+          <t>2025-05-08 13:32:37</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-12 07:44:47</t>
+          <t>2025-05-08 13:57:37</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-12 07:44:47</t>
+          <t>2025-05-08 13:57:37</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-12 13:33:39</t>
+          <t>2025-05-08 14:54:32</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>17094</v>
+        <v>3472</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2010,7 +2017,7 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
         <v>70</v>
@@ -2023,14 +2030,14 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-15.2991071428588</v>
+        <v>-4.580293715844907</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>-14.56503684806713</v>
+        <v>-0.6212090163888889</v>
       </c>
       <c r="T21" t="n">
         <v>4</v>
@@ -2038,41 +2045,41 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>250670</v>
+        <v>251761</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="D22" t="n">
-        <v>31.89795918367347</v>
+        <v>217.6885245901639</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-12 13:33:39</t>
+          <t>2025-05-08 14:54:32</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-12 14:15:39</t>
+          <t>2025-05-09 07:14:32</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-12 14:15:39</t>
+          <t>2025-05-09 07:14:32</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-12 14:47:33</t>
+          <t>2025-05-09 10:52:13</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1563</v>
+        <v>13279</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2081,14 +2088,14 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
         <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2098,14 +2105,14 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-19 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-8.350425170069444</v>
+        <v>0</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>-7.616354875277777</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>2</v>
@@ -2113,41 +2120,41 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251061</v>
+        <v>251566</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="D23" t="n">
-        <v>489.734693877551</v>
+        <v>112.9344262295082</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-12 14:47:33</t>
+          <t>2025-05-09 10:52:13</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-13 07:34:33</t>
+          <t>2025-05-09 11:12:13</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-13 07:34:33</t>
+          <t>2025-05-09 11:12:13</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-14 07:44:17</t>
+          <t>2025-05-09 13:05:09</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>23997</v>
+        <v>6889</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2156,11 +2163,11 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
@@ -2173,56 +2180,56 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-9.389824263043982</v>
+        <v>-2.560940346087963</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>-9.322420634918981</v>
+        <v>-2.54525273224537</v>
       </c>
       <c r="T23" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251252</v>
+        <v>251416</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D24" t="n">
-        <v>307.8163265306122</v>
+        <v>183.9672131147541</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-14 07:44:17</t>
+          <t>2025-05-09 13:05:09</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-14 08:19:17</t>
+          <t>2025-05-09 13:35:09</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-14 08:19:17</t>
+          <t>2025-05-09 13:35:09</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-14 13:27:06</t>
+          <t>2025-05-12 08:39:07</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>15083</v>
+        <v>11222</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2231,15 +2238,18 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
       </c>
+      <c r="N24" t="n">
+        <v>39755</v>
+      </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
@@ -2248,7 +2258,7 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
@@ -2258,46 +2268,46 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251050</v>
+        <v>251424</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>217</v>
+        <v>30</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>158.3934426229508</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-12 08:39:07</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-12 09:09:07</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-12 09:09:07</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-12 11:47:31</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>9662</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2306,78 +2316,73 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
         <v>70</v>
       </c>
-      <c r="N25" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O25" t="n">
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-14.50895947177083</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-14.49133652094907</v>
       </c>
       <c r="T25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251054</v>
+        <v>244355</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>70.65573770491804</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-12 11:47:31</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-12 12:07:31</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-12 12:07:31</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-12 13:18:10</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>4310</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2386,78 +2391,73 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
         <v>70</v>
       </c>
-      <c r="N26" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O26" t="n">
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-4.571914845173612</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-4.554291894351852</v>
       </c>
       <c r="T26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251081</v>
+        <v>251485</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="D27" t="n">
-        <v>42.42253521126761</v>
+        <v>78.81967213114754</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-12 13:18:10</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-12 13:43:10</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-12 13:43:10</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-13 07:02:00</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>3012</v>
+        <v>4808</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2466,27 +2466,20 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M27" t="n">
         <v>70</v>
       </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O27" t="n">
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>39750</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2494,10 +2487,10 @@
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-20.31067850637731</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-20.29305555555555</v>
       </c>
       <c r="T27" t="n">
         <v>2</v>
@@ -2505,41 +2498,41 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251109</v>
+        <v>251247</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D28" t="n">
-        <v>266.5915492957747</v>
+        <v>441.5409836065574</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-13 07:02:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-09 14:54:25</t>
+          <t>2025-05-13 07:27:00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-09 14:54:25</t>
+          <t>2025-05-13 07:27:00</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-12 11:21:00</t>
+          <t>2025-05-13 14:48:32</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>18928</v>
+        <v>26934</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2548,11 +2541,11 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="M28" t="n">
         <v>70</v>
@@ -2565,56 +2558,56 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>-25.47753325508102</v>
+        <v>-5.3925</v>
       </c>
       <c r="S28" s="1" t="n">
-        <v>-24.47292644756944</v>
+        <v>-4.617042349722222</v>
       </c>
       <c r="T28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>245275</v>
+        <v>251594</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D29" t="n">
-        <v>342.1690140845071</v>
+        <v>93.71014492753623</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-12 11:21:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-12 12:06:00</t>
+          <t>2025-05-12 07:35:00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-12 12:06:00</t>
+          <t>2025-05-12 07:35:00</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-13 09:48:10</t>
+          <t>2025-05-12 09:08:42</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>24294</v>
+        <v>6466</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2623,11 +2616,11 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
@@ -2640,56 +2633,56 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>0</v>
+        <v>-5.559761345856481</v>
       </c>
       <c r="S29" s="1" t="n">
-        <v>0</v>
+        <v>-5.381048711759259</v>
       </c>
       <c r="T29" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251520</v>
+        <v>251373</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D30" t="n">
-        <v>230.1408450704225</v>
+        <v>247.7391304347826</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-13 09:48:10</t>
+          <t>2025-05-12 09:08:42</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-13 10:58:10</t>
+          <t>2025-05-12 09:38:42</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-13 10:58:10</t>
+          <t>2025-05-12 09:38:42</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-13 14:48:19</t>
+          <t>2025-05-12 13:46:26</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>16340</v>
+        <v>17094</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2698,11 +2691,11 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M30" t="n">
         <v>70</v>
@@ -2715,56 +2708,56 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-2.359575508611111</v>
+        <v>-15.2991071428588</v>
       </c>
       <c r="S30" s="1" t="n">
-        <v>-1.616891627546296</v>
+        <v>-14.57392310789352</v>
       </c>
       <c r="T30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>245350</v>
+        <v>250641</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D31" t="n">
-        <v>393.943661971831</v>
+        <v>74.14492753623189</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-13 14:48:19</t>
+          <t>2025-05-12 13:46:26</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-14 07:38:19</t>
+          <t>2025-05-12 14:16:26</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-14 07:38:19</t>
+          <t>2025-05-12 14:16:26</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-14 14:12:16</t>
+          <t>2025-05-13 07:30:35</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>27970</v>
+        <v>5116</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2773,11 +2766,11 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M31" t="n">
         <v>70</v>
@@ -2790,56 +2783,56 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>0</v>
+        <v>-15.36771336554398</v>
       </c>
       <c r="S31" s="1" t="n">
-        <v>0</v>
+        <v>-15.31291264090278</v>
       </c>
       <c r="T31" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251225</v>
+        <v>251246</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>173.9420289855072</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-13 07:30:35</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-13 07:55:35</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-13 07:55:35</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-13 10:49:32</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>12002</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2848,36 +2841,31 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M32" t="n">
-        <v>76</v>
-      </c>
-      <c r="N32" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-4.505867552337963</v>
       </c>
       <c r="S32" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-4.451066827696759</v>
       </c>
       <c r="T32" t="n">
         <v>1</v>
@@ -2885,41 +2873,41 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251227</v>
+        <v>251580</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>103.6666666666667</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-13 10:49:32</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-13 11:24:32</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-13 11:24:32</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-13 13:08:12</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7153</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2928,36 +2916,31 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
         <v>4</v>
       </c>
       <c r="M33" t="n">
-        <v>76</v>
-      </c>
-      <c r="N33" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>0</v>
       </c>
       <c r="S33" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>1</v>
@@ -2965,41 +2948,41 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251782</v>
+        <v>251164</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="D34" t="n">
-        <v>170.0422535211268</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>12073</v>
+        <v>10000</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -3008,17 +2991,17 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M34" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N34" t="n">
-        <v>39754</v>
+        <v>39749</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3026,60 +3009,60 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>39754</v>
+        <v>39749</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-1.471584467118056</v>
       </c>
       <c r="S34" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-1.471584467118056</v>
       </c>
       <c r="T34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251340</v>
+        <v>251456</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D35" t="n">
-        <v>461.9718309859155</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-09 07:58:02</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-09 07:58:02</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-12 07:40:00</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>32800</v>
+        <v>8999</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -3088,73 +3071,78 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M35" t="n">
-        <v>76</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N35" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
-        <v>-14.31945422534722</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="S35" s="1" t="n">
-        <v>-14.31945422534722</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="T35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>243569</v>
+        <v>251626</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D36" t="n">
-        <v>36.63380281690141</v>
+        <v>255.1020408163265</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-12 07:40:00</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-12 07:57:00</t>
+          <t>2025-05-09 07:47:44</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-12 07:57:00</t>
+          <t>2025-05-09 07:47:44</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-12 08:33:38</t>
+          <t>2025-05-09 12:02:50</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>2601</v>
+        <v>12500</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3163,14 +3151,14 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L36" t="n">
         <v>3</v>
       </c>
       <c r="M36" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -3180,56 +3168,56 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
-        <v>-238.3566999217477</v>
+        <v>-12.35892857142361</v>
       </c>
       <c r="S36" s="1" t="n">
-        <v>-238.3566999217477</v>
+        <v>-9.501969954652777</v>
       </c>
       <c r="T36" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>245623</v>
+        <v>250670</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D37" t="n">
-        <v>372.0985915492957</v>
+        <v>31.89795918367347</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-12 08:33:38</t>
+          <t>2025-05-09 12:02:50</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-12 09:05:38</t>
+          <t>2025-05-09 12:44:50</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-12 09:05:38</t>
+          <t>2025-05-09 12:44:50</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-13 07:17:44</t>
+          <t>2025-05-09 13:16:44</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>26419</v>
+        <v>1563</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3238,14 +3226,14 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M37" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -3255,14 +3243,14 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>-108.3039906103241</v>
+        <v>-8.350425170069444</v>
       </c>
       <c r="S37" s="1" t="n">
-        <v>-108.3039906103241</v>
+        <v>-4.553287981863426</v>
       </c>
       <c r="T37" t="n">
         <v>2</v>
@@ -3270,41 +3258,41 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>243335</v>
+        <v>251061</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="D38" t="n">
-        <v>464.8450704225352</v>
+        <v>489.734693877551</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-13 07:17:44</t>
+          <t>2025-05-09 13:16:44</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-13 07:36:44</t>
+          <t>2025-05-09 14:03:44</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-13 07:36:44</t>
+          <t>2025-05-09 14:03:44</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-14 07:21:35</t>
+          <t>2025-05-12 14:13:28</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>33004</v>
+        <v>23997</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3313,14 +3301,14 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M38" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -3330,14 +3318,14 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>-285.306660798125</v>
+        <v>-9.389824263043982</v>
       </c>
       <c r="S38" s="1" t="n">
-        <v>-285.306660798125</v>
+        <v>-7.592687074826388</v>
       </c>
       <c r="T38" t="n">
         <v>1</v>
@@ -3345,41 +3333,41 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>251750</v>
+        <v>251050</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>17</v>
+        <v>217</v>
       </c>
       <c r="D39" t="n">
-        <v>54.80281690140845</v>
+        <v>0</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-14 07:21:35</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-14 07:38:35</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-14 07:38:35</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-14 08:33:23</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>3891</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3388,73 +3376,78 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="M39" t="n">
-        <v>152</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N39" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>0</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S39" s="1" t="n">
-        <v>0</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="T39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251284</v>
+        <v>251054</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>40.5</v>
+        <v>35</v>
       </c>
       <c r="D40" t="n">
-        <v>297.0909090909091</v>
+        <v>0</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>16340</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3463,11 +3456,11 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="M40" t="n">
         <v>70</v>
@@ -3485,56 +3478,56 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S40" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="T40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>251505</v>
+        <v>251081</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>34.5</v>
+        <v>125</v>
       </c>
       <c r="D41" t="n">
-        <v>259.1818181818182</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-09 13:12:05</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-09 13:12:05</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-12 09:31:16</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>14255</v>
+        <v>3012</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3543,73 +3536,80 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M41" t="n">
         <v>70</v>
       </c>
-      <c r="O41" t="n">
-        <v>0</v>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>39750</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-7.396717171712963</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S41" s="1" t="n">
-        <v>-7.396717171712963</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="T41" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251397</v>
+        <v>251109</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>34.5</v>
+        <v>55</v>
       </c>
       <c r="D42" t="n">
-        <v>98.81818181818181</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-12 09:31:16</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-12 10:05:46</t>
+          <t>2025-05-09 14:54:25</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-12 10:05:46</t>
+          <t>2025-05-09 14:54:25</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-12 11:44:35</t>
+          <t>2025-05-12 11:21:00</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>5435</v>
+        <v>18928</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3618,11 +3618,11 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="M42" t="n">
         <v>70</v>
@@ -3635,56 +3635,56 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-14.48929924241898</v>
+        <v>-25.47753325508102</v>
       </c>
       <c r="S42" s="1" t="n">
-        <v>-14.48929924241898</v>
+        <v>-24.47292644756944</v>
       </c>
       <c r="T42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>244354</v>
+        <v>251520</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>32.5</v>
+        <v>80</v>
       </c>
       <c r="D43" t="n">
-        <v>78.36363636363636</v>
+        <v>230.1408450704225</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-12 11:44:35</t>
+          <t>2025-05-12 11:21:00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-12 12:17:05</t>
+          <t>2025-05-12 12:41:00</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-12 12:17:05</t>
+          <t>2025-05-12 12:41:00</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-12 13:35:27</t>
+          <t>2025-05-13 08:31:09</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>4310</v>
+        <v>16340</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3693,11 +3693,11 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M43" t="n">
         <v>70</v>
@@ -3710,56 +3710,56 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-4.566287878784722</v>
+        <v>-2.359575508611111</v>
       </c>
       <c r="S43" s="1" t="n">
-        <v>-4.566287878784722</v>
+        <v>-1.354968701099537</v>
       </c>
       <c r="T43" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>250819</v>
+        <v>251651</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>34.5</v>
+        <v>29</v>
       </c>
       <c r="D44" t="n">
-        <v>155.0363636363636</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-12 13:35:27</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-12 14:09:57</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-12 14:09:57</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-05-13 08:44:59</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>8527</v>
+        <v>46830</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3768,14 +3768,17 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M44" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N44" t="n">
+        <v>39755</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -3785,56 +3788,56 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-25.36457702019676</v>
+        <v>0</v>
       </c>
       <c r="S44" s="1" t="n">
-        <v>-25.36457702019676</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>251247</v>
+        <v>251346</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>30.5</v>
+        <v>46</v>
       </c>
       <c r="D45" t="n">
-        <v>489.7090909090909</v>
+        <v>63.26229508196721</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-13 08:44:59</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-13 09:15:29</t>
+          <t>2025-05-12 13:02:42</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-13 09:15:29</t>
+          <t>2025-05-12 13:02:42</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-14 09:25:12</t>
+          <t>2025-05-12 14:05:58</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>26934</v>
+        <v>3859</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3843,11 +3846,11 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M45" t="n">
         <v>70</v>
@@ -3860,22 +3863,22 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>-5.3925</v>
+        <v>-15.31380919854167</v>
       </c>
       <c r="S45" s="1" t="n">
-        <v>-5.3925</v>
+        <v>-14.58747723133102</v>
       </c>
       <c r="T45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>251651</v>
+        <v>244023</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3886,30 +3889,30 @@
         <v>29</v>
       </c>
       <c r="D46" t="n">
-        <v>767.7049180327868</v>
+        <v>16.34426229508197</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-12 14:05:58</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-12 14:34:58</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-12 14:34:58</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-12 14:51:18</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>46830</v>
+        <v>997</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3918,17 +3921,14 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M46" t="n">
-        <v>76</v>
-      </c>
-      <c r="N46" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -3938,22 +3938,22 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>0</v>
+        <v>-225.3452982695833</v>
       </c>
       <c r="S46" s="1" t="n">
-        <v>0</v>
+        <v>-224.6189663023727</v>
       </c>
       <c r="T46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>251346</v>
+        <v>251283</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3961,33 +3961,33 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D47" t="n">
-        <v>63.26229508196721</v>
+        <v>12.36065573770492</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-12 14:51:18</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-12 13:02:42</t>
+          <t>2025-05-13 07:16:18</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-05-12 13:02:42</t>
+          <t>2025-05-13 07:16:18</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-05-12 14:05:58</t>
+          <t>2025-05-13 07:28:40</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>3859</v>
+        <v>754</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3996,11 +3996,11 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M47" t="n">
         <v>70</v>
@@ -4013,22 +4013,22 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-03-18 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>-15.31380919854167</v>
+        <v>-56.37124316939815</v>
       </c>
       <c r="S47" s="1" t="n">
-        <v>-14.58747723133102</v>
+        <v>-56.31157786885417</v>
       </c>
       <c r="T47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>244023</v>
+        <v>251464</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -4039,30 +4039,30 @@
         <v>29</v>
       </c>
       <c r="D48" t="n">
-        <v>16.34426229508197</v>
+        <v>117.2622950819672</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-12 14:05:58</t>
+          <t>2025-05-13 07:28:40</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-12 14:34:58</t>
+          <t>2025-05-13 07:57:40</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-12 14:34:58</t>
+          <t>2025-05-13 07:57:40</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-05-12 14:51:18</t>
+          <t>2025-05-13 09:54:56</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>997</v>
+        <v>7153</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M48" t="n">
         <v>70</v>
@@ -4088,14 +4088,14 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-225.3452982695833</v>
+        <v>-4.472814207650463</v>
       </c>
       <c r="S48" s="1" t="n">
-        <v>-224.6189663023727</v>
+        <v>-4.413148907106482</v>
       </c>
       <c r="T48" t="n">
         <v>1</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>251283</v>
+        <v>251467</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -4111,33 +4111,33 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D49" t="n">
-        <v>12.36065573770492</v>
+        <v>102.0655737704918</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-12 14:51:18</t>
+          <t>2025-05-13 09:54:56</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-13 07:16:18</t>
+          <t>2025-05-13 10:23:56</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-13 07:16:18</t>
+          <t>2025-05-13 10:23:56</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-13 07:28:40</t>
+          <t>2025-05-13 12:06:00</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>754</v>
+        <v>6226</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4146,11 +4146,11 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M49" t="n">
         <v>70</v>
@@ -4163,14 +4163,14 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2025-03-18 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>-56.37124316939815</v>
+        <v>-4.563831967210648</v>
       </c>
       <c r="S49" s="1" t="n">
-        <v>-56.31157786885417</v>
+        <v>-4.504166666666666</v>
       </c>
       <c r="T49" t="n">
         <v>1</v>
@@ -4178,7 +4178,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251464</v>
+        <v>245089</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -4186,33 +4186,33 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D50" t="n">
-        <v>117.2622950819672</v>
+        <v>2010.901639344262</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-13 07:28:40</t>
+          <t>2025-05-13 12:06:00</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-13 07:57:40</t>
+          <t>2025-05-13 12:50:00</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-13 07:57:40</t>
+          <t>2025-05-13 12:50:00</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-13 09:54:56</t>
+          <t>2025-05-19 14:20:54</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>7153</v>
+        <v>122665</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4221,14 +4221,14 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
         <v>4</v>
       </c>
       <c r="M50" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -4238,14 +4238,14 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>-4.472814207650463</v>
+        <v>0</v>
       </c>
       <c r="S50" s="1" t="n">
-        <v>-4.413148907106482</v>
+        <v>0</v>
       </c>
       <c r="T50" t="n">
         <v>1</v>
@@ -4253,41 +4253,41 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251467</v>
+        <v>251225</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D51" t="n">
-        <v>102.0655737704918</v>
+        <v>0</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-13 09:54:56</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-13 10:23:56</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-13 10:23:56</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-13 12:06:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>6226</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4296,31 +4296,36 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M51" t="n">
-        <v>70</v>
-      </c>
-      <c r="O51" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N51" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P51" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-4.563831967210648</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="S51" s="1" t="n">
-        <v>-4.504166666666666</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="T51" t="n">
         <v>1</v>
@@ -4328,41 +4333,41 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>251229</v>
+        <v>251227</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D52" t="n">
-        <v>307.1967213114754</v>
+        <v>0</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-13 12:06:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-13 12:39:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-13 12:39:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-14 09:46:11</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>18739</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4371,19 +4376,17 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M52" t="n">
-        <v>70</v>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N52" t="n">
+        <v>39746</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -4391,18 +4394,18 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>39723</v>
+        <v>39746</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>0</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="S52" s="1" t="n">
-        <v>0</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="T52" t="n">
         <v>1</v>
@@ -4410,41 +4413,41 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>251249</v>
+        <v>251782</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D53" t="n">
-        <v>78</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-14 09:46:11</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-14 10:11:11</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-14 10:11:11</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-14 11:29:11</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>4758</v>
+        <v>12073</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4453,31 +4456,36 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M53" t="n">
-        <v>70</v>
-      </c>
-      <c r="O53" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N53" t="n">
+        <v>39754</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P53" t="n">
-        <v>0</v>
+        <v>39754</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>0</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="S53" s="1" t="n">
-        <v>0</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="T53" t="n">
         <v>1</v>
@@ -4485,41 +4493,41 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>245089</v>
+        <v>251340</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D54" t="n">
-        <v>2010.901639344262</v>
+        <v>461.9718309859155</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-14 11:29:11</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-14 12:13:11</t>
+          <t>2025-05-09 07:58:02</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-14 12:13:11</t>
+          <t>2025-05-09 07:58:02</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-20 13:44:05</t>
+          <t>2025-05-12 07:40:00</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>122665</v>
+        <v>32800</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4528,11 +4536,11 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M54" t="n">
         <v>76</v>
@@ -4545,56 +4553,56 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>0</v>
+        <v>-14.31945422534722</v>
       </c>
       <c r="S54" s="1" t="n">
-        <v>0</v>
+        <v>-14.31945422534722</v>
       </c>
       <c r="T54" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>245090</v>
+        <v>243569</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D55" t="n">
-        <v>8470.786885245901</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-20 13:44:05</t>
+          <t>2025-05-12 07:40:00</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-20 14:11:05</t>
+          <t>2025-05-12 07:57:00</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-20 14:11:05</t>
+          <t>2025-05-12 07:57:00</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-06-13 11:21:53</t>
+          <t>2025-05-12 08:33:38</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>516718</v>
+        <v>2601</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4607,7 +4615,7 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M55" t="n">
         <v>76</v>
@@ -4620,56 +4628,56 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2024-09-16 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>0</v>
+        <v>-238.3566999217477</v>
       </c>
       <c r="S55" s="1" t="n">
-        <v>0</v>
+        <v>-238.3566999217477</v>
       </c>
       <c r="T55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>251987</v>
+        <v>245623</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D56" t="n">
-        <v>3451.245901639344</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-06-13 11:21:53</t>
+          <t>2025-05-12 08:33:38</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-06-13 11:48:53</t>
+          <t>2025-05-12 09:05:38</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-06-13 11:48:53</t>
+          <t>2025-05-12 09:05:38</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-06-24 13:20:07</t>
+          <t>2025-05-13 07:17:44</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>210526</v>
+        <v>26419</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4678,14 +4686,14 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M56" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -4695,56 +4703,56 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2025-09-01 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>0</v>
+        <v>-108.3039906103241</v>
       </c>
       <c r="S56" s="1" t="n">
-        <v>0</v>
+        <v>-108.3039906103241</v>
       </c>
       <c r="T56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>250641</v>
+        <v>243335</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="D57" t="n">
-        <v>74.14492753623189</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-13 07:17:44</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-12 07:45:00</t>
+          <t>2025-05-13 07:36:44</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-12 07:45:00</t>
+          <t>2025-05-13 07:36:44</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-12 08:59:08</t>
+          <t>2025-05-14 07:21:35</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>5116</v>
+        <v>33004</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4753,14 +4761,14 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M57" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -4770,56 +4778,56 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-15.36771336554398</v>
+        <v>-285.306660798125</v>
       </c>
       <c r="S57" s="1" t="n">
-        <v>-14.37440619967592</v>
+        <v>-285.306660798125</v>
       </c>
       <c r="T57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251547</v>
+        <v>251750</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D58" t="n">
-        <v>184.9154929577465</v>
+        <v>54.80281690140845</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-14 07:21:35</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-14 07:38:35</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-14 07:38:35</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-14 08:33:23</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>13129</v>
+        <v>3891</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4828,78 +4836,73 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M58" t="n">
-        <v>70</v>
-      </c>
-      <c r="N58" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>0</v>
       </c>
       <c r="S58" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>250759</v>
+        <v>251987</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D59" t="n">
-        <v>118.2816901408451</v>
+        <v>2965.154929577465</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-14 08:33:23</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-14 09:09:23</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-14 09:09:23</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-22 10:34:32</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>8398</v>
+        <v>210526</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4908,36 +4911,31 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M59" t="n">
         <v>76</v>
       </c>
-      <c r="N59" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O59" t="n">
+        <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-09-01 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>0</v>
       </c>
       <c r="S59" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>0</v>
       </c>
       <c r="T59" t="n">
         <v>1</v>
@@ -4945,41 +4943,41 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>250894</v>
+        <v>245090</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C60" t="n">
         <v>17</v>
       </c>
       <c r="D60" t="n">
-        <v>623.4084507042254</v>
+        <v>7277.718309859155</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-22 10:34:32</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-22 10:51:32</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-22 10:51:32</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-06-12 12:09:16</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>44262</v>
+        <v>516718</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4988,7 +4986,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -4997,9 +4995,6 @@
       <c r="M60" t="n">
         <v>76</v>
       </c>
-      <c r="N60" t="n">
-        <v>39755</v>
-      </c>
       <c r="O60" t="n">
         <v>0</v>
       </c>
@@ -5008,7 +5003,7 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
@@ -5018,121 +5013,128 @@
         <v>0</v>
       </c>
       <c r="T60" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>235572</v>
+        <v>251706</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>140.2535211267606</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-12 08:17:36</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-12 08:17:36</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-12 10:37:51</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>9958</v>
+        <v>3200</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>70</v>
-      </c>
-      <c r="O61" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P61" t="n">
-        <v>0</v>
+        <v>39764</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2023-11-06 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>-553.4429577464815</v>
+        <v>0</v>
       </c>
       <c r="S61" s="1" t="n">
-        <v>-553.4429577464815</v>
+        <v>0</v>
       </c>
       <c r="T61" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>251475</v>
+        <v>251455</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D62" t="n">
-        <v>122.2676056338028</v>
+        <v>82.765625</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-12 10:37:51</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-12 10:54:51</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-12 10:54:51</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-12 12:57:07</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>8681</v>
+        <v>5297</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -5150,64 +5152,69 @@
       <c r="M62" t="n">
         <v>70</v>
       </c>
-      <c r="O62" t="n">
-        <v>0</v>
+      <c r="N62" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P62" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>-12.53967136150463</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="S62" s="1" t="n">
-        <v>-12.53967136150463</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="T62" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>251809</v>
+        <v>251391</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D63" t="n">
-        <v>122.2676056338028</v>
+        <v>91.640625</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-12 12:57:07</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-12 13:12:07</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-12 13:12:07</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-13 07:14:23</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>8681</v>
+        <v>5865</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5220,69 +5227,74 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M63" t="n">
         <v>70</v>
       </c>
-      <c r="O63" t="n">
-        <v>0</v>
+      <c r="N63" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P63" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>0</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="S63" s="1" t="n">
-        <v>0</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="T63" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>251259</v>
+        <v>251395</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D64" t="n">
-        <v>70.4225352112676</v>
+        <v>35.34375</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-13 07:14:23</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-13 07:39:23</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-13 07:39:23</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-13 08:49:49</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>5000</v>
+        <v>2262</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5295,69 +5307,74 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M64" t="n">
         <v>70</v>
       </c>
-      <c r="O64" t="n">
-        <v>0</v>
+      <c r="N64" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P64" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>-7.367928403761574</v>
+        <v>-0.4741319444444445</v>
       </c>
       <c r="S64" s="1" t="n">
-        <v>-7.367928403761574</v>
+        <v>-0.4741319444444445</v>
       </c>
       <c r="T64" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>251466</v>
+        <v>251371</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D65" t="n">
-        <v>78.40845070422536</v>
+        <v>0</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-13 08:49:49</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-13 09:16:49</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-13 09:16:49</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-13 10:35:13</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>5567</v>
+        <v>0</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5370,69 +5387,76 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M65" t="n">
         <v>70</v>
       </c>
-      <c r="O65" t="n">
-        <v>0</v>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P65" t="n">
-        <v>0</v>
+        <v>39666</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>-4.441128716747685</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="S65" s="1" t="n">
-        <v>-4.441128716747685</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="T65" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251465</v>
+        <v>251396</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D66" t="n">
-        <v>87.69014084507042</v>
+        <v>35.34375</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-13 10:35:13</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-13 10:52:13</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-13 10:52:13</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-13 12:19:54</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>6226</v>
+        <v>2262</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5445,69 +5469,74 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M66" t="n">
         <v>70</v>
       </c>
-      <c r="O66" t="n">
-        <v>0</v>
+      <c r="N66" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P66" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>-4.513830203437499</v>
+        <v>-0.5250651041666666</v>
       </c>
       <c r="S66" s="1" t="n">
-        <v>-4.513830203437499</v>
+        <v>-0.5250651041666666</v>
       </c>
       <c r="T66" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>251562</v>
+        <v>251548</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D67" t="n">
-        <v>114.6760563380282</v>
+        <v>206.90625</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-13 12:19:54</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-13 12:34:54</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-13 12:34:54</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-13 14:29:35</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>8142</v>
+        <v>13242</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5520,69 +5549,74 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M67" t="n">
         <v>70</v>
       </c>
-      <c r="O67" t="n">
-        <v>0</v>
+      <c r="N67" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P67" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>0</v>
+        <v>-1.348611111111111</v>
       </c>
       <c r="S67" s="1" t="n">
-        <v>0</v>
+        <v>-1.348611111111111</v>
       </c>
       <c r="T67" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>251846</v>
+        <v>250923</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D68" t="n">
-        <v>160.4507042253521</v>
+        <v>109.46875</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-13 14:29:35</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-13 14:44:35</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-13 14:44:35</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-14 09:25:02</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>11392</v>
+        <v>7006</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5591,73 +5625,78 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L68" t="n">
+        <v>5</v>
+      </c>
+      <c r="M68" t="n">
+        <v>76</v>
+      </c>
+      <c r="N68" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>39749</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>2025-04-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="R68" s="1" t="n">
+        <v>-1.446853298611111</v>
+      </c>
+      <c r="S68" s="1" t="n">
+        <v>-1.446853298611111</v>
+      </c>
+      <c r="T68" t="n">
         <v>2</v>
-      </c>
-      <c r="M68" t="n">
-        <v>70</v>
-      </c>
-      <c r="O68" t="n">
-        <v>0</v>
-      </c>
-      <c r="P68" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>2025-05-30 00:00:00</t>
-        </is>
-      </c>
-      <c r="R68" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S68" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T68" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>251557</v>
+        <v>251477</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D69" t="n">
-        <v>94.43661971830986</v>
+        <v>468.734375</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-14 09:25:02</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-14 09:40:02</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-14 09:40:02</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-14 11:14:28</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>6705</v>
+        <v>29999</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5666,31 +5705,36 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M69" t="n">
-        <v>70</v>
-      </c>
-      <c r="O69" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N69" t="n">
+        <v>39760</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P69" t="n">
-        <v>0</v>
+        <v>39760</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>0</v>
+        <v>-2.452224392361111</v>
       </c>
       <c r="S69" s="1" t="n">
-        <v>0</v>
+        <v>-2.452224392361111</v>
       </c>
       <c r="T69" t="n">
         <v>1</v>
@@ -5698,89 +5742,82 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>251706</v>
+        <v>251564</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D70" t="n">
-        <v>50.79365079365079</v>
+        <v>42.453125</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 11:21:12</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 11:21:12</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-09 12:03:39</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>3200</v>
+        <v>2717</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M70" t="n">
-        <v>0</v>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>39764</v>
+        <v>0</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>0</v>
+        <v>-2.5025390625</v>
       </c>
       <c r="S70" s="1" t="n">
-        <v>0</v>
+        <v>-2.5025390625</v>
       </c>
       <c r="T70" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>251455</v>
+        <v>251546</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -5791,30 +5828,30 @@
         <v>19</v>
       </c>
       <c r="D71" t="n">
-        <v>82.765625</v>
+        <v>101.03125</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-09 12:03:39</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-09 12:22:39</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-09 12:22:39</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-09 14:03:41</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>5297</v>
+        <v>6466</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5827,32 +5864,27 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M71" t="n">
         <v>70</v>
       </c>
-      <c r="N71" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O71" t="n">
+        <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>-9.585894097222223</v>
       </c>
       <c r="S71" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>-9.585894097222223</v>
       </c>
       <c r="T71" t="n">
         <v>7</v>
@@ -5860,7 +5892,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>251391</v>
+        <v>251397</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -5868,33 +5900,33 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D72" t="n">
-        <v>91.640625</v>
+        <v>84.921875</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-09 14:03:41</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-09 14:22:41</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-09 14:22:41</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>5865</v>
+        <v>5435</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5907,40 +5939,35 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M72" t="n">
         <v>70</v>
       </c>
-      <c r="N72" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O72" t="n">
+        <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>-14.48929924241898</v>
       </c>
       <c r="S72" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>-14.32472873263889</v>
       </c>
       <c r="T72" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>251395</v>
+        <v>251743</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -5951,30 +5978,30 @@
         <v>17</v>
       </c>
       <c r="D73" t="n">
-        <v>35.34375</v>
+        <v>168.375</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-12 08:04:36</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-12 08:04:36</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-12 10:52:59</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>2262</v>
+        <v>10776</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5987,40 +6014,35 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M73" t="n">
         <v>70</v>
       </c>
-      <c r="N73" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O73" t="n">
+        <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>0</v>
       </c>
       <c r="S73" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>0</v>
       </c>
       <c r="T73" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>251371</v>
+        <v>251245</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -6031,30 +6053,30 @@
         <v>19</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>11.78125</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-12 10:52:59</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-12 11:11:59</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-12 11:11:59</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-12 11:23:45</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>754</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -6063,46 +6085,39 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M74" t="n">
         <v>70</v>
       </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O74" t="n">
+        <v>0</v>
       </c>
       <c r="P74" t="n">
-        <v>39666</v>
+        <v>0</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-46.368359375</v>
       </c>
       <c r="S74" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-45.47483723958333</v>
       </c>
       <c r="T74" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>251396</v>
+        <v>251463</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -6113,30 +6128,30 @@
         <v>19</v>
       </c>
       <c r="D75" t="n">
-        <v>35.34375</v>
+        <v>108.859375</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-12 11:23:45</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-12 11:42:45</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-12 11:42:45</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-12 13:31:37</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>2262</v>
+        <v>6967</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -6149,40 +6164,35 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M75" t="n">
         <v>70</v>
       </c>
-      <c r="N75" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O75" t="n">
+        <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>-4.457150607638889</v>
       </c>
       <c r="S75" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>-3.563628472222222</v>
       </c>
       <c r="T75" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>251548</v>
+        <v>251462</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -6193,30 +6203,30 @@
         <v>19</v>
       </c>
       <c r="D76" t="n">
-        <v>206.90625</v>
+        <v>97.28125</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-12 13:31:37</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-12 13:50:37</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-12 13:50:37</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-13 07:27:54</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>13242</v>
+        <v>6226</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -6229,40 +6239,35 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M76" t="n">
         <v>70</v>
       </c>
-      <c r="N76" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O76" t="n">
+        <v>0</v>
       </c>
       <c r="P76" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R76" s="1" t="n">
-        <v>-1.348611111111111</v>
+        <v>-4.537901475694444</v>
       </c>
       <c r="S76" s="1" t="n">
-        <v>-1.348611111111111</v>
+        <v>-4.311046006944444</v>
       </c>
       <c r="T76" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>250923</v>
+        <v>251562</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -6270,33 +6275,33 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D77" t="n">
-        <v>109.46875</v>
+        <v>127.21875</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-13 07:27:54</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-13 07:42:54</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-13 07:42:54</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-13 09:50:07</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>7006</v>
+        <v>8142</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -6305,44 +6310,39 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M77" t="n">
-        <v>76</v>
-      </c>
-      <c r="N77" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0</v>
       </c>
       <c r="P77" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R77" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>0</v>
       </c>
       <c r="S77" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>0</v>
       </c>
       <c r="T77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>251477</v>
+        <v>251374</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -6350,33 +6350,33 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D78" t="n">
-        <v>468.734375</v>
+        <v>427.234375</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-13 09:50:07</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-13 10:15:07</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-13 10:15:07</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-05-14 09:22:21</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>29999</v>
+        <v>27343</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -6385,36 +6385,31 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M78" t="n">
-        <v>76</v>
-      </c>
-      <c r="N78" t="n">
-        <v>39760</v>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>39760</v>
+        <v>0</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R78" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>0</v>
       </c>
       <c r="S78" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>0</v>
       </c>
       <c r="T78" t="n">
         <v>1</v>
@@ -6422,7 +6417,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>251564</v>
+        <v>251260</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -6430,33 +6425,33 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D79" t="n">
-        <v>42.453125</v>
+        <v>146.390625</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-05-14 09:22:21</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-05-09 11:21:12</t>
+          <t>2025-05-14 09:39:21</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-05-09 11:21:12</t>
+          <t>2025-05-14 09:39:21</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-05-09 12:03:39</t>
+          <t>2025-05-14 12:05:45</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>2717</v>
+        <v>9369</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -6465,11 +6460,11 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M79" t="n">
         <v>70</v>
@@ -6482,22 +6477,22 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R79" s="1" t="n">
-        <v>-2.5025390625</v>
+        <v>0</v>
       </c>
       <c r="S79" s="1" t="n">
-        <v>-2.5025390625</v>
+        <v>0</v>
       </c>
       <c r="T79" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>251546</v>
+        <v>251251</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -6505,33 +6500,33 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D80" t="n">
-        <v>101.03125</v>
+        <v>247.8125</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-05-09 12:03:39</t>
+          <t>2025-05-14 12:05:45</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-05-09 12:22:39</t>
+          <t>2025-05-14 12:20:45</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-05-09 12:22:39</t>
+          <t>2025-05-14 12:20:45</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-05-09 14:03:41</t>
+          <t>2025-05-15 08:28:33</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>6466</v>
+        <v>15860</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -6540,11 +6535,11 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M80" t="n">
         <v>70</v>
@@ -6557,22 +6552,22 @@
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R80" s="1" t="n">
-        <v>-9.585894097222223</v>
+        <v>0</v>
       </c>
       <c r="S80" s="1" t="n">
-        <v>-9.585894097222223</v>
+        <v>0</v>
       </c>
       <c r="T80" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>251743</v>
+        <v>251062</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -6580,33 +6575,33 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D81" t="n">
-        <v>168.375</v>
+        <v>353.5</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-05-09 14:03:41</t>
+          <t>2025-05-15 08:28:33</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-05-09 14:20:41</t>
+          <t>2025-05-15 08:43:33</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-05-09 14:20:41</t>
+          <t>2025-05-15 08:43:33</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-05-12 09:09:03</t>
+          <t>2025-05-15 14:37:03</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>10776</v>
+        <v>22624</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -6615,11 +6610,11 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M81" t="n">
         <v>70</v>
@@ -6632,7 +6627,7 @@
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R81" s="1" t="n">
@@ -6642,46 +6637,46 @@
         <v>0</v>
       </c>
       <c r="T81" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>251463</v>
+        <v>251284</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>15</v>
+        <v>40.5</v>
       </c>
       <c r="D82" t="n">
-        <v>108.859375</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-05-12 09:09:03</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-05-12 09:24:03</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-05-12 09:24:03</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2025-05-12 11:12:55</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>6967</v>
+        <v>16340</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -6690,31 +6685,36 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M82" t="n">
         <v>70</v>
       </c>
-      <c r="O82" t="n">
-        <v>0</v>
+      <c r="N82" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P82" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R82" s="1" t="n">
-        <v>-4.457150607638889</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S82" s="1" t="n">
-        <v>-3.467306857638889</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="T82" t="n">
         <v>1</v>
@@ -6722,41 +6722,41 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>251462</v>
+        <v>251505</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>19</v>
+        <v>34.5</v>
       </c>
       <c r="D83" t="n">
-        <v>97.28125</v>
+        <v>259.1818181818182</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-05-12 11:12:55</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-05-12 11:31:55</t>
+          <t>2025-05-09 13:12:05</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-05-12 11:31:55</t>
+          <t>2025-05-09 13:12:05</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2025-05-12 13:09:12</t>
+          <t>2025-05-12 09:31:16</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>6226</v>
+        <v>14255</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M83" t="n">
         <v>70</v>
@@ -6782,56 +6782,56 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R83" s="1" t="n">
-        <v>-4.537901475694444</v>
+        <v>-7.396717171712963</v>
       </c>
       <c r="S83" s="1" t="n">
-        <v>-3.548057725694445</v>
+        <v>-7.396717171712963</v>
       </c>
       <c r="T83" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>251761</v>
+        <v>244354</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>19</v>
+        <v>32.5</v>
       </c>
       <c r="D84" t="n">
-        <v>207.484375</v>
+        <v>78.36363636363636</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-05-12 13:09:12</t>
+          <t>2025-05-12 09:31:16</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-05-12 13:28:12</t>
+          <t>2025-05-12 10:03:46</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-05-12 13:28:12</t>
+          <t>2025-05-12 10:03:46</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2025-05-13 08:55:41</t>
+          <t>2025-05-12 11:22:08</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>13279</v>
+        <v>4310</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -6857,56 +6857,56 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>2025-05-19 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R84" s="1" t="n">
-        <v>0</v>
+        <v>-4.566287878784722</v>
       </c>
       <c r="S84" s="1" t="n">
-        <v>0</v>
+        <v>-4.473705808078703</v>
       </c>
       <c r="T84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>251580</v>
+        <v>250819</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>15</v>
+        <v>34.5</v>
       </c>
       <c r="D85" t="n">
-        <v>111.765625</v>
+        <v>155.0363636363636</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-05-13 08:55:41</t>
+          <t>2025-05-12 11:22:08</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-05-13 09:10:41</t>
+          <t>2025-05-12 11:56:38</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-05-13 09:10:41</t>
+          <t>2025-05-12 11:56:38</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-05-13 11:02:27</t>
+          <t>2025-05-12 14:31:40</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>7153</v>
+        <v>8527</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -6919,7 +6919,7 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M85" t="n">
         <v>70</v>
@@ -6932,56 +6932,56 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R85" s="1" t="n">
-        <v>0</v>
+        <v>-25.36457702019676</v>
       </c>
       <c r="S85" s="1" t="n">
-        <v>0</v>
+        <v>-24.60532828282408</v>
       </c>
       <c r="T85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>251251</v>
+        <v>251249</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>19</v>
+        <v>30.5</v>
       </c>
       <c r="D86" t="n">
-        <v>247.8125</v>
+        <v>86.50909090909092</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-05-13 11:02:27</t>
+          <t>2025-05-12 14:31:40</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-05-13 11:21:27</t>
+          <t>2025-05-13 07:02:10</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-05-13 11:21:27</t>
+          <t>2025-05-13 07:02:10</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2025-05-14 07:29:15</t>
+          <t>2025-05-13 08:28:40</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>15860</v>
+        <v>4758</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -7007,7 +7007,7 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R86" s="1" t="n">
@@ -7022,41 +7022,41 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>251260</v>
+        <v>245275</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>15</v>
+        <v>46.5</v>
       </c>
       <c r="D87" t="n">
-        <v>146.390625</v>
+        <v>441.7090909090909</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-05-14 07:29:15</t>
+          <t>2025-05-13 08:28:40</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-05-14 07:44:15</t>
+          <t>2025-05-13 09:15:10</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-05-14 07:44:15</t>
+          <t>2025-05-13 09:15:10</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2025-05-14 10:10:39</t>
+          <t>2025-05-14 08:36:53</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>9369</v>
+        <v>24294</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -7065,11 +7065,11 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="M87" t="n">
         <v>70</v>
@@ -7082,7 +7082,7 @@
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R87" s="1" t="n">
@@ -7092,7 +7092,7 @@
         <v>0</v>
       </c>
       <c r="T87" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/insert_inter_post.xlsx
+++ b/PS-VRP/Dati_output/insert_inter_post.xlsx
@@ -515,41 +515,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251547</v>
+        <v>250670</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" t="n">
-        <v>184.9154929577465</v>
+        <v>22.65217391304348</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-12 07:35:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-12 07:35:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-12 07:57:39</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>13129</v>
+        <v>1563</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,78 +558,73 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>70</v>
-      </c>
-      <c r="N2" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-8.350425170069444</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-7.331702898553242</v>
       </c>
       <c r="T2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>250759</v>
+        <v>251594</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>118.2816901408451</v>
+        <v>93.71014492753623</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-12 07:57:39</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-12 08:27:39</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-12 08:27:39</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-12 10:01:21</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>8398</v>
+        <v>6466</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -638,78 +633,73 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>76</v>
-      </c>
-      <c r="N3" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-5.559761345856481</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-5.417612721412037</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>250894</v>
+        <v>251229</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
-        <v>623.4084507042254</v>
+        <v>271.5797101449276</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-12 10:01:21</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-12 10:36:21</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-12 10:36:21</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-13 07:07:56</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>44262</v>
+        <v>18739</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -718,27 +708,31 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>76</v>
-      </c>
-      <c r="N4" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>39723</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
@@ -748,46 +742,46 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>235572</v>
+        <v>250641</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>140.2535211267606</v>
+        <v>74.14492753623189</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-13 07:07:56</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-12 08:17:36</t>
+          <t>2025-05-13 07:32:56</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-12 08:17:36</t>
+          <t>2025-05-13 07:32:56</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-12 10:37:51</t>
+          <t>2025-05-13 08:47:05</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>9958</v>
+        <v>5116</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -796,11 +790,11 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
@@ -813,56 +807,56 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2023-11-06 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-553.4429577464815</v>
+        <v>-15.36771336554398</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-553.4429577464815</v>
+        <v>-15.36603260869213</v>
       </c>
       <c r="T5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251475</v>
+        <v>251246</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>122.2676056338028</v>
+        <v>173.9420289855072</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-12 10:37:51</t>
+          <t>2025-05-13 08:47:05</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-12 10:54:51</t>
+          <t>2025-05-13 09:12:05</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-12 10:54:51</t>
+          <t>2025-05-13 09:12:05</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-12 12:57:07</t>
+          <t>2025-05-13 12:06:01</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>8681</v>
+        <v>12002</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -871,11 +865,11 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
@@ -888,56 +882,56 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-12.53967136150463</v>
+        <v>-4.505867552337963</v>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-12.53967136150463</v>
+        <v>-4.504186795486111</v>
       </c>
       <c r="T6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251809</v>
+        <v>245350</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D7" t="n">
-        <v>122.2676056338028</v>
+        <v>405.3623188405797</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-12 12:57:07</t>
+          <t>2025-05-13 12:06:01</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-12 13:12:07</t>
+          <t>2025-05-13 12:51:01</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-12 13:12:07</t>
+          <t>2025-05-13 12:51:01</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-13 07:14:23</t>
+          <t>2025-05-14 11:36:23</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>8681</v>
+        <v>27970</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -946,11 +940,11 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
@@ -963,7 +957,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
@@ -973,46 +967,46 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251259</v>
+        <v>251742</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>70.4225352112676</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-13 07:14:23</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-13 07:39:23</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-13 07:39:23</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-13 08:49:49</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>5000</v>
+        <v>8226</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1025,69 +1019,74 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
-      <c r="O8" t="n">
-        <v>0</v>
+      <c r="N8" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-7.367928403761574</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>-7.367928403761574</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="T8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251466</v>
+        <v>251840</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>78.40845070422536</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-13 08:49:49</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-13 09:16:49</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-13 09:16:49</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-13 10:35:13</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>5567</v>
+        <v>5714</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1100,16 +1099,21 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
-      <c r="O9" t="n">
-        <v>0</v>
+      <c r="N9" t="n">
+        <v>39758</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>39758</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1117,10 +1121,10 @@
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-4.441128716747685</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-4.441128716747685</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="T9" t="n">
         <v>1</v>
@@ -1128,41 +1132,41 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251465</v>
+        <v>251561</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>87.69014084507042</v>
+        <v>89.09836065573771</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-13 10:35:13</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-13 10:52:13</t>
+          <t>2025-05-08 12:03:31</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-13 10:52:13</t>
+          <t>2025-05-08 12:03:31</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-13 12:19:54</t>
+          <t>2025-05-08 13:32:37</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>6226</v>
+        <v>5435</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1175,7 +1179,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
@@ -1188,56 +1192,56 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-4.513830203437499</v>
+        <v>-2.465152550092593</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>-4.513830203437499</v>
+        <v>-1.564321493622685</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251252</v>
+        <v>244204</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>212.4366197183099</v>
+        <v>56.91803278688525</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-13 12:19:54</t>
+          <t>2025-05-08 13:32:37</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-13 12:42:54</t>
+          <t>2025-05-08 13:57:37</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-13 12:42:54</t>
+          <t>2025-05-08 13:57:37</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-14 08:15:21</t>
+          <t>2025-05-08 14:54:32</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>15083</v>
+        <v>3472</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1246,11 +1250,11 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
@@ -1263,56 +1267,56 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>0</v>
+        <v>-4.580293715844907</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>0</v>
+        <v>-0.6212090163888889</v>
       </c>
       <c r="T11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251557</v>
+        <v>251566</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D12" t="n">
-        <v>94.43661971830986</v>
+        <v>112.9344262295082</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-14 08:15:21</t>
+          <t>2025-05-08 14:54:32</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-14 08:38:21</t>
+          <t>2025-05-09 07:14:32</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-14 08:38:21</t>
+          <t>2025-05-09 07:14:32</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-14 10:12:47</t>
+          <t>2025-05-09 09:07:28</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>6705</v>
+        <v>6889</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1325,7 +1329,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
@@ -1338,56 +1342,56 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>0</v>
+        <v>-2.560940346087963</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>0</v>
+        <v>-2.380191256828704</v>
       </c>
       <c r="T12" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251229</v>
+        <v>251424</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>263.9295774647887</v>
+        <v>158.3934426229508</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-14 10:12:47</t>
+          <t>2025-05-09 09:07:28</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-14 10:35:47</t>
+          <t>2025-05-09 09:27:28</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-14 10:35:47</t>
+          <t>2025-05-09 09:27:28</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-14 14:59:43</t>
+          <t>2025-05-09 12:05:52</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>18739</v>
+        <v>9662</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1396,80 +1400,73 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O13" t="n">
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>39723</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>0</v>
+        <v>-14.50895947177083</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>0</v>
+        <v>-11.50407559199074</v>
       </c>
       <c r="T13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251795</v>
+        <v>244355</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D14" t="n">
-        <v>263.9295774647887</v>
+        <v>70.65573770491804</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-14 14:59:43</t>
+          <t>2025-05-09 12:05:52</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-15 07:14:43</t>
+          <t>2025-05-09 12:25:52</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-15 07:14:43</t>
+          <t>2025-05-09 12:25:52</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-15 11:38:38</t>
+          <t>2025-05-09 13:36:31</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>18739</v>
+        <v>4310</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1478,11 +1475,11 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
@@ -1495,56 +1492,56 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-06-19 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>0</v>
+        <v>-4.571914845173612</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>0</v>
+        <v>-1.567030965393519</v>
       </c>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>245350</v>
+        <v>251062</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>393.943661971831</v>
+        <v>370.8852459016393</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-15 11:38:38</t>
+          <t>2025-05-09 13:36:31</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-15 12:01:38</t>
+          <t>2025-05-09 14:06:31</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-15 12:01:38</t>
+          <t>2025-05-09 14:06:31</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-16 10:35:35</t>
+          <t>2025-05-12 12:17:24</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>27970</v>
+        <v>22624</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1553,11 +1550,11 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
@@ -1570,7 +1567,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
@@ -1580,46 +1577,46 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251519</v>
+        <v>251485</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>185.5633802816901</v>
+        <v>78.81967213114754</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-16 10:35:35</t>
+          <t>2025-05-12 12:17:24</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-16 11:06:35</t>
+          <t>2025-05-12 12:42:24</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-16 11:06:35</t>
+          <t>2025-05-12 12:42:24</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-16 14:12:09</t>
+          <t>2025-05-12 14:01:13</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>13175</v>
+        <v>4808</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1632,7 +1629,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
@@ -1645,56 +1642,56 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>0</v>
+        <v>-20.31067850637731</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>0</v>
+        <v>-19.58418715847222</v>
       </c>
       <c r="T16" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251846</v>
+        <v>251061</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D17" t="n">
-        <v>160.4507042253521</v>
+        <v>393.3934426229508</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-16 14:12:09</t>
+          <t>2025-05-12 14:01:13</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-16 14:27:09</t>
+          <t>2025-05-12 14:26:13</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-16 14:27:09</t>
+          <t>2025-05-12 14:26:13</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-19 09:07:36</t>
+          <t>2025-05-13 12:59:37</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>11392</v>
+        <v>23997</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1703,11 +1700,11 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
@@ -1720,22 +1717,22 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>0</v>
+        <v>-9.389824263043982</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>0</v>
+        <v>-8.541404826956018</v>
       </c>
       <c r="T17" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251742</v>
+        <v>251795</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1743,33 +1740,33 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D18" t="n">
-        <v>134.8524590163935</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-13 12:59:37</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-13 13:19:37</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-13 13:19:37</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-14 10:26:49</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>8226</v>
+        <v>18739</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1778,44 +1775,39 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
       </c>
-      <c r="N18" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O18" t="n">
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-06-19 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>0</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251840</v>
+        <v>251743</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1823,33 +1815,33 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D19" t="n">
-        <v>93.67213114754098</v>
+        <v>176.655737704918</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-14 10:26:49</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-14 10:56:49</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-14 10:56:49</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-14 13:53:28</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>5714</v>
+        <v>10776</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1862,40 +1854,35 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
       </c>
-      <c r="N19" t="n">
-        <v>39758</v>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O19" t="n">
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>39758</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>0</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251561</v>
+        <v>251761</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1906,30 +1893,30 @@
         <v>20</v>
       </c>
       <c r="D20" t="n">
-        <v>89.09836065573771</v>
+        <v>217.6885245901639</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-14 13:53:28</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-08 12:03:31</t>
+          <t>2025-05-14 14:13:28</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-08 12:03:31</t>
+          <t>2025-05-14 14:13:28</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-08 13:32:37</t>
+          <t>2025-05-15 09:51:09</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>5435</v>
+        <v>13279</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1942,7 +1929,7 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
@@ -1955,22 +1942,22 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-19 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-2.465152550092593</v>
+        <v>0</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-1.564321493622685</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>244204</v>
+        <v>251519</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1978,33 +1965,33 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D21" t="n">
-        <v>56.91803278688525</v>
+        <v>215.983606557377</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-08 13:32:37</t>
+          <t>2025-05-15 09:51:09</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-08 13:57:37</t>
+          <t>2025-05-15 10:21:09</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-08 13:57:37</t>
+          <t>2025-05-15 10:21:09</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-08 14:54:32</t>
+          <t>2025-05-15 13:57:08</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>3472</v>
+        <v>13175</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2017,7 +2004,7 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M21" t="n">
         <v>70</v>
@@ -2030,56 +2017,56 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-4.580293715844907</v>
+        <v>0</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>-0.6212090163888889</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251761</v>
+        <v>251547</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D22" t="n">
-        <v>217.6885245901639</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-08 14:54:32</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-09 07:14:32</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-09 07:14:32</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-09 10:52:13</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>13279</v>
+        <v>13129</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2097,64 +2084,69 @@
       <c r="M22" t="n">
         <v>70</v>
       </c>
-      <c r="O22" t="n">
-        <v>0</v>
+      <c r="N22" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-19 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>0</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>0</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="T22" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251566</v>
+        <v>250759</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D23" t="n">
-        <v>112.9344262295082</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-09 10:52:13</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:13</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:13</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-09 13:05:09</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>6889</v>
+        <v>8398</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2163,73 +2155,78 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L23" t="n">
         <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>70</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N23" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-2.560940346087963</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>-2.54525273224537</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="T23" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251416</v>
+        <v>250894</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D24" t="n">
-        <v>183.9672131147541</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-09 13:05:09</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-09 13:35:09</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-09 13:35:09</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-12 08:39:07</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>11222</v>
+        <v>44262</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2238,14 +2235,14 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M24" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N24" t="n">
         <v>39755</v>
@@ -2258,7 +2255,7 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
@@ -2268,46 +2265,46 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251424</v>
+        <v>235572</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>30</v>
       </c>
       <c r="D25" t="n">
-        <v>158.3934426229508</v>
+        <v>140.2535211267606</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-12 08:39:07</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-12 09:09:07</t>
+          <t>2025-05-12 08:17:36</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-12 09:09:07</t>
+          <t>2025-05-12 08:17:36</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-12 11:47:31</t>
+          <t>2025-05-12 10:37:51</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>9662</v>
+        <v>9958</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2316,11 +2313,11 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M25" t="n">
         <v>70</v>
@@ -2333,14 +2330,14 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2023-11-06 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-14.50895947177083</v>
+        <v>-553.4429577464815</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>-14.49133652094907</v>
+        <v>-553.4429577464815</v>
       </c>
       <c r="T25" t="n">
         <v>4</v>
@@ -2348,41 +2345,41 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>244355</v>
+        <v>251475</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D26" t="n">
-        <v>70.65573770491804</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-12 11:47:31</t>
+          <t>2025-05-12 10:37:51</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-12 12:07:31</t>
+          <t>2025-05-12 10:54:51</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-12 12:07:31</t>
+          <t>2025-05-12 10:54:51</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-12 13:18:10</t>
+          <t>2025-05-12 12:57:07</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>4310</v>
+        <v>8681</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2408,14 +2405,14 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-4.571914845173612</v>
+        <v>-12.53967136150463</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>-4.554291894351852</v>
+        <v>-12.53967136150463</v>
       </c>
       <c r="T26" t="n">
         <v>4</v>
@@ -2423,41 +2420,41 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251485</v>
+        <v>251809</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D27" t="n">
-        <v>78.81967213114754</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-12 13:18:10</t>
+          <t>2025-05-12 12:57:07</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-12 13:43:10</t>
+          <t>2025-05-12 13:12:07</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-12 13:43:10</t>
+          <t>2025-05-12 13:12:07</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-13 07:02:00</t>
+          <t>2025-05-13 07:14:23</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>4808</v>
+        <v>8681</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2470,7 +2467,7 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M27" t="n">
         <v>70</v>
@@ -2483,56 +2480,56 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-20.31067850637731</v>
+        <v>0</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>-20.29305555555555</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251247</v>
+        <v>251259</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>25</v>
       </c>
       <c r="D28" t="n">
-        <v>441.5409836065574</v>
+        <v>70.4225352112676</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-13 07:02:00</t>
+          <t>2025-05-13 07:14:23</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-13 07:27:00</t>
+          <t>2025-05-13 07:39:23</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-13 07:27:00</t>
+          <t>2025-05-13 07:39:23</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-13 14:48:32</t>
+          <t>2025-05-13 08:49:49</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>26934</v>
+        <v>5000</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2541,11 +2538,11 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M28" t="n">
         <v>70</v>
@@ -2558,56 +2555,56 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>-5.3925</v>
+        <v>-7.367928403761574</v>
       </c>
       <c r="S28" s="1" t="n">
-        <v>-4.617042349722222</v>
+        <v>-7.367928403761574</v>
       </c>
       <c r="T28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251594</v>
+        <v>251466</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D29" t="n">
-        <v>93.71014492753623</v>
+        <v>78.40845070422536</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-13 08:49:49</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-12 07:35:00</t>
+          <t>2025-05-13 09:16:49</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-12 07:35:00</t>
+          <t>2025-05-13 09:16:49</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-12 09:08:42</t>
+          <t>2025-05-13 10:35:13</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>6466</v>
+        <v>5567</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2620,7 +2617,7 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
@@ -2633,56 +2630,56 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-5.559761345856481</v>
+        <v>-4.441128716747685</v>
       </c>
       <c r="S29" s="1" t="n">
-        <v>-5.381048711759259</v>
+        <v>-4.441128716747685</v>
       </c>
       <c r="T29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251373</v>
+        <v>251465</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D30" t="n">
-        <v>247.7391304347826</v>
+        <v>87.69014084507042</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-12 09:08:42</t>
+          <t>2025-05-13 10:35:13</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-12 09:38:42</t>
+          <t>2025-05-13 10:52:13</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-12 09:38:42</t>
+          <t>2025-05-13 10:52:13</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-12 13:46:26</t>
+          <t>2025-05-13 12:19:54</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>17094</v>
+        <v>6226</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2695,7 +2692,7 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M30" t="n">
         <v>70</v>
@@ -2708,56 +2705,56 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-15.2991071428588</v>
+        <v>-4.513830203437499</v>
       </c>
       <c r="S30" s="1" t="n">
-        <v>-14.57392310789352</v>
+        <v>-4.513830203437499</v>
       </c>
       <c r="T30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>250641</v>
+        <v>251557</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D31" t="n">
-        <v>74.14492753623189</v>
+        <v>94.43661971830986</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-12 13:46:26</t>
+          <t>2025-05-13 12:19:54</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-12 14:16:26</t>
+          <t>2025-05-13 12:34:54</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-12 14:16:26</t>
+          <t>2025-05-13 12:34:54</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-13 07:30:35</t>
+          <t>2025-05-13 14:09:21</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>5116</v>
+        <v>6705</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2770,7 +2767,7 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M31" t="n">
         <v>70</v>
@@ -2783,56 +2780,56 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-15.36771336554398</v>
+        <v>0</v>
       </c>
       <c r="S31" s="1" t="n">
-        <v>-15.31291264090278</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251246</v>
+        <v>251846</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D32" t="n">
-        <v>173.9420289855072</v>
+        <v>160.4507042253521</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-13 07:30:35</t>
+          <t>2025-05-13 14:09:21</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-13 07:55:35</t>
+          <t>2025-05-13 14:24:21</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-13 07:55:35</t>
+          <t>2025-05-13 14:24:21</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-13 10:49:32</t>
+          <t>2025-05-14 09:04:48</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>12002</v>
+        <v>11392</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2841,11 +2838,11 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M32" t="n">
         <v>70</v>
@@ -2858,56 +2855,56 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>-4.505867552337963</v>
+        <v>0</v>
       </c>
       <c r="S32" s="1" t="n">
-        <v>-4.451066827696759</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251580</v>
+        <v>251260</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D33" t="n">
-        <v>103.6666666666667</v>
+        <v>131.9577464788732</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-13 10:49:32</t>
+          <t>2025-05-14 09:04:48</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-13 11:24:32</t>
+          <t>2025-05-14 09:27:48</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-13 11:24:32</t>
+          <t>2025-05-14 09:27:48</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-13 13:08:12</t>
+          <t>2025-05-14 11:39:45</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>7153</v>
+        <v>9369</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2916,11 +2913,11 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M33" t="n">
         <v>70</v>
@@ -2933,7 +2930,7 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
@@ -2948,41 +2945,41 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251164</v>
+        <v>251249</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="D34" t="n">
-        <v>204.0816326530612</v>
+        <v>67.01408450704226</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-14 11:39:45</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-14 11:54:45</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-14 11:54:45</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-14 13:01:46</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>10000</v>
+        <v>4758</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2991,7 +2988,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L34" t="n">
@@ -3000,69 +2997,64 @@
       <c r="M34" t="n">
         <v>70</v>
       </c>
-      <c r="N34" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O34" t="n">
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>0</v>
       </c>
       <c r="S34" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251456</v>
+        <v>251050</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>50</v>
+        <v>217</v>
       </c>
       <c r="D35" t="n">
-        <v>183.6530612244898</v>
+        <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>8999</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -3071,17 +3063,17 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
       </c>
       <c r="N35" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3089,60 +3081,60 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S35" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="T35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>251626</v>
+        <v>251054</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>35</v>
       </c>
       <c r="D36" t="n">
-        <v>255.1020408163265</v>
+        <v>0</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-09 07:47:44</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-09 07:47:44</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-09 12:02:50</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3151,73 +3143,78 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="M36" t="n">
         <v>70</v>
       </c>
-      <c r="O36" t="n">
-        <v>0</v>
+      <c r="N36" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
-        <v>-12.35892857142361</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S36" s="1" t="n">
-        <v>-9.501969954652777</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="T36" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>250670</v>
+        <v>251081</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="D37" t="n">
-        <v>31.89795918367347</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-09 12:02:50</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-09 12:44:50</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-09 12:44:50</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-09 13:16:44</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1563</v>
+        <v>3012</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3226,31 +3223,38 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M37" t="n">
-        <v>76</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>39750</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>-8.350425170069444</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S37" s="1" t="n">
-        <v>-4.553287981863426</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="T37" t="n">
         <v>2</v>
@@ -3258,41 +3262,41 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251061</v>
+        <v>251109</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D38" t="n">
-        <v>489.734693877551</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-09 13:16:44</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-09 14:03:44</t>
+          <t>2025-05-09 14:54:25</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-09 14:03:44</t>
+          <t>2025-05-09 14:54:25</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-12 14:13:28</t>
+          <t>2025-05-12 11:21:00</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>23997</v>
+        <v>18928</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3301,11 +3305,11 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
@@ -3318,22 +3322,22 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>-9.389824263043982</v>
+        <v>-25.47753325508102</v>
       </c>
       <c r="S38" s="1" t="n">
-        <v>-7.592687074826388</v>
+        <v>-24.47292644756944</v>
       </c>
       <c r="T38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>251050</v>
+        <v>251520</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -3341,33 +3345,33 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>217</v>
+        <v>80</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>230.1408450704225</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-12 11:21:00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-12 12:41:00</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-12 12:41:00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-13 08:31:09</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>16340</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3376,78 +3380,73 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="M39" t="n">
         <v>70</v>
       </c>
-      <c r="N39" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O39" t="n">
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-2.359575508611111</v>
       </c>
       <c r="S39" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-1.354968701099537</v>
       </c>
       <c r="T39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251054</v>
+        <v>251651</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>46830</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3456,78 +3455,76 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="M40" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N40" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>0</v>
       </c>
       <c r="S40" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>251081</v>
+        <v>251346</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>125</v>
+        <v>46</v>
       </c>
       <c r="D41" t="n">
-        <v>42.42253521126761</v>
+        <v>63.26229508196721</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-12 13:02:42</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-12 13:02:42</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-12 14:05:58</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>3012</v>
+        <v>3859</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3536,38 +3533,31 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="M41" t="n">
         <v>70</v>
       </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O41" t="n">
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>39750</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-15.31380919854167</v>
       </c>
       <c r="S41" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-14.58747723133102</v>
       </c>
       <c r="T41" t="n">
         <v>2</v>
@@ -3575,41 +3565,41 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251109</v>
+        <v>244023</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D42" t="n">
-        <v>266.5915492957747</v>
+        <v>16.34426229508197</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-12 14:05:58</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-09 14:54:25</t>
+          <t>2025-05-12 14:34:58</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-09 14:54:25</t>
+          <t>2025-05-12 14:34:58</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-12 11:21:00</t>
+          <t>2025-05-12 14:51:18</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>18928</v>
+        <v>997</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3618,11 +3608,11 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="M42" t="n">
         <v>70</v>
@@ -3635,56 +3625,56 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-25.47753325508102</v>
+        <v>-225.3452982695833</v>
       </c>
       <c r="S42" s="1" t="n">
-        <v>-24.47292644756944</v>
+        <v>-224.6189663023727</v>
       </c>
       <c r="T42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251520</v>
+        <v>251283</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="D43" t="n">
-        <v>230.1408450704225</v>
+        <v>12.36065573770492</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-12 11:21:00</t>
+          <t>2025-05-12 14:51:18</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-12 12:41:00</t>
+          <t>2025-05-13 07:16:18</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-12 12:41:00</t>
+          <t>2025-05-13 07:16:18</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-13 08:31:09</t>
+          <t>2025-05-13 07:28:40</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>16340</v>
+        <v>754</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3693,11 +3683,11 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M43" t="n">
         <v>70</v>
@@ -3710,14 +3700,14 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-03-18 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-2.359575508611111</v>
+        <v>-56.37124316939815</v>
       </c>
       <c r="S43" s="1" t="n">
-        <v>-1.354968701099537</v>
+        <v>-56.31157786885417</v>
       </c>
       <c r="T43" t="n">
         <v>1</v>
@@ -3725,7 +3715,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251651</v>
+        <v>251464</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3736,30 +3726,30 @@
         <v>29</v>
       </c>
       <c r="D44" t="n">
-        <v>767.7049180327868</v>
+        <v>117.2622950819672</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-13 07:28:40</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-13 07:57:40</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-13 07:57:40</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-13 09:54:56</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>46830</v>
+        <v>7153</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3768,17 +3758,14 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M44" t="n">
-        <v>76</v>
-      </c>
-      <c r="N44" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -3788,22 +3775,22 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>0</v>
+        <v>-4.472814207650463</v>
       </c>
       <c r="S44" s="1" t="n">
-        <v>0</v>
+        <v>-4.413148907106482</v>
       </c>
       <c r="T44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>251346</v>
+        <v>251467</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3811,33 +3798,33 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D45" t="n">
-        <v>63.26229508196721</v>
+        <v>102.0655737704918</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-13 09:54:56</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-12 13:02:42</t>
+          <t>2025-05-13 10:23:56</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-12 13:02:42</t>
+          <t>2025-05-13 10:23:56</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-12 14:05:58</t>
+          <t>2025-05-13 12:06:00</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>3859</v>
+        <v>6226</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3850,7 +3837,7 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M45" t="n">
         <v>70</v>
@@ -3863,22 +3850,22 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>-15.31380919854167</v>
+        <v>-4.563831967210648</v>
       </c>
       <c r="S45" s="1" t="n">
-        <v>-14.58747723133102</v>
+        <v>-4.504166666666666</v>
       </c>
       <c r="T45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>244023</v>
+        <v>251374</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3886,33 +3873,33 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D46" t="n">
-        <v>16.34426229508197</v>
+        <v>448.2459016393443</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-12 14:05:58</t>
+          <t>2025-05-13 12:06:00</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-12 14:34:58</t>
+          <t>2025-05-13 12:41:00</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-12 14:34:58</t>
+          <t>2025-05-13 12:41:00</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-12 14:51:18</t>
+          <t>2025-05-14 12:09:14</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>997</v>
+        <v>27343</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3921,11 +3908,11 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M46" t="n">
         <v>70</v>
@@ -3938,14 +3925,14 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>-225.3452982695833</v>
+        <v>0</v>
       </c>
       <c r="S46" s="1" t="n">
-        <v>-224.6189663023727</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>1</v>
@@ -3953,7 +3940,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>251283</v>
+        <v>245089</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3961,33 +3948,33 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D47" t="n">
-        <v>12.36065573770492</v>
+        <v>2010.901639344262</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-05-12 14:51:18</t>
+          <t>2025-05-14 12:09:14</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-13 07:16:18</t>
+          <t>2025-05-14 12:55:14</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-05-13 07:16:18</t>
+          <t>2025-05-14 12:55:14</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-05-13 07:28:40</t>
+          <t>2025-05-20 14:26:08</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>754</v>
+        <v>122665</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3996,14 +3983,14 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M47" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -4013,14 +4000,14 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2025-03-18 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>-56.37124316939815</v>
+        <v>0</v>
       </c>
       <c r="S47" s="1" t="n">
-        <v>-56.31157786885417</v>
+        <v>0</v>
       </c>
       <c r="T47" t="n">
         <v>1</v>
@@ -4028,41 +4015,41 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>251464</v>
+        <v>251225</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D48" t="n">
-        <v>117.2622950819672</v>
+        <v>0</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-13 07:28:40</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-13 07:57:40</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-13 07:57:40</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-05-13 09:54:56</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>7153</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -4071,31 +4058,36 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
         <v>4</v>
       </c>
       <c r="M48" t="n">
-        <v>70</v>
-      </c>
-      <c r="O48" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N48" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-4.472814207650463</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="S48" s="1" t="n">
-        <v>-4.413148907106482</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="T48" t="n">
         <v>1</v>
@@ -4103,41 +4095,41 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>251467</v>
+        <v>251227</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D49" t="n">
-        <v>102.0655737704918</v>
+        <v>0</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-13 09:54:56</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-13 10:23:56</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-13 10:23:56</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-13 12:06:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>6226</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4146,31 +4138,36 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M49" t="n">
-        <v>70</v>
-      </c>
-      <c r="O49" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N49" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P49" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>-4.563831967210648</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="S49" s="1" t="n">
-        <v>-4.504166666666666</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="T49" t="n">
         <v>1</v>
@@ -4178,41 +4175,41 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>245089</v>
+        <v>251782</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D50" t="n">
-        <v>2010.901639344262</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-13 12:06:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-13 12:50:00</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-13 12:50:00</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-19 14:20:54</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>122665</v>
+        <v>12073</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4221,31 +4218,36 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M50" t="n">
         <v>76</v>
       </c>
-      <c r="O50" t="n">
-        <v>0</v>
+      <c r="N50" t="n">
+        <v>39754</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>39754</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>0</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="S50" s="1" t="n">
-        <v>0</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="T50" t="n">
         <v>1</v>
@@ -4253,7 +4255,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251225</v>
+        <v>251340</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -4261,33 +4263,33 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>461.9718309859155</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 07:58:02</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 07:58:02</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-12 07:40:00</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>32800</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4296,44 +4298,39 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M51" t="n">
         <v>76</v>
       </c>
-      <c r="N51" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O51" t="n">
+        <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-14.31945422534722</v>
       </c>
       <c r="S51" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-14.31945422534722</v>
       </c>
       <c r="T51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>251227</v>
+        <v>243569</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -4341,33 +4338,33 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-12 07:40:00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-12 07:57:00</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-12 07:57:00</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-12 08:33:38</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>2601</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4380,40 +4377,35 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M52" t="n">
         <v>76</v>
       </c>
-      <c r="N52" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O52" t="n">
+        <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2024-09-16 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>-238.3566999217477</v>
       </c>
       <c r="S52" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>-238.3566999217477</v>
       </c>
       <c r="T52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>251782</v>
+        <v>245623</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -4421,33 +4413,33 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D53" t="n">
-        <v>170.0422535211268</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-12 08:33:38</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-12 09:05:38</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-12 09:05:38</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-13 07:17:44</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>12073</v>
+        <v>26419</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4456,44 +4448,39 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M53" t="n">
-        <v>76</v>
-      </c>
-      <c r="N53" t="n">
-        <v>39754</v>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>39754</v>
+        <v>0</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-108.3039906103241</v>
       </c>
       <c r="S53" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-108.3039906103241</v>
       </c>
       <c r="T53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>251340</v>
+        <v>243335</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -4501,33 +4488,33 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D54" t="n">
-        <v>461.9718309859155</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-13 07:17:44</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-09 07:58:02</t>
+          <t>2025-05-13 07:36:44</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-09 07:58:02</t>
+          <t>2025-05-13 07:36:44</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-12 07:40:00</t>
+          <t>2025-05-14 07:21:35</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>32800</v>
+        <v>33004</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4536,14 +4523,14 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M54" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
@@ -4553,22 +4540,22 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>-14.31945422534722</v>
+        <v>-285.306660798125</v>
       </c>
       <c r="S54" s="1" t="n">
-        <v>-14.31945422534722</v>
+        <v>-285.306660798125</v>
       </c>
       <c r="T54" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>243569</v>
+        <v>251750</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -4579,30 +4566,30 @@
         <v>17</v>
       </c>
       <c r="D55" t="n">
-        <v>36.63380281690141</v>
+        <v>54.80281690140845</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-12 07:40:00</t>
+          <t>2025-05-14 07:21:35</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-12 07:57:00</t>
+          <t>2025-05-14 07:38:35</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-12 07:57:00</t>
+          <t>2025-05-14 07:38:35</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-12 08:33:38</t>
+          <t>2025-05-14 08:33:23</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>2601</v>
+        <v>3891</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4618,7 +4605,7 @@
         <v>3</v>
       </c>
       <c r="M55" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -4628,22 +4615,22 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>-238.3566999217477</v>
+        <v>0</v>
       </c>
       <c r="S55" s="1" t="n">
-        <v>-238.3566999217477</v>
+        <v>0</v>
       </c>
       <c r="T55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>245623</v>
+        <v>251987</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -4651,33 +4638,33 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D56" t="n">
-        <v>372.0985915492957</v>
+        <v>2965.154929577465</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-12 08:33:38</t>
+          <t>2025-05-14 08:33:23</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-12 09:05:38</t>
+          <t>2025-05-14 09:09:23</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-12 09:05:38</t>
+          <t>2025-05-14 09:09:23</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-13 07:17:44</t>
+          <t>2025-05-22 10:34:32</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>26419</v>
+        <v>210526</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4686,14 +4673,14 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M56" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -4703,22 +4690,22 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-09-01 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>-108.3039906103241</v>
+        <v>0</v>
       </c>
       <c r="S56" s="1" t="n">
-        <v>-108.3039906103241</v>
+        <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>243335</v>
+        <v>245090</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -4726,33 +4713,33 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D57" t="n">
-        <v>464.8450704225352</v>
+        <v>7277.718309859155</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-13 07:17:44</t>
+          <t>2025-05-22 10:34:32</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-13 07:36:44</t>
+          <t>2025-05-22 10:51:32</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-13 07:36:44</t>
+          <t>2025-05-22 10:51:32</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-14 07:21:35</t>
+          <t>2025-06-12 12:09:16</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>33004</v>
+        <v>516718</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4765,10 +4752,10 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M57" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -4778,14 +4765,14 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-285.306660798125</v>
+        <v>0</v>
       </c>
       <c r="S57" s="1" t="n">
-        <v>-285.306660798125</v>
+        <v>0</v>
       </c>
       <c r="T57" t="n">
         <v>1</v>
@@ -4793,67 +4780,74 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251750</v>
+        <v>251706</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>54.80281690140845</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-14 07:21:35</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-14 07:38:35</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-14 07:38:35</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-14 08:33:23</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>3891</v>
+        <v>3200</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>152</v>
-      </c>
-      <c r="O58" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P58" t="n">
-        <v>0</v>
+        <v>39764</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
@@ -4863,46 +4857,46 @@
         <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>251987</v>
+        <v>251164</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D59" t="n">
-        <v>2965.154929577465</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-14 08:33:23</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-14 09:09:23</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-14 09:09:23</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-22 10:34:32</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>210526</v>
+        <v>10000</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4911,73 +4905,78 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L59" t="n">
         <v>6</v>
       </c>
       <c r="M59" t="n">
-        <v>76</v>
-      </c>
-      <c r="O59" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N59" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P59" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2025-09-01 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>0</v>
+        <v>-1.471584467118056</v>
       </c>
       <c r="S59" s="1" t="n">
-        <v>0</v>
+        <v>-1.471584467118056</v>
       </c>
       <c r="T59" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>245090</v>
+        <v>251456</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D60" t="n">
-        <v>7277.718309859155</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-22 10:34:32</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-22 10:51:32</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-22 10:51:32</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-06-12 12:09:16</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>516718</v>
+        <v>8999</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4986,31 +4985,36 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M60" t="n">
-        <v>76</v>
-      </c>
-      <c r="O60" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N60" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P60" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>0</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="S60" s="1" t="n">
-        <v>0</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="T60" t="n">
         <v>1</v>
@@ -5018,74 +5022,70 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>251706</v>
+        <v>251416</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D61" t="n">
-        <v>50.79365079365079</v>
+        <v>229.0204081632653</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 07:52:44</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 07:52:44</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-09 11:41:45</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>3200</v>
+        <v>11222</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N61" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>39764</v>
+        <v>0</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
@@ -5095,46 +5095,46 @@
         <v>0</v>
       </c>
       <c r="T61" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>251455</v>
+        <v>251626</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D62" t="n">
-        <v>82.765625</v>
+        <v>255.1020408163265</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-09 11:41:45</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-09 12:21:45</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-09 12:21:45</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-12 08:36:51</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>5297</v>
+        <v>12500</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -5147,32 +5147,27 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M62" t="n">
         <v>70</v>
       </c>
-      <c r="N62" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O62" t="n">
+        <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>-12.35892857142361</v>
       </c>
       <c r="S62" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>-12.35892857142361</v>
       </c>
       <c r="T62" t="n">
         <v>7</v>
@@ -5180,41 +5175,41 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>251391</v>
+        <v>251373</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D63" t="n">
-        <v>91.640625</v>
+        <v>348.8571428571428</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-12 08:36:51</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-12 09:21:51</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-12 09:21:51</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-13 07:10:42</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>5865</v>
+        <v>17094</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5232,35 +5227,30 @@
       <c r="M63" t="n">
         <v>70</v>
       </c>
-      <c r="N63" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O63" t="n">
+        <v>0</v>
       </c>
       <c r="P63" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>-15.2991071428588</v>
       </c>
       <c r="S63" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>-15.2991071428588</v>
       </c>
       <c r="T63" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>251395</v>
+        <v>251455</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -5268,33 +5258,33 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D64" t="n">
-        <v>35.34375</v>
+        <v>82.765625</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>2262</v>
+        <v>5297</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5307,7 +5297,7 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M64" t="n">
         <v>70</v>
@@ -5325,14 +5315,14 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="S64" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="T64" t="n">
         <v>7</v>
@@ -5340,7 +5330,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>251371</v>
+        <v>251391</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -5348,33 +5338,33 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>91.640625</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>5865</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5387,15 +5377,13 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M65" t="n">
         <v>70</v>
       </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+      <c r="N65" t="n">
+        <v>39749</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -5403,18 +5391,18 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>39666</v>
+        <v>39749</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="S65" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="T65" t="n">
         <v>7</v>
@@ -5422,7 +5410,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251396</v>
+        <v>251395</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -5430,29 +5418,29 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D66" t="n">
         <v>35.34375</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -5487,14 +5475,14 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>-0.4741319444444445</v>
       </c>
       <c r="S66" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>-0.4741319444444445</v>
       </c>
       <c r="T66" t="n">
         <v>7</v>
@@ -5502,7 +5490,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>251548</v>
+        <v>251371</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -5513,30 +5501,30 @@
         <v>19</v>
       </c>
       <c r="D67" t="n">
-        <v>206.90625</v>
+        <v>0</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>13242</v>
+        <v>0</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5554,8 +5542,10 @@
       <c r="M67" t="n">
         <v>70</v>
       </c>
-      <c r="N67" t="n">
-        <v>39749</v>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -5563,18 +5553,18 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>39749</v>
+        <v>39666</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>-1.348611111111111</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="S67" s="1" t="n">
-        <v>-1.348611111111111</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="T67" t="n">
         <v>7</v>
@@ -5582,7 +5572,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>250923</v>
+        <v>251396</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -5590,33 +5580,33 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D68" t="n">
-        <v>109.46875</v>
+        <v>35.34375</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>7006</v>
+        <v>2262</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5625,14 +5615,14 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M68" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N68" t="n">
         <v>39749</v>
@@ -5647,22 +5637,22 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>-0.5250651041666666</v>
       </c>
       <c r="S68" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>-0.5250651041666666</v>
       </c>
       <c r="T68" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>251477</v>
+        <v>251548</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -5673,30 +5663,30 @@
         <v>19</v>
       </c>
       <c r="D69" t="n">
-        <v>468.734375</v>
+        <v>206.90625</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>29999</v>
+        <v>13242</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5705,17 +5695,17 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M69" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N69" t="n">
-        <v>39760</v>
+        <v>39749</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -5723,26 +5713,26 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>39760</v>
+        <v>39749</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>-1.348611111111111</v>
       </c>
       <c r="S69" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>-1.348611111111111</v>
       </c>
       <c r="T69" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>251564</v>
+        <v>250923</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -5750,33 +5740,33 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D70" t="n">
-        <v>42.453125</v>
+        <v>109.46875</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-09 11:21:12</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-09 11:21:12</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-09 12:03:39</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>2717</v>
+        <v>7006</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5785,39 +5775,44 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M70" t="n">
-        <v>70</v>
-      </c>
-      <c r="O70" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N70" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P70" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>-2.5025390625</v>
+        <v>-1.446853298611111</v>
       </c>
       <c r="S70" s="1" t="n">
-        <v>-2.5025390625</v>
+        <v>-1.446853298611111</v>
       </c>
       <c r="T70" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>251546</v>
+        <v>251477</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -5828,30 +5823,30 @@
         <v>19</v>
       </c>
       <c r="D71" t="n">
-        <v>101.03125</v>
+        <v>468.734375</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-09 12:03:39</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-09 12:22:39</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-09 12:22:39</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-09 14:03:41</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>6466</v>
+        <v>29999</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5860,39 +5855,44 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M71" t="n">
-        <v>70</v>
-      </c>
-      <c r="O71" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N71" t="n">
+        <v>39760</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P71" t="n">
-        <v>0</v>
+        <v>39760</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-9.585894097222223</v>
+        <v>-2.452224392361111</v>
       </c>
       <c r="S71" s="1" t="n">
-        <v>-9.585894097222223</v>
+        <v>-2.452224392361111</v>
       </c>
       <c r="T71" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>251397</v>
+        <v>251564</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -5900,33 +5900,33 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D72" t="n">
-        <v>84.921875</v>
+        <v>42.453125</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-09 14:03:41</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-09 14:22:41</t>
+          <t>2025-05-09 11:21:12</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-09 14:22:41</t>
+          <t>2025-05-09 11:21:12</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-09 12:03:39</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>5435</v>
+        <v>2717</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5952,22 +5952,22 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>-14.48929924241898</v>
+        <v>-2.5025390625</v>
       </c>
       <c r="S72" s="1" t="n">
-        <v>-14.32472873263889</v>
+        <v>-2.5025390625</v>
       </c>
       <c r="T72" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>251743</v>
+        <v>251546</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -5975,33 +5975,33 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D73" t="n">
-        <v>168.375</v>
+        <v>101.03125</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-09 12:03:39</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-12 08:04:36</t>
+          <t>2025-05-09 12:22:39</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-12 08:04:36</t>
+          <t>2025-05-09 12:22:39</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-12 10:52:59</t>
+          <t>2025-05-09 14:03:41</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>10776</v>
+        <v>6466</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M73" t="n">
         <v>70</v>
@@ -6027,22 +6027,22 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
-        <v>0</v>
+        <v>-9.585894097222223</v>
       </c>
       <c r="S73" s="1" t="n">
-        <v>0</v>
+        <v>-9.585894097222223</v>
       </c>
       <c r="T73" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>251245</v>
+        <v>251397</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -6053,30 +6053,30 @@
         <v>19</v>
       </c>
       <c r="D74" t="n">
-        <v>11.78125</v>
+        <v>84.921875</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-12 10:52:59</t>
+          <t>2025-05-09 14:03:41</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-12 11:11:59</t>
+          <t>2025-05-09 14:22:41</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-12 11:11:59</t>
+          <t>2025-05-09 14:22:41</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-12 11:23:45</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>754</v>
+        <v>5435</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -6085,11 +6085,11 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M74" t="n">
         <v>70</v>
@@ -6102,22 +6102,22 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
-        <v>-46.368359375</v>
+        <v>-14.48929924241898</v>
       </c>
       <c r="S74" s="1" t="n">
-        <v>-45.47483723958333</v>
+        <v>-14.32472873263889</v>
       </c>
       <c r="T74" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>251463</v>
+        <v>251245</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -6125,33 +6125,33 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D75" t="n">
-        <v>108.859375</v>
+        <v>11.78125</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-12 11:23:45</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-12 11:42:45</t>
+          <t>2025-05-12 08:08:36</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-12 11:42:45</t>
+          <t>2025-05-12 08:08:36</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-12 13:31:37</t>
+          <t>2025-05-12 08:20:23</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>6967</v>
+        <v>754</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -6160,11 +6160,11 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M75" t="n">
         <v>70</v>
@@ -6177,14 +6177,14 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
-        <v>-4.457150607638889</v>
+        <v>-46.368359375</v>
       </c>
       <c r="S75" s="1" t="n">
-        <v>-3.563628472222222</v>
+        <v>-45.34749348958334</v>
       </c>
       <c r="T75" t="n">
         <v>1</v>
@@ -6192,7 +6192,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>251462</v>
+        <v>251463</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -6203,30 +6203,30 @@
         <v>19</v>
       </c>
       <c r="D76" t="n">
-        <v>97.28125</v>
+        <v>108.859375</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-05-12 13:31:37</t>
+          <t>2025-05-12 08:20:23</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-05-12 13:50:37</t>
+          <t>2025-05-12 08:39:23</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-05-12 13:50:37</t>
+          <t>2025-05-12 08:39:23</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-05-13 07:27:54</t>
+          <t>2025-05-12 10:28:15</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>6226</v>
+        <v>6967</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -6239,7 +6239,7 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M76" t="n">
         <v>70</v>
@@ -6256,10 +6256,10 @@
         </is>
       </c>
       <c r="R76" s="1" t="n">
-        <v>-4.537901475694444</v>
+        <v>-4.457150607638889</v>
       </c>
       <c r="S76" s="1" t="n">
-        <v>-4.311046006944444</v>
+        <v>-3.436284722222222</v>
       </c>
       <c r="T76" t="n">
         <v>1</v>
@@ -6267,7 +6267,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>251562</v>
+        <v>251462</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -6275,33 +6275,33 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D77" t="n">
-        <v>127.21875</v>
+        <v>97.28125</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-05-13 07:27:54</t>
+          <t>2025-05-12 10:28:15</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-05-13 07:42:54</t>
+          <t>2025-05-12 10:47:15</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-05-13 07:42:54</t>
+          <t>2025-05-12 10:47:15</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-05-13 09:50:07</t>
+          <t>2025-05-12 12:24:31</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>8142</v>
+        <v>6226</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -6327,14 +6327,14 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R77" s="1" t="n">
-        <v>0</v>
+        <v>-4.537901475694444</v>
       </c>
       <c r="S77" s="1" t="n">
-        <v>0</v>
+        <v>-3.517035590277778</v>
       </c>
       <c r="T77" t="n">
         <v>1</v>
@@ -6342,7 +6342,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>251374</v>
+        <v>251562</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -6350,33 +6350,33 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D78" t="n">
-        <v>427.234375</v>
+        <v>127.21875</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-05-13 09:50:07</t>
+          <t>2025-05-12 12:24:31</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:07</t>
+          <t>2025-05-12 12:39:31</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:07</t>
+          <t>2025-05-12 12:39:31</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-05-14 09:22:21</t>
+          <t>2025-05-12 14:46:45</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>27343</v>
+        <v>8142</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -6385,11 +6385,11 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M78" t="n">
         <v>70</v>
@@ -6417,7 +6417,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>251260</v>
+        <v>251580</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -6425,33 +6425,33 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D79" t="n">
-        <v>146.390625</v>
+        <v>111.765625</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-05-14 09:22:21</t>
+          <t>2025-05-12 14:46:45</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-05-14 09:39:21</t>
+          <t>2025-05-13 07:05:45</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-05-14 09:39:21</t>
+          <t>2025-05-13 07:05:45</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-05-14 12:05:45</t>
+          <t>2025-05-13 08:57:30</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>9369</v>
+        <v>7153</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -6460,11 +6460,11 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M79" t="n">
         <v>70</v>
@@ -6477,7 +6477,7 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R79" s="1" t="n">
@@ -6500,29 +6500,29 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D80" t="n">
         <v>247.8125</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-05-14 12:05:45</t>
+          <t>2025-05-13 08:57:30</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-05-14 12:20:45</t>
+          <t>2025-05-13 09:16:30</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-05-14 12:20:45</t>
+          <t>2025-05-13 09:16:30</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-05-15 08:28:33</t>
+          <t>2025-05-13 13:24:19</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -6567,7 +6567,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>251062</v>
+        <v>251252</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -6578,30 +6578,30 @@
         <v>15</v>
       </c>
       <c r="D81" t="n">
-        <v>353.5</v>
+        <v>235.671875</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-05-15 08:28:33</t>
+          <t>2025-05-13 13:24:19</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-05-15 08:43:33</t>
+          <t>2025-05-13 13:39:19</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-05-15 08:43:33</t>
+          <t>2025-05-13 13:39:19</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-05-15 14:37:03</t>
+          <t>2025-05-14 09:35:00</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>22624</v>
+        <v>15083</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>251249</v>
+        <v>251247</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>30.5</v>
       </c>
       <c r="D86" t="n">
-        <v>86.50909090909092</v>
+        <v>489.7090909090909</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -6977,11 +6977,11 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2025-05-13 08:28:40</t>
+          <t>2025-05-14 07:11:52</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>4758</v>
+        <v>26934</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -7007,14 +7007,14 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R86" s="1" t="n">
-        <v>0</v>
+        <v>-5.3925</v>
       </c>
       <c r="S86" s="1" t="n">
-        <v>0</v>
+        <v>-5.299917929293981</v>
       </c>
       <c r="T86" t="n">
         <v>1</v>
@@ -7037,22 +7037,22 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-05-13 08:28:40</t>
+          <t>2025-05-14 07:11:52</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-05-13 09:15:10</t>
+          <t>2025-05-14 07:58:22</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-05-13 09:15:10</t>
+          <t>2025-05-14 07:58:22</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2025-05-14 08:36:53</t>
+          <t>2025-05-15 07:20:05</t>
         </is>
       </c>
       <c r="I87" t="n">

--- a/PS-VRP/Dati_output/insert_inter_post.xlsx
+++ b/PS-VRP/Dati_output/insert_inter_post.xlsx
@@ -515,41 +515,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>250670</v>
+        <v>251547</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>22.65217391304348</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:35:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:35:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:57:39</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1563</v>
+        <v>13129</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,73 +558,78 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>76</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N2" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-8.350425170069444</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>-7.331702898553242</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251594</v>
+        <v>251416</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>93.71014492753623</v>
+        <v>158.056338028169</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-12 07:57:39</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-12 08:27:39</t>
+          <t>2025-05-08 10:57:54</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-12 08:27:39</t>
+          <t>2025-05-08 10:57:54</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-12 10:01:21</t>
+          <t>2025-05-08 13:35:58</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>6466</v>
+        <v>11222</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -637,11 +642,14 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
       </c>
+      <c r="N3" t="n">
+        <v>39755</v>
+      </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
@@ -650,56 +658,56 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-5.559761345856481</v>
+        <v>0</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-5.417612721412037</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251229</v>
+        <v>250894</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" t="n">
-        <v>271.5797101449276</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-12 10:01:21</t>
+          <t>2025-05-08 13:35:58</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-12 10:36:21</t>
+          <t>2025-05-08 14:11:58</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-12 10:36:21</t>
+          <t>2025-05-08 14:11:58</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-13 07:07:56</t>
+          <t>2025-05-12 08:35:22</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>18739</v>
+        <v>44262</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -708,31 +716,27 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>70</v>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N4" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>39723</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
@@ -742,46 +746,46 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>250641</v>
+        <v>251455</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D5" t="n">
-        <v>74.14492753623189</v>
+        <v>74.6056338028169</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-13 07:07:56</t>
+          <t>2025-05-12 08:35:22</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-13 07:32:56</t>
+          <t>2025-05-12 09:07:22</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-13 07:32:56</t>
+          <t>2025-05-12 09:07:22</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-13 08:47:05</t>
+          <t>2025-05-12 10:21:59</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>5116</v>
+        <v>5297</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -794,69 +798,74 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
-      <c r="O5" t="n">
-        <v>0</v>
+      <c r="N5" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-15.36771336554398</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-15.36603260869213</v>
+        <v>-5.431934663541667</v>
       </c>
       <c r="T5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251246</v>
+        <v>250759</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>173.9420289855072</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-13 08:47:05</t>
+          <t>2025-05-12 10:21:59</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-13 09:12:05</t>
+          <t>2025-05-12 10:51:59</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-13 09:12:05</t>
+          <t>2025-05-12 10:51:59</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-13 12:06:01</t>
+          <t>2025-05-12 12:50:16</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>12002</v>
+        <v>8398</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -865,31 +874,36 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>70</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N6" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-4.505867552337963</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-4.504186795486111</v>
+        <v>-4.534908059467592</v>
       </c>
       <c r="T6" t="n">
         <v>1</v>
@@ -897,41 +911,41 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>245350</v>
+        <v>251225</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>405.3623188405797</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-13 12:06:01</t>
+          <t>2025-05-12 12:50:16</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-13 12:51:01</t>
+          <t>2025-05-12 13:05:16</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-13 12:51:01</t>
+          <t>2025-05-12 13:05:16</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-14 11:36:23</t>
+          <t>2025-05-12 13:05:16</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>27970</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -940,73 +954,78 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N7" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>0</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>0</v>
+        <v>-4.545324726134259</v>
       </c>
       <c r="T7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251742</v>
+        <v>235572</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>134.8524590163935</v>
+        <v>140.2535211267606</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-12 13:05:16</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-12 13:37:16</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-12 13:37:16</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-13 07:57:31</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>8226</v>
+        <v>9958</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1015,78 +1034,73 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
-      <c r="N8" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O8" t="n">
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2023-11-06 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>0</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251840</v>
+        <v>251475</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D9" t="n">
-        <v>93.67213114754098</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-13 07:57:31</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-13 08:14:31</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-13 08:14:31</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-13 10:16:47</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>5714</v>
+        <v>8681</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1099,74 +1113,69 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
-      <c r="N9" t="n">
-        <v>39758</v>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O9" t="n">
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>39758</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>0</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251561</v>
+        <v>251743</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D10" t="n">
-        <v>89.09836065573771</v>
+        <v>151.7746478873239</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-13 10:16:47</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:03:31</t>
+          <t>2025-05-13 10:31:47</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:03:31</t>
+          <t>2025-05-13 10:31:47</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-08 13:32:37</t>
+          <t>2025-05-13 13:03:33</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>5435</v>
+        <v>10776</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1179,7 +1188,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
@@ -1192,56 +1201,56 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-2.465152550092593</v>
+        <v>0</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>-1.564321493622685</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>244204</v>
+        <v>244023</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D11" t="n">
-        <v>56.91803278688525</v>
+        <v>14.04225352112676</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-08 13:32:37</t>
+          <t>2025-05-13 13:03:33</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-08 13:57:37</t>
+          <t>2025-05-13 13:22:33</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-08 13:57:37</t>
+          <t>2025-05-13 13:22:33</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-08 14:54:32</t>
+          <t>2025-05-13 13:36:36</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>3472</v>
+        <v>997</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1254,7 +1263,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
@@ -1267,56 +1276,56 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-4.580293715844907</v>
+        <v>0</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>-0.6212090163888889</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251566</v>
+        <v>251245</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D12" t="n">
-        <v>112.9344262295082</v>
+        <v>10.61971830985915</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-08 14:54:32</t>
+          <t>2025-05-13 13:36:36</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:14:32</t>
+          <t>2025-05-13 13:51:36</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:14:32</t>
+          <t>2025-05-13 13:51:36</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-09 09:07:28</t>
+          <t>2025-05-13 14:02:13</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>6889</v>
+        <v>754</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1325,11 +1334,11 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
@@ -1342,56 +1351,56 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-2.560940346087963</v>
+        <v>0</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>-2.380191256828704</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251424</v>
+        <v>251246</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D13" t="n">
-        <v>158.3934426229508</v>
+        <v>169.0422535211268</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-09 09:07:28</t>
+          <t>2025-05-13 14:02:13</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-09 09:27:28</t>
+          <t>2025-05-13 14:17:13</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-09 09:27:28</t>
+          <t>2025-05-13 14:17:13</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-09 12:05:52</t>
+          <t>2025-05-14 09:06:16</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>9662</v>
+        <v>12002</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1400,11 +1409,11 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
@@ -1417,56 +1426,56 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-14.50895947177083</v>
+        <v>0</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>-11.50407559199074</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>244355</v>
+        <v>251580</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" t="n">
-        <v>70.65573770491804</v>
+        <v>100.7464788732394</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-09 12:05:52</t>
+          <t>2025-05-14 09:06:16</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-09 12:25:52</t>
+          <t>2025-05-14 09:25:16</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-09 12:25:52</t>
+          <t>2025-05-14 09:25:16</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-09 13:36:31</t>
+          <t>2025-05-14 11:06:00</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>4310</v>
+        <v>7153</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1492,56 +1501,56 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-4.571914845173612</v>
+        <v>0</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>-1.567030965393519</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251062</v>
+        <v>251260</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D15" t="n">
-        <v>370.8852459016393</v>
+        <v>131.9577464788732</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-09 13:36:31</t>
+          <t>2025-05-14 11:06:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-09 14:06:31</t>
+          <t>2025-05-14 11:25:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-09 14:06:31</t>
+          <t>2025-05-14 11:25:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-12 12:17:24</t>
+          <t>2025-05-14 13:36:58</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>22624</v>
+        <v>9369</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1550,7 +1559,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -1567,7 +1576,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
@@ -1582,41 +1591,41 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251485</v>
+        <v>251249</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D16" t="n">
-        <v>78.81967213114754</v>
+        <v>67.01408450704226</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-12 12:17:24</t>
+          <t>2025-05-14 13:36:58</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-12 12:42:24</t>
+          <t>2025-05-14 13:51:58</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-12 12:42:24</t>
+          <t>2025-05-14 13:51:58</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-12 14:01:13</t>
+          <t>2025-05-14 14:58:59</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>4808</v>
+        <v>4758</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1625,11 +1634,11 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
@@ -1642,56 +1651,56 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-20.31067850637731</v>
+        <v>0</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>-19.58418715847222</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251061</v>
+        <v>251795</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D17" t="n">
-        <v>393.3934426229508</v>
+        <v>263.9295774647887</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-12 14:01:13</t>
+          <t>2025-05-14 14:58:59</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-12 14:26:13</t>
+          <t>2025-05-15 07:13:59</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-12 14:26:13</t>
+          <t>2025-05-15 07:13:59</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-13 12:59:37</t>
+          <t>2025-05-15 11:37:54</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>23997</v>
+        <v>18739</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1700,7 +1709,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -1717,14 +1726,14 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-06-19 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-9.389824263043982</v>
+        <v>0</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>-8.541404826956018</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>1</v>
@@ -1732,7 +1741,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251795</v>
+        <v>251229</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1740,29 +1749,29 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D18" t="n">
         <v>307.1967213114754</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-13 12:59:37</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-13 13:19:37</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-13 13:19:37</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-14 10:26:49</t>
+          <t>2025-05-08 12:47:11</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1784,15 +1793,22 @@
       <c r="M18" t="n">
         <v>70</v>
       </c>
-      <c r="O18" t="n">
-        <v>0</v>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>39723</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-06-19 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
@@ -1807,7 +1823,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251743</v>
+        <v>251840</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1815,33 +1831,33 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D19" t="n">
-        <v>176.655737704918</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-14 10:26:49</t>
+          <t>2025-05-08 12:47:11</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-14 10:56:49</t>
+          <t>2025-05-08 13:12:11</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-14 10:56:49</t>
+          <t>2025-05-08 13:12:11</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-14 13:53:28</t>
+          <t>2025-05-08 14:45:52</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>10776</v>
+        <v>5714</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1854,35 +1870,40 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
       </c>
-      <c r="O19" t="n">
-        <v>0</v>
+      <c r="N19" t="n">
+        <v>39758</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>39758</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>0</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>0</v>
+        <v>-0.6151867031018519</v>
       </c>
       <c r="T19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251761</v>
+        <v>251742</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1890,33 +1911,33 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D20" t="n">
-        <v>217.6885245901639</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-14 13:53:28</t>
+          <t>2025-05-08 14:45:52</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-14 14:13:28</t>
+          <t>2025-05-09 07:10:52</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-14 14:13:28</t>
+          <t>2025-05-09 07:10:52</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-15 09:51:09</t>
+          <t>2025-05-09 09:25:43</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>13279</v>
+        <v>8226</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1934,30 +1955,35 @@
       <c r="M20" t="n">
         <v>70</v>
       </c>
-      <c r="O20" t="n">
-        <v>0</v>
+      <c r="N20" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-19 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>0</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>0</v>
+        <v>-2.392862021863426</v>
       </c>
       <c r="T20" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251519</v>
+        <v>251561</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1965,33 +1991,33 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D21" t="n">
-        <v>215.983606557377</v>
+        <v>89.09836065573771</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-15 09:51:09</t>
+          <t>2025-05-09 09:25:43</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-15 10:21:09</t>
+          <t>2025-05-09 09:50:43</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-15 10:21:09</t>
+          <t>2025-05-09 09:50:43</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-15 13:57:08</t>
+          <t>2025-05-09 11:19:49</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>13175</v>
+        <v>5435</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2004,7 +2030,7 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
         <v>70</v>
@@ -2017,7 +2043,7 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
@@ -2027,46 +2053,46 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251547</v>
+        <v>251566</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D22" t="n">
-        <v>184.9154929577465</v>
+        <v>112.9344262295082</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 11:19:49</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 11:44:49</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 11:44:49</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-09 13:37:45</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>13129</v>
+        <v>6889</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2084,69 +2110,64 @@
       <c r="M22" t="n">
         <v>70</v>
       </c>
-      <c r="N22" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O22" t="n">
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>0</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>250759</v>
+        <v>251846</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>30</v>
       </c>
       <c r="D23" t="n">
-        <v>118.2816901408451</v>
+        <v>186.7540983606557</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-09 13:37:45</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-09 14:07:45</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-09 14:07:45</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-12 09:14:30</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>8398</v>
+        <v>11392</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2155,78 +2176,73 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M23" t="n">
-        <v>76</v>
-      </c>
-      <c r="N23" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>0</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>250894</v>
+        <v>251424</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D24" t="n">
-        <v>623.4084507042254</v>
+        <v>158.3934426229508</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-12 09:14:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-12 09:44:30</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-12 09:44:30</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-12 12:22:54</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>44262</v>
+        <v>9662</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2235,17 +2251,14 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
-        <v>76</v>
-      </c>
-      <c r="N24" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -2255,7 +2268,7 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
@@ -2270,41 +2283,41 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>235572</v>
+        <v>244355</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D25" t="n">
-        <v>140.2535211267606</v>
+        <v>70.65573770491804</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-12 12:22:54</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-12 08:17:36</t>
+          <t>2025-05-12 12:42:54</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-12 08:17:36</t>
+          <t>2025-05-12 12:42:54</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-12 10:37:51</t>
+          <t>2025-05-12 13:53:33</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>9958</v>
+        <v>4310</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2313,11 +2326,11 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
         <v>70</v>
@@ -2330,14 +2343,14 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2023-11-06 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-553.4429577464815</v>
+        <v>0</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>-553.4429577464815</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>4</v>
@@ -2345,41 +2358,41 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251475</v>
+        <v>251485</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D26" t="n">
-        <v>122.2676056338028</v>
+        <v>78.81967213114754</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-12 10:37:51</t>
+          <t>2025-05-12 13:53:33</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-12 10:54:51</t>
+          <t>2025-05-12 14:18:33</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-12 10:54:51</t>
+          <t>2025-05-12 14:18:33</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-12 12:57:07</t>
+          <t>2025-05-13 07:37:22</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>8681</v>
+        <v>4808</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2392,7 +2405,7 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M26" t="n">
         <v>70</v>
@@ -2405,56 +2418,56 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-12.53967136150463</v>
+        <v>0</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>-12.53967136150463</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251809</v>
+        <v>251259</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D27" t="n">
-        <v>122.2676056338028</v>
+        <v>81.9672131147541</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-12 12:57:07</t>
+          <t>2025-05-13 07:37:22</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-12 13:12:07</t>
+          <t>2025-05-13 08:17:22</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-12 13:12:07</t>
+          <t>2025-05-13 08:17:22</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-13 07:14:23</t>
+          <t>2025-05-13 09:39:20</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>8681</v>
+        <v>5000</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2467,7 +2480,7 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M27" t="n">
         <v>70</v>
@@ -2480,7 +2493,7 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
@@ -2490,46 +2503,46 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251259</v>
+        <v>251464</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D28" t="n">
-        <v>70.4225352112676</v>
+        <v>117.2622950819672</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-13 07:14:23</t>
+          <t>2025-05-13 09:39:20</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-13 07:39:23</t>
+          <t>2025-05-13 10:24:20</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-13 07:39:23</t>
+          <t>2025-05-13 10:24:20</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-13 08:49:49</t>
+          <t>2025-05-13 12:21:36</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>5000</v>
+        <v>7153</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2542,7 +2555,7 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M28" t="n">
         <v>70</v>
@@ -2555,56 +2568,56 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>-7.367928403761574</v>
+        <v>0</v>
       </c>
       <c r="S28" s="1" t="n">
-        <v>-7.367928403761574</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251466</v>
+        <v>251557</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D29" t="n">
-        <v>78.40845070422536</v>
+        <v>109.9180327868852</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-13 08:49:49</t>
+          <t>2025-05-13 12:21:36</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-13 09:16:49</t>
+          <t>2025-05-13 12:51:36</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-13 09:16:49</t>
+          <t>2025-05-13 12:51:36</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-13 10:35:13</t>
+          <t>2025-05-13 14:41:31</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>5567</v>
+        <v>6705</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2617,7 +2630,7 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
@@ -2630,14 +2643,14 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-4.441128716747685</v>
+        <v>0</v>
       </c>
       <c r="S29" s="1" t="n">
-        <v>-4.441128716747685</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>1</v>
@@ -2645,41 +2658,41 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251465</v>
+        <v>251062</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D30" t="n">
-        <v>87.69014084507042</v>
+        <v>370.8852459016393</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-13 10:35:13</t>
+          <t>2025-05-13 14:41:31</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-13 10:52:13</t>
+          <t>2025-05-14 07:21:31</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-13 10:52:13</t>
+          <t>2025-05-14 07:21:31</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-13 12:19:54</t>
+          <t>2025-05-14 13:32:24</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>6226</v>
+        <v>22624</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2688,11 +2701,11 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M30" t="n">
         <v>70</v>
@@ -2705,14 +2718,14 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-4.513830203437499</v>
+        <v>0</v>
       </c>
       <c r="S30" s="1" t="n">
-        <v>-4.513830203437499</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>1</v>
@@ -2720,41 +2733,41 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251557</v>
+        <v>251477</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D31" t="n">
-        <v>94.43661971830986</v>
+        <v>434.768115942029</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-13 12:19:54</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-13 12:34:54</t>
+          <t>2025-05-12 07:30:00</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-13 12:34:54</t>
+          <t>2025-05-12 07:30:00</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-13 14:09:21</t>
+          <t>2025-05-12 14:44:46</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>6705</v>
+        <v>29999</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2763,31 +2776,36 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M31" t="n">
-        <v>70</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N31" t="n">
+        <v>39760</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>39760</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>0</v>
+        <v>-2.452224392361111</v>
       </c>
       <c r="S31" s="1" t="n">
-        <v>0</v>
+        <v>-5.614422302743056</v>
       </c>
       <c r="T31" t="n">
         <v>1</v>
@@ -2795,41 +2813,41 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251846</v>
+        <v>245350</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="D32" t="n">
-        <v>160.4507042253521</v>
+        <v>405.3623188405797</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-13 14:09:21</t>
+          <t>2025-05-12 14:44:46</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-13 14:24:21</t>
+          <t>2025-05-13 07:49:46</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-13 14:24:21</t>
+          <t>2025-05-13 07:49:46</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-14 09:04:48</t>
+          <t>2025-05-13 14:35:07</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>11392</v>
+        <v>27970</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2838,11 +2856,11 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M32" t="n">
         <v>70</v>
@@ -2855,7 +2873,7 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
@@ -2870,41 +2888,41 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251260</v>
+        <v>250641</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D33" t="n">
-        <v>131.9577464788732</v>
+        <v>74.14492753623189</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-14 09:04:48</t>
+          <t>2025-05-13 14:35:07</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-14 09:27:48</t>
+          <t>2025-05-14 07:20:07</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-14 09:27:48</t>
+          <t>2025-05-14 07:20:07</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-14 11:39:45</t>
+          <t>2025-05-14 08:34:16</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>9369</v>
+        <v>5116</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2913,7 +2931,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
@@ -2930,7 +2948,7 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
@@ -2940,46 +2958,46 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251249</v>
+        <v>251463</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D34" t="n">
-        <v>67.01408450704226</v>
+        <v>100.9710144927536</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-14 11:39:45</t>
+          <t>2025-05-14 08:34:16</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-14 11:54:45</t>
+          <t>2025-05-14 09:09:16</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-14 11:54:45</t>
+          <t>2025-05-14 09:09:16</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-14 13:01:46</t>
+          <t>2025-05-14 10:50:14</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>4758</v>
+        <v>6967</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2988,11 +3006,11 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M34" t="n">
         <v>70</v>
@@ -3005,7 +3023,7 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
@@ -3020,41 +3038,41 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251050</v>
+        <v>251462</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>217</v>
+        <v>35</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>90.23188405797102</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-14 10:50:14</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-14 11:25:14</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-14 11:25:14</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-14 12:55:28</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>6226</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -3063,78 +3081,73 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
       </c>
-      <c r="N35" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O35" t="n">
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>0</v>
       </c>
       <c r="S35" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>251054</v>
+        <v>251562</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-14 12:55:28</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-14 13:20:28</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-14 13:20:28</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-15 07:18:28</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>8142</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3143,78 +3156,73 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="M36" t="n">
         <v>70</v>
       </c>
-      <c r="N36" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O36" t="n">
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>0</v>
       </c>
       <c r="S36" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>251081</v>
+        <v>251251</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="D37" t="n">
-        <v>42.42253521126761</v>
+        <v>229.8550724637681</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-15 07:18:28</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-15 08:03:28</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-15 08:03:28</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-15 11:53:20</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>3012</v>
+        <v>15860</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3223,80 +3231,73 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="M37" t="n">
         <v>70</v>
       </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O37" t="n">
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>39750</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>0</v>
       </c>
       <c r="S37" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251109</v>
+        <v>251396</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D38" t="n">
-        <v>266.5915492957747</v>
+        <v>37.08196721311475</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-09 14:54:25</t>
+          <t>2025-05-09 07:46:00</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-09 14:54:25</t>
+          <t>2025-05-09 07:46:00</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-12 11:21:00</t>
+          <t>2025-05-09 08:23:04</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>18928</v>
+        <v>2262</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3305,73 +3306,78 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
       </c>
-      <c r="O38" t="n">
-        <v>0</v>
+      <c r="N38" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>-25.47753325508102</v>
+        <v>-1.390755208333333</v>
       </c>
       <c r="S38" s="1" t="n">
-        <v>-24.47292644756944</v>
+        <v>-2.349362477233796</v>
       </c>
       <c r="T38" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>251520</v>
+        <v>251651</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="D39" t="n">
-        <v>230.1408450704225</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-12 11:21:00</t>
+          <t>2025-05-09 08:23:04</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-12 12:41:00</t>
+          <t>2025-05-09 09:05:04</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-12 12:41:00</t>
+          <t>2025-05-09 09:05:04</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-13 08:31:09</t>
+          <t>2025-05-12 13:52:47</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>16340</v>
+        <v>46830</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3380,14 +3386,17 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M39" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N39" t="n">
+        <v>39755</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -3401,18 +3410,18 @@
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-2.359575508611111</v>
+        <v>0</v>
       </c>
       <c r="S39" s="1" t="n">
-        <v>-1.354968701099537</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251651</v>
+        <v>244204</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3420,33 +3429,33 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D40" t="n">
-        <v>767.7049180327868</v>
+        <v>56.91803278688525</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-12 13:52:47</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-12 14:34:47</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-12 14:34:47</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-13 07:31:42</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>46830</v>
+        <v>3472</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3455,17 +3464,14 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M40" t="n">
-        <v>76</v>
-      </c>
-      <c r="N40" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -3475,7 +3481,7 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
@@ -3498,29 +3504,29 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D41" t="n">
         <v>63.26229508196721</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-13 07:31:42</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-12 13:02:42</t>
+          <t>2025-05-13 08:04:42</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-12 13:02:42</t>
+          <t>2025-05-13 08:04:42</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-12 14:05:58</t>
+          <t>2025-05-13 09:07:58</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -3554,10 +3560,10 @@
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-15.31380919854167</v>
+        <v>0</v>
       </c>
       <c r="S41" s="1" t="n">
-        <v>-14.58747723133102</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>2</v>
@@ -3565,7 +3571,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>244023</v>
+        <v>251761</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3573,33 +3579,33 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D42" t="n">
-        <v>16.34426229508197</v>
+        <v>217.6885245901639</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-12 14:05:58</t>
+          <t>2025-05-13 09:07:58</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-12 14:34:58</t>
+          <t>2025-05-13 09:40:58</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-12 14:34:58</t>
+          <t>2025-05-13 09:40:58</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-12 14:51:18</t>
+          <t>2025-05-13 13:18:39</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>997</v>
+        <v>13279</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3612,7 +3618,7 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M42" t="n">
         <v>70</v>
@@ -3625,22 +3631,22 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-05-19 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-225.3452982695833</v>
+        <v>0</v>
       </c>
       <c r="S42" s="1" t="n">
-        <v>-224.6189663023727</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251283</v>
+        <v>251374</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3648,33 +3654,33 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D43" t="n">
-        <v>12.36065573770492</v>
+        <v>448.2459016393443</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-12 14:51:18</t>
+          <t>2025-05-13 13:18:39</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-13 07:16:18</t>
+          <t>2025-05-13 13:49:39</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-13 07:16:18</t>
+          <t>2025-05-13 13:49:39</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-13 07:28:40</t>
+          <t>2025-05-14 13:17:54</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>754</v>
+        <v>27343</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3687,7 +3693,7 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M43" t="n">
         <v>70</v>
@@ -3700,14 +3706,14 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-03-18 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-56.37124316939815</v>
+        <v>0</v>
       </c>
       <c r="S43" s="1" t="n">
-        <v>-56.31157786885417</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>1</v>
@@ -3715,7 +3721,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251464</v>
+        <v>245089</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3723,33 +3729,33 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D44" t="n">
-        <v>117.2622950819672</v>
+        <v>2010.901639344262</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-13 07:28:40</t>
+          <t>2025-05-14 13:17:54</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-13 07:57:40</t>
+          <t>2025-05-14 14:03:54</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-13 07:57:40</t>
+          <t>2025-05-14 14:03:54</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-05-13 09:54:56</t>
+          <t>2025-05-21 07:34:48</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>7153</v>
+        <v>122665</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3758,14 +3764,14 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L44" t="n">
         <v>4</v>
       </c>
       <c r="M44" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -3775,14 +3781,14 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-4.472814207650463</v>
+        <v>0</v>
       </c>
       <c r="S44" s="1" t="n">
-        <v>-4.413148907106482</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>1</v>
@@ -3790,41 +3796,41 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>251467</v>
+        <v>251050</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>29</v>
+        <v>217</v>
       </c>
       <c r="D45" t="n">
-        <v>102.0655737704918</v>
+        <v>0</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-13 09:54:56</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-13 10:23:56</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-13 10:23:56</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-13 12:06:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>6226</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3833,73 +3839,78 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="M45" t="n">
         <v>70</v>
       </c>
-      <c r="O45" t="n">
-        <v>0</v>
+      <c r="N45" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>-4.563831967210648</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S45" s="1" t="n">
-        <v>-4.504166666666666</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="T45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>251374</v>
+        <v>251054</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C46" t="n">
         <v>35</v>
       </c>
       <c r="D46" t="n">
-        <v>448.2459016393443</v>
+        <v>0</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-13 12:06:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-13 12:41:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-13 12:41:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-14 12:09:14</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>27343</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3908,73 +3919,78 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="M46" t="n">
         <v>70</v>
       </c>
-      <c r="O46" t="n">
-        <v>0</v>
+      <c r="N46" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>0</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S46" s="1" t="n">
-        <v>0</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="T46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>245089</v>
+        <v>251371</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>46</v>
+        <v>205</v>
       </c>
       <c r="D47" t="n">
-        <v>2010.901639344262</v>
+        <v>0</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-05-14 12:09:14</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-14 12:55:14</t>
+          <t>2025-05-09 14:37:00</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-05-14 12:55:14</t>
+          <t>2025-05-09 14:37:00</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-05-20 14:26:08</t>
+          <t>2025-05-09 14:37:00</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>122665</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3983,73 +3999,80 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
         <v>4</v>
       </c>
       <c r="M47" t="n">
-        <v>76</v>
-      </c>
-      <c r="O47" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>39666</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>0</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="S47" s="1" t="n">
-        <v>0</v>
+        <v>-15.60902777777778</v>
       </c>
       <c r="T47" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>251225</v>
+        <v>251081</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-09 14:37:00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-12 08:32:00</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-12 08:32:00</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-12 09:14:25</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>3012</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -4058,17 +4081,19 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M48" t="n">
-        <v>76</v>
-      </c>
-      <c r="N48" t="n">
-        <v>39747</v>
+        <v>70</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4076,60 +4101,60 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>39747</v>
+        <v>39750</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S48" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-19.38501564945602</v>
       </c>
       <c r="T48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>251227</v>
+        <v>251519</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>185.5633802816901</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-12 09:14:25</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-12 11:19:25</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-12 11:19:25</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-12 14:24:59</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>13175</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4138,78 +4163,73 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M49" t="n">
-        <v>76</v>
-      </c>
-      <c r="N49" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>0</v>
       </c>
       <c r="S49" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>0</v>
       </c>
       <c r="T49" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251782</v>
+        <v>251594</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D50" t="n">
-        <v>170.0422535211268</v>
+        <v>91.07042253521126</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-12 14:24:59</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-13 07:09:59</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-13 07:09:59</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-13 08:41:03</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>12073</v>
+        <v>6466</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4218,78 +4238,73 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M50" t="n">
-        <v>76</v>
-      </c>
-      <c r="N50" t="n">
-        <v>39754</v>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>39754</v>
+        <v>0</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>0</v>
       </c>
       <c r="S50" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251340</v>
+        <v>251109</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="D51" t="n">
-        <v>461.9718309859155</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-13 08:41:03</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-09 07:58:02</t>
+          <t>2025-05-13 10:16:03</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-09 07:58:02</t>
+          <t>2025-05-13 10:16:03</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-12 07:40:00</t>
+          <t>2025-05-13 14:42:38</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>32800</v>
+        <v>18928</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4298,73 +4313,73 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L51" t="n">
+        <v>16</v>
+      </c>
+      <c r="M51" t="n">
+        <v>70</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>2025-04-18 00:00:00</t>
+        </is>
+      </c>
+      <c r="R51" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" t="n">
         <v>2</v>
-      </c>
-      <c r="M51" t="n">
-        <v>76</v>
-      </c>
-      <c r="O51" t="n">
-        <v>0</v>
-      </c>
-      <c r="P51" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>2025-04-28 00:00:00</t>
-        </is>
-      </c>
-      <c r="R51" s="1" t="n">
-        <v>-14.31945422534722</v>
-      </c>
-      <c r="S51" s="1" t="n">
-        <v>-14.31945422534722</v>
-      </c>
-      <c r="T51" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>243569</v>
+        <v>251467</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="D52" t="n">
-        <v>36.63380281690141</v>
+        <v>87.69014084507042</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-12 07:40:00</t>
+          <t>2025-05-13 14:42:38</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-12 07:57:00</t>
+          <t>2025-05-14 08:27:38</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-12 07:57:00</t>
+          <t>2025-05-14 08:27:38</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-12 08:33:38</t>
+          <t>2025-05-14 09:55:20</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>2601</v>
+        <v>6226</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4373,14 +4388,14 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M52" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -4390,22 +4405,22 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-238.3566999217477</v>
+        <v>0</v>
       </c>
       <c r="S52" s="1" t="n">
-        <v>-238.3566999217477</v>
+        <v>0</v>
       </c>
       <c r="T52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>245623</v>
+        <v>251227</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -4413,33 +4428,33 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D53" t="n">
-        <v>372.0985915492957</v>
+        <v>0</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-12 08:33:38</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-12 09:05:38</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-12 09:05:38</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-13 07:17:44</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>26419</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4452,35 +4467,40 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M53" t="n">
-        <v>152</v>
-      </c>
-      <c r="O53" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N53" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P53" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-108.3039906103241</v>
+        <v>-0.5552734375</v>
       </c>
       <c r="S53" s="1" t="n">
-        <v>-108.3039906103241</v>
+        <v>-2.513194444444444</v>
       </c>
       <c r="T53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>243335</v>
+        <v>251782</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -4488,33 +4508,33 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D54" t="n">
-        <v>464.8450704225352</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-13 07:17:44</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-13 07:36:44</t>
+          <t>2025-05-08 12:36:00</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-13 07:36:44</t>
+          <t>2025-05-08 12:36:00</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-14 07:21:35</t>
+          <t>2025-05-09 07:26:02</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>33004</v>
+        <v>12073</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4523,31 +4543,36 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M54" t="n">
-        <v>152</v>
-      </c>
-      <c r="O54" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N54" t="n">
+        <v>39754</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P54" t="n">
-        <v>0</v>
+        <v>39754</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>-285.306660798125</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="S54" s="1" t="n">
-        <v>-285.306660798125</v>
+        <v>-0.3097515649421296</v>
       </c>
       <c r="T54" t="n">
         <v>1</v>
@@ -4555,7 +4580,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>251750</v>
+        <v>251340</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -4566,30 +4591,30 @@
         <v>17</v>
       </c>
       <c r="D55" t="n">
-        <v>54.80281690140845</v>
+        <v>461.9718309859155</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-14 07:21:35</t>
+          <t>2025-05-09 07:26:02</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-14 07:38:35</t>
+          <t>2025-05-09 07:43:02</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-14 07:38:35</t>
+          <t>2025-05-09 07:43:02</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-14 08:33:23</t>
+          <t>2025-05-12 07:25:00</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>3891</v>
+        <v>32800</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4598,14 +4623,14 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M55" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -4615,7 +4640,7 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
@@ -4625,12 +4650,12 @@
         <v>0</v>
       </c>
       <c r="T55" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>251987</v>
+        <v>243569</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -4638,33 +4663,33 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D56" t="n">
-        <v>2965.154929577465</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-14 08:33:23</t>
+          <t>2025-05-12 07:25:00</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-14 09:09:23</t>
+          <t>2025-05-12 07:42:00</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-14 09:09:23</t>
+          <t>2025-05-12 07:42:00</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-22 10:34:32</t>
+          <t>2025-05-12 08:18:38</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>210526</v>
+        <v>2601</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4673,11 +4698,11 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M56" t="n">
         <v>76</v>
@@ -4690,7 +4715,7 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2025-09-01 00:00:00</t>
+          <t>2024-09-16 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
@@ -4700,12 +4725,12 @@
         <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>245090</v>
+        <v>245623</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -4713,33 +4738,33 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D57" t="n">
-        <v>7277.718309859155</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-22 10:34:32</t>
+          <t>2025-05-12 08:18:38</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-22 10:51:32</t>
+          <t>2025-05-12 08:50:38</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-22 10:51:32</t>
+          <t>2025-05-12 08:50:38</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-06-12 12:09:16</t>
+          <t>2025-05-13 07:02:44</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>516718</v>
+        <v>26419</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4752,10 +4777,10 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M57" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -4765,7 +4790,7 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
@@ -4775,79 +4800,72 @@
         <v>0</v>
       </c>
       <c r="T57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251706</v>
+        <v>243335</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D58" t="n">
-        <v>50.79365079365079</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-13 07:02:44</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-13 07:21:44</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-13 07:21:44</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-14 07:06:35</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>3200</v>
+        <v>33004</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>39764</v>
+        <v>0</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
@@ -4857,46 +4875,46 @@
         <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>251164</v>
+        <v>251750</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D59" t="n">
-        <v>204.0816326530612</v>
+        <v>54.80281690140845</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-14 07:06:35</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-14 07:23:35</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-14 07:23:35</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-14 08:18:23</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>10000</v>
+        <v>3891</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4905,78 +4923,73 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M59" t="n">
-        <v>70</v>
-      </c>
-      <c r="N59" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>0</v>
       </c>
       <c r="S59" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>0</v>
       </c>
       <c r="T59" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>251456</v>
+        <v>251987</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D60" t="n">
-        <v>183.6530612244898</v>
+        <v>2965.154929577465</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-14 08:18:23</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-14 08:54:23</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-14 08:54:23</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-22 10:19:32</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>8999</v>
+        <v>210526</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4985,36 +4998,31 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M60" t="n">
-        <v>70</v>
-      </c>
-      <c r="N60" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-09-01 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>0</v>
       </c>
       <c r="S60" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>0</v>
       </c>
       <c r="T60" t="n">
         <v>1</v>
@@ -5022,7 +5030,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>251416</v>
+        <v>251564</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -5033,30 +5041,30 @@
         <v>40</v>
       </c>
       <c r="D61" t="n">
-        <v>229.0204081632653</v>
+        <v>55.44897959183673</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:44</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:44</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-09 11:41:45</t>
+          <t>2025-05-08 08:35:26</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>11222</v>
+        <v>2717</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -5069,14 +5077,11 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M61" t="n">
         <v>70</v>
       </c>
-      <c r="N61" t="n">
-        <v>39755</v>
-      </c>
       <c r="O61" t="n">
         <v>0</v>
       </c>
@@ -5085,7 +5090,7 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
@@ -5095,12 +5100,12 @@
         <v>0</v>
       </c>
       <c r="T61" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>251626</v>
+        <v>251456</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -5108,33 +5113,33 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D62" t="n">
-        <v>255.1020408163265</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-09 11:41:45</t>
+          <t>2025-05-08 08:35:26</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-09 12:21:45</t>
+          <t>2025-05-08 09:10:26</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-09 12:21:45</t>
+          <t>2025-05-08 09:10:26</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-12 08:36:51</t>
+          <t>2025-05-08 12:14:06</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>12500</v>
+        <v>8999</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -5152,30 +5157,35 @@
       <c r="M62" t="n">
         <v>70</v>
       </c>
-      <c r="O62" t="n">
-        <v>0</v>
+      <c r="N62" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P62" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>-12.35892857142361</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="S62" s="1" t="n">
-        <v>-12.35892857142361</v>
+        <v>-2.509793083900463</v>
       </c>
       <c r="T62" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>251373</v>
+        <v>251164</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -5183,33 +5193,33 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D63" t="n">
-        <v>348.8571428571428</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-12 08:36:51</t>
+          <t>2025-05-08 12:14:06</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-12 09:21:51</t>
+          <t>2025-05-08 13:04:06</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-12 09:21:51</t>
+          <t>2025-05-08 13:04:06</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-13 07:10:42</t>
+          <t>2025-05-09 08:28:11</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>17094</v>
+        <v>10000</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5222,27 +5232,32 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M63" t="n">
         <v>70</v>
       </c>
-      <c r="O63" t="n">
-        <v>0</v>
+      <c r="N63" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P63" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>-15.2991071428588</v>
+        <v>-1.471584467118056</v>
       </c>
       <c r="S63" s="1" t="n">
-        <v>-15.2991071428588</v>
+        <v>-2.352905328796296</v>
       </c>
       <c r="T63" t="n">
         <v>4</v>
@@ -5250,41 +5265,41 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>251455</v>
+        <v>251391</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D64" t="n">
-        <v>82.765625</v>
+        <v>119.6938775510204</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-09 08:28:11</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-09 09:08:11</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-09 09:08:11</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-09 11:07:52</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>5297</v>
+        <v>5865</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5297,7 +5312,7 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M64" t="n">
         <v>70</v>
@@ -5315,14 +5330,14 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="S64" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>-2.463803854872685</v>
       </c>
       <c r="T64" t="n">
         <v>7</v>
@@ -5330,41 +5345,41 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>251391</v>
+        <v>251626</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D65" t="n">
-        <v>91.640625</v>
+        <v>255.1020408163265</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-09 11:07:52</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-09 11:52:52</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-09 11:52:52</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-12 08:07:58</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>5865</v>
+        <v>12500</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5377,32 +5392,27 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M65" t="n">
         <v>70</v>
       </c>
-      <c r="N65" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O65" t="n">
+        <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>0</v>
       </c>
       <c r="S65" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>0</v>
       </c>
       <c r="T65" t="n">
         <v>7</v>
@@ -5410,41 +5420,41 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251395</v>
+        <v>251373</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D66" t="n">
-        <v>35.34375</v>
+        <v>348.8571428571428</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-12 08:07:58</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-12 08:52:58</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-12 08:52:58</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-12 14:41:50</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>2262</v>
+        <v>17094</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5457,74 +5467,69 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M66" t="n">
         <v>70</v>
       </c>
-      <c r="N66" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O66" t="n">
+        <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>0</v>
       </c>
       <c r="S66" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>0</v>
       </c>
       <c r="T66" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>251371</v>
+        <v>250670</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>31.89795918367347</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-12 14:41:50</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-13 07:23:50</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-13 07:23:50</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-13 07:55:44</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1563</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5533,80 +5538,73 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L67" t="n">
         <v>4</v>
       </c>
       <c r="M67" t="n">
-        <v>70</v>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>39666</v>
+        <v>0</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>0</v>
       </c>
       <c r="S67" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>0</v>
       </c>
       <c r="T67" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>251396</v>
+        <v>251247</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="D68" t="n">
-        <v>35.34375</v>
+        <v>549.6734693877551</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-13 07:55:44</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-13 08:42:44</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-13 08:42:44</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-14 09:52:24</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>2262</v>
+        <v>26934</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5615,7 +5613,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L68" t="n">
@@ -5624,35 +5622,30 @@
       <c r="M68" t="n">
         <v>70</v>
       </c>
-      <c r="N68" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O68" t="n">
+        <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>0</v>
       </c>
       <c r="S68" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>0</v>
       </c>
       <c r="T68" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>251548</v>
+        <v>251395</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -5660,33 +5653,33 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D69" t="n">
-        <v>206.90625</v>
+        <v>35.34375</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-07 07:23:00</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-07 07:23:00</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-07 07:58:20</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>13242</v>
+        <v>2262</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5699,7 +5692,7 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M69" t="n">
         <v>70</v>
@@ -5717,14 +5710,14 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>-1.348611111111111</v>
+        <v>-0.3671440972222222</v>
       </c>
       <c r="S69" s="1" t="n">
-        <v>-1.348611111111111</v>
+        <v>-0.3321831597222222</v>
       </c>
       <c r="T69" t="n">
         <v>7</v>
@@ -5732,7 +5725,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>250923</v>
+        <v>251548</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -5740,33 +5733,33 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D70" t="n">
-        <v>109.46875</v>
+        <v>206.90625</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-07 07:58:20</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-07 08:17:20</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-07 08:17:20</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-07 11:44:15</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>7006</v>
+        <v>13242</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5775,14 +5768,14 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M70" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N70" t="n">
         <v>39749</v>
@@ -5797,22 +5790,22 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>-1.320182291666667</v>
       </c>
       <c r="S70" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>-0.4890625</v>
       </c>
       <c r="T70" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>251477</v>
+        <v>250923</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -5820,33 +5813,33 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D71" t="n">
-        <v>468.734375</v>
+        <v>109.46875</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-07 11:44:15</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-07 12:16:15</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-07 12:16:15</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-05-07 14:05:43</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>29999</v>
+        <v>7006</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5855,17 +5848,17 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M71" t="n">
         <v>76</v>
       </c>
       <c r="N71" t="n">
-        <v>39760</v>
+        <v>39749</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -5873,26 +5866,26 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>39760</v>
+        <v>39749</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>-2.325553385416667</v>
       </c>
       <c r="S71" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>-0.5873046875</v>
       </c>
       <c r="T71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>251564</v>
+        <v>251546</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -5903,30 +5896,30 @@
         <v>30</v>
       </c>
       <c r="D72" t="n">
-        <v>42.453125</v>
+        <v>101.03125</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-05-07 14:05:43</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-09 11:21:12</t>
+          <t>2025-05-07 14:35:43</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-09 11:21:12</t>
+          <t>2025-05-07 14:35:43</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-09 12:03:39</t>
+          <t>2025-05-08 08:16:45</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>2717</v>
+        <v>6466</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5939,7 +5932,7 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M72" t="n">
         <v>70</v>
@@ -5952,22 +5945,22 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>-2.5025390625</v>
+        <v>0</v>
       </c>
       <c r="S72" s="1" t="n">
-        <v>-2.5025390625</v>
+        <v>0</v>
       </c>
       <c r="T72" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>251546</v>
+        <v>245275</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -5975,33 +5968,33 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D73" t="n">
-        <v>101.03125</v>
+        <v>379.59375</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-09 12:03:39</t>
+          <t>2025-05-08 08:16:45</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-09 12:22:39</t>
+          <t>2025-05-08 08:49:45</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-09 12:22:39</t>
+          <t>2025-05-08 08:49:45</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-09 14:03:41</t>
+          <t>2025-05-09 07:09:20</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>6466</v>
+        <v>24294</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -6010,11 +6003,11 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="M73" t="n">
         <v>70</v>
@@ -6027,14 +6020,14 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
-        <v>-9.585894097222223</v>
+        <v>0</v>
       </c>
       <c r="S73" s="1" t="n">
-        <v>-9.585894097222223</v>
+        <v>0</v>
       </c>
       <c r="T73" t="n">
         <v>7</v>
@@ -6042,7 +6035,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>251397</v>
+        <v>251809</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -6050,33 +6043,33 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D74" t="n">
-        <v>84.921875</v>
+        <v>135.640625</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-09 14:03:41</t>
+          <t>2025-05-09 07:09:20</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-09 14:22:41</t>
+          <t>2025-05-09 07:44:20</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-09 14:22:41</t>
+          <t>2025-05-09 07:44:20</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-09 09:59:59</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>5435</v>
+        <v>8681</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -6089,7 +6082,7 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M74" t="n">
         <v>70</v>
@@ -6102,14 +6095,14 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
-        <v>-14.48929924241898</v>
+        <v>0</v>
       </c>
       <c r="S74" s="1" t="n">
-        <v>-14.32472873263889</v>
+        <v>0</v>
       </c>
       <c r="T74" t="n">
         <v>4</v>
@@ -6117,7 +6110,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>251245</v>
+        <v>251283</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -6125,29 +6118,29 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D75" t="n">
         <v>11.78125</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-09 09:59:59</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-12 08:08:36</t>
+          <t>2025-05-09 10:18:59</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-12 08:08:36</t>
+          <t>2025-05-09 10:18:59</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-12 08:20:23</t>
+          <t>2025-05-09 10:30:45</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -6177,14 +6170,14 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-03-18 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
-        <v>-46.368359375</v>
+        <v>0</v>
       </c>
       <c r="S75" s="1" t="n">
-        <v>-45.34749348958334</v>
+        <v>0</v>
       </c>
       <c r="T75" t="n">
         <v>1</v>
@@ -6192,7 +6185,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>251463</v>
+        <v>251061</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -6200,33 +6193,33 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D76" t="n">
-        <v>108.859375</v>
+        <v>374.953125</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-05-12 08:20:23</t>
+          <t>2025-05-09 10:30:45</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-05-12 08:39:23</t>
+          <t>2025-05-09 10:45:45</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-05-12 08:39:23</t>
+          <t>2025-05-09 10:45:45</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-05-12 10:28:15</t>
+          <t>2025-05-12 09:00:43</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>6967</v>
+        <v>23997</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -6235,11 +6228,11 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M76" t="n">
         <v>70</v>
@@ -6252,14 +6245,14 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R76" s="1" t="n">
-        <v>-4.457150607638889</v>
+        <v>0</v>
       </c>
       <c r="S76" s="1" t="n">
-        <v>-3.436284722222222</v>
+        <v>0</v>
       </c>
       <c r="T76" t="n">
         <v>1</v>
@@ -6267,7 +6260,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>251462</v>
+        <v>251252</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -6275,33 +6268,33 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D77" t="n">
-        <v>97.28125</v>
+        <v>235.671875</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-05-12 10:28:15</t>
+          <t>2025-05-12 09:00:43</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-05-12 10:47:15</t>
+          <t>2025-05-12 09:15:43</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-05-12 10:47:15</t>
+          <t>2025-05-12 09:15:43</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-05-12 12:24:31</t>
+          <t>2025-05-12 13:11:23</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>6226</v>
+        <v>15083</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -6310,11 +6303,11 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M77" t="n">
         <v>70</v>
@@ -6327,14 +6320,14 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R77" s="1" t="n">
-        <v>-4.537901475694444</v>
+        <v>0</v>
       </c>
       <c r="S77" s="1" t="n">
-        <v>-3.517035590277778</v>
+        <v>0</v>
       </c>
       <c r="T77" t="n">
         <v>1</v>
@@ -6342,7 +6335,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>251562</v>
+        <v>245090</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -6350,33 +6343,33 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D78" t="n">
-        <v>127.21875</v>
+        <v>8073.71875</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-05-12 12:24:31</t>
+          <t>2025-05-12 13:11:23</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-05-12 12:39:31</t>
+          <t>2025-05-12 13:43:23</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-05-12 12:39:31</t>
+          <t>2025-05-12 13:43:23</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-05-12 14:46:45</t>
+          <t>2025-06-04 12:17:06</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>8142</v>
+        <v>516718</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -6385,14 +6378,14 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M78" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O78" t="n">
         <v>0</v>
@@ -6402,7 +6395,7 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R78" s="1" t="n">
@@ -6417,67 +6410,74 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>251580</v>
+        <v>251706</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>111.765625</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-05-12 14:46:45</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-05-13 07:05:45</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-05-13 07:05:45</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-05-13 08:57:30</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>7153</v>
+        <v>3200</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>70</v>
-      </c>
-      <c r="O79" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P79" t="n">
-        <v>0</v>
+        <v>39764</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R79" s="1" t="n">
@@ -6487,46 +6487,46 @@
         <v>0</v>
       </c>
       <c r="T79" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>251251</v>
+        <v>251284</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>19</v>
+        <v>40.5</v>
       </c>
       <c r="D80" t="n">
-        <v>247.8125</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-05-13 08:57:30</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-05-13 09:16:30</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-05-13 09:16:30</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-05-13 13:24:19</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>15860</v>
+        <v>16340</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -6535,31 +6535,36 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M80" t="n">
         <v>70</v>
       </c>
-      <c r="O80" t="n">
-        <v>0</v>
+      <c r="N80" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P80" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R80" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S80" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="T80" t="n">
         <v>1</v>
@@ -6567,41 +6572,41 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>251252</v>
+        <v>251505</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>15</v>
+        <v>34.5</v>
       </c>
       <c r="D81" t="n">
-        <v>235.671875</v>
+        <v>259.1818181818182</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-05-13 13:24:19</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-05-13 13:39:19</t>
+          <t>2025-05-09 13:12:05</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-05-13 13:39:19</t>
+          <t>2025-05-09 13:12:05</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-05-14 09:35:00</t>
+          <t>2025-05-12 09:31:16</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>15083</v>
+        <v>14255</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -6610,11 +6615,11 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M81" t="n">
         <v>70</v>
@@ -6627,7 +6632,7 @@
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R81" s="1" t="n">
@@ -6637,12 +6642,12 @@
         <v>0</v>
       </c>
       <c r="T81" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>251284</v>
+        <v>251397</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -6650,33 +6655,33 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>40.5</v>
+        <v>34.5</v>
       </c>
       <c r="D82" t="n">
-        <v>297.0909090909091</v>
+        <v>98.81818181818181</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-12 09:31:16</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-12 10:05:46</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-12 10:05:46</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-12 11:44:35</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>16340</v>
+        <v>5435</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -6685,44 +6690,39 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M82" t="n">
         <v>70</v>
       </c>
-      <c r="N82" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O82" t="n">
+        <v>0</v>
       </c>
       <c r="P82" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R82" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>0</v>
       </c>
       <c r="S82" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>0</v>
       </c>
       <c r="T82" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>251505</v>
+        <v>244354</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -6730,33 +6730,33 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>34.5</v>
+        <v>32.5</v>
       </c>
       <c r="D83" t="n">
-        <v>259.1818181818182</v>
+        <v>78.36363636363636</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-12 11:44:35</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-05-09 13:12:05</t>
+          <t>2025-05-12 12:17:05</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-05-09 13:12:05</t>
+          <t>2025-05-12 12:17:05</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2025-05-12 09:31:16</t>
+          <t>2025-05-12 13:35:27</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>14255</v>
+        <v>4310</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M83" t="n">
         <v>70</v>
@@ -6782,22 +6782,22 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R83" s="1" t="n">
-        <v>-7.396717171712963</v>
+        <v>0</v>
       </c>
       <c r="S83" s="1" t="n">
-        <v>-7.396717171712963</v>
+        <v>0</v>
       </c>
       <c r="T83" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>244354</v>
+        <v>250819</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -6805,33 +6805,33 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>32.5</v>
+        <v>34.5</v>
       </c>
       <c r="D84" t="n">
-        <v>78.36363636363636</v>
+        <v>155.0363636363636</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-05-12 09:31:16</t>
+          <t>2025-05-12 13:35:27</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-05-12 10:03:46</t>
+          <t>2025-05-12 14:09:57</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-05-12 10:03:46</t>
+          <t>2025-05-12 14:09:57</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2025-05-12 11:22:08</t>
+          <t>2025-05-13 08:44:59</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>4310</v>
+        <v>8527</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M84" t="n">
         <v>70</v>
@@ -6857,22 +6857,22 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R84" s="1" t="n">
-        <v>-4.566287878784722</v>
+        <v>0</v>
       </c>
       <c r="S84" s="1" t="n">
-        <v>-4.473705808078703</v>
+        <v>0</v>
       </c>
       <c r="T84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>250819</v>
+        <v>251466</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -6880,33 +6880,33 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>34.5</v>
+        <v>36.5</v>
       </c>
       <c r="D85" t="n">
-        <v>155.0363636363636</v>
+        <v>101.2181818181818</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-05-12 11:22:08</t>
+          <t>2025-05-13 08:44:59</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-05-12 11:56:38</t>
+          <t>2025-05-13 09:21:29</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-05-12 11:56:38</t>
+          <t>2025-05-13 09:21:29</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-05-12 14:31:40</t>
+          <t>2025-05-13 11:02:42</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>8527</v>
+        <v>5567</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -6919,7 +6919,7 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M85" t="n">
         <v>70</v>
@@ -6932,22 +6932,22 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R85" s="1" t="n">
-        <v>-25.36457702019676</v>
+        <v>0</v>
       </c>
       <c r="S85" s="1" t="n">
-        <v>-24.60532828282408</v>
+        <v>0</v>
       </c>
       <c r="T85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>251247</v>
+        <v>251465</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -6955,33 +6955,33 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>30.5</v>
+        <v>32.5</v>
       </c>
       <c r="D86" t="n">
-        <v>489.7090909090909</v>
+        <v>113.2</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-05-12 14:31:40</t>
+          <t>2025-05-13 11:02:42</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-05-13 07:02:10</t>
+          <t>2025-05-13 11:35:12</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-05-13 07:02:10</t>
+          <t>2025-05-13 11:35:12</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2025-05-14 07:11:52</t>
+          <t>2025-05-13 13:28:24</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>26934</v>
+        <v>6226</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -6990,11 +6990,11 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M86" t="n">
         <v>70</v>
@@ -7011,10 +7011,10 @@
         </is>
       </c>
       <c r="R86" s="1" t="n">
-        <v>-5.3925</v>
+        <v>0</v>
       </c>
       <c r="S86" s="1" t="n">
-        <v>-5.299917929293981</v>
+        <v>0</v>
       </c>
       <c r="T86" t="n">
         <v>1</v>
@@ -7022,7 +7022,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>245275</v>
+        <v>251520</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -7030,33 +7030,33 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>46.5</v>
+        <v>40.5</v>
       </c>
       <c r="D87" t="n">
-        <v>441.7090909090909</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-05-14 07:11:52</t>
+          <t>2025-05-13 13:28:24</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-05-14 07:58:22</t>
+          <t>2025-05-13 14:08:54</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-05-14 07:58:22</t>
+          <t>2025-05-13 14:08:54</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2025-05-15 07:20:05</t>
+          <t>2025-05-14 11:06:00</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>24294</v>
+        <v>16340</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -7065,11 +7065,11 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="M87" t="n">
         <v>70</v>
@@ -7082,7 +7082,7 @@
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R87" s="1" t="n">
@@ -7092,7 +7092,7 @@
         <v>0</v>
       </c>
       <c r="T87" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/insert_inter_post.xlsx
+++ b/PS-VRP/Dati_output/insert_inter_post.xlsx
@@ -3263,7 +3263,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251396</v>
+        <v>251395</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -3328,11 +3328,11 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>-1.390755208333333</v>
+        <v>-0.4741319444444445</v>
       </c>
       <c r="S38" s="1" t="n">
         <v>-2.349362477233796</v>
@@ -4489,7 +4489,7 @@
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-0.5552734375</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="S53" s="1" t="n">
         <v>-2.513194444444444</v>
@@ -5030,67 +5030,74 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>251564</v>
+        <v>251706</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>55.44897959183673</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-08 08:35:26</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>2717</v>
+        <v>3200</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>70</v>
-      </c>
-      <c r="O61" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P61" t="n">
-        <v>0</v>
+        <v>39764</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
@@ -5100,7 +5107,7 @@
         <v>0</v>
       </c>
       <c r="T61" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
@@ -5113,29 +5120,29 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D62" t="n">
         <v>183.6530612244898</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-08 08:35:26</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-08 09:10:26</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-08 09:10:26</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-08 12:14:06</t>
+          <t>2025-05-08 10:43:39</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -5177,7 +5184,7 @@
         <v>-3.300510204085648</v>
       </c>
       <c r="S62" s="1" t="n">
-        <v>-2.509793083900463</v>
+        <v>-2.446981292511574</v>
       </c>
       <c r="T62" t="n">
         <v>1</v>
@@ -5200,22 +5207,22 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-08 12:14:06</t>
+          <t>2025-05-08 10:43:39</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-08 13:04:06</t>
+          <t>2025-05-08 11:33:39</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-08 13:04:06</t>
+          <t>2025-05-08 11:33:39</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-09 08:28:11</t>
+          <t>2025-05-08 14:57:44</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -5257,7 +5264,7 @@
         <v>-1.471584467118056</v>
       </c>
       <c r="S63" s="1" t="n">
-        <v>-2.352905328796296</v>
+        <v>-1.623426870752315</v>
       </c>
       <c r="T63" t="n">
         <v>4</v>
@@ -5280,22 +5287,22 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-09 08:28:11</t>
+          <t>2025-05-08 14:57:44</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-09 09:08:11</t>
+          <t>2025-05-09 07:37:44</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-09 09:08:11</t>
+          <t>2025-05-09 07:37:44</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-09 11:07:52</t>
+          <t>2025-05-09 09:37:25</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -5337,7 +5344,7 @@
         <v>-0.4377821180555556</v>
       </c>
       <c r="S64" s="1" t="n">
-        <v>-2.463803854872685</v>
+        <v>-2.40099206349537</v>
       </c>
       <c r="T64" t="n">
         <v>7</v>
@@ -5360,22 +5367,22 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-09 11:07:52</t>
+          <t>2025-05-09 09:37:25</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-09 11:52:52</t>
+          <t>2025-05-09 10:22:25</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-09 11:52:52</t>
+          <t>2025-05-09 10:22:25</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-12 08:07:58</t>
+          <t>2025-05-09 14:37:31</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -5435,22 +5442,22 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-12 08:07:58</t>
+          <t>2025-05-09 14:37:31</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-12 08:52:58</t>
+          <t>2025-05-12 07:22:31</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-12 08:52:58</t>
+          <t>2025-05-12 07:22:31</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-12 14:41:50</t>
+          <t>2025-05-12 13:11:23</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -5510,22 +5517,22 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-12 14:41:50</t>
+          <t>2025-05-12 13:11:23</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-13 07:23:50</t>
+          <t>2025-05-12 13:53:23</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-13 07:23:50</t>
+          <t>2025-05-12 13:53:23</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-13 07:55:44</t>
+          <t>2025-05-12 14:25:17</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -5585,22 +5592,22 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-13 07:55:44</t>
+          <t>2025-05-12 14:25:17</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-13 08:42:44</t>
+          <t>2025-05-13 07:12:17</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-13 08:42:44</t>
+          <t>2025-05-13 07:12:17</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-14 09:52:24</t>
+          <t>2025-05-14 08:21:57</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -5645,7 +5652,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>251395</v>
+        <v>251396</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -5710,11 +5717,11 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>-0.3671440972222222</v>
+        <v>-0.5250651041666666</v>
       </c>
       <c r="S69" s="1" t="n">
         <v>-0.3321831597222222</v>
@@ -5794,7 +5801,7 @@
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>-1.320182291666667</v>
+        <v>-1.348611111111111</v>
       </c>
       <c r="S70" s="1" t="n">
         <v>-0.4890625</v>
@@ -5874,7 +5881,7 @@
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-2.325553385416667</v>
+        <v>-1.446853298611111</v>
       </c>
       <c r="S71" s="1" t="n">
         <v>-0.5873046875</v>
@@ -5885,7 +5892,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>251546</v>
+        <v>251564</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -5893,10 +5900,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D72" t="n">
-        <v>101.03125</v>
+        <v>42.453125</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -5905,21 +5912,21 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-07 14:35:43</t>
+          <t>2025-05-07 14:39:43</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-07 14:35:43</t>
+          <t>2025-05-07 14:39:43</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-08 08:16:45</t>
+          <t>2025-05-08 07:22:10</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>6466</v>
+        <v>2717</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5932,7 +5939,7 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M72" t="n">
         <v>70</v>
@@ -5945,7 +5952,7 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
@@ -5955,12 +5962,12 @@
         <v>0</v>
       </c>
       <c r="T72" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>245275</v>
+        <v>251546</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -5968,33 +5975,33 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D73" t="n">
-        <v>379.59375</v>
+        <v>101.03125</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-08 08:16:45</t>
+          <t>2025-05-08 07:22:10</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-08 08:49:45</t>
+          <t>2025-05-08 07:41:10</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-08 08:49:45</t>
+          <t>2025-05-08 07:41:10</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-09 07:09:20</t>
+          <t>2025-05-08 09:22:12</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>24294</v>
+        <v>6466</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -6003,11 +6010,11 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="M73" t="n">
         <v>70</v>
@@ -6020,7 +6027,7 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
@@ -6035,7 +6042,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>251809</v>
+        <v>245275</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -6043,33 +6050,33 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D74" t="n">
-        <v>135.640625</v>
+        <v>379.59375</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-09 07:09:20</t>
+          <t>2025-05-08 09:22:12</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-09 07:44:20</t>
+          <t>2025-05-08 09:55:12</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-09 07:44:20</t>
+          <t>2025-05-08 09:55:12</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-09 09:59:59</t>
+          <t>2025-05-09 08:14:47</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>8681</v>
+        <v>24294</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -6078,11 +6085,11 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="M74" t="n">
         <v>70</v>
@@ -6095,7 +6102,7 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
@@ -6105,12 +6112,12 @@
         <v>0</v>
       </c>
       <c r="T74" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>251283</v>
+        <v>251809</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -6118,33 +6125,33 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D75" t="n">
-        <v>11.78125</v>
+        <v>135.640625</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-09 09:59:59</t>
+          <t>2025-05-09 08:14:47</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-09 10:18:59</t>
+          <t>2025-05-09 08:49:47</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-09 10:18:59</t>
+          <t>2025-05-09 08:49:47</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-09 10:30:45</t>
+          <t>2025-05-09 11:05:26</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>754</v>
+        <v>8681</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -6153,11 +6160,11 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M75" t="n">
         <v>70</v>
@@ -6170,7 +6177,7 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2025-03-18 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
@@ -6180,12 +6187,12 @@
         <v>0</v>
       </c>
       <c r="T75" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>251061</v>
+        <v>251283</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -6193,33 +6200,33 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D76" t="n">
-        <v>374.953125</v>
+        <v>11.78125</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-05-09 10:30:45</t>
+          <t>2025-05-09 11:05:26</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-05-09 10:45:45</t>
+          <t>2025-05-09 11:24:26</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-05-09 10:45:45</t>
+          <t>2025-05-09 11:24:26</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-05-12 09:00:43</t>
+          <t>2025-05-09 11:36:13</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>23997</v>
+        <v>754</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -6245,7 +6252,7 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-03-18 00:00:00</t>
         </is>
       </c>
       <c r="R76" s="1" t="n">
@@ -6260,7 +6267,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>251252</v>
+        <v>251061</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -6271,30 +6278,30 @@
         <v>15</v>
       </c>
       <c r="D77" t="n">
-        <v>235.671875</v>
+        <v>374.953125</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-05-12 09:00:43</t>
+          <t>2025-05-09 11:36:13</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-05-12 09:15:43</t>
+          <t>2025-05-09 11:51:13</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-05-12 09:15:43</t>
+          <t>2025-05-09 11:51:13</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-05-12 13:11:23</t>
+          <t>2025-05-12 10:06:10</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>15083</v>
+        <v>23997</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -6320,7 +6327,7 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R77" s="1" t="n">
@@ -6335,7 +6342,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>245090</v>
+        <v>251252</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -6343,33 +6350,33 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D78" t="n">
-        <v>8073.71875</v>
+        <v>235.671875</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-05-12 13:11:23</t>
+          <t>2025-05-12 10:06:10</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-05-12 13:43:23</t>
+          <t>2025-05-12 10:21:10</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-05-12 13:43:23</t>
+          <t>2025-05-12 10:21:10</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:06</t>
+          <t>2025-05-12 14:16:50</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>516718</v>
+        <v>15083</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -6378,14 +6385,14 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M78" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O78" t="n">
         <v>0</v>
@@ -6395,7 +6402,7 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R78" s="1" t="n">
@@ -6410,74 +6417,67 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>251706</v>
+        <v>245090</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D79" t="n">
-        <v>50.79365079365079</v>
+        <v>8073.71875</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-12 14:16:50</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-12 14:48:50</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-12 14:48:50</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-06-04 13:22:33</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>3200</v>
+        <v>516718</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
-      </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>39764</v>
+        <v>0</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R79" s="1" t="n">
@@ -6487,7 +6487,7 @@
         <v>0</v>
       </c>
       <c r="T79" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">

--- a/PS-VRP/Dati_output/insert_inter_post.xlsx
+++ b/PS-VRP/Dati_output/insert_inter_post.xlsx
@@ -515,41 +515,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251547</v>
+        <v>251396</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D2" t="n">
-        <v>184.9154929577465</v>
+        <v>37.08196721311475</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 07:46:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 07:46:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-09 08:23:04</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>13129</v>
+        <v>2262</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
         <v>70</v>
@@ -580,14 +580,14 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-0.5250651041666666</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-2.349362477233796</v>
       </c>
       <c r="T2" t="n">
         <v>7</v>
@@ -595,41 +595,41 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251416</v>
+        <v>251164</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>158.056338028169</v>
+        <v>163.9344262295082</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-09 08:23:04</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:57:54</t>
+          <t>2025-05-09 08:48:04</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:57:54</t>
+          <t>2025-05-09 08:48:04</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 13:35:58</t>
+          <t>2025-05-09 11:32:00</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>11222</v>
+        <v>10000</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -642,72 +642,74 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
       </c>
       <c r="N3" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>0</v>
+        <v>-1.471584467118056</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>0</v>
+        <v>-2.480566939895833</v>
       </c>
       <c r="T3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>250894</v>
+        <v>251742</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
-        <v>623.4084507042254</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:35:58</t>
+          <t>2025-05-09 11:32:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 14:11:58</t>
+          <t>2025-05-09 12:01:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 14:11:58</t>
+          <t>2025-05-09 12:01:00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-12 08:35:22</t>
+          <t>2025-05-09 14:15:52</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>44262</v>
+        <v>8226</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -716,76 +718,78 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N4" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>0</v>
+        <v>-2.594353369768518</v>
       </c>
       <c r="T4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251455</v>
+        <v>251283</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D5" t="n">
-        <v>74.6056338028169</v>
+        <v>12.36065573770492</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-12 08:35:22</t>
+          <t>2025-05-09 14:15:52</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-12 09:07:22</t>
+          <t>2025-05-09 14:44:52</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-12 09:07:22</t>
+          <t>2025-05-09 14:44:52</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-12 10:21:59</t>
+          <t>2025-05-09 14:57:13</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>5297</v>
+        <v>754</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -794,78 +798,73 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
-      <c r="N5" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O5" t="n">
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-03-18 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>0</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-5.431934663541667</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>250759</v>
+        <v>251464</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" t="n">
-        <v>118.2816901408451</v>
+        <v>117.2622950819672</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-12 10:21:59</t>
+          <t>2025-05-09 14:57:13</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-12 10:51:59</t>
+          <t>2025-05-12 07:26:13</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-12 10:51:59</t>
+          <t>2025-05-12 07:26:13</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-12 12:50:16</t>
+          <t>2025-05-12 09:23:29</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>8398</v>
+        <v>7153</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -874,36 +873,31 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
         <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>76</v>
-      </c>
-      <c r="N6" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>0</v>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-4.534908059467592</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>1</v>
@@ -911,41 +905,41 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251225</v>
+        <v>251467</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>102.0655737704918</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-12 12:50:16</t>
+          <t>2025-05-12 09:23:29</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-12 13:05:16</t>
+          <t>2025-05-12 09:52:29</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-12 13:05:16</t>
+          <t>2025-05-12 09:52:29</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-12 13:05:16</t>
+          <t>2025-05-12 11:34:33</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>6226</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -954,36 +948,31 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
-        <v>76</v>
-      </c>
-      <c r="N7" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>0</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>-4.545324726134259</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>1</v>
@@ -991,41 +980,41 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>235572</v>
+        <v>251260</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" t="n">
-        <v>140.2535211267606</v>
+        <v>153.5901639344262</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-12 13:05:16</t>
+          <t>2025-05-12 11:34:33</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-12 13:37:16</t>
+          <t>2025-05-12 12:07:33</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-12 13:37:16</t>
+          <t>2025-05-12 12:07:33</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-13 07:57:31</t>
+          <t>2025-05-12 14:41:08</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>9958</v>
+        <v>9369</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1034,11 +1023,11 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
@@ -1051,7 +1040,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2023-11-06 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
@@ -1061,46 +1050,46 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251475</v>
+        <v>251249</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>122.2676056338028</v>
+        <v>78</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-13 07:57:31</t>
+          <t>2025-05-12 14:41:08</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-13 08:14:31</t>
+          <t>2025-05-13 07:06:08</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-13 08:14:31</t>
+          <t>2025-05-13 07:06:08</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-13 10:16:47</t>
+          <t>2025-05-13 08:24:08</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>8681</v>
+        <v>4758</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1109,11 +1098,11 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
@@ -1126,7 +1115,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
@@ -1136,46 +1125,46 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251743</v>
+        <v>251391</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D10" t="n">
-        <v>151.7746478873239</v>
+        <v>96.14754098360656</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-13 10:16:47</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-13 10:31:47</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-13 10:31:47</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-13 13:03:33</t>
+          <t>2025-05-08 09:11:08</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>10776</v>
+        <v>5865</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1188,69 +1177,74 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
       </c>
-      <c r="O10" t="n">
-        <v>0</v>
+      <c r="N10" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>0</v>
+        <v>-1.382741347905093</v>
       </c>
       <c r="T10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>244023</v>
+        <v>251547</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>14.04225352112676</v>
+        <v>215.2295081967213</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-13 13:03:33</t>
+          <t>2025-05-08 09:11:08</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-13 13:22:33</t>
+          <t>2025-05-08 09:36:08</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-13 13:22:33</t>
+          <t>2025-05-08 09:36:08</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-13 13:36:36</t>
+          <t>2025-05-08 13:11:22</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>997</v>
+        <v>13129</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1263,69 +1257,74 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
-      <c r="O11" t="n">
-        <v>0</v>
+      <c r="N11" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>0</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>0</v>
+        <v>-1.549567395266204</v>
       </c>
       <c r="T11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251245</v>
+        <v>251455</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D12" t="n">
-        <v>10.61971830985915</v>
+        <v>86.8360655737705</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-13 13:36:36</t>
+          <t>2025-05-08 13:11:22</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-13 13:51:36</t>
+          <t>2025-05-08 13:31:22</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-13 13:51:36</t>
+          <t>2025-05-08 13:31:22</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-13 14:02:13</t>
+          <t>2025-05-08 14:58:12</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>754</v>
+        <v>5297</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1334,73 +1333,78 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
       </c>
-      <c r="O12" t="n">
-        <v>0</v>
+      <c r="N12" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>0</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>0</v>
+        <v>-1.623759107465278</v>
       </c>
       <c r="T12" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251246</v>
+        <v>251561</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D13" t="n">
-        <v>169.0422535211268</v>
+        <v>89.09836065573771</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-13 14:02:13</t>
+          <t>2025-05-08 14:58:12</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-13 14:17:13</t>
+          <t>2025-05-09 07:23:12</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-13 14:17:13</t>
+          <t>2025-05-09 07:23:12</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-14 09:06:16</t>
+          <t>2025-05-09 08:52:18</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>12002</v>
+        <v>5435</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1409,11 +1413,11 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
@@ -1426,7 +1430,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
@@ -1436,46 +1440,46 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251580</v>
+        <v>251566</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D14" t="n">
-        <v>100.7464788732394</v>
+        <v>112.9344262295082</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-14 09:06:16</t>
+          <t>2025-05-09 08:52:18</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-14 09:25:16</t>
+          <t>2025-05-09 09:17:18</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-14 09:25:16</t>
+          <t>2025-05-09 09:17:18</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-14 11:06:00</t>
+          <t>2025-05-09 11:10:14</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>7153</v>
+        <v>6889</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1501,7 +1505,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
@@ -1511,46 +1515,46 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251260</v>
+        <v>251846</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>131.9577464788732</v>
+        <v>186.7540983606557</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-14 11:06:00</t>
+          <t>2025-05-09 11:10:14</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-14 11:25:00</t>
+          <t>2025-05-09 11:40:14</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-14 11:25:00</t>
+          <t>2025-05-09 11:40:14</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-14 13:36:58</t>
+          <t>2025-05-09 14:47:00</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>9369</v>
+        <v>11392</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1559,11 +1563,11 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
@@ -1576,7 +1580,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
@@ -1586,46 +1590,46 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251249</v>
+        <v>251424</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D16" t="n">
-        <v>67.01408450704226</v>
+        <v>158.3934426229508</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-14 13:36:58</t>
+          <t>2025-05-09 14:47:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-14 13:51:58</t>
+          <t>2025-05-12 07:17:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-14 13:51:58</t>
+          <t>2025-05-12 07:17:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-14 14:58:59</t>
+          <t>2025-05-12 09:55:23</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>4758</v>
+        <v>9662</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1634,11 +1638,11 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
@@ -1651,7 +1655,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
@@ -1661,46 +1665,46 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251795</v>
+        <v>244355</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D17" t="n">
-        <v>263.9295774647887</v>
+        <v>70.65573770491804</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-14 14:58:59</t>
+          <t>2025-05-12 09:55:23</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-15 07:13:59</t>
+          <t>2025-05-12 10:15:23</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-15 07:13:59</t>
+          <t>2025-05-12 10:15:23</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-15 11:37:54</t>
+          <t>2025-05-12 11:26:02</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>18739</v>
+        <v>4310</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1709,11 +1713,11 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
@@ -1726,7 +1730,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-06-19 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
@@ -1736,12 +1740,12 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251229</v>
+        <v>251485</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1749,33 +1753,33 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D18" t="n">
-        <v>307.1967213114754</v>
+        <v>78.81967213114754</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-12 11:26:02</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-12 11:51:02</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-12 11:51:02</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-08 12:47:11</t>
+          <t>2025-05-12 13:09:52</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>18739</v>
+        <v>4808</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1784,31 +1788,24 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
       </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O18" t="n">
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>39723</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
@@ -1818,12 +1815,12 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251840</v>
+        <v>251761</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1834,30 +1831,30 @@
         <v>25</v>
       </c>
       <c r="D19" t="n">
-        <v>93.67213114754098</v>
+        <v>217.6885245901639</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-08 12:47:11</t>
+          <t>2025-05-12 13:09:52</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-08 13:12:11</t>
+          <t>2025-05-12 13:34:52</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-08 13:12:11</t>
+          <t>2025-05-12 13:34:52</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-08 14:45:52</t>
+          <t>2025-05-13 09:12:33</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>5714</v>
+        <v>13279</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1870,40 +1867,35 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
       </c>
-      <c r="N19" t="n">
-        <v>39758</v>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O19" t="n">
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>39758</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-19 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>0</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>-0.6151867031018519</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251742</v>
+        <v>251374</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1911,33 +1903,33 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D20" t="n">
-        <v>134.8524590163935</v>
+        <v>448.2459016393443</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-08 14:45:52</t>
+          <t>2025-05-13 09:12:33</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-09 07:10:52</t>
+          <t>2025-05-13 09:47:33</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-09 07:10:52</t>
+          <t>2025-05-13 09:47:33</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-09 09:25:43</t>
+          <t>2025-05-14 09:15:48</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>8226</v>
+        <v>27343</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1946,25 +1938,20 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
       </c>
-      <c r="N20" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O20" t="n">
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1972,52 +1959,52 @@
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>0</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-2.392862021863426</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251561</v>
+        <v>251840</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D21" t="n">
-        <v>89.09836065573771</v>
+        <v>82.81159420289855</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-09 09:25:43</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-09 09:50:43</t>
+          <t>2025-05-12 07:40:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-09 09:50:43</t>
+          <t>2025-05-12 07:40:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-09 11:19:49</t>
+          <t>2025-05-12 09:02:48</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>5435</v>
+        <v>5714</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2035,64 +2022,69 @@
       <c r="M21" t="n">
         <v>70</v>
       </c>
-      <c r="O21" t="n">
-        <v>0</v>
+      <c r="N21" t="n">
+        <v>39758</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>39758</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>0</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>0</v>
+        <v>-4.376952495972223</v>
       </c>
       <c r="T21" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251566</v>
+        <v>250641</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D22" t="n">
-        <v>112.9344262295082</v>
+        <v>74.14492753623189</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-09 11:19:49</t>
+          <t>2025-05-12 09:02:48</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-09 11:44:49</t>
+          <t>2025-05-12 09:32:48</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-09 11:44:49</t>
+          <t>2025-05-12 09:32:48</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-09 13:37:45</t>
+          <t>2025-05-12 10:46:57</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>6889</v>
+        <v>5116</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2105,7 +2097,7 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M22" t="n">
         <v>70</v>
@@ -2118,7 +2110,7 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
@@ -2128,46 +2120,46 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251846</v>
+        <v>251229</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D23" t="n">
-        <v>186.7540983606557</v>
+        <v>271.5797101449276</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-09 13:37:45</t>
+          <t>2025-05-12 10:46:57</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-09 14:07:45</t>
+          <t>2025-05-12 11:11:57</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-09 14:07:45</t>
+          <t>2025-05-12 11:11:57</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-12 09:14:30</t>
+          <t>2025-05-13 07:43:32</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>11392</v>
+        <v>18739</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2176,24 +2168,31 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
       </c>
-      <c r="O23" t="n">
-        <v>0</v>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>39723</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
@@ -2203,46 +2202,46 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251424</v>
+        <v>251246</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D24" t="n">
-        <v>158.3934426229508</v>
+        <v>173.9420289855072</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-12 09:14:30</t>
+          <t>2025-05-13 07:43:32</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-12 09:44:30</t>
+          <t>2025-05-13 08:08:32</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-12 09:44:30</t>
+          <t>2025-05-13 08:08:32</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-12 12:22:54</t>
+          <t>2025-05-13 11:02:28</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>9662</v>
+        <v>12002</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2251,11 +2250,11 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
@@ -2268,7 +2267,7 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
@@ -2278,46 +2277,46 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>244355</v>
+        <v>251580</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D25" t="n">
-        <v>70.65573770491804</v>
+        <v>103.6666666666667</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-12 12:22:54</t>
+          <t>2025-05-13 11:02:28</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-12 12:42:54</t>
+          <t>2025-05-13 11:37:28</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-12 12:42:54</t>
+          <t>2025-05-13 11:37:28</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-12 13:53:33</t>
+          <t>2025-05-13 13:21:08</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>4310</v>
+        <v>7153</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2343,7 +2342,7 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
@@ -2353,46 +2352,46 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251485</v>
+        <v>251252</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D26" t="n">
-        <v>78.81967213114754</v>
+        <v>218.5942028985507</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-12 13:53:33</t>
+          <t>2025-05-13 13:21:08</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-12 14:18:33</t>
+          <t>2025-05-13 13:56:08</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-12 14:18:33</t>
+          <t>2025-05-13 13:56:08</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-13 07:37:22</t>
+          <t>2025-05-14 09:34:44</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>4808</v>
+        <v>15083</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2401,11 +2400,11 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M26" t="n">
         <v>70</v>
@@ -2418,7 +2417,7 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
@@ -2428,46 +2427,46 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251259</v>
+        <v>251227</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D27" t="n">
-        <v>81.9672131147541</v>
+        <v>0</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-13 07:37:22</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-13 08:17:22</t>
+          <t>2025-05-07 07:34:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-13 08:17:22</t>
+          <t>2025-05-07 07:34:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-13 09:39:20</t>
+          <t>2025-05-07 07:34:00</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2476,73 +2475,78 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>70</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N27" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>0</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>0</v>
+        <v>-1.315277777777778</v>
       </c>
       <c r="T27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251464</v>
+        <v>244023</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D28" t="n">
-        <v>117.2622950819672</v>
+        <v>15.578125</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-13 09:39:20</t>
+          <t>2025-05-07 07:34:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-13 10:24:20</t>
+          <t>2025-05-07 08:08:00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-13 10:24:20</t>
+          <t>2025-05-07 08:08:00</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-13 12:21:36</t>
+          <t>2025-05-07 08:23:34</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>7153</v>
+        <v>997</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2555,7 +2559,7 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M28" t="n">
         <v>70</v>
@@ -2568,7 +2572,7 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
@@ -2583,41 +2587,41 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251557</v>
+        <v>250923</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D29" t="n">
-        <v>109.9180327868852</v>
+        <v>109.46875</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-13 12:21:36</t>
+          <t>2025-05-07 08:23:34</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-13 12:51:36</t>
+          <t>2025-05-07 08:55:34</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-13 12:51:36</t>
+          <t>2025-05-07 08:55:34</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-13 14:41:31</t>
+          <t>2025-05-07 10:45:02</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>6705</v>
+        <v>7006</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2626,73 +2630,78 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L29" t="n">
+        <v>5</v>
+      </c>
+      <c r="M29" t="n">
+        <v>76</v>
+      </c>
+      <c r="N29" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
+        <v>39749</v>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>2025-04-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="R29" s="1" t="n">
+        <v>-1.446853298611111</v>
+      </c>
+      <c r="S29" s="1" t="n">
+        <v>-0.44794921875</v>
+      </c>
+      <c r="T29" t="n">
         <v>2</v>
-      </c>
-      <c r="M29" t="n">
-        <v>70</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>2025-05-15 00:00:00</t>
-        </is>
-      </c>
-      <c r="R29" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251062</v>
+        <v>251395</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D30" t="n">
-        <v>370.8852459016393</v>
+        <v>35.34375</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-13 14:41:31</t>
+          <t>2025-05-07 10:45:02</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-14 07:21:31</t>
+          <t>2025-05-07 11:17:02</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-14 07:21:31</t>
+          <t>2025-05-07 11:17:02</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-14 13:32:24</t>
+          <t>2025-05-07 11:52:23</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>22624</v>
+        <v>2262</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2701,7 +2710,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
@@ -2710,64 +2719,69 @@
       <c r="M30" t="n">
         <v>70</v>
       </c>
-      <c r="O30" t="n">
-        <v>0</v>
+      <c r="N30" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>0</v>
+        <v>-0.4741319444444445</v>
       </c>
       <c r="S30" s="1" t="n">
-        <v>0</v>
+        <v>-0.4947157118055556</v>
       </c>
       <c r="T30" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251477</v>
+        <v>251371</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D31" t="n">
-        <v>434.768115942029</v>
+        <v>0</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-07 11:52:23</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-12 07:30:00</t>
+          <t>2025-05-07 12:11:23</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-12 07:30:00</t>
+          <t>2025-05-07 12:11:23</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-12 14:44:46</t>
+          <t>2025-05-07 12:11:23</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>29999</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2776,17 +2790,19 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M31" t="n">
-        <v>76</v>
-      </c>
-      <c r="N31" t="n">
-        <v>39760</v>
+        <v>70</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2794,60 +2810,60 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>39760</v>
+        <v>39666</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="S31" s="1" t="n">
-        <v>-5.614422302743056</v>
+        <v>-13.50791015625</v>
       </c>
       <c r="T31" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>245350</v>
+        <v>251548</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="D32" t="n">
-        <v>405.3623188405797</v>
+        <v>206.90625</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-12 14:44:46</t>
+          <t>2025-05-07 12:11:23</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-13 07:49:46</t>
+          <t>2025-05-07 12:26:23</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-13 07:49:46</t>
+          <t>2025-05-07 12:26:23</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-13 14:35:07</t>
+          <t>2025-05-08 07:53:17</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>27970</v>
+        <v>13242</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2856,31 +2872,36 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M32" t="n">
         <v>70</v>
       </c>
-      <c r="O32" t="n">
-        <v>0</v>
+      <c r="N32" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>0</v>
+        <v>-1.348611111111111</v>
       </c>
       <c r="S32" s="1" t="n">
-        <v>0</v>
+        <v>-1.328678385416667</v>
       </c>
       <c r="T32" t="n">
         <v>7</v>
@@ -2888,41 +2909,41 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>250641</v>
+        <v>251477</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D33" t="n">
-        <v>74.14492753623189</v>
+        <v>468.734375</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-13 14:35:07</t>
+          <t>2025-05-08 07:53:17</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-14 07:20:07</t>
+          <t>2025-05-08 08:25:17</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-14 07:20:07</t>
+          <t>2025-05-08 08:25:17</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-14 08:34:16</t>
+          <t>2025-05-09 08:14:01</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>5116</v>
+        <v>29999</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2931,20 +2952,25 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M33" t="n">
-        <v>70</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N33" t="n">
+        <v>39760</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>39760</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -2952,52 +2978,52 @@
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>0</v>
+        <v>-2.452224392361111</v>
       </c>
       <c r="S33" s="1" t="n">
-        <v>0</v>
+        <v>-2.343077256944444</v>
       </c>
       <c r="T33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251463</v>
+        <v>244204</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D34" t="n">
-        <v>100.9710144927536</v>
+        <v>54.25</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-14 08:34:16</t>
+          <t>2025-05-09 08:14:01</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-14 09:09:16</t>
+          <t>2025-05-09 08:46:01</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-14 09:09:16</t>
+          <t>2025-05-09 08:46:01</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-14 10:50:14</t>
+          <t>2025-05-09 09:40:16</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>6967</v>
+        <v>3472</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -3023,7 +3049,7 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
@@ -3033,46 +3059,46 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251462</v>
+        <v>251564</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D35" t="n">
-        <v>90.23188405797102</v>
+        <v>42.453125</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-14 10:50:14</t>
+          <t>2025-05-09 09:40:16</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-14 11:25:14</t>
+          <t>2025-05-09 09:57:16</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-14 11:25:14</t>
+          <t>2025-05-09 09:57:16</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-14 12:55:28</t>
+          <t>2025-05-09 10:39:44</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>6226</v>
+        <v>2717</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -3085,7 +3111,7 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
@@ -3098,7 +3124,7 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
@@ -3108,46 +3134,46 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>251562</v>
+        <v>251546</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D36" t="n">
-        <v>118</v>
+        <v>101.03125</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-14 12:55:28</t>
+          <t>2025-05-09 10:39:44</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-14 13:20:28</t>
+          <t>2025-05-09 10:58:44</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-14 13:20:28</t>
+          <t>2025-05-09 10:58:44</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-15 07:18:28</t>
+          <t>2025-05-09 12:39:45</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>8142</v>
+        <v>6466</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3160,7 +3186,7 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M36" t="n">
         <v>70</v>
@@ -3173,7 +3199,7 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
@@ -3183,46 +3209,46 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>251251</v>
+        <v>245275</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D37" t="n">
-        <v>229.8550724637681</v>
+        <v>379.59375</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-15 07:18:28</t>
+          <t>2025-05-09 12:39:45</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-15 08:03:28</t>
+          <t>2025-05-09 13:12:45</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-15 08:03:28</t>
+          <t>2025-05-09 13:12:45</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-15 11:53:20</t>
+          <t>2025-05-12 11:32:21</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>15860</v>
+        <v>24294</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3231,11 +3257,11 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="M37" t="n">
         <v>70</v>
@@ -3248,7 +3274,7 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
@@ -3258,46 +3284,46 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251395</v>
+        <v>251743</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D38" t="n">
-        <v>37.08196721311475</v>
+        <v>168.375</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-12 11:32:21</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-09 07:46:00</t>
+          <t>2025-05-12 12:07:21</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-09 07:46:00</t>
+          <t>2025-05-12 12:07:21</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-09 08:23:04</t>
+          <t>2025-05-12 14:55:44</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>2262</v>
+        <v>10776</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3310,74 +3336,69 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
       </c>
-      <c r="N38" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O38" t="n">
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>0</v>
       </c>
       <c r="S38" s="1" t="n">
-        <v>-2.349362477233796</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>251651</v>
+        <v>251245</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D39" t="n">
-        <v>767.7049180327868</v>
+        <v>11.78125</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-09 08:23:04</t>
+          <t>2025-05-12 14:55:44</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-09 09:05:04</t>
+          <t>2025-05-13 07:14:44</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-09 09:05:04</t>
+          <t>2025-05-13 07:14:44</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-12 13:52:47</t>
+          <t>2025-05-13 07:26:30</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>46830</v>
+        <v>754</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3386,17 +3407,14 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M39" t="n">
-        <v>76</v>
-      </c>
-      <c r="N39" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -3406,7 +3424,7 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
@@ -3416,46 +3434,46 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>244204</v>
+        <v>251463</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D40" t="n">
-        <v>56.91803278688525</v>
+        <v>108.859375</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-12 13:52:47</t>
+          <t>2025-05-13 07:26:30</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-12 14:34:47</t>
+          <t>2025-05-13 07:45:30</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-12 14:34:47</t>
+          <t>2025-05-13 07:45:30</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-13 07:31:42</t>
+          <t>2025-05-13 09:34:22</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>3472</v>
+        <v>6967</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3481,7 +3499,7 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
@@ -3491,46 +3509,46 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>251346</v>
+        <v>251462</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D41" t="n">
-        <v>63.26229508196721</v>
+        <v>97.28125</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-13 07:31:42</t>
+          <t>2025-05-13 09:34:22</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-13 08:04:42</t>
+          <t>2025-05-13 09:53:22</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-13 08:04:42</t>
+          <t>2025-05-13 09:53:22</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-13 09:07:58</t>
+          <t>2025-05-13 11:30:39</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>3859</v>
+        <v>6226</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3543,7 +3561,7 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M41" t="n">
         <v>70</v>
@@ -3556,7 +3574,7 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
@@ -3566,46 +3584,46 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251761</v>
+        <v>251562</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D42" t="n">
-        <v>217.6885245901639</v>
+        <v>127.21875</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-13 09:07:58</t>
+          <t>2025-05-13 11:30:39</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-13 09:40:58</t>
+          <t>2025-05-13 11:45:39</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-13 09:40:58</t>
+          <t>2025-05-13 11:45:39</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-13 13:18:39</t>
+          <t>2025-05-13 13:52:52</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>13279</v>
+        <v>8142</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3618,7 +3636,7 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M42" t="n">
         <v>70</v>
@@ -3631,7 +3649,7 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-05-19 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
@@ -3641,46 +3659,46 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251374</v>
+        <v>251251</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D43" t="n">
-        <v>448.2459016393443</v>
+        <v>247.8125</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-13 13:18:39</t>
+          <t>2025-05-13 13:52:52</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-13 13:49:39</t>
+          <t>2025-05-13 14:15:52</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-13 13:49:39</t>
+          <t>2025-05-13 14:15:52</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-14 13:17:54</t>
+          <t>2025-05-14 10:23:41</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>27343</v>
+        <v>15860</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3693,7 +3711,7 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M43" t="n">
         <v>70</v>
@@ -3706,7 +3724,7 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
@@ -3721,41 +3739,41 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>245089</v>
+        <v>251050</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>46</v>
+        <v>217</v>
       </c>
       <c r="D44" t="n">
-        <v>2010.901639344262</v>
+        <v>0</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-14 13:17:54</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-14 14:03:54</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-14 14:03:54</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-05-21 07:34:48</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>122665</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3764,39 +3782,44 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M44" t="n">
-        <v>76</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N44" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>0</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S44" s="1" t="n">
-        <v>0</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="T44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>251050</v>
+        <v>251054</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3804,29 +3827,29 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>217</v>
+        <v>35</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3865,10 +3888,10 @@
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S45" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="T45" t="n">
         <v>2</v>
@@ -3876,7 +3899,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>251054</v>
+        <v>251081</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3884,33 +3907,33 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>3012</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3923,13 +3946,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M46" t="n">
         <v>70</v>
       </c>
-      <c r="N46" t="n">
-        <v>39747</v>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -3937,18 +3962,18 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>39747</v>
+        <v>39750</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S46" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="T46" t="n">
         <v>2</v>
@@ -3956,7 +3981,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>251371</v>
+        <v>251346</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3964,33 +3989,33 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>205</v>
+        <v>95</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>54.35211267605634</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-09 14:37:00</t>
+          <t>2025-05-12 07:34:25</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-05-09 14:37:00</t>
+          <t>2025-05-12 07:34:25</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-05-09 14:37:00</t>
+          <t>2025-05-12 08:28:46</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>3859</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -4003,42 +4028,35 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M47" t="n">
         <v>70</v>
       </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O47" t="n">
+        <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>39666</v>
+        <v>0</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>0</v>
       </c>
       <c r="S47" s="1" t="n">
-        <v>-15.60902777777778</v>
+        <v>0</v>
       </c>
       <c r="T47" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>251081</v>
+        <v>251519</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -4046,33 +4064,33 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="D48" t="n">
-        <v>42.42253521126761</v>
+        <v>185.5633802816901</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-09 14:37:00</t>
+          <t>2025-05-12 08:28:46</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-12 08:32:00</t>
+          <t>2025-05-12 09:33:46</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-12 08:32:00</t>
+          <t>2025-05-12 09:33:46</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-05-12 09:14:25</t>
+          <t>2025-05-12 12:39:20</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>3012</v>
+        <v>13175</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -4081,46 +4099,39 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="M48" t="n">
         <v>70</v>
       </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O48" t="n">
+        <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>39750</v>
+        <v>0</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>0</v>
       </c>
       <c r="S48" s="1" t="n">
-        <v>-19.38501564945602</v>
+        <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>251519</v>
+        <v>251594</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -4128,33 +4139,33 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="D49" t="n">
-        <v>185.5633802816901</v>
+        <v>91.07042253521126</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-12 09:14:25</t>
+          <t>2025-05-12 12:39:20</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-12 11:19:25</t>
+          <t>2025-05-12 13:24:20</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-12 11:19:25</t>
+          <t>2025-05-12 13:24:20</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-12 14:24:59</t>
+          <t>2025-05-12 14:55:24</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>13175</v>
+        <v>6466</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4167,7 +4178,7 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M49" t="n">
         <v>70</v>
@@ -4180,7 +4191,7 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
@@ -4190,12 +4201,12 @@
         <v>0</v>
       </c>
       <c r="T49" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251594</v>
+        <v>251109</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -4203,33 +4214,33 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="D50" t="n">
-        <v>91.07042253521126</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-12 14:24:59</t>
+          <t>2025-05-12 14:55:24</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-13 07:09:59</t>
+          <t>2025-05-13 08:30:24</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-13 07:09:59</t>
+          <t>2025-05-13 08:30:24</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-13 08:41:03</t>
+          <t>2025-05-13 12:57:00</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>6466</v>
+        <v>18928</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4238,11 +4249,11 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="M50" t="n">
         <v>70</v>
@@ -4255,7 +4266,7 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
@@ -4265,12 +4276,12 @@
         <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251109</v>
+        <v>251520</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -4278,33 +4289,33 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="D51" t="n">
-        <v>266.5915492957747</v>
+        <v>230.1408450704225</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-13 08:41:03</t>
+          <t>2025-05-13 12:57:00</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-13 10:16:03</t>
+          <t>2025-05-13 14:17:00</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-13 10:16:03</t>
+          <t>2025-05-13 14:17:00</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-13 14:42:38</t>
+          <t>2025-05-14 10:07:08</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>18928</v>
+        <v>16340</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4313,11 +4324,11 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="M51" t="n">
         <v>70</v>
@@ -4330,7 +4341,7 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
@@ -4340,46 +4351,46 @@
         <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>251467</v>
+        <v>251284</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>105</v>
+        <v>40.5</v>
       </c>
       <c r="D52" t="n">
-        <v>87.69014084507042</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-13 14:42:38</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-14 08:27:38</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-14 08:27:38</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-14 09:55:20</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>6226</v>
+        <v>16340</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4388,31 +4399,36 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M52" t="n">
         <v>70</v>
       </c>
-      <c r="O52" t="n">
-        <v>0</v>
+      <c r="N52" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P52" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S52" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="T52" t="n">
         <v>1</v>
@@ -4420,41 +4436,41 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>251227</v>
+        <v>245350</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>19</v>
+        <v>36.5</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>508.5454545454546</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 13:14:05</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 13:14:05</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-12 13:42:38</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>27970</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4463,78 +4479,73 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M53" t="n">
-        <v>76</v>
-      </c>
-      <c r="N53" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>0</v>
       </c>
       <c r="S53" s="1" t="n">
-        <v>-2.513194444444444</v>
+        <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>251782</v>
+        <v>251505</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>17</v>
+        <v>40.5</v>
       </c>
       <c r="D54" t="n">
-        <v>170.0422535211268</v>
+        <v>259.1818181818182</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-12 13:42:38</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-08 12:36:00</t>
+          <t>2025-05-12 14:23:08</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-08 12:36:00</t>
+          <t>2025-05-12 14:23:08</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-09 07:26:02</t>
+          <t>2025-05-13 10:42:19</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>12073</v>
+        <v>14255</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4543,78 +4554,73 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M54" t="n">
-        <v>76</v>
-      </c>
-      <c r="N54" t="n">
-        <v>39754</v>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>39754</v>
+        <v>0</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>0</v>
       </c>
       <c r="S54" s="1" t="n">
-        <v>-0.3097515649421296</v>
+        <v>0</v>
       </c>
       <c r="T54" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>251340</v>
+        <v>251397</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>17</v>
+        <v>34.5</v>
       </c>
       <c r="D55" t="n">
-        <v>461.9718309859155</v>
+        <v>98.81818181818181</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-09 07:26:02</t>
+          <t>2025-05-13 10:42:19</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-09 07:43:02</t>
+          <t>2025-05-13 11:16:49</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-09 07:43:02</t>
+          <t>2025-05-13 11:16:49</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-12 07:25:00</t>
+          <t>2025-05-13 12:55:38</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>32800</v>
+        <v>5435</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4623,14 +4629,14 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M55" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -4655,41 +4661,41 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>243569</v>
+        <v>244354</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>17</v>
+        <v>32.5</v>
       </c>
       <c r="D56" t="n">
-        <v>36.63380281690141</v>
+        <v>78.36363636363636</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-12 07:25:00</t>
+          <t>2025-05-13 12:55:38</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-12 07:42:00</t>
+          <t>2025-05-13 13:28:08</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-12 07:42:00</t>
+          <t>2025-05-13 13:28:08</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-12 08:18:38</t>
+          <t>2025-05-13 14:46:30</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>2601</v>
+        <v>4310</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4698,14 +4704,14 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M56" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -4715,7 +4721,7 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
@@ -4725,46 +4731,46 @@
         <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>245623</v>
+        <v>250819</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>32</v>
+        <v>34.5</v>
       </c>
       <c r="D57" t="n">
-        <v>372.0985915492957</v>
+        <v>155.0363636363636</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-12 08:18:38</t>
+          <t>2025-05-13 14:46:30</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-12 08:50:38</t>
+          <t>2025-05-14 07:21:00</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-12 08:50:38</t>
+          <t>2025-05-14 07:21:00</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-13 07:02:44</t>
+          <t>2025-05-14 09:56:02</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>26419</v>
+        <v>8527</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4773,14 +4779,14 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M57" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -4790,7 +4796,7 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
@@ -4805,41 +4811,41 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>243335</v>
+        <v>251247</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>19</v>
+        <v>30.5</v>
       </c>
       <c r="D58" t="n">
-        <v>464.8450704225352</v>
+        <v>489.7090909090909</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-13 07:02:44</t>
+          <t>2025-05-14 09:56:02</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-13 07:21:44</t>
+          <t>2025-05-14 10:26:32</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-13 07:21:44</t>
+          <t>2025-05-14 10:26:32</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-14 07:06:35</t>
+          <t>2025-05-15 10:36:14</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>33004</v>
+        <v>26934</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4848,14 +4854,14 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M58" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -4865,7 +4871,7 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
@@ -4880,41 +4886,41 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>251750</v>
+        <v>251795</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>17</v>
+        <v>30.5</v>
       </c>
       <c r="D59" t="n">
-        <v>54.80281690140845</v>
+        <v>340.7090909090909</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-14 07:06:35</t>
+          <t>2025-05-15 10:36:14</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-14 07:23:35</t>
+          <t>2025-05-15 11:06:44</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-14 07:23:35</t>
+          <t>2025-05-15 11:06:44</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-14 08:18:23</t>
+          <t>2025-05-16 08:47:27</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>3891</v>
+        <v>18739</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4923,14 +4929,14 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M59" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -4940,7 +4946,7 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-06-19 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
@@ -4955,67 +4961,74 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>251987</v>
+        <v>251706</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>2965.154929577465</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-14 08:18:23</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-14 08:54:23</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-14 08:54:23</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-22 10:19:32</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>210526</v>
+        <v>3200</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>76</v>
-      </c>
-      <c r="O60" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P60" t="n">
-        <v>0</v>
+        <v>39764</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2025-09-01 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
@@ -5025,67 +5038,65 @@
         <v>0</v>
       </c>
       <c r="T60" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>251706</v>
+        <v>251456</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D61" t="n">
-        <v>50.79365079365079</v>
+        <v>126.7464788732394</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 07:32:00</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 07:32:00</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-08 09:38:44</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>3200</v>
+        <v>8999</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N61" t="n">
+        <v>39746</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -5093,60 +5104,60 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>39764</v>
+        <v>39746</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>0</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="S61" s="1" t="n">
-        <v>0</v>
+        <v>-2.401907276990741</v>
       </c>
       <c r="T61" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>251456</v>
+        <v>251225</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D62" t="n">
-        <v>183.6530612244898</v>
+        <v>0</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 09:38:44</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-08 10:10:44</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-08 10:10:44</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:39</t>
+          <t>2025-05-08 10:10:44</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>8999</v>
+        <v>0</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -5155,17 +5166,17 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M62" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N62" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -5173,18 +5184,18 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="S62" s="1" t="n">
-        <v>-2.446981292511574</v>
+        <v>-0.4241294992129629</v>
       </c>
       <c r="T62" t="n">
         <v>1</v>
@@ -5192,41 +5203,41 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>251164</v>
+        <v>250759</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="D63" t="n">
-        <v>204.0816326530612</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:39</t>
+          <t>2025-05-08 10:10:44</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-08 11:33:39</t>
+          <t>2025-05-08 10:25:44</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-08 11:33:39</t>
+          <t>2025-05-08 10:25:44</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-08 14:57:44</t>
+          <t>2025-05-08 12:24:01</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>10000</v>
+        <v>8398</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5235,17 +5246,17 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M63" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N63" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -5253,60 +5264,60 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S63" s="1" t="n">
-        <v>-1.623426870752315</v>
+        <v>-0.5166862284837963</v>
       </c>
       <c r="T63" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>251391</v>
+        <v>251782</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D64" t="n">
-        <v>119.6938775510204</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-08 14:57:44</t>
+          <t>2025-05-08 12:24:01</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-09 07:37:44</t>
+          <t>2025-05-08 12:41:01</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-09 07:37:44</t>
+          <t>2025-05-08 12:41:01</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-09 09:37:25</t>
+          <t>2025-05-09 07:31:04</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>5865</v>
+        <v>12073</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5315,17 +5326,17 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M64" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N64" t="n">
-        <v>39749</v>
+        <v>39754</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -5333,60 +5344,60 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>39749</v>
+        <v>39754</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="S64" s="1" t="n">
-        <v>-2.40099206349537</v>
+        <v>-0.3132433489814815</v>
       </c>
       <c r="T64" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>251626</v>
+        <v>235572</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D65" t="n">
-        <v>255.1020408163265</v>
+        <v>140.2535211267606</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-09 09:37:25</t>
+          <t>2025-05-09 07:31:04</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-09 10:22:25</t>
+          <t>2025-05-09 08:05:04</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-09 10:22:25</t>
+          <t>2025-05-09 08:05:04</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-09 14:37:31</t>
+          <t>2025-05-09 10:25:19</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>12500</v>
+        <v>9958</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5395,11 +5406,11 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M65" t="n">
         <v>70</v>
@@ -5412,7 +5423,7 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2023-11-06 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
@@ -5422,46 +5433,46 @@
         <v>0</v>
       </c>
       <c r="T65" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251373</v>
+        <v>251475</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D66" t="n">
-        <v>348.8571428571428</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-09 14:37:31</t>
+          <t>2025-05-09 10:25:19</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-12 07:22:31</t>
+          <t>2025-05-09 10:42:19</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-12 07:22:31</t>
+          <t>2025-05-09 10:42:19</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-12 13:11:23</t>
+          <t>2025-05-09 12:44:35</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>17094</v>
+        <v>8681</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5474,7 +5485,7 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M66" t="n">
         <v>70</v>
@@ -5487,7 +5498,7 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
@@ -5502,41 +5513,41 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>250670</v>
+        <v>251809</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D67" t="n">
-        <v>31.89795918367347</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-12 13:11:23</t>
+          <t>2025-05-09 12:44:35</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-12 13:53:23</t>
+          <t>2025-05-09 12:59:35</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-12 13:53:23</t>
+          <t>2025-05-09 12:59:35</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-12 14:25:17</t>
+          <t>2025-05-12 07:01:51</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>1563</v>
+        <v>8681</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5545,14 +5556,14 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L67" t="n">
         <v>4</v>
       </c>
       <c r="M67" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O67" t="n">
         <v>0</v>
@@ -5562,7 +5573,7 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
@@ -5572,46 +5583,46 @@
         <v>0</v>
       </c>
       <c r="T67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>251247</v>
+        <v>251259</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D68" t="n">
-        <v>549.6734693877551</v>
+        <v>70.4225352112676</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-12 14:25:17</t>
+          <t>2025-05-12 07:01:51</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-13 07:12:17</t>
+          <t>2025-05-12 07:26:51</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-13 07:12:17</t>
+          <t>2025-05-12 07:26:51</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-14 08:21:57</t>
+          <t>2025-05-12 08:37:16</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>26934</v>
+        <v>5000</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5620,11 +5631,11 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M68" t="n">
         <v>70</v>
@@ -5637,7 +5648,7 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
@@ -5647,46 +5658,46 @@
         <v>0</v>
       </c>
       <c r="T68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>251396</v>
+        <v>251466</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D69" t="n">
-        <v>35.34375</v>
+        <v>78.40845070422536</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-12 08:37:16</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-07 07:23:00</t>
+          <t>2025-05-12 09:04:16</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-07 07:23:00</t>
+          <t>2025-05-12 09:04:16</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-07 07:58:20</t>
+          <t>2025-05-12 10:22:41</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>2262</v>
+        <v>5567</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5699,74 +5710,69 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M69" t="n">
         <v>70</v>
       </c>
-      <c r="N69" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O69" t="n">
+        <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>0</v>
       </c>
       <c r="S69" s="1" t="n">
-        <v>-0.3321831597222222</v>
+        <v>0</v>
       </c>
       <c r="T69" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>251548</v>
+        <v>251465</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D70" t="n">
-        <v>206.90625</v>
+        <v>87.69014084507042</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-07 07:58:20</t>
+          <t>2025-05-12 10:22:41</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-07 08:17:20</t>
+          <t>2025-05-12 10:39:41</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-07 08:17:20</t>
+          <t>2025-05-12 10:39:41</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-07 11:44:15</t>
+          <t>2025-05-12 12:07:22</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>13242</v>
+        <v>6226</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5779,74 +5785,69 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M70" t="n">
         <v>70</v>
       </c>
-      <c r="N70" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O70" t="n">
+        <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>-1.348611111111111</v>
+        <v>0</v>
       </c>
       <c r="S70" s="1" t="n">
-        <v>-0.4890625</v>
+        <v>0</v>
       </c>
       <c r="T70" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>250923</v>
+        <v>251557</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D71" t="n">
-        <v>109.46875</v>
+        <v>94.43661971830986</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-07 11:44:15</t>
+          <t>2025-05-12 12:07:22</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-07 12:16:15</t>
+          <t>2025-05-12 12:22:22</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-07 12:16:15</t>
+          <t>2025-05-12 12:22:22</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-07 14:05:43</t>
+          <t>2025-05-12 13:56:49</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>7006</v>
+        <v>6705</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5855,78 +5856,73 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M71" t="n">
-        <v>76</v>
-      </c>
-      <c r="N71" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>0</v>
       </c>
       <c r="S71" s="1" t="n">
-        <v>-0.5873046875</v>
+        <v>0</v>
       </c>
       <c r="T71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>251564</v>
+        <v>251062</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D72" t="n">
-        <v>42.453125</v>
+        <v>318.6478873239437</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-07 14:05:43</t>
+          <t>2025-05-12 13:56:49</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-07 14:39:43</t>
+          <t>2025-05-12 14:19:49</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-07 14:39:43</t>
+          <t>2025-05-12 14:19:49</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-08 07:22:10</t>
+          <t>2025-05-13 11:38:27</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>2717</v>
+        <v>22624</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5935,11 +5931,11 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M72" t="n">
         <v>70</v>
@@ -5952,7 +5948,7 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
@@ -5962,46 +5958,46 @@
         <v>0</v>
       </c>
       <c r="T72" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>251546</v>
+        <v>251416</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D73" t="n">
-        <v>101.03125</v>
+        <v>229.0204081632653</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-08 07:22:10</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-08 07:41:10</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-08 07:41:10</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-08 09:22:12</t>
+          <t>2025-05-08 11:24:01</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>6466</v>
+        <v>11222</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -6014,11 +6010,14 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M73" t="n">
         <v>70</v>
       </c>
+      <c r="N73" t="n">
+        <v>39755</v>
+      </c>
       <c r="O73" t="n">
         <v>0</v>
       </c>
@@ -6027,7 +6026,7 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
@@ -6037,46 +6036,46 @@
         <v>0</v>
       </c>
       <c r="T73" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>245275</v>
+        <v>251626</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D74" t="n">
-        <v>379.59375</v>
+        <v>255.1020408163265</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-08 09:22:12</t>
+          <t>2025-05-08 11:24:01</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-08 09:55:12</t>
+          <t>2025-05-08 12:04:01</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-08 09:55:12</t>
+          <t>2025-05-08 12:04:01</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-09 08:14:47</t>
+          <t>2025-05-09 08:19:07</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>24294</v>
+        <v>12500</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -6085,11 +6084,11 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="M74" t="n">
         <v>70</v>
@@ -6102,7 +6101,7 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
@@ -6117,41 +6116,41 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>251809</v>
+        <v>251373</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D75" t="n">
-        <v>135.640625</v>
+        <v>348.8571428571428</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-09 08:14:47</t>
+          <t>2025-05-09 08:19:07</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-09 08:49:47</t>
+          <t>2025-05-09 09:04:07</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-09 08:49:47</t>
+          <t>2025-05-09 09:04:07</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-09 11:05:26</t>
+          <t>2025-05-09 14:52:58</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>8681</v>
+        <v>17094</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -6164,7 +6163,7 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M75" t="n">
         <v>70</v>
@@ -6177,7 +6176,7 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
@@ -6192,41 +6191,41 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>251283</v>
+        <v>250670</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D76" t="n">
-        <v>11.78125</v>
+        <v>31.89795918367347</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-05-09 11:05:26</t>
+          <t>2025-05-09 14:52:58</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-05-09 11:24:26</t>
+          <t>2025-05-12 07:34:58</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-05-09 11:24:26</t>
+          <t>2025-05-12 07:34:58</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-05-09 11:36:13</t>
+          <t>2025-05-12 08:06:52</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>754</v>
+        <v>1563</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -6235,14 +6234,14 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M76" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O76" t="n">
         <v>0</v>
@@ -6252,7 +6251,7 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>2025-03-18 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R76" s="1" t="n">
@@ -6262,7 +6261,7 @@
         <v>0</v>
       </c>
       <c r="T76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -6271,33 +6270,33 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D77" t="n">
-        <v>374.953125</v>
+        <v>489.734693877551</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-05-09 11:36:13</t>
+          <t>2025-05-12 08:06:52</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-05-09 11:51:13</t>
+          <t>2025-05-12 08:53:52</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-05-09 11:51:13</t>
+          <t>2025-05-12 08:53:52</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-05-12 10:06:10</t>
+          <t>2025-05-13 09:03:36</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -6342,41 +6341,41 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>251252</v>
+        <v>250894</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D78" t="n">
-        <v>235.671875</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-05-12 10:06:10</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-05-12 10:21:10</t>
+          <t>2025-05-08 12:21:00</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-05-12 10:21:10</t>
+          <t>2025-05-08 12:21:00</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-05-12 14:16:50</t>
+          <t>2025-05-09 14:44:24</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>15083</v>
+        <v>44262</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -6385,14 +6384,17 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M78" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N78" t="n">
+        <v>39755</v>
       </c>
       <c r="O78" t="n">
         <v>0</v>
@@ -6402,7 +6404,7 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R78" s="1" t="n">
@@ -6412,46 +6414,46 @@
         <v>0</v>
       </c>
       <c r="T78" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>245090</v>
+        <v>251651</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D79" t="n">
-        <v>8073.71875</v>
+        <v>659.5774647887324</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-05-12 14:16:50</t>
+          <t>2025-05-09 14:44:24</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-05-12 14:48:50</t>
+          <t>2025-05-09 14:59:24</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-05-12 14:48:50</t>
+          <t>2025-05-09 14:59:24</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-06-04 13:22:33</t>
+          <t>2025-05-13 09:58:59</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>516718</v>
+        <v>46830</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -6460,7 +6462,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L79" t="n">
@@ -6469,6 +6471,9 @@
       <c r="M79" t="n">
         <v>76</v>
       </c>
+      <c r="N79" t="n">
+        <v>39755</v>
+      </c>
       <c r="O79" t="n">
         <v>0</v>
       </c>
@@ -6477,56 +6482,56 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R79" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S79" s="1" t="n">
-        <v>0</v>
+        <v>-0.4159624413194444</v>
       </c>
       <c r="T79" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>251284</v>
+        <v>245089</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>40.5</v>
+        <v>17</v>
       </c>
       <c r="D80" t="n">
-        <v>297.0909090909091</v>
+        <v>1727.676056338028</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-13 09:58:59</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-13 10:15:59</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-13 10:15:59</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-19 07:03:39</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>16340</v>
+        <v>122665</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -6535,36 +6540,31 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M80" t="n">
-        <v>70</v>
-      </c>
-      <c r="N80" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0</v>
       </c>
       <c r="P80" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R80" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>0</v>
       </c>
       <c r="S80" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>0</v>
       </c>
       <c r="T80" t="n">
         <v>1</v>
@@ -6572,41 +6572,41 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>251505</v>
+        <v>245090</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>34.5</v>
+        <v>17</v>
       </c>
       <c r="D81" t="n">
-        <v>259.1818181818182</v>
+        <v>7277.718309859155</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-19 07:03:39</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-05-09 13:12:05</t>
+          <t>2025-05-19 07:20:39</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-05-09 13:12:05</t>
+          <t>2025-05-19 07:20:39</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-05-12 09:31:16</t>
+          <t>2025-06-09 08:38:22</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>14255</v>
+        <v>516718</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -6615,14 +6615,14 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L81" t="n">
         <v>5</v>
       </c>
       <c r="M81" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O81" t="n">
         <v>0</v>
@@ -6632,7 +6632,7 @@
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R81" s="1" t="n">
@@ -6642,46 +6642,46 @@
         <v>0</v>
       </c>
       <c r="T81" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>251397</v>
+        <v>251340</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>34.5</v>
+        <v>21</v>
       </c>
       <c r="D82" t="n">
-        <v>98.81818181818181</v>
+        <v>461.9718309859155</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-05-12 09:31:16</t>
+          <t>2025-06-09 08:38:22</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-05-12 10:05:46</t>
+          <t>2025-06-09 08:59:22</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-05-12 10:05:46</t>
+          <t>2025-06-09 08:59:22</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2025-05-12 11:44:35</t>
+          <t>2025-06-10 08:41:21</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>5435</v>
+        <v>32800</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -6690,14 +6690,14 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M82" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O82" t="n">
         <v>0</v>
@@ -6722,41 +6722,41 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>244354</v>
+        <v>243569</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>32.5</v>
+        <v>17</v>
       </c>
       <c r="D83" t="n">
-        <v>78.36363636363636</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-05-12 11:44:35</t>
+          <t>2025-06-10 08:41:21</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-05-12 12:17:05</t>
+          <t>2025-06-10 08:58:21</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-05-12 12:17:05</t>
+          <t>2025-06-10 08:58:21</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2025-05-12 13:35:27</t>
+          <t>2025-06-10 09:34:59</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>4310</v>
+        <v>2601</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -6765,14 +6765,14 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M83" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O83" t="n">
         <v>0</v>
@@ -6782,7 +6782,7 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2024-09-16 00:00:00</t>
         </is>
       </c>
       <c r="R83" s="1" t="n">
@@ -6792,46 +6792,46 @@
         <v>0</v>
       </c>
       <c r="T83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>250819</v>
+        <v>245623</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>34.5</v>
+        <v>32</v>
       </c>
       <c r="D84" t="n">
-        <v>155.0363636363636</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-05-12 13:35:27</t>
+          <t>2025-06-10 09:34:59</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-05-12 14:09:57</t>
+          <t>2025-06-10 10:06:59</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-05-12 14:09:57</t>
+          <t>2025-06-10 10:06:59</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2025-05-13 08:44:59</t>
+          <t>2025-06-11 08:19:05</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>8527</v>
+        <v>26419</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -6840,14 +6840,14 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M84" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O84" t="n">
         <v>0</v>
@@ -6857,7 +6857,7 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R84" s="1" t="n">
@@ -6872,41 +6872,41 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>251466</v>
+        <v>243335</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>36.5</v>
+        <v>19</v>
       </c>
       <c r="D85" t="n">
-        <v>101.2181818181818</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-05-13 08:44:59</t>
+          <t>2025-06-11 08:19:05</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-05-13 09:21:29</t>
+          <t>2025-06-11 08:38:05</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-05-13 09:21:29</t>
+          <t>2025-06-11 08:38:05</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-05-13 11:02:42</t>
+          <t>2025-06-12 08:22:55</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>5567</v>
+        <v>33004</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -6915,14 +6915,14 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M85" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O85" t="n">
         <v>0</v>
@@ -6932,7 +6932,7 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R85" s="1" t="n">
@@ -6947,41 +6947,41 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>251465</v>
+        <v>251750</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>32.5</v>
+        <v>17</v>
       </c>
       <c r="D86" t="n">
-        <v>113.2</v>
+        <v>54.80281690140845</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-05-13 11:02:42</t>
+          <t>2025-06-12 08:22:55</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-05-13 11:35:12</t>
+          <t>2025-06-12 08:39:55</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-05-13 11:35:12</t>
+          <t>2025-06-12 08:39:55</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2025-05-13 13:28:24</t>
+          <t>2025-06-12 09:34:43</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>6226</v>
+        <v>3891</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -6990,14 +6990,14 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M86" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O86" t="n">
         <v>0</v>
@@ -7007,7 +7007,7 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R86" s="1" t="n">
@@ -7022,41 +7022,41 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>251520</v>
+        <v>251987</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>40.5</v>
+        <v>36</v>
       </c>
       <c r="D87" t="n">
-        <v>297.0909090909091</v>
+        <v>2965.154929577465</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-05-13 13:28:24</t>
+          <t>2025-06-12 09:34:43</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-05-13 14:08:54</t>
+          <t>2025-06-12 10:10:43</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-05-13 14:08:54</t>
+          <t>2025-06-12 10:10:43</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2025-05-14 11:06:00</t>
+          <t>2025-06-20 11:35:53</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>16340</v>
+        <v>210526</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -7065,14 +7065,14 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M87" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O87" t="n">
         <v>0</v>
@@ -7082,7 +7082,7 @@
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-09-01 00:00:00</t>
         </is>
       </c>
       <c r="R87" s="1" t="n">

--- a/PS-VRP/Dati_output/insert_inter_post.xlsx
+++ b/PS-VRP/Dati_output/insert_inter_post.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T87"/>
+  <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,41 +515,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251396</v>
+        <v>245623</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>37.08196721311475</v>
+        <v>382.8840579710145</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-09 07:46:00</t>
+          <t>2025-05-12 07:30:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-09 07:46:00</t>
+          <t>2025-05-12 07:30:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-09 08:23:04</t>
+          <t>2025-05-12 13:52:53</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>2262</v>
+        <v>26419</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,78 +558,70 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
-        <v>70</v>
-      </c>
-      <c r="N2" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-0.5250651041666666</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>-2.349362477233796</v>
-      </c>
-      <c r="T2" t="n">
-        <v>7</v>
+        <v>-107.5783917069213</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251164</v>
+        <v>251416</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>163.9344262295082</v>
+        <v>162.6376811594203</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-09 08:23:04</t>
+          <t>2025-05-12 13:52:53</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-09 08:48:04</t>
+          <t>2025-05-12 14:22:53</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-09 08:48:04</t>
+          <t>2025-05-12 14:22:53</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-09 11:32:00</t>
+          <t>2025-05-13 09:05:31</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>10000</v>
+        <v>11222</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -642,74 +634,69 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
       </c>
       <c r="N3" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-1.471584467118056</v>
-      </c>
-      <c r="S3" s="1" t="n">
-        <v>-2.480566939895833</v>
-      </c>
-      <c r="T3" t="n">
-        <v>4</v>
+        <v>-0.3788345410648148</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251742</v>
+        <v>251557</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>134.8524590163935</v>
+        <v>97.17391304347827</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-09 11:32:00</t>
+          <t>2025-05-13 09:05:31</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-09 12:01:00</t>
+          <t>2025-05-13 09:30:31</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-09 12:01:00</t>
+          <t>2025-05-13 09:30:31</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-09 14:15:52</t>
+          <t>2025-05-13 11:07:41</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>8226</v>
+        <v>6705</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -722,21 +709,16 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
       </c>
-      <c r="N4" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O4" t="n">
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -744,52 +726,49 @@
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-1.406147540983796</v>
-      </c>
-      <c r="S4" s="1" t="n">
-        <v>-2.594353369768518</v>
-      </c>
-      <c r="T4" t="n">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251283</v>
+        <v>245089</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D5" t="n">
-        <v>12.36065573770492</v>
+        <v>1777.753623188406</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-09 14:15:52</t>
+          <t>2025-05-13 11:07:41</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-09 14:44:52</t>
+          <t>2025-05-13 11:47:41</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-09 14:44:52</t>
+          <t>2025-05-13 11:47:41</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-09 14:57:13</t>
+          <t>2025-05-19 09:25:26</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>754</v>
+        <v>122665</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -798,14 +777,14 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -815,56 +794,53 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-03-18 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
+      <c r="S5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251464</v>
+        <v>251987</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D6" t="n">
-        <v>117.2622950819672</v>
+        <v>3051.101449275362</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-09 14:57:13</t>
+          <t>2025-05-19 09:25:26</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-12 07:26:13</t>
+          <t>2025-05-19 10:00:26</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-12 07:26:13</t>
+          <t>2025-05-19 10:00:26</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-12 09:23:29</t>
+          <t>2025-05-27 12:51:33</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>7153</v>
+        <v>210526</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -873,14 +849,14 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -890,56 +866,53 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-09-01 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
+      <c r="S6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251467</v>
+        <v>251229</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>102.0655737704918</v>
+        <v>271.5797101449276</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-12 09:23:29</t>
+          <t>2025-05-27 12:51:33</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-12 09:52:29</t>
+          <t>2025-05-27 13:21:33</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-12 09:52:29</t>
+          <t>2025-05-27 13:21:33</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-12 11:34:33</t>
+          <t>2025-05-28 09:53:07</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>6226</v>
+        <v>18739</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -948,73 +921,77 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
-      <c r="O7" t="n">
-        <v>0</v>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>39723</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
+        <v>-13.4118961352662</v>
+      </c>
+      <c r="S7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251260</v>
+        <v>251164</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>153.5901639344262</v>
+        <v>144.9275362318841</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:34:33</t>
+          <t>2025-05-28 09:53:07</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-12 12:07:33</t>
+          <t>2025-05-28 10:18:07</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-12 12:07:33</t>
+          <t>2025-05-28 10:18:07</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-12 14:41:08</t>
+          <t>2025-05-28 12:43:03</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>9369</v>
+        <v>10000</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1023,7 +1000,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -1032,64 +1009,66 @@
       <c r="M8" t="n">
         <v>70</v>
       </c>
-      <c r="O8" t="n">
-        <v>0</v>
+      <c r="N8" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1</v>
+        <v>-21.52990136876157</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251249</v>
+        <v>250641</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>78</v>
+        <v>74.14492753623189</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-12 14:41:08</t>
+          <t>2025-05-28 12:43:03</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-13 07:06:08</t>
+          <t>2025-05-28 13:08:03</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-13 07:06:08</t>
+          <t>2025-05-28 13:08:03</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-13 08:24:08</t>
+          <t>2025-05-28 14:22:12</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>4758</v>
+        <v>5116</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1098,7 +1077,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -1115,56 +1094,53 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1</v>
+        <v>-30.59875201288195</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251391</v>
+        <v>251061</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>96.14754098360656</v>
+        <v>347.7826086956522</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-28 14:22:12</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-05-28 14:47:12</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-05-28 14:47:12</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-08 09:11:08</t>
+          <t>2025-05-29 12:34:59</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>5865</v>
+        <v>23997</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1173,78 +1149,70 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
       </c>
-      <c r="N10" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O10" t="n">
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-0.4377821180555556</v>
-      </c>
-      <c r="S10" s="1" t="n">
-        <v>-1.382741347905093</v>
-      </c>
-      <c r="T10" t="n">
-        <v>7</v>
+        <v>-24.52429549114584</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251547</v>
+        <v>251651</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D11" t="n">
-        <v>215.2295081967213</v>
+        <v>659.5774647887324</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-08 09:11:08</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-08 09:36:08</t>
+          <t>2025-05-08 07:21:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-08 09:36:08</t>
+          <t>2025-05-08 07:21:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-08 13:11:22</t>
+          <t>2025-05-09 10:20:34</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>13129</v>
+        <v>46830</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1253,78 +1221,73 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
+        <v>5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>76</v>
+      </c>
+      <c r="N11" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>2025-05-12 00:00:00</t>
+        </is>
+      </c>
+      <c r="R11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
         <v>4</v>
-      </c>
-      <c r="M11" t="n">
-        <v>70</v>
-      </c>
-      <c r="N11" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P11" t="n">
-        <v>39749</v>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>2025-05-06 00:00:00</t>
-        </is>
-      </c>
-      <c r="R11" s="1" t="n">
-        <v>-1.443691314548611</v>
-      </c>
-      <c r="S11" s="1" t="n">
-        <v>-1.549567395266204</v>
-      </c>
-      <c r="T11" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251455</v>
+        <v>251340</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" t="n">
-        <v>86.8360655737705</v>
+        <v>461.9718309859155</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-08 13:11:22</t>
+          <t>2025-05-09 10:20:34</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-08 13:31:22</t>
+          <t>2025-05-09 10:41:34</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-08 13:31:22</t>
+          <t>2025-05-09 10:41:34</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-08 14:58:12</t>
+          <t>2025-05-12 10:23:32</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>5297</v>
+        <v>32800</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1333,78 +1296,70 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
+        <v>2</v>
+      </c>
+      <c r="M12" t="n">
+        <v>76</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>2025-04-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="R12" s="1" t="n">
+        <v>-14.43302034428241</v>
+      </c>
+      <c r="S12" t="n">
         <v>4</v>
-      </c>
-      <c r="M12" t="n">
-        <v>70</v>
-      </c>
-      <c r="N12" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P12" t="n">
-        <v>39749</v>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>2025-04-15 00:00:00</t>
-        </is>
-      </c>
-      <c r="R12" s="1" t="n">
-        <v>-0.3623372395833334</v>
-      </c>
-      <c r="S12" s="1" t="n">
-        <v>-1.623759107465278</v>
-      </c>
-      <c r="T12" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251561</v>
+        <v>250759</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>89.09836065573771</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-08 14:58:12</t>
+          <t>2025-05-12 10:23:32</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-09 07:23:12</t>
+          <t>2025-05-12 10:42:32</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-09 07:23:12</t>
+          <t>2025-05-12 10:42:32</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-09 08:52:18</t>
+          <t>2025-05-12 12:40:49</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>5435</v>
+        <v>8398</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1413,34 +1368,36 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>70</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N13" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>8</v>
+        <v>-4.528354851331018</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1449,33 +1406,33 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>112.9344262295082</v>
+        <v>97.02816901408451</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-09 08:52:18</t>
+          <t>2025-05-12 12:40:49</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-09 09:17:18</t>
+          <t>2025-05-12 13:10:49</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-09 09:17:18</t>
+          <t>2025-05-12 13:10:49</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-09 11:10:14</t>
+          <t>2025-05-12 14:47:51</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1509,52 +1466,49 @@
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
+        <v>-5.616568857592593</v>
+      </c>
+      <c r="S14" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251846</v>
+        <v>251485</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D15" t="n">
-        <v>186.7540983606557</v>
+        <v>67.71830985915493</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-09 11:10:14</t>
+          <t>2025-05-12 14:47:51</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-09 11:40:14</t>
+          <t>2025-05-13 07:04:51</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-09 11:40:14</t>
+          <t>2025-05-13 07:04:51</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-09 14:47:00</t>
+          <t>2025-05-13 08:12:34</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>11392</v>
+        <v>4808</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1567,7 +1521,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
@@ -1580,56 +1534,53 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>7</v>
+        <v>-20.34206768387732</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251424</v>
+        <v>251743</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>158.3934426229508</v>
+        <v>151.7746478873239</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-09 14:47:00</t>
+          <t>2025-05-13 08:12:34</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-12 07:17:00</t>
+          <t>2025-05-13 08:29:34</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-12 07:17:00</t>
+          <t>2025-05-13 08:29:34</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-12 09:55:23</t>
+          <t>2025-05-13 11:01:21</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>9662</v>
+        <v>10776</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1655,56 +1606,53 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S16" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
+      <c r="S16" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>244355</v>
+        <v>251397</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D17" t="n">
-        <v>70.65573770491804</v>
+        <v>76.54929577464789</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-12 09:55:23</t>
+          <t>2025-05-13 11:01:21</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-12 10:15:23</t>
+          <t>2025-05-13 11:18:21</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-12 10:15:23</t>
+          <t>2025-05-13 11:18:21</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-12 11:26:02</t>
+          <t>2025-05-13 12:34:54</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>4310</v>
+        <v>5435</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1717,7 +1665,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
@@ -1730,56 +1678,53 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
+        <v>-15.52423708920139</v>
+      </c>
+      <c r="S17" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251485</v>
+        <v>251562</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D18" t="n">
-        <v>78.81967213114754</v>
+        <v>114.6760563380282</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-12 11:26:02</t>
+          <t>2025-05-13 12:34:54</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-12 11:51:02</t>
+          <t>2025-05-13 12:51:54</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-12 11:51:02</t>
+          <t>2025-05-13 12:51:54</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-12 13:09:52</t>
+          <t>2025-05-13 14:46:34</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>4808</v>
+        <v>8142</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1792,7 +1737,7 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
@@ -1805,56 +1750,53 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2</v>
+      <c r="S18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251761</v>
+        <v>235572</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D19" t="n">
-        <v>217.6885245901639</v>
+        <v>140.2535211267606</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-12 13:09:52</t>
+          <t>2025-05-13 14:46:34</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-12 13:34:52</t>
+          <t>2025-05-14 07:07:34</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-12 13:34:52</t>
+          <t>2025-05-14 07:07:34</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-13 09:12:33</t>
+          <t>2025-05-14 09:27:49</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>13279</v>
+        <v>9958</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1863,11 +1805,11 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
@@ -1880,56 +1822,53 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-19 00:00:00</t>
+          <t>2023-11-06 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2</v>
+        <v>-555.3943270735532</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251374</v>
+        <v>251561</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D20" t="n">
-        <v>448.2459016393443</v>
+        <v>76.54929577464789</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-13 09:12:33</t>
+          <t>2025-05-14 09:27:49</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-13 09:47:33</t>
+          <t>2025-05-14 09:42:49</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-13 09:47:33</t>
+          <t>2025-05-14 09:42:49</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-14 09:15:48</t>
+          <t>2025-05-14 10:59:22</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>27343</v>
+        <v>5435</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1938,11 +1877,11 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
@@ -1955,56 +1894,53 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1</v>
+        <v>-7.457902973391204</v>
+      </c>
+      <c r="S20" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251840</v>
+        <v>251564</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D21" t="n">
-        <v>82.81159420289855</v>
+        <v>38.26760563380282</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-14 10:59:22</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-12 07:40:00</t>
+          <t>2025-05-14 11:18:22</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-12 07:40:00</t>
+          <t>2025-05-14 11:18:22</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-12 09:02:48</t>
+          <t>2025-05-14 11:56:38</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>5714</v>
+        <v>2717</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2017,74 +1953,66 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M21" t="n">
         <v>70</v>
       </c>
-      <c r="N21" t="n">
-        <v>39758</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O21" t="n">
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>39758</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-0.4885587431712963</v>
-      </c>
-      <c r="S21" s="1" t="n">
-        <v>-4.376952495972223</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1</v>
+        <v>-7.497672143969907</v>
+      </c>
+      <c r="S21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>250641</v>
+        <v>251626</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D22" t="n">
-        <v>74.14492753623189</v>
+        <v>176.056338028169</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-12 09:02:48</t>
+          <t>2025-05-14 11:56:38</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-12 09:32:48</t>
+          <t>2025-05-14 12:11:38</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-12 09:32:48</t>
+          <t>2025-05-14 12:11:38</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-12 10:46:57</t>
+          <t>2025-05-15 07:07:42</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>5116</v>
+        <v>12500</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2097,7 +2025,7 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
         <v>70</v>
@@ -2110,56 +2038,53 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2</v>
+        <v>-15.29701682315972</v>
+      </c>
+      <c r="S22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251229</v>
+        <v>245350</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D23" t="n">
-        <v>271.5797101449276</v>
+        <v>393.943661971831</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-12 10:46:57</t>
+          <t>2025-05-15 07:07:42</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-12 11:11:57</t>
+          <t>2025-05-15 07:36:42</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-12 11:11:57</t>
+          <t>2025-05-15 07:36:42</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-13 07:43:32</t>
+          <t>2025-05-15 14:10:38</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>18739</v>
+        <v>27970</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2168,80 +2093,70 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
       </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O23" t="n">
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>39723</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1</v>
+      <c r="S23" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251246</v>
+        <v>251346</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D24" t="n">
-        <v>173.9420289855072</v>
+        <v>54.35211267605634</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-13 07:43:32</t>
+          <t>2025-05-15 14:10:38</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-13 08:08:32</t>
+          <t>2025-05-15 14:29:38</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-13 08:08:32</t>
+          <t>2025-05-15 14:29:38</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-13 11:02:28</t>
+          <t>2025-05-16 07:24:00</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>12002</v>
+        <v>3859</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2250,11 +2165,11 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
@@ -2267,56 +2182,53 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1</v>
+        <v>-18.30833333333333</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251580</v>
+        <v>251761</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D25" t="n">
-        <v>103.6666666666667</v>
+        <v>187.0281690140845</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-13 11:02:28</t>
+          <t>2025-05-16 07:24:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-13 11:37:28</t>
+          <t>2025-05-16 07:47:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-13 11:37:28</t>
+          <t>2025-05-16 07:47:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-13 13:21:08</t>
+          <t>2025-05-16 10:54:01</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>7153</v>
+        <v>13279</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2342,56 +2254,53 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-19 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1</v>
+      <c r="S25" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251252</v>
+        <v>251465</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D26" t="n">
-        <v>218.5942028985507</v>
+        <v>87.69014084507042</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-13 13:21:08</t>
+          <t>2025-05-16 10:54:01</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-13 13:56:08</t>
+          <t>2025-05-16 11:13:01</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-13 13:56:08</t>
+          <t>2025-05-16 11:13:01</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-14 09:34:44</t>
+          <t>2025-05-16 12:40:43</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>15083</v>
+        <v>6226</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2400,11 +2309,11 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M26" t="n">
         <v>70</v>
@@ -2417,56 +2326,53 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
+        <v>-7.528276604074073</v>
+      </c>
+      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251227</v>
+        <v>251467</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>87.69014084507042</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-16 12:40:43</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-07 07:34:00</t>
+          <t>2025-05-16 12:55:43</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-07 07:34:00</t>
+          <t>2025-05-16 12:55:43</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-07 07:34:00</t>
+          <t>2025-05-16 14:23:24</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>6226</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2475,78 +2381,70 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M27" t="n">
-        <v>76</v>
-      </c>
-      <c r="N27" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-2.523611111111111</v>
-      </c>
-      <c r="S27" s="1" t="n">
-        <v>-1.315277777777778</v>
-      </c>
-      <c r="T27" t="n">
+        <v>-7.599589201874999</v>
+      </c>
+      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>244023</v>
+        <v>251260</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D28" t="n">
-        <v>15.578125</v>
+        <v>131.9577464788732</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-07 07:34:00</t>
+          <t>2025-05-16 14:23:24</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-07 08:08:00</t>
+          <t>2025-05-16 14:46:24</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-07 08:08:00</t>
+          <t>2025-05-16 14:46:24</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-07 08:23:34</t>
+          <t>2025-05-19 08:58:21</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>997</v>
+        <v>9369</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2555,7 +2453,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
@@ -2572,56 +2470,53 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S28" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
+      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>250923</v>
+        <v>251795</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D29" t="n">
-        <v>109.46875</v>
+        <v>263.9295774647887</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-07 08:23:34</t>
+          <t>2025-05-19 08:58:21</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-07 08:55:34</t>
+          <t>2025-05-19 09:13:21</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-07 08:55:34</t>
+          <t>2025-05-19 09:13:21</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-07 10:45:02</t>
+          <t>2025-05-19 13:37:17</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>7006</v>
+        <v>18739</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2630,97 +2525,91 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M29" t="n">
-        <v>76</v>
-      </c>
-      <c r="N29" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-06-19 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-1.446853298611111</v>
-      </c>
-      <c r="S29" s="1" t="n">
-        <v>-0.44794921875</v>
-      </c>
-      <c r="T29" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251395</v>
+        <v>251706</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>35.34375</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-07 10:45:02</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-07 11:17:02</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-07 11:17:02</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-07 11:52:23</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>2262</v>
+        <v>3200</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>70</v>
-      </c>
-      <c r="N30" t="n">
-        <v>39749</v>
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2728,60 +2617,57 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>39749</v>
+        <v>39764</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-0.4741319444444445</v>
-      </c>
-      <c r="S30" s="1" t="n">
-        <v>-0.4947157118055556</v>
-      </c>
-      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251371</v>
+        <v>251546</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>91.07042253521126</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-07 11:52:23</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-07 12:11:23</t>
+          <t>2025-05-09 07:52:00</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-07 12:11:23</t>
+          <t>2025-05-09 07:52:00</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-07 12:11:23</t>
+          <t>2025-05-09 09:23:04</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>6466</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2794,76 +2680,66 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M31" t="n">
         <v>70</v>
       </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O31" t="n">
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>39666</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-13.48732638888889</v>
-      </c>
-      <c r="S31" s="1" t="n">
-        <v>-13.50791015625</v>
-      </c>
-      <c r="T31" t="n">
+        <v>-9.391021126759259</v>
+      </c>
+      <c r="S31" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251548</v>
+        <v>245275</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="D32" t="n">
-        <v>206.90625</v>
+        <v>342.1690140845071</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-07 12:11:23</t>
+          <t>2025-05-09 09:23:04</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-07 12:26:23</t>
+          <t>2025-05-09 10:43:04</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-07 12:26:23</t>
+          <t>2025-05-09 10:43:04</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-08 07:53:17</t>
+          <t>2025-05-12 08:25:14</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>13242</v>
+        <v>24294</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2872,78 +2748,70 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="M32" t="n">
         <v>70</v>
       </c>
-      <c r="N32" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O32" t="n">
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>-1.348611111111111</v>
-      </c>
-      <c r="S32" s="1" t="n">
-        <v>-1.328678385416667</v>
-      </c>
-      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251477</v>
+        <v>251050</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="D33" t="n">
-        <v>468.734375</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-08 07:53:17</t>
+          <t>2025-05-12 08:25:14</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-08 08:25:17</t>
+          <t>2025-05-12 11:00:14</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-08 08:25:17</t>
+          <t>2025-05-12 11:00:14</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-09 08:14:01</t>
+          <t>2025-05-12 11:00:14</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>29999</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2952,17 +2820,17 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="M33" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N33" t="n">
-        <v>39760</v>
+        <v>39747</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -2970,60 +2838,57 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>39760</v>
+        <v>39747</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-2.452224392361111</v>
-      </c>
-      <c r="S33" s="1" t="n">
-        <v>-2.343077256944444</v>
-      </c>
-      <c r="T33" t="n">
-        <v>1</v>
+        <v>-4.458499608761574</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>244204</v>
+        <v>251054</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D34" t="n">
-        <v>54.25</v>
+        <v>0</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-09 08:14:01</t>
+          <t>2025-05-12 11:00:14</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-09 08:46:01</t>
+          <t>2025-05-12 11:35:14</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-09 08:46:01</t>
+          <t>2025-05-12 11:35:14</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-09 09:40:16</t>
+          <t>2025-05-12 11:35:14</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>3472</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -3032,73 +2897,75 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M34" t="n">
         <v>70</v>
       </c>
-      <c r="O34" t="n">
-        <v>0</v>
+      <c r="N34" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>4</v>
+        <v>-4.48280516431713</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251564</v>
+        <v>251081</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="D35" t="n">
-        <v>42.453125</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-09 09:40:16</t>
+          <t>2025-05-12 11:35:14</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-09 09:57:16</t>
+          <t>2025-05-12 13:40:14</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-09 09:57:16</t>
+          <t>2025-05-12 13:40:14</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-09 10:39:44</t>
+          <t>2025-05-12 14:22:39</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>2717</v>
+        <v>3012</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -3107,73 +2974,77 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
       </c>
-      <c r="O35" t="n">
-        <v>0</v>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>39750</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>8</v>
+        <v>-19.59907081377315</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>251546</v>
+        <v>251109</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="D36" t="n">
-        <v>101.03125</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-09 10:39:44</t>
+          <t>2025-05-12 14:22:39</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-09 10:58:44</t>
+          <t>2025-05-13 07:17:39</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-09 10:58:44</t>
+          <t>2025-05-13 07:17:39</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-09 12:39:45</t>
+          <t>2025-05-13 11:44:15</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>6466</v>
+        <v>18928</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3182,11 +3053,11 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="M36" t="n">
         <v>70</v>
@@ -3199,56 +3070,53 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" t="n">
-        <v>7</v>
+        <v>-25.48906494523148</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>245275</v>
+        <v>251846</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D37" t="n">
-        <v>379.59375</v>
+        <v>186.7540983606557</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-09 12:39:45</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-09 13:12:45</t>
+          <t>2025-05-08 07:20:00</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-09 13:12:45</t>
+          <t>2025-05-08 07:20:00</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-12 11:32:21</t>
+          <t>2025-05-08 10:26:45</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>24294</v>
+        <v>11392</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3257,11 +3125,11 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="M37" t="n">
         <v>70</v>
@@ -3274,56 +3142,53 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
+      <c r="S37" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251743</v>
+        <v>251462</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D38" t="n">
-        <v>168.375</v>
+        <v>102.0655737704918</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-12 11:32:21</t>
+          <t>2025-05-08 10:26:45</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-12 12:07:21</t>
+          <t>2025-05-08 10:46:45</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-12 12:07:21</t>
+          <t>2025-05-08 10:46:45</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-12 14:55:44</t>
+          <t>2025-05-08 12:28:49</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>10776</v>
+        <v>6226</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3336,7 +3201,7 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
@@ -3349,56 +3214,53 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S38" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>4</v>
+      <c r="S38" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>251245</v>
+        <v>251594</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D39" t="n">
-        <v>11.78125</v>
+        <v>106</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-12 14:55:44</t>
+          <t>2025-05-08 12:28:49</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-13 07:14:44</t>
+          <t>2025-05-08 12:58:49</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-13 07:14:44</t>
+          <t>2025-05-08 12:58:49</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-13 07:26:30</t>
+          <t>2025-05-08 14:44:49</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>754</v>
+        <v>6466</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3407,11 +3269,11 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M39" t="n">
         <v>70</v>
@@ -3424,56 +3286,53 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" t="n">
-        <v>1</v>
+        <v>-1.614458105648148</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251463</v>
+        <v>251371</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D40" t="n">
-        <v>108.859375</v>
+        <v>0</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-13 07:26:30</t>
+          <t>2025-05-08 14:44:49</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-13 07:45:30</t>
+          <t>2025-05-09 07:04:49</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-13 07:45:30</t>
+          <t>2025-05-09 07:04:49</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-13 09:34:22</t>
+          <t>2025-05-09 07:04:49</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>6967</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3491,64 +3350,68 @@
       <c r="M40" t="n">
         <v>70</v>
       </c>
-      <c r="O40" t="n">
-        <v>0</v>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>39666</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>1</v>
+        <v>-15.2950136612037</v>
+      </c>
+      <c r="S40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>251462</v>
+        <v>251742</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D41" t="n">
-        <v>97.28125</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-13 09:34:22</t>
+          <t>2025-05-09 07:04:49</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-13 09:53:22</t>
+          <t>2025-05-09 07:24:49</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-13 09:53:22</t>
+          <t>2025-05-09 07:24:49</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-13 11:30:39</t>
+          <t>2025-05-09 09:39:40</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>6226</v>
+        <v>8226</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3561,69 +3424,71 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M41" t="n">
         <v>70</v>
       </c>
-      <c r="O41" t="n">
-        <v>0</v>
+      <c r="N41" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>1</v>
+        <v>-2.402550091076389</v>
+      </c>
+      <c r="S41" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251562</v>
+        <v>251283</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D42" t="n">
-        <v>127.21875</v>
+        <v>12.36065573770492</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-13 11:30:39</t>
+          <t>2025-05-09 09:39:40</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-13 11:45:39</t>
+          <t>2025-05-09 10:09:40</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-13 11:45:39</t>
+          <t>2025-05-09 10:09:40</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-13 13:52:52</t>
+          <t>2025-05-09 10:22:01</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>8142</v>
+        <v>754</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3632,11 +3497,11 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M42" t="n">
         <v>70</v>
@@ -3649,56 +3514,53 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-03-18 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" t="n">
+        <v>-52.43196721311343</v>
+      </c>
+      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251251</v>
+        <v>251505</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D43" t="n">
-        <v>247.8125</v>
+        <v>233.6885245901639</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-13 13:52:52</t>
+          <t>2025-05-09 10:22:01</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-13 14:15:52</t>
+          <t>2025-05-09 10:47:01</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-13 14:15:52</t>
+          <t>2025-05-09 10:47:01</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-14 10:23:41</t>
+          <t>2025-05-09 14:40:43</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>15860</v>
+        <v>14255</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3707,11 +3569,11 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M43" t="n">
         <v>70</v>
@@ -3724,56 +3586,53 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>1</v>
+        <v>-4.611612021863426</v>
+      </c>
+      <c r="S43" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251050</v>
+        <v>251840</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-09 14:40:43</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-12 07:00:43</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-12 07:00:43</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-12 08:34:23</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>5714</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3782,17 +3641,17 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="M44" t="n">
         <v>70</v>
       </c>
       <c r="N44" t="n">
-        <v>39747</v>
+        <v>39758</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -3800,60 +3659,57 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>39747</v>
+        <v>39758</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-1.442361111111111</v>
-      </c>
-      <c r="S44" s="1" t="n">
-        <v>-1.442361111111111</v>
-      </c>
-      <c r="T44" t="n">
-        <v>2</v>
+        <v>-4.357217668483797</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>251054</v>
+        <v>251373</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>280.2295081967213</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-12 08:34:23</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-12 08:54:23</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-12 08:54:23</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-12 13:34:37</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>17094</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3862,78 +3718,70 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="M45" t="n">
         <v>70</v>
       </c>
-      <c r="N45" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O45" t="n">
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>-1.466666666666667</v>
-      </c>
-      <c r="S45" s="1" t="n">
-        <v>-1.466666666666667</v>
-      </c>
-      <c r="T45" t="n">
-        <v>2</v>
+        <v>-14.56571038251157</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>251081</v>
+        <v>251475</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="D46" t="n">
-        <v>42.42253521126761</v>
+        <v>142.3114754098361</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-12 13:34:37</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-12 13:59:37</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-12 13:59:37</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-13 08:21:56</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>3012</v>
+        <v>8681</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3942,80 +3790,70 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="M46" t="n">
         <v>70</v>
       </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O46" t="n">
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>39750</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>-16.58293231612268</v>
-      </c>
-      <c r="S46" s="1" t="n">
-        <v>-16.58293231612268</v>
-      </c>
-      <c r="T46" t="n">
-        <v>2</v>
+        <v>-13.34856557377315</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>251346</v>
+        <v>251809</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="D47" t="n">
-        <v>54.35211267605634</v>
+        <v>142.3114754098361</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-13 08:21:56</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-12 07:34:25</t>
+          <t>2025-05-13 08:41:56</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-05-12 07:34:25</t>
+          <t>2025-05-13 08:41:56</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-05-12 08:28:46</t>
+          <t>2025-05-13 11:04:14</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>3859</v>
+        <v>8681</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -4028,7 +3866,7 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M47" t="n">
         <v>70</v>
@@ -4041,56 +3879,53 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S47" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T47" t="n">
-        <v>2</v>
+      <c r="S47" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>251519</v>
+        <v>251249</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="D48" t="n">
-        <v>185.5633802816901</v>
+        <v>78</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-12 08:28:46</t>
+          <t>2025-05-13 11:04:14</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-12 09:33:46</t>
+          <t>2025-05-13 11:34:14</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-12 09:33:46</t>
+          <t>2025-05-13 11:34:14</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-05-12 12:39:20</t>
+          <t>2025-05-13 12:52:14</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>13175</v>
+        <v>4758</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -4099,11 +3934,11 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M48" t="n">
         <v>70</v>
@@ -4116,56 +3951,53 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S48" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T48" t="n">
-        <v>7</v>
+      <c r="S48" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>251594</v>
+        <v>244023</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D49" t="n">
-        <v>91.07042253521126</v>
+        <v>16.34426229508197</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-12 12:39:20</t>
+          <t>2025-05-13 12:52:14</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-12 13:24:20</t>
+          <t>2025-05-13 13:12:14</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-12 13:24:20</t>
+          <t>2025-05-13 13:12:14</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-12 14:55:24</t>
+          <t>2025-05-13 13:28:35</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>6466</v>
+        <v>997</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4178,7 +4010,7 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M49" t="n">
         <v>70</v>
@@ -4191,56 +4023,53 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S49" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T49" t="n">
-        <v>4</v>
+        <v>-225.5615209471759</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251109</v>
+        <v>251247</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="D50" t="n">
-        <v>266.5915492957747</v>
+        <v>441.5409836065574</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-12 14:55:24</t>
+          <t>2025-05-13 13:28:35</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-13 08:30:24</t>
+          <t>2025-05-13 13:48:35</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-13 08:30:24</t>
+          <t>2025-05-13 13:48:35</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-13 12:57:00</t>
+          <t>2025-05-14 13:10:07</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>18928</v>
+        <v>26934</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4249,11 +4078,11 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="M50" t="n">
         <v>70</v>
@@ -4266,56 +4095,53 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S50" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T50" t="n">
-        <v>2</v>
+        <v>-5.548702185787037</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251520</v>
+        <v>251251</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="D51" t="n">
-        <v>230.1408450704225</v>
+        <v>260</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-13 12:57:00</t>
+          <t>2025-05-14 13:10:07</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-13 14:17:00</t>
+          <t>2025-05-14 13:30:07</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-13 14:17:00</t>
+          <t>2025-05-14 13:30:07</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-14 10:07:08</t>
+          <t>2025-05-15 09:50:07</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>16340</v>
+        <v>15860</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4324,11 +4150,11 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M51" t="n">
         <v>70</v>
@@ -4341,56 +4167,53 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S51" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T51" t="n">
+      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>251284</v>
+        <v>251225</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>40.5</v>
+        <v>19</v>
       </c>
       <c r="D52" t="n">
-        <v>297.0909090909091</v>
+        <v>0</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>16340</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4399,14 +4222,14 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M52" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N52" t="n">
         <v>39747</v>
@@ -4421,56 +4244,53 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-1.526104797974537</v>
-      </c>
-      <c r="S52" s="1" t="n">
-        <v>-1.526104797974537</v>
-      </c>
-      <c r="T52" t="n">
+        <v>-0.5131944444444444</v>
+      </c>
+      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>245350</v>
+        <v>251227</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>36.5</v>
+        <v>15</v>
       </c>
       <c r="D53" t="n">
-        <v>508.5454545454546</v>
+        <v>0</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-09 13:14:05</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-09 13:14:05</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-12 13:42:38</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>27970</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4479,73 +4299,75 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M53" t="n">
-        <v>70</v>
-      </c>
-      <c r="O53" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N53" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P53" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S53" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T53" t="n">
-        <v>7</v>
+        <v>-2.523611111111111</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>251505</v>
+        <v>243569</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>40.5</v>
+        <v>17</v>
       </c>
       <c r="D54" t="n">
-        <v>259.1818181818182</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-12 13:42:38</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-12 14:23:08</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-12 14:23:08</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-13 10:42:19</t>
+          <t>2025-05-08 13:27:38</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>14255</v>
+        <v>2601</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4554,14 +4376,14 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M54" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
@@ -4571,56 +4393,53 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2024-09-16 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S54" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T54" t="n">
-        <v>7</v>
+        <v>-234.5608568075116</v>
+      </c>
+      <c r="S54" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>251397</v>
+        <v>250670</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>34.5</v>
+        <v>17</v>
       </c>
       <c r="D55" t="n">
-        <v>98.81818181818181</v>
+        <v>22.01408450704225</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-13 10:42:19</t>
+          <t>2025-05-08 13:27:38</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-13 11:16:49</t>
+          <t>2025-05-08 13:44:38</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-13 11:16:49</t>
+          <t>2025-05-08 13:44:38</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-13 12:55:38</t>
+          <t>2025-05-08 14:06:38</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>5435</v>
+        <v>1563</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4629,14 +4448,14 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M55" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -4646,56 +4465,53 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S55" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T55" t="n">
-        <v>4</v>
+        <v>-3.587949921747685</v>
+      </c>
+      <c r="S55" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>244354</v>
+        <v>243335</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>32.5</v>
+        <v>30</v>
       </c>
       <c r="D56" t="n">
-        <v>78.36363636363636</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-13 12:55:38</t>
+          <t>2025-05-08 14:06:38</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-13 13:28:08</t>
+          <t>2025-05-08 14:36:38</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-13 13:28:08</t>
+          <t>2025-05-08 14:36:38</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-13 14:46:30</t>
+          <t>2025-05-09 14:21:29</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>4310</v>
+        <v>33004</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4704,14 +4520,14 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
         <v>4</v>
       </c>
       <c r="M56" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -4721,56 +4537,53 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S56" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T56" t="n">
-        <v>4</v>
+        <v>-280.5982589984375</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>250819</v>
+        <v>251750</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>34.5</v>
+        <v>17</v>
       </c>
       <c r="D57" t="n">
-        <v>155.0363636363636</v>
+        <v>54.80281690140845</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-13 14:46:30</t>
+          <t>2025-05-09 14:21:29</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-14 07:21:00</t>
+          <t>2025-05-09 14:38:29</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-14 07:21:00</t>
+          <t>2025-05-09 14:38:29</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-14 09:56:02</t>
+          <t>2025-05-12 07:33:17</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>8527</v>
+        <v>3891</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4779,14 +4592,14 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M57" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -4796,56 +4609,53 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S57" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T57" t="n">
-        <v>2</v>
+      <c r="S57" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251247</v>
+        <v>251424</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>30.5</v>
+        <v>19</v>
       </c>
       <c r="D58" t="n">
-        <v>489.7090909090909</v>
+        <v>150.96875</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-14 09:56:02</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-14 10:26:32</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-14 10:26:32</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-15 10:36:14</t>
+          <t>2025-05-07 09:49:58</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>26934</v>
+        <v>9662</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4854,11 +4664,11 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M58" t="n">
         <v>70</v>
@@ -4871,56 +4681,53 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S58" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T58" t="n">
-        <v>1</v>
+        <v>-9.409700520833333</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>251795</v>
+        <v>250819</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>30.5</v>
+        <v>19</v>
       </c>
       <c r="D59" t="n">
-        <v>340.7090909090909</v>
+        <v>133.234375</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-15 10:36:14</t>
+          <t>2025-05-07 09:49:58</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-15 11:06:44</t>
+          <t>2025-05-07 10:08:58</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-15 11:06:44</t>
+          <t>2025-05-07 10:08:58</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-16 08:47:27</t>
+          <t>2025-05-07 12:22:12</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>18739</v>
+        <v>8527</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4929,7 +4736,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -4946,99 +4753,86 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2025-06-19 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S59" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T59" t="n">
-        <v>1</v>
+        <v>-19.51541883680556</v>
+      </c>
+      <c r="S59" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>251706</v>
+        <v>251246</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D60" t="n">
-        <v>50.79365079365079</v>
+        <v>187.53125</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-07 12:22:12</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-07 12:37:12</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-07 12:37:12</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-08 07:44:44</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>3200</v>
+        <v>12002</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>39764</v>
+        <v>0</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S60" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T60" t="n">
-        <v>7</v>
+      <c r="S60" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -5047,33 +4841,33 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D61" t="n">
-        <v>126.7464788732394</v>
+        <v>140.609375</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 07:44:44</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-08 07:32:00</t>
+          <t>2025-05-08 08:05:44</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-08 07:32:00</t>
+          <t>2025-05-08 08:05:44</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-08 09:38:44</t>
+          <t>2025-05-08 10:26:20</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -5112,52 +4906,49 @@
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>-3.300510204085648</v>
-      </c>
-      <c r="S61" s="1" t="n">
-        <v>-2.401907276990741</v>
-      </c>
-      <c r="T61" t="n">
+        <v>-2.4349609375</v>
+      </c>
+      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>251225</v>
+        <v>251519</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>205.859375</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-08 09:38:44</t>
+          <t>2025-05-08 10:26:20</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-08 10:10:44</t>
+          <t>2025-05-08 10:43:20</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-08 10:10:44</t>
+          <t>2025-05-08 10:43:20</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-08 10:10:44</t>
+          <t>2025-05-08 14:09:12</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>13175</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -5166,78 +4957,70 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M62" t="n">
-        <v>76</v>
-      </c>
-      <c r="N62" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>-0.5131944444444444</v>
-      </c>
-      <c r="S62" s="1" t="n">
-        <v>-0.4241294992129629</v>
-      </c>
-      <c r="T62" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S62" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>250759</v>
+        <v>244355</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D63" t="n">
-        <v>118.2816901408451</v>
+        <v>67.34375</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-08 10:10:44</t>
+          <t>2025-05-08 14:09:12</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-08 10:25:44</t>
+          <t>2025-05-08 14:28:12</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-08 10:25:44</t>
+          <t>2025-05-08 14:28:12</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-08 12:24:01</t>
+          <t>2025-05-09 07:35:32</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>8398</v>
+        <v>4310</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5246,78 +5029,70 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L63" t="n">
         <v>4</v>
       </c>
       <c r="M63" t="n">
-        <v>76</v>
-      </c>
-      <c r="N63" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
       </c>
       <c r="P63" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>-0.5466647104861111</v>
-      </c>
-      <c r="S63" s="1" t="n">
-        <v>-0.5166862284837963</v>
-      </c>
-      <c r="T63" t="n">
-        <v>1</v>
+        <v>-1.316351996527778</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>251782</v>
+        <v>251547</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D64" t="n">
-        <v>170.0422535211268</v>
+        <v>205.140625</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-08 12:24:01</t>
+          <t>2025-05-09 07:35:32</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-08 12:41:01</t>
+          <t>2025-05-09 07:50:32</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-08 12:41:01</t>
+          <t>2025-05-09 07:50:32</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-09 07:31:04</t>
+          <t>2025-05-09 11:15:41</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>12073</v>
+        <v>13129</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5326,17 +5101,17 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M64" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N64" t="n">
-        <v>39754</v>
+        <v>39749</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -5344,60 +5119,57 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>39754</v>
+        <v>39749</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>-0.3201682316087963</v>
-      </c>
-      <c r="S64" s="1" t="n">
-        <v>-0.3132433489814815</v>
-      </c>
-      <c r="T64" t="n">
-        <v>1</v>
+        <v>-2.469227430555556</v>
+      </c>
+      <c r="S64" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>235572</v>
+        <v>251455</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D65" t="n">
-        <v>140.2535211267606</v>
+        <v>82.765625</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-09 07:31:04</t>
+          <t>2025-05-09 11:15:41</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-09 08:05:04</t>
+          <t>2025-05-09 11:30:41</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-09 08:05:04</t>
+          <t>2025-05-09 11:30:41</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-09 10:25:19</t>
+          <t>2025-05-09 12:53:27</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>9958</v>
+        <v>5297</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5406,73 +5178,75 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M65" t="n">
         <v>70</v>
       </c>
-      <c r="O65" t="n">
-        <v>0</v>
+      <c r="N65" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P65" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2023-11-06 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S65" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T65" t="n">
-        <v>4</v>
+        <v>-2.537120225694444</v>
+      </c>
+      <c r="S65" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251475</v>
+        <v>251391</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C66" t="n">
         <v>17</v>
       </c>
       <c r="D66" t="n">
-        <v>122.2676056338028</v>
+        <v>91.640625</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-09 10:25:19</t>
+          <t>2025-05-09 12:53:27</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-09 10:42:19</t>
+          <t>2025-05-09 13:10:27</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-09 10:42:19</t>
+          <t>2025-05-09 13:10:27</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-09 12:44:35</t>
+          <t>2025-05-09 14:42:05</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>8681</v>
+        <v>5865</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5485,69 +5259,71 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M66" t="n">
         <v>70</v>
       </c>
-      <c r="O66" t="n">
-        <v>0</v>
+      <c r="N66" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P66" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S66" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T66" t="n">
-        <v>4</v>
+        <v>-2.612565104166667</v>
+      </c>
+      <c r="S66" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>251809</v>
+        <v>251395</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D67" t="n">
-        <v>122.2676056338028</v>
+        <v>35.34375</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-09 12:44:35</t>
+          <t>2025-05-09 14:42:05</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-09 12:59:35</t>
+          <t>2025-05-09 14:59:05</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-09 12:59:35</t>
+          <t>2025-05-09 14:59:05</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-12 07:01:51</t>
+          <t>2025-05-12 07:34:26</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>8681</v>
+        <v>2262</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5560,69 +5336,71 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M67" t="n">
         <v>70</v>
       </c>
-      <c r="O67" t="n">
-        <v>0</v>
+      <c r="N67" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P67" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S67" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T67" t="n">
-        <v>4</v>
+        <v>-5.315581597222222</v>
+      </c>
+      <c r="S67" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>251259</v>
+        <v>251396</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D68" t="n">
-        <v>70.4225352112676</v>
+        <v>35.34375</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-12 07:01:51</t>
+          <t>2025-05-12 07:34:26</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-12 07:26:51</t>
+          <t>2025-05-12 07:49:26</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-12 07:26:51</t>
+          <t>2025-05-12 07:49:26</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-12 08:37:16</t>
+          <t>2025-05-12 08:24:46</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>5000</v>
+        <v>2262</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5635,69 +5413,71 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M68" t="n">
         <v>70</v>
       </c>
-      <c r="O68" t="n">
-        <v>0</v>
+      <c r="N68" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P68" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S68" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T68" t="n">
-        <v>2</v>
+        <v>-5.350542534722222</v>
+      </c>
+      <c r="S68" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>251466</v>
+        <v>251548</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D69" t="n">
-        <v>78.40845070422536</v>
+        <v>206.90625</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-12 08:37:16</t>
+          <t>2025-05-12 08:24:46</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-12 09:04:16</t>
+          <t>2025-05-12 08:43:46</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-12 09:04:16</t>
+          <t>2025-05-12 08:43:46</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-12 10:22:41</t>
+          <t>2025-05-12 12:10:41</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>5567</v>
+        <v>13242</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5710,69 +5490,71 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M69" t="n">
         <v>70</v>
       </c>
-      <c r="O69" t="n">
-        <v>0</v>
+      <c r="N69" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P69" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S69" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T69" t="n">
-        <v>1</v>
+        <v>-5.507421875</v>
+      </c>
+      <c r="S69" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>251465</v>
+        <v>245090</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D70" t="n">
-        <v>87.69014084507042</v>
+        <v>8073.71875</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-12 10:22:41</t>
+          <t>2025-05-12 12:10:41</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-12 10:39:41</t>
+          <t>2025-05-12 12:42:41</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-12 10:39:41</t>
+          <t>2025-05-12 12:42:41</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-12 12:07:22</t>
+          <t>2025-06-04 11:16:24</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>6226</v>
+        <v>516718</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5781,14 +5563,14 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M70" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
@@ -5798,56 +5580,53 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S70" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T70" t="n">
+      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>251557</v>
+        <v>250894</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C71" t="n">
         <v>15</v>
       </c>
       <c r="D71" t="n">
-        <v>94.43661971830986</v>
+        <v>691.59375</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-12 12:07:22</t>
+          <t>2025-06-04 11:16:24</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-12 12:22:22</t>
+          <t>2025-06-04 11:31:24</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-12 12:22:22</t>
+          <t>2025-06-04 11:31:24</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-12 13:56:49</t>
+          <t>2025-06-06 07:03:00</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>6705</v>
+        <v>44262</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5856,14 +5635,17 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M71" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N71" t="n">
+        <v>39755</v>
       </c>
       <c r="O71" t="n">
         <v>0</v>
@@ -5873,56 +5655,53 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S71" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T71" t="n">
-        <v>1</v>
+        <v>-24.29375</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>251062</v>
+        <v>250923</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D72" t="n">
-        <v>318.6478873239437</v>
+        <v>109.46875</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-12 13:56:49</t>
+          <t>2025-06-06 07:03:00</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-12 14:19:49</t>
+          <t>2025-06-06 07:18:00</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-12 14:19:49</t>
+          <t>2025-06-06 07:18:00</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-13 11:38:27</t>
+          <t>2025-06-06 09:07:28</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>22624</v>
+        <v>7006</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5931,73 +5710,75 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M72" t="n">
-        <v>70</v>
-      </c>
-      <c r="O72" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N72" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P72" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S72" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T72" t="n">
-        <v>1</v>
+        <v>-30.38018663194444</v>
+      </c>
+      <c r="S72" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>251416</v>
+        <v>251477</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D73" t="n">
-        <v>229.0204081632653</v>
+        <v>468.734375</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-06-06 09:07:28</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-06-06 09:26:28</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-06-06 09:26:28</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-08 11:24:01</t>
+          <t>2025-06-09 09:15:12</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>11222</v>
+        <v>29999</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -6006,76 +5787,75 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M73" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N73" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O73" t="n">
-        <v>0</v>
+        <v>39760</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P73" t="n">
-        <v>0</v>
+        <v>39760</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S73" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T73" t="n">
-        <v>2</v>
+        <v>-33.38555772569445</v>
+      </c>
+      <c r="S73" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>251626</v>
+        <v>251782</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D74" t="n">
-        <v>255.1020408163265</v>
+        <v>188.640625</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-08 11:24:01</t>
+          <t>2025-06-09 09:15:12</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-08 12:04:01</t>
+          <t>2025-06-09 09:30:12</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-08 12:04:01</t>
+          <t>2025-06-09 09:30:12</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-09 08:19:07</t>
+          <t>2025-06-09 12:38:50</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>12500</v>
+        <v>12073</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -6084,73 +5864,75 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L74" t="n">
         <v>3</v>
       </c>
       <c r="M74" t="n">
-        <v>70</v>
-      </c>
-      <c r="O74" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N74" t="n">
+        <v>39754</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P74" t="n">
-        <v>0</v>
+        <v>39754</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S74" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T74" t="n">
-        <v>7</v>
+        <v>-31.52697482638889</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>251373</v>
+        <v>244354</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>45</v>
+        <v>34.5</v>
       </c>
       <c r="D75" t="n">
-        <v>348.8571428571428</v>
+        <v>78.36363636363636</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-09 08:19:07</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-09 09:04:07</t>
+          <t>2025-05-09 07:34:30</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-09 09:04:07</t>
+          <t>2025-05-09 07:34:30</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-09 14:52:58</t>
+          <t>2025-05-09 08:52:51</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>17094</v>
+        <v>4310</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -6163,7 +5945,7 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M75" t="n">
         <v>70</v>
@@ -6176,56 +5958,53 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S75" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T75" t="n">
+        <v>-1.370044191921296</v>
+      </c>
+      <c r="S75" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>250670</v>
+        <v>251245</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>42</v>
+        <v>34.5</v>
       </c>
       <c r="D76" t="n">
-        <v>31.89795918367347</v>
+        <v>13.70909090909091</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-05-09 14:52:58</t>
+          <t>2025-05-09 08:52:51</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-05-12 07:34:58</t>
+          <t>2025-05-09 09:27:21</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-05-12 07:34:58</t>
+          <t>2025-05-09 09:27:21</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-05-12 08:06:52</t>
+          <t>2025-05-09 09:41:04</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>1563</v>
+        <v>754</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -6234,14 +6013,14 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M76" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O76" t="n">
         <v>0</v>
@@ -6251,56 +6030,53 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R76" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S76" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T76" t="n">
-        <v>2</v>
+        <v>-42.40352272726852</v>
+      </c>
+      <c r="S76" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>251061</v>
+        <v>251520</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>47</v>
+        <v>32.5</v>
       </c>
       <c r="D77" t="n">
-        <v>489.734693877551</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-05-12 08:06:52</t>
+          <t>2025-05-09 09:41:04</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-05-12 08:53:52</t>
+          <t>2025-05-09 10:13:34</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-05-12 08:53:52</t>
+          <t>2025-05-09 10:13:34</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-05-13 09:03:36</t>
+          <t>2025-05-12 07:10:39</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>23997</v>
+        <v>16340</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -6309,11 +6085,11 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M77" t="n">
         <v>70</v>
@@ -6326,56 +6102,53 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R77" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S77" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T77" t="n">
+        <v>-0.2990719696990741</v>
+      </c>
+      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>250894</v>
+        <v>251284</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>21</v>
+        <v>30.5</v>
       </c>
       <c r="D78" t="n">
-        <v>623.4084507042254</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-12 07:10:39</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-05-08 12:21:00</t>
+          <t>2025-05-12 07:41:09</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-05-08 12:21:00</t>
+          <t>2025-05-12 07:41:09</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-05-09 14:44:24</t>
+          <t>2025-05-12 12:38:15</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>44262</v>
+        <v>16340</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -6384,76 +6157,75 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M78" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N78" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O78" t="n">
-        <v>0</v>
+        <v>39747</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P78" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R78" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S78" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T78" t="n">
-        <v>4</v>
+        <v>-4.5265656565625</v>
+      </c>
+      <c r="S78" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>251651</v>
+        <v>251062</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>15</v>
+        <v>32.5</v>
       </c>
       <c r="D79" t="n">
-        <v>659.5774647887324</v>
+        <v>411.3454545454546</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-05-09 14:44:24</t>
+          <t>2025-05-12 12:38:15</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-05-09 14:59:24</t>
+          <t>2025-05-12 13:10:45</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-05-09 14:59:24</t>
+          <t>2025-05-12 13:10:45</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-05-13 09:58:59</t>
+          <t>2025-05-13 12:02:06</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>46830</v>
+        <v>22624</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -6462,17 +6234,14 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M79" t="n">
-        <v>76</v>
-      </c>
-      <c r="N79" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O79" t="n">
         <v>0</v>
@@ -6482,56 +6251,53 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R79" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S79" s="1" t="n">
-        <v>-0.4159624413194444</v>
-      </c>
-      <c r="T79" t="n">
-        <v>4</v>
+      <c r="S79" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>245089</v>
+        <v>244204</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D80" t="n">
-        <v>1727.676056338028</v>
+        <v>56.91803278688525</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-05-13 09:58:59</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:59</t>
+          <t>2025-05-09 07:42:00</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:59</t>
+          <t>2025-05-09 07:42:00</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-05-19 07:03:39</t>
+          <t>2025-05-09 08:38:55</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>122665</v>
+        <v>3472</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -6540,14 +6306,14 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L80" t="n">
         <v>4</v>
       </c>
       <c r="M80" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O80" t="n">
         <v>0</v>
@@ -6557,56 +6323,53 @@
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R80" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S80" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T80" t="n">
-        <v>1</v>
+        <v>-1.360359744988426</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>245090</v>
+        <v>251466</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D81" t="n">
-        <v>7277.718309859155</v>
+        <v>91.26229508196721</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-05-19 07:03:39</t>
+          <t>2025-05-09 08:38:55</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-05-19 07:20:39</t>
+          <t>2025-05-09 09:05:55</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-05-19 07:20:39</t>
+          <t>2025-05-09 09:05:55</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-06-09 08:38:22</t>
+          <t>2025-05-09 10:37:10</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>516718</v>
+        <v>5567</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -6615,14 +6378,14 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M81" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O81" t="n">
         <v>0</v>
@@ -6632,56 +6395,53 @@
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R81" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S81" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T81" t="n">
+        <v>-0.4424863387962963</v>
+      </c>
+      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>251340</v>
+        <v>251464</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D82" t="n">
-        <v>461.9718309859155</v>
+        <v>117.2622950819672</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-06-09 08:38:22</t>
+          <t>2025-05-09 10:37:10</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-06-09 08:59:22</t>
+          <t>2025-05-09 11:04:10</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-06-09 08:59:22</t>
+          <t>2025-05-09 11:04:10</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2025-06-10 08:41:21</t>
+          <t>2025-05-09 13:01:26</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>32800</v>
+        <v>7153</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -6690,14 +6450,14 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M82" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O82" t="n">
         <v>0</v>
@@ -6707,56 +6467,53 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R82" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S82" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T82" t="n">
-        <v>4</v>
+        <v>-0.5426684881597222</v>
+      </c>
+      <c r="S82" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>243569</v>
+        <v>251580</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D83" t="n">
-        <v>36.63380281690141</v>
+        <v>117.2622950819672</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-06-10 08:41:21</t>
+          <t>2025-05-09 13:01:26</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-06-10 08:58:21</t>
+          <t>2025-05-09 13:26:26</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-06-10 08:58:21</t>
+          <t>2025-05-09 13:26:26</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2025-06-10 09:34:59</t>
+          <t>2025-05-12 07:23:42</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>2601</v>
+        <v>7153</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -6765,14 +6522,14 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M83" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O83" t="n">
         <v>0</v>
@@ -6782,56 +6539,53 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R83" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S83" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T83" t="n">
-        <v>2</v>
+      <c r="S83" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>245623</v>
+        <v>251252</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D84" t="n">
-        <v>372.0985915492957</v>
+        <v>247.2622950819672</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-06-10 09:34:59</t>
+          <t>2025-05-12 07:23:42</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-06-10 10:06:59</t>
+          <t>2025-05-12 07:52:42</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-06-10 10:06:59</t>
+          <t>2025-05-12 07:52:42</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2025-06-11 08:19:05</t>
+          <t>2025-05-12 11:59:58</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>26419</v>
+        <v>15083</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -6840,14 +6594,14 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M84" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O84" t="n">
         <v>0</v>
@@ -6857,56 +6611,53 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R84" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S84" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T84" t="n">
-        <v>2</v>
+      <c r="S84" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>243335</v>
+        <v>251259</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="D85" t="n">
-        <v>464.8450704225352</v>
+        <v>102.0408163265306</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-06-11 08:19:05</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-06-11 08:38:05</t>
+          <t>2025-05-08 08:10:00</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-06-11 08:38:05</t>
+          <t>2025-05-08 08:10:00</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-06-12 08:22:55</t>
+          <t>2025-05-08 09:52:02</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>33004</v>
+        <v>5000</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -6915,14 +6666,14 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M85" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O85" t="n">
         <v>0</v>
@@ -6932,56 +6683,53 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R85" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S85" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T85" t="n">
-        <v>1</v>
+        <v>-2.411139455787037</v>
+      </c>
+      <c r="S85" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>251750</v>
+        <v>251463</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="D86" t="n">
-        <v>54.80281690140845</v>
+        <v>142.1836734693877</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-06-12 08:22:55</t>
+          <t>2025-05-08 09:52:02</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-06-12 08:39:55</t>
+          <t>2025-05-08 10:52:02</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-06-12 08:39:55</t>
+          <t>2025-05-08 10:52:02</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2025-06-12 09:34:43</t>
+          <t>2025-05-08 13:14:13</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>3891</v>
+        <v>6967</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -6990,14 +6738,14 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M86" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O86" t="n">
         <v>0</v>
@@ -7007,56 +6755,53 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R86" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S86" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T86" t="n">
+      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>251987</v>
+        <v>251374</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D87" t="n">
-        <v>2965.154929577465</v>
+        <v>558.0204081632653</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-06-12 09:34:43</t>
+          <t>2025-05-08 13:14:13</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-06-12 10:10:43</t>
+          <t>2025-05-08 14:04:13</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-06-12 10:10:43</t>
+          <t>2025-05-08 14:04:13</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2025-06-20 11:35:53</t>
+          <t>2025-05-12 07:22:14</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>210526</v>
+        <v>27343</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -7065,14 +6810,14 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M87" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O87" t="n">
         <v>0</v>
@@ -7082,16 +6827,13 @@
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>2025-09-01 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R87" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S87" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T87" t="n">
+      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>

--- a/PS-VRP/Dati_output/insert_inter_post.xlsx
+++ b/PS-VRP/Dati_output/insert_inter_post.xlsx
@@ -515,7 +515,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>245623</v>
+        <v>251782</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -526,7 +526,7 @@
         <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>382.8840579710145</v>
+        <v>174.9710144927536</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -545,11 +545,11 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-12 13:52:53</t>
+          <t>2025-05-12 10:24:58</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>26419</v>
+        <v>12073</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,36 +558,41 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>152</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N2" t="n">
+        <v>39754</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>39754</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-107.5783917069213</v>
+        <v>-3.434007648958333</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251416</v>
+        <v>250670</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -598,30 +603,30 @@
         <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>162.6376811594203</v>
+        <v>22.65217391304348</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-12 13:52:53</t>
+          <t>2025-05-12 10:24:58</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-12 14:22:53</t>
+          <t>2025-05-12 10:54:58</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-12 14:22:53</t>
+          <t>2025-05-12 10:54:58</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-13 09:05:31</t>
+          <t>2025-05-12 11:17:37</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>11222</v>
+        <v>1563</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -630,17 +635,14 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>70</v>
-      </c>
-      <c r="N3" t="n">
-        <v>39755</v>
+        <v>76</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -650,11 +652,11 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.3788345410648148</v>
+        <v>-7.470571658611112</v>
       </c>
       <c r="S3" t="n">
         <v>2</v>
@@ -662,7 +664,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251557</v>
+        <v>251561</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -670,33 +672,33 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
-        <v>97.17391304347827</v>
+        <v>78.76811594202898</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-13 09:05:31</t>
+          <t>2025-05-12 11:17:37</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-13 09:30:31</t>
+          <t>2025-05-12 11:52:37</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-13 09:30:31</t>
+          <t>2025-05-12 11:52:37</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-13 11:07:41</t>
+          <t>2025-05-12 13:11:23</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>6705</v>
+        <v>5435</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -709,7 +711,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
@@ -722,19 +724,19 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0</v>
+        <v>-5.5495772946875</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>245089</v>
+        <v>251245</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -742,33 +744,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>1777.753623188406</v>
+        <v>10.92753623188406</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-13 11:07:41</t>
+          <t>2025-05-12 13:11:23</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-13 11:47:41</t>
+          <t>2025-05-12 13:41:23</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-13 11:47:41</t>
+          <t>2025-05-12 13:41:23</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-19 09:25:26</t>
+          <t>2025-05-12 13:52:19</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>122665</v>
+        <v>754</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -777,14 +779,14 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -794,11 +796,11 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>0</v>
+        <v>-45.57799919484954</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -814,29 +816,29 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
         <v>3051.101449275362</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-19 09:25:26</t>
+          <t>2025-05-12 13:52:19</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-19 10:00:26</t>
+          <t>2025-05-12 14:22:19</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-19 10:00:26</t>
+          <t>2025-05-12 14:22:19</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-27 12:51:33</t>
+          <t>2025-05-21 09:13:25</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -893,22 +895,22 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-27 12:51:33</t>
+          <t>2025-05-21 09:13:25</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-27 13:21:33</t>
+          <t>2025-05-21 09:43:25</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-27 13:21:33</t>
+          <t>2025-05-21 09:43:25</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-28 09:53:07</t>
+          <t>2025-05-21 14:15:00</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -949,7 +951,7 @@
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-13.4118961352662</v>
+        <v>-6.59375</v>
       </c>
       <c r="S7" t="n">
         <v>1</v>
@@ -957,7 +959,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251164</v>
+        <v>235572</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -965,33 +967,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>144.9275362318841</v>
+        <v>144.3188405797102</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-28 09:53:07</t>
+          <t>2025-05-21 14:15:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-28 10:18:07</t>
+          <t>2025-05-21 14:45:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-28 10:18:07</t>
+          <t>2025-05-21 14:45:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-28 12:43:03</t>
+          <t>2025-05-22 09:09:19</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>10000</v>
+        <v>9958</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1000,33 +1002,28 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
-      <c r="N8" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O8" t="n">
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2023-11-06 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-21.52990136876157</v>
+        <v>-563.3814714170717</v>
       </c>
       <c r="S8" t="n">
         <v>4</v>
@@ -1034,7 +1031,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>250641</v>
+        <v>251164</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1042,33 +1039,33 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>74.14492753623189</v>
+        <v>144.9275362318841</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-28 12:43:03</t>
+          <t>2025-05-22 09:09:19</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-28 13:08:03</t>
+          <t>2025-05-22 09:39:19</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-28 13:08:03</t>
+          <t>2025-05-22 09:39:19</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-28 14:22:12</t>
+          <t>2025-05-22 12:04:14</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>5116</v>
+        <v>10000</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1086,27 +1083,32 @@
       <c r="M9" t="n">
         <v>70</v>
       </c>
-      <c r="O9" t="n">
-        <v>0</v>
+      <c r="N9" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-30.59875201288195</v>
+        <v>-15.50294887278935</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251061</v>
+        <v>244023</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1117,30 +1119,30 @@
         <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>347.7826086956522</v>
+        <v>14.44927536231884</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-28 14:22:12</t>
+          <t>2025-05-22 12:04:14</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-28 14:47:12</t>
+          <t>2025-05-22 12:29:14</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-28 14:47:12</t>
+          <t>2025-05-22 12:29:14</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-29 12:34:59</t>
+          <t>2025-05-22 12:43:41</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>23997</v>
+        <v>997</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1149,7 +1151,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -1166,11 +1168,11 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-24.52429549114584</v>
+        <v>-234.5303442028935</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>
@@ -1178,41 +1180,41 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251651</v>
+        <v>251061</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>659.5774647887324</v>
+        <v>347.7826086956522</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-22 12:43:41</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:21:00</t>
+          <t>2025-05-22 13:08:41</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:21:00</t>
+          <t>2025-05-22 13:08:41</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-09 10:20:34</t>
+          <t>2025-05-23 10:56:28</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>46830</v>
+        <v>23997</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1221,17 +1223,14 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M11" t="n">
-        <v>76</v>
-      </c>
-      <c r="N11" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1241,53 +1240,53 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>0</v>
+        <v>-18.45588768115741</v>
       </c>
       <c r="S11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251340</v>
+        <v>251251</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D12" t="n">
-        <v>461.9718309859155</v>
+        <v>229.8550724637681</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-09 10:20:34</t>
+          <t>2025-05-23 10:56:28</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-09 10:41:34</t>
+          <t>2025-05-23 11:21:28</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-09 10:41:34</t>
+          <t>2025-05-23 11:21:28</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-12 10:23:32</t>
+          <t>2025-05-26 07:11:20</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>32800</v>
+        <v>15860</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1296,14 +1295,14 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M12" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1313,72 +1312,74 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-14.43302034428241</v>
+        <v>-3.299537037037037</v>
       </c>
       <c r="S12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>250759</v>
+        <v>251706</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>118.2816901408451</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-12 10:23:32</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-12 10:42:32</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-12 10:42:32</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-12 12:40:49</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>8398</v>
+        <v>3200</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>76</v>
-      </c>
-      <c r="N13" t="n">
-        <v>39747</v>
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1386,57 +1387,57 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39747</v>
+        <v>39764</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-4.528354851331018</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251566</v>
+        <v>251546</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D14" t="n">
-        <v>97.02816901408451</v>
+        <v>91.07042253521126</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-12 12:40:49</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-12 13:10:49</t>
+          <t>2025-05-09 07:52:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-12 13:10:49</t>
+          <t>2025-05-09 07:52:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-12 14:47:51</t>
+          <t>2025-05-09 09:23:04</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>6889</v>
+        <v>6466</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1449,7 +1450,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
@@ -1462,53 +1463,53 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-5.616568857592593</v>
+        <v>-9.391021126759259</v>
       </c>
       <c r="S14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251485</v>
+        <v>251259</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="D15" t="n">
-        <v>67.71830985915493</v>
+        <v>70.4225352112676</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-12 14:47:51</t>
+          <t>2025-05-09 09:23:04</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-13 07:04:51</t>
+          <t>2025-05-09 10:18:04</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-13 07:04:51</t>
+          <t>2025-05-09 10:18:04</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-13 08:12:34</t>
+          <t>2025-05-09 11:28:29</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>4808</v>
+        <v>5000</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1521,7 +1522,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
@@ -1534,11 +1535,11 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-20.34206768387732</v>
+        <v>-3.478120109548611</v>
       </c>
       <c r="S15" t="n">
         <v>2</v>
@@ -1546,41 +1547,41 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251743</v>
+        <v>251284</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D16" t="n">
-        <v>151.7746478873239</v>
+        <v>230.1408450704225</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-13 08:12:34</t>
+          <t>2025-05-09 11:28:29</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-13 08:29:34</t>
+          <t>2025-05-09 12:13:29</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-13 08:29:34</t>
+          <t>2025-05-09 12:13:29</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-13 11:01:21</t>
+          <t>2025-05-12 08:03:38</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>10776</v>
+        <v>16340</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1589,70 +1590,75 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
       </c>
-      <c r="O16" t="n">
-        <v>0</v>
+      <c r="N16" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>0</v>
+        <v>-4.335856807511574</v>
       </c>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251397</v>
+        <v>245275</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="D17" t="n">
-        <v>76.54929577464789</v>
+        <v>342.1690140845071</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-13 11:01:21</t>
+          <t>2025-05-12 08:03:38</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-13 11:18:21</t>
+          <t>2025-05-12 09:13:38</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-13 11:18:21</t>
+          <t>2025-05-12 09:13:38</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-13 12:34:54</t>
+          <t>2025-05-12 14:55:48</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>5435</v>
+        <v>24294</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1661,11 +1667,11 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
@@ -1678,53 +1684,53 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-15.52423708920139</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251562</v>
+        <v>251050</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="D18" t="n">
-        <v>114.6760563380282</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-13 12:34:54</t>
+          <t>2025-05-12 14:55:48</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-13 12:51:54</t>
+          <t>2025-05-13 09:30:48</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-13 12:51:54</t>
+          <t>2025-05-13 09:30:48</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-13 14:46:34</t>
+          <t>2025-05-13 09:30:48</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>8142</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1733,70 +1739,75 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
       </c>
-      <c r="O18" t="n">
-        <v>0</v>
+      <c r="N18" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>0</v>
+        <v>-5.396390845069444</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>235572</v>
+        <v>251054</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D19" t="n">
-        <v>140.2535211267606</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-13 14:46:34</t>
+          <t>2025-05-13 09:30:48</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-14 07:07:34</t>
+          <t>2025-05-13 10:05:48</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-14 07:07:34</t>
+          <t>2025-05-13 10:05:48</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-14 09:27:49</t>
+          <t>2025-05-13 10:05:48</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>9958</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1805,70 +1816,75 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
       </c>
-      <c r="O19" t="n">
-        <v>0</v>
+      <c r="N19" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2023-11-06 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-555.3943270735532</v>
+        <v>-5.420696400625</v>
       </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251561</v>
+        <v>251081</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="D20" t="n">
-        <v>76.54929577464789</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-14 09:27:49</t>
+          <t>2025-05-13 10:05:48</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-14 09:42:49</t>
+          <t>2025-05-13 12:10:48</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-14 09:42:49</t>
+          <t>2025-05-13 12:10:48</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-14 10:59:22</t>
+          <t>2025-05-13 12:53:13</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>5435</v>
+        <v>3012</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1877,70 +1893,77 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
       </c>
-      <c r="O20" t="n">
-        <v>0</v>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>39750</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-7.457902973391204</v>
+        <v>-20.53696205008102</v>
       </c>
       <c r="S20" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251564</v>
+        <v>251109</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="D21" t="n">
-        <v>38.26760563380282</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-14 10:59:22</t>
+          <t>2025-05-13 12:53:13</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-14 11:18:22</t>
+          <t>2025-05-13 13:48:13</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-14 11:18:22</t>
+          <t>2025-05-13 13:48:13</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-14 11:56:38</t>
+          <t>2025-05-14 10:14:49</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2717</v>
+        <v>18928</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1949,11 +1972,11 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="M21" t="n">
         <v>70</v>
@@ -1966,53 +1989,53 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-7.497672143969907</v>
+        <v>-26.42695618153935</v>
       </c>
       <c r="S21" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251626</v>
+        <v>251467</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>15</v>
+        <v>30.5</v>
       </c>
       <c r="D22" t="n">
-        <v>176.056338028169</v>
+        <v>113.2</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-14 11:56:38</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-14 12:11:38</t>
+          <t>2025-05-09 07:30:30</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-14 12:11:38</t>
+          <t>2025-05-09 07:30:30</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-15 07:07:42</t>
+          <t>2025-05-09 09:23:42</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>12500</v>
+        <v>6226</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2025,7 +2048,7 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M22" t="n">
         <v>70</v>
@@ -2038,53 +2061,53 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-15.29701682315972</v>
+        <v>-0.3914583333333334</v>
       </c>
       <c r="S22" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>245350</v>
+        <v>251252</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>29</v>
+        <v>38.5</v>
       </c>
       <c r="D23" t="n">
-        <v>393.943661971831</v>
+        <v>274.2363636363636</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-15 07:07:42</t>
+          <t>2025-05-09 09:23:42</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-15 07:36:42</t>
+          <t>2025-05-09 10:02:12</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-15 07:36:42</t>
+          <t>2025-05-09 10:02:12</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-15 14:10:38</t>
+          <t>2025-05-09 14:36:26</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>27970</v>
+        <v>15083</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2093,11 +2116,11 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
@@ -2110,53 +2133,53 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251346</v>
+        <v>251062</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>19</v>
+        <v>30.5</v>
       </c>
       <c r="D24" t="n">
-        <v>54.35211267605634</v>
+        <v>411.3454545454546</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-15 14:10:38</t>
+          <t>2025-05-09 14:36:26</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-15 14:29:38</t>
+          <t>2025-05-12 07:06:56</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-15 14:29:38</t>
+          <t>2025-05-12 07:06:56</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-16 07:24:00</t>
+          <t>2025-05-12 13:58:16</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>3859</v>
+        <v>22624</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2165,11 +2188,11 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
@@ -2182,53 +2205,53 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-18.30833333333333</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251761</v>
+        <v>251283</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>23</v>
+        <v>30.5</v>
       </c>
       <c r="D25" t="n">
-        <v>187.0281690140845</v>
+        <v>13.70909090909091</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-16 07:24:00</t>
+          <t>2025-05-12 13:58:16</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-16 07:47:00</t>
+          <t>2025-05-12 14:28:46</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-16 07:47:00</t>
+          <t>2025-05-12 14:28:46</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-16 10:54:01</t>
+          <t>2025-05-12 14:42:29</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>13279</v>
+        <v>754</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2237,11 +2260,11 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M25" t="n">
         <v>70</v>
@@ -2254,53 +2277,53 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-05-19 00:00:00</t>
+          <t>2025-03-18 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>0</v>
+        <v>-55.61284090908564</v>
       </c>
       <c r="S25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251465</v>
+        <v>251246</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>19</v>
+        <v>30.5</v>
       </c>
       <c r="D26" t="n">
-        <v>87.69014084507042</v>
+        <v>218.2181818181818</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-16 10:54:01</t>
+          <t>2025-05-12 14:42:29</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-16 11:13:01</t>
+          <t>2025-05-13 07:12:59</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-16 11:13:01</t>
+          <t>2025-05-13 07:12:59</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-16 12:40:43</t>
+          <t>2025-05-13 10:51:12</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>6226</v>
+        <v>12002</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2309,11 +2332,11 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M26" t="n">
         <v>70</v>
@@ -2330,7 +2353,7 @@
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-7.528276604074073</v>
+        <v>-4.452228535358796</v>
       </c>
       <c r="S26" t="n">
         <v>1</v>
@@ -2338,41 +2361,41 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251467</v>
+        <v>251520</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>15</v>
+        <v>32.5</v>
       </c>
       <c r="D27" t="n">
-        <v>87.69014084507042</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-16 12:40:43</t>
+          <t>2025-05-13 10:51:12</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-16 12:55:43</t>
+          <t>2025-05-13 11:23:42</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-16 12:55:43</t>
+          <t>2025-05-13 11:23:42</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-16 14:23:24</t>
+          <t>2025-05-14 08:20:48</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>6226</v>
+        <v>16340</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2381,11 +2404,11 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M27" t="n">
         <v>70</v>
@@ -2398,11 +2421,11 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-7.599589201874999</v>
+        <v>-2.347777777777778</v>
       </c>
       <c r="S27" t="n">
         <v>1</v>
@@ -2410,41 +2433,41 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251260</v>
+        <v>251249</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>23</v>
+        <v>32.5</v>
       </c>
       <c r="D28" t="n">
-        <v>131.9577464788732</v>
+        <v>86.50909090909092</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-16 14:23:24</t>
+          <t>2025-05-14 08:20:48</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-16 14:46:24</t>
+          <t>2025-05-14 08:53:18</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-16 14:46:24</t>
+          <t>2025-05-14 08:53:18</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-19 08:58:21</t>
+          <t>2025-05-14 10:19:48</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>9369</v>
+        <v>4758</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2453,7 +2476,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
@@ -2470,7 +2493,7 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
@@ -2482,41 +2505,41 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251795</v>
+        <v>251416</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D29" t="n">
-        <v>263.9295774647887</v>
+        <v>183.9672131147541</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-19 08:58:21</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-19 09:13:21</t>
+          <t>2025-05-08 07:20:00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-19 09:13:21</t>
+          <t>2025-05-08 07:20:00</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-19 13:37:17</t>
+          <t>2025-05-08 10:23:58</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>18739</v>
+        <v>11222</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2525,15 +2548,18 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
       </c>
+      <c r="N29" t="n">
+        <v>39755</v>
+      </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
@@ -2542,132 +2568,125 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-06-19 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251706</v>
+        <v>251564</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D30" t="n">
-        <v>50.79365079365079</v>
+        <v>44.54098360655738</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 10:23:58</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 10:48:58</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 10:48:58</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-08 11:33:30</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>3200</v>
+        <v>2717</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>39764</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>0</v>
+        <v>-1.481602914386574</v>
       </c>
       <c r="S30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251546</v>
+        <v>251626</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="D31" t="n">
-        <v>91.07042253521126</v>
+        <v>204.9180327868852</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 11:33:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:00</t>
+          <t>2025-05-08 11:53:30</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:00</t>
+          <t>2025-05-08 11:53:30</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-09 09:23:04</t>
+          <t>2025-05-09 07:18:25</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>6466</v>
+        <v>12500</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2680,7 +2699,7 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M31" t="n">
         <v>70</v>
@@ -2697,7 +2716,7 @@
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-9.391021126759259</v>
+        <v>-9.304462659375</v>
       </c>
       <c r="S31" t="n">
         <v>7</v>
@@ -2705,41 +2724,41 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>245275</v>
+        <v>251424</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="D32" t="n">
-        <v>342.1690140845071</v>
+        <v>158.3934426229508</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-09 09:23:04</t>
+          <t>2025-05-09 07:18:25</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-09 10:43:04</t>
+          <t>2025-05-09 07:43:25</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-09 10:43:04</t>
+          <t>2025-05-09 07:43:25</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-12 08:25:14</t>
+          <t>2025-05-09 10:21:49</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>24294</v>
+        <v>9662</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2748,11 +2767,11 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M32" t="n">
         <v>70</v>
@@ -2765,49 +2784,49 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>0</v>
+        <v>-11.43181921675926</v>
       </c>
       <c r="S32" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251050</v>
+        <v>251371</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-12 08:25:14</t>
+          <t>2025-05-09 10:21:49</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-12 11:00:14</t>
+          <t>2025-05-09 10:41:49</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-12 11:00:14</t>
+          <t>2025-05-09 10:41:49</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-12 11:00:14</t>
+          <t>2025-05-09 10:41:49</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2820,17 +2839,19 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M33" t="n">
         <v>70</v>
       </c>
-      <c r="N33" t="n">
-        <v>39747</v>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -2838,57 +2859,57 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>39747</v>
+        <v>39666</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-4.458499608761574</v>
+        <v>-15.44570810564815</v>
       </c>
       <c r="S33" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251054</v>
+        <v>251505</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>233.6885245901639</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-12 11:00:14</t>
+          <t>2025-05-09 10:41:49</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-12 11:35:14</t>
+          <t>2025-05-09 11:06:49</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-12 11:35:14</t>
+          <t>2025-05-09 11:06:49</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-12 11:35:14</t>
+          <t>2025-05-12 07:00:30</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>14255</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2897,75 +2918,70 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="M34" t="n">
         <v>70</v>
       </c>
-      <c r="N34" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O34" t="n">
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>-4.48280516431713</v>
+        <v>-7.292019581053241</v>
       </c>
       <c r="S34" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251081</v>
+        <v>251373</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="D35" t="n">
-        <v>42.42253521126761</v>
+        <v>280.2295081967213</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-12 11:35:14</t>
+          <t>2025-05-12 07:00:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-12 13:40:14</t>
+          <t>2025-05-12 07:20:30</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-12 13:40:14</t>
+          <t>2025-05-12 07:20:30</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-12 14:22:39</t>
+          <t>2025-05-12 12:00:44</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>3012</v>
+        <v>17094</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2974,77 +2990,70 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
       </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O35" t="n">
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>39750</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
-        <v>-19.59907081377315</v>
+        <v>-14.50051229508102</v>
       </c>
       <c r="S35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>251109</v>
+        <v>244354</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D36" t="n">
-        <v>266.5915492957747</v>
+        <v>70.65573770491804</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-12 14:22:39</t>
+          <t>2025-05-12 12:00:44</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-13 07:17:39</t>
+          <t>2025-05-12 12:25:44</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-13 07:17:39</t>
+          <t>2025-05-12 12:25:44</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-13 11:44:15</t>
+          <t>2025-05-12 13:36:23</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>18928</v>
+        <v>4310</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3053,11 +3062,11 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="M36" t="n">
         <v>70</v>
@@ -3070,19 +3079,19 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
-        <v>-25.48906494523148</v>
+        <v>-4.566939890706019</v>
       </c>
       <c r="S36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>251846</v>
+        <v>251485</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -3090,33 +3099,33 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D37" t="n">
-        <v>186.7540983606557</v>
+        <v>78.81967213114754</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-12 13:36:23</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-08 07:20:00</t>
+          <t>2025-05-12 14:01:23</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-08 07:20:00</t>
+          <t>2025-05-12 14:01:23</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-08 10:26:45</t>
+          <t>2025-05-13 07:20:12</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>11392</v>
+        <v>4808</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3129,7 +3138,7 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M37" t="n">
         <v>70</v>
@@ -3142,19 +3151,19 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>0</v>
+        <v>-20.30570355190972</v>
       </c>
       <c r="S37" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251462</v>
+        <v>251463</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -3162,33 +3171,33 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D38" t="n">
-        <v>102.0655737704918</v>
+        <v>114.2131147540984</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-08 10:26:45</t>
+          <t>2025-05-13 07:20:12</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-08 10:46:45</t>
+          <t>2025-05-13 07:45:12</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-08 10:46:45</t>
+          <t>2025-05-13 07:45:12</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-08 12:28:49</t>
+          <t>2025-05-13 09:39:25</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>6226</v>
+        <v>6967</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3201,7 +3210,7 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
@@ -3218,7 +3227,7 @@
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>0</v>
+        <v>-4.402379326041667</v>
       </c>
       <c r="S38" t="n">
         <v>1</v>
@@ -3226,7 +3235,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>251594</v>
+        <v>251462</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -3237,30 +3246,30 @@
         <v>30</v>
       </c>
       <c r="D39" t="n">
-        <v>106</v>
+        <v>102.0655737704918</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-08 12:28:49</t>
+          <t>2025-05-13 09:39:25</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-08 12:58:49</t>
+          <t>2025-05-13 10:09:25</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-08 12:58:49</t>
+          <t>2025-05-13 10:09:25</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-08 14:44:49</t>
+          <t>2025-05-13 11:51:29</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>6466</v>
+        <v>6226</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3273,7 +3282,7 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M39" t="n">
         <v>70</v>
@@ -3286,19 +3295,19 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-1.614458105648148</v>
+        <v>-4.494091530057871</v>
       </c>
       <c r="S39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251371</v>
+        <v>251557</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3309,30 +3318,30 @@
         <v>20</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>109.9180327868852</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-08 14:44:49</t>
+          <t>2025-05-13 11:51:29</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-09 07:04:49</t>
+          <t>2025-05-13 12:11:29</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-09 07:04:49</t>
+          <t>2025-05-13 12:11:29</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-09 07:04:49</t>
+          <t>2025-05-13 14:01:24</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>6705</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3345,73 +3354,66 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M40" t="n">
         <v>70</v>
       </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O40" t="n">
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>39666</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-15.2950136612037</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>251742</v>
+        <v>245090</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D41" t="n">
-        <v>134.8524590163935</v>
+        <v>7277.718309859155</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-09 07:04:49</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-09 07:24:49</t>
+          <t>2025-05-08 12:21:00</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-09 07:24:49</t>
+          <t>2025-05-08 12:21:00</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-09 09:39:40</t>
+          <t>2025-05-29 13:38:43</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>8226</v>
+        <v>516718</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3420,75 +3422,70 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M41" t="n">
-        <v>70</v>
-      </c>
-      <c r="N41" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-2.402550091076389</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251283</v>
+        <v>250759</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D42" t="n">
-        <v>12.36065573770492</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-09 09:39:40</t>
+          <t>2025-05-29 13:38:43</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-09 10:09:40</t>
+          <t>2025-05-29 13:55:43</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-09 10:09:40</t>
+          <t>2025-05-29 13:55:43</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-09 10:22:01</t>
+          <t>2025-05-30 07:54:00</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>754</v>
+        <v>8398</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3497,28 +3494,33 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M42" t="n">
-        <v>70</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N42" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-03-18 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-52.43196721311343</v>
+        <v>-22.32916666666667</v>
       </c>
       <c r="S42" t="n">
         <v>1</v>
@@ -3526,41 +3528,41 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251505</v>
+        <v>251477</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D43" t="n">
-        <v>233.6885245901639</v>
+        <v>422.5211267605634</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-09 10:22:01</t>
+          <t>2025-05-30 07:54:00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-09 10:47:01</t>
+          <t>2025-05-30 08:11:00</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-09 10:47:01</t>
+          <t>2025-05-30 08:11:00</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-09 14:40:43</t>
+          <t>2025-06-02 07:13:31</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>14255</v>
+        <v>29999</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3569,70 +3571,75 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M43" t="n">
-        <v>70</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N43" t="n">
+        <v>39760</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>39760</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-4.611612021863426</v>
+        <v>-26.30105633803241</v>
       </c>
       <c r="S43" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251840</v>
+        <v>251225</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D44" t="n">
-        <v>93.67213114754098</v>
+        <v>0</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-09 14:40:43</t>
+          <t>2025-06-02 07:13:31</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:43</t>
+          <t>2025-06-02 07:30:31</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:43</t>
+          <t>2025-06-02 07:30:31</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-05-12 08:34:23</t>
+          <t>2025-06-02 07:30:31</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>5714</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3641,17 +3648,17 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M44" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N44" t="n">
-        <v>39758</v>
+        <v>39747</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -3659,15 +3666,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>39758</v>
+        <v>39747</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-4.357217668483797</v>
+        <v>-25.31286189358796</v>
       </c>
       <c r="S44" t="n">
         <v>1</v>
@@ -3675,41 +3682,41 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>251373</v>
+        <v>251227</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D45" t="n">
-        <v>280.2295081967213</v>
+        <v>0</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-12 08:34:23</t>
+          <t>2025-06-02 07:30:31</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-12 08:54:23</t>
+          <t>2025-06-02 07:45:31</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-12 08:54:23</t>
+          <t>2025-06-02 07:45:31</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-12 13:34:37</t>
+          <t>2025-06-02 07:45:31</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>17094</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3718,70 +3725,75 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M45" t="n">
-        <v>70</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N45" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>-14.56571038251157</v>
+        <v>-27.32327856025463</v>
       </c>
       <c r="S45" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>251475</v>
+        <v>243569</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D46" t="n">
-        <v>142.3114754098361</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-12 13:34:37</t>
+          <t>2025-06-02 07:45:31</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-12 13:59:37</t>
+          <t>2025-06-02 08:02:31</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-12 13:59:37</t>
+          <t>2025-06-02 08:02:31</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-13 08:21:56</t>
+          <t>2025-06-02 08:39:09</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>8681</v>
+        <v>2601</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3790,14 +3802,14 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M46" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -3807,53 +3819,53 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2024-09-16 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>-13.34856557377315</v>
+        <v>-259.3605242566551</v>
       </c>
       <c r="S46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>251809</v>
+        <v>243335</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D47" t="n">
-        <v>142.3114754098361</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-05-13 08:21:56</t>
+          <t>2025-06-02 08:39:09</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-13 08:41:56</t>
+          <t>2025-06-02 09:11:09</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-05-13 08:41:56</t>
+          <t>2025-06-02 09:11:09</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-05-13 11:04:14</t>
+          <t>2025-06-03 08:56:00</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>8681</v>
+        <v>33004</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3862,14 +3874,14 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
         <v>4</v>
       </c>
       <c r="M47" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -3879,53 +3891,53 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>0</v>
+        <v>-305.3722222222222</v>
       </c>
       <c r="S47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>251249</v>
+        <v>245623</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D48" t="n">
-        <v>78</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-13 11:04:14</t>
+          <t>2025-06-03 08:56:00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-13 11:34:14</t>
+          <t>2025-06-03 09:15:00</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-13 11:34:14</t>
+          <t>2025-06-03 09:15:00</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-05-13 12:52:14</t>
+          <t>2025-06-04 07:27:05</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>4758</v>
+        <v>26419</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3934,14 +3946,14 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M48" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
@@ -3951,53 +3963,53 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>0</v>
+        <v>-130.3104851330208</v>
       </c>
       <c r="S48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>244023</v>
+        <v>251750</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D49" t="n">
-        <v>16.34426229508197</v>
+        <v>54.80281690140845</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-13 12:52:14</t>
+          <t>2025-06-04 07:27:05</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-13 13:12:14</t>
+          <t>2025-06-04 07:44:05</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-13 13:12:14</t>
+          <t>2025-06-04 07:44:05</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-13 13:28:35</t>
+          <t>2025-06-04 08:38:54</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>997</v>
+        <v>3891</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4006,14 +4018,14 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M49" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -4023,11 +4035,11 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>-225.5615209471759</v>
+        <v>-9.360348200312501</v>
       </c>
       <c r="S49" t="n">
         <v>1</v>
@@ -4035,41 +4047,41 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251247</v>
+        <v>251651</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D50" t="n">
-        <v>441.5409836065574</v>
+        <v>659.5774647887324</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-13 13:28:35</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-13 13:48:35</t>
+          <t>2025-05-08 07:21:00</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-13 13:48:35</t>
+          <t>2025-05-08 07:21:00</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-14 13:10:07</t>
+          <t>2025-05-09 10:20:34</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>26934</v>
+        <v>46830</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4078,14 +4090,17 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M50" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N50" t="n">
+        <v>39755</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -4095,53 +4110,53 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>-5.548702185787037</v>
+        <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251251</v>
+        <v>251566</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D51" t="n">
-        <v>260</v>
+        <v>97.02816901408451</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-14 13:10:07</t>
+          <t>2025-05-09 10:20:34</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-14 13:30:07</t>
+          <t>2025-05-09 10:52:34</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-14 13:30:07</t>
+          <t>2025-05-09 10:52:34</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-15 09:50:07</t>
+          <t>2025-05-09 12:29:36</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>15860</v>
+        <v>6889</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4150,11 +4165,11 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M51" t="n">
         <v>70</v>
@@ -4167,53 +4182,53 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>0</v>
+        <v>-2.520559467916667</v>
       </c>
       <c r="S51" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>251225</v>
+        <v>251340</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>461.9718309859155</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-09 12:29:36</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 13:03:36</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 13:03:36</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-12 12:45:34</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>32800</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4222,75 +4237,70 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M52" t="n">
         <v>76</v>
       </c>
-      <c r="N52" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O52" t="n">
+        <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-14.53165101721065</v>
       </c>
       <c r="S52" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>251227</v>
+        <v>251562</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>114.6760563380282</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-12 12:45:34</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-12 13:15:34</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-12 13:15:34</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-13 07:10:15</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>8142</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4299,33 +4309,28 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M53" t="n">
-        <v>76</v>
-      </c>
-      <c r="N53" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>0</v>
       </c>
       <c r="S53" t="n">
         <v>1</v>
@@ -4333,41 +4338,41 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>243569</v>
+        <v>251519</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D54" t="n">
-        <v>36.63380281690141</v>
+        <v>185.5633802816901</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-13 07:10:15</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-13 07:25:15</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-13 07:25:15</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-08 13:27:38</t>
+          <t>2025-05-13 10:30:49</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>2601</v>
+        <v>13175</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4376,14 +4381,14 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M54" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
@@ -4393,53 +4398,53 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>-234.5608568075116</v>
+        <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>250670</v>
+        <v>244204</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D55" t="n">
-        <v>22.01408450704225</v>
+        <v>48.90140845070422</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-08 13:27:38</t>
+          <t>2025-05-13 10:30:49</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-08 13:44:38</t>
+          <t>2025-05-13 10:49:49</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-08 13:44:38</t>
+          <t>2025-05-13 10:49:49</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-08 14:06:38</t>
+          <t>2025-05-13 11:38:43</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>1563</v>
+        <v>3472</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4448,14 +4453,14 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
         <v>4</v>
       </c>
       <c r="M55" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -4465,53 +4470,53 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>-3.587949921747685</v>
+        <v>-5.485221048518519</v>
       </c>
       <c r="S55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>243335</v>
+        <v>244355</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D56" t="n">
-        <v>464.8450704225352</v>
+        <v>60.70422535211268</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-08 14:06:38</t>
+          <t>2025-05-13 11:38:43</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-08 14:36:38</t>
+          <t>2025-05-13 11:53:43</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-08 14:36:38</t>
+          <t>2025-05-13 11:53:43</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-09 14:21:29</t>
+          <t>2025-05-13 12:54:25</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>33004</v>
+        <v>4310</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4520,14 +4525,14 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
         <v>4</v>
       </c>
       <c r="M56" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -4537,53 +4542,53 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>-280.5982589984375</v>
+        <v>-5.537793427233797</v>
       </c>
       <c r="S56" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>251750</v>
+        <v>251455</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D57" t="n">
-        <v>54.80281690140845</v>
+        <v>74.6056338028169</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-09 14:21:29</t>
+          <t>2025-05-13 12:54:25</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-09 14:38:29</t>
+          <t>2025-05-13 13:09:25</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-09 14:38:29</t>
+          <t>2025-05-13 13:09:25</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-12 07:33:17</t>
+          <t>2025-05-13 14:24:01</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>3891</v>
+        <v>5297</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4592,70 +4597,75 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M57" t="n">
-        <v>152</v>
-      </c>
-      <c r="O57" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N57" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P57" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>0</v>
+        <v>-6.600019561817129</v>
       </c>
       <c r="S57" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251424</v>
+        <v>251742</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D58" t="n">
-        <v>150.96875</v>
+        <v>115.8591549295775</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-13 14:24:01</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-13 14:39:01</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-13 14:39:01</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-07 09:49:58</t>
+          <t>2025-05-14 08:34:53</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>9662</v>
+        <v>8226</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4673,61 +4683,66 @@
       <c r="M58" t="n">
         <v>70</v>
       </c>
-      <c r="O58" t="n">
-        <v>0</v>
+      <c r="N58" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P58" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-9.409700520833333</v>
+        <v>-7.357560641631944</v>
       </c>
       <c r="S58" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>250819</v>
+        <v>251547</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D59" t="n">
-        <v>133.234375</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-07 09:49:58</t>
+          <t>2025-05-14 08:34:53</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-07 10:08:58</t>
+          <t>2025-05-14 08:49:53</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-07 10:08:58</t>
+          <t>2025-05-14 08:49:53</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-07 12:22:12</t>
+          <t>2025-05-14 11:54:48</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>8527</v>
+        <v>13129</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4740,66 +4755,71 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M59" t="n">
         <v>70</v>
       </c>
-      <c r="O59" t="n">
-        <v>0</v>
+      <c r="N59" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P59" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>-19.51541883680556</v>
+        <v>-7.496390845069445</v>
       </c>
       <c r="S59" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>251246</v>
+        <v>250641</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D60" t="n">
-        <v>187.53125</v>
+        <v>72.05633802816901</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-07 12:22:12</t>
+          <t>2025-05-14 11:54:48</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-07 12:37:12</t>
+          <t>2025-05-14 12:13:48</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-07 12:37:12</t>
+          <t>2025-05-14 12:13:48</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-08 07:44:44</t>
+          <t>2025-05-14 13:25:51</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>12002</v>
+        <v>5116</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4808,7 +4828,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -4825,53 +4845,53 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>0</v>
+        <v>-16.55962441314815</v>
       </c>
       <c r="S60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>251456</v>
+        <v>245350</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D61" t="n">
-        <v>140.609375</v>
+        <v>393.943661971831</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-08 07:44:44</t>
+          <t>2025-05-14 13:25:51</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-08 08:05:44</t>
+          <t>2025-05-14 13:48:51</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-08 08:05:44</t>
+          <t>2025-05-14 13:48:51</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-08 10:26:20</t>
+          <t>2025-05-15 12:22:48</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>8999</v>
+        <v>27970</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4880,75 +4900,70 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M61" t="n">
         <v>70</v>
       </c>
-      <c r="N61" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O61" t="n">
+        <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>-2.4349609375</v>
+        <v>0</v>
       </c>
       <c r="S61" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>251519</v>
+        <v>251346</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D62" t="n">
-        <v>205.859375</v>
+        <v>54.35211267605634</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-08 10:26:20</t>
+          <t>2025-05-15 12:22:48</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:20</t>
+          <t>2025-05-15 12:41:48</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:20</t>
+          <t>2025-05-15 12:41:48</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-08 14:09:12</t>
+          <t>2025-05-15 13:36:09</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>13175</v>
+        <v>3859</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4961,7 +4976,7 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M62" t="n">
         <v>70</v>
@@ -4974,53 +4989,53 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>0</v>
+        <v>-17.56677425665509</v>
       </c>
       <c r="S62" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>244355</v>
+        <v>251761</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D63" t="n">
-        <v>67.34375</v>
+        <v>187.0281690140845</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-08 14:09:12</t>
+          <t>2025-05-15 13:36:09</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-08 14:28:12</t>
+          <t>2025-05-15 13:59:09</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-08 14:28:12</t>
+          <t>2025-05-15 13:59:09</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-09 07:35:32</t>
+          <t>2025-05-16 09:06:10</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>4310</v>
+        <v>13279</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5046,53 +5061,53 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-19 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>-1.316351996527778</v>
+        <v>0</v>
       </c>
       <c r="S63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>251547</v>
+        <v>251464</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C64" t="n">
         <v>15</v>
       </c>
       <c r="D64" t="n">
-        <v>205.140625</v>
+        <v>100.7464788732394</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-09 07:35:32</t>
+          <t>2025-05-16 09:06:10</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-09 07:50:32</t>
+          <t>2025-05-16 09:21:10</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-09 07:50:32</t>
+          <t>2025-05-16 09:21:10</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-09 11:15:41</t>
+          <t>2025-05-16 11:01:55</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>13129</v>
+        <v>7153</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5110,66 +5125,61 @@
       <c r="M64" t="n">
         <v>70</v>
       </c>
-      <c r="N64" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O64" t="n">
+        <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>-2.469227430555556</v>
+        <v>-7.459673317685185</v>
       </c>
       <c r="S64" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>251455</v>
+        <v>251374</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D65" t="n">
-        <v>82.765625</v>
+        <v>385.112676056338</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-09 11:15:41</t>
+          <t>2025-05-16 11:01:55</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-09 11:30:41</t>
+          <t>2025-05-16 11:22:55</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-09 11:30:41</t>
+          <t>2025-05-16 11:22:55</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-09 12:53:27</t>
+          <t>2025-05-19 09:48:02</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>5297</v>
+        <v>27343</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5178,75 +5188,70 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M65" t="n">
         <v>70</v>
       </c>
-      <c r="N65" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O65" t="n">
+        <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>-2.537120225694444</v>
+        <v>-4.408362676053241</v>
       </c>
       <c r="S65" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251391</v>
+        <v>250819</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="D66" t="n">
-        <v>91.640625</v>
+        <v>174.0204081632653</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-09 12:53:27</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-09 13:10:27</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-09 13:10:27</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-09 14:42:05</t>
+          <t>2025-05-08 10:49:01</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>5865</v>
+        <v>8527</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5259,71 +5264,66 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M66" t="n">
         <v>70</v>
       </c>
-      <c r="N66" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O66" t="n">
+        <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>-2.612565104166667</v>
+        <v>-20.45070861678241</v>
       </c>
       <c r="S66" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>251395</v>
+        <v>251247</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D67" t="n">
-        <v>35.34375</v>
+        <v>549.6734693877551</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-09 14:42:05</t>
+          <t>2025-05-08 10:49:01</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-09 14:59:05</t>
+          <t>2025-05-08 11:24:01</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-09 14:59:05</t>
+          <t>2025-05-08 11:24:01</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-12 07:34:26</t>
+          <t>2025-05-09 12:33:41</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>2262</v>
+        <v>26934</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L67" t="n">
@@ -5341,32 +5341,27 @@
       <c r="M67" t="n">
         <v>70</v>
       </c>
-      <c r="N67" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O67" t="n">
+        <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>-5.315581597222222</v>
+        <v>-0.5233985260763889</v>
       </c>
       <c r="S67" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>251396</v>
+        <v>251594</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -5374,33 +5369,33 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D68" t="n">
-        <v>35.34375</v>
+        <v>101.03125</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-12 07:34:26</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-12 07:49:26</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-12 07:49:26</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-12 08:24:46</t>
+          <t>2025-05-07 09:00:01</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>2262</v>
+        <v>6466</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5413,37 +5408,32 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M68" t="n">
         <v>70</v>
       </c>
-      <c r="N68" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O68" t="n">
+        <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>-5.350542534722222</v>
+        <v>-0.3750217013888889</v>
       </c>
       <c r="S68" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>251548</v>
+        <v>251846</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -5454,30 +5444,30 @@
         <v>19</v>
       </c>
       <c r="D69" t="n">
-        <v>206.90625</v>
+        <v>178</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-12 08:24:46</t>
+          <t>2025-05-07 09:00:01</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-12 08:43:46</t>
+          <t>2025-05-07 09:19:01</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-12 08:43:46</t>
+          <t>2025-05-07 09:19:01</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-12 12:10:41</t>
+          <t>2025-05-07 12:17:01</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>13242</v>
+        <v>11392</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5490,29 +5480,24 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M69" t="n">
         <v>70</v>
       </c>
-      <c r="N69" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O69" t="n">
+        <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>-5.507421875</v>
+        <v>0</v>
       </c>
       <c r="S69" t="n">
         <v>7</v>
@@ -5520,7 +5505,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>245090</v>
+        <v>251456</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -5528,33 +5513,33 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D70" t="n">
-        <v>8073.71875</v>
+        <v>140.609375</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-12 12:10:41</t>
+          <t>2025-05-07 12:17:01</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-12 12:42:41</t>
+          <t>2025-05-07 12:34:01</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-12 12:42:41</t>
+          <t>2025-05-07 12:34:01</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-06-04 11:16:24</t>
+          <t>2025-05-07 14:54:38</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>516718</v>
+        <v>8999</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5563,28 +5548,33 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M70" t="n">
-        <v>76</v>
-      </c>
-      <c r="O70" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N70" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P70" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>0</v>
+        <v>-1.621278211805556</v>
       </c>
       <c r="S70" t="n">
         <v>1</v>
@@ -5592,7 +5582,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>250894</v>
+        <v>251397</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -5603,30 +5593,30 @@
         <v>15</v>
       </c>
       <c r="D71" t="n">
-        <v>691.59375</v>
+        <v>84.921875</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-06-04 11:16:24</t>
+          <t>2025-05-07 14:54:38</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-06-04 11:31:24</t>
+          <t>2025-05-08 07:09:38</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-06-04 11:31:24</t>
+          <t>2025-05-08 07:09:38</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-06-06 07:03:00</t>
+          <t>2025-05-08 08:34:33</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>44262</v>
+        <v>5435</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5635,17 +5625,14 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M71" t="n">
-        <v>76</v>
-      </c>
-      <c r="N71" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O71" t="n">
         <v>0</v>
@@ -5655,11 +5642,11 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-24.29375</v>
+        <v>-10.35733506944444</v>
       </c>
       <c r="S71" t="n">
         <v>4</v>
@@ -5667,7 +5654,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>250923</v>
+        <v>251475</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -5675,33 +5662,33 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D72" t="n">
-        <v>109.46875</v>
+        <v>135.640625</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-06-06 07:03:00</t>
+          <t>2025-05-08 08:34:33</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-06-06 07:18:00</t>
+          <t>2025-05-08 08:51:33</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-06-06 07:18:00</t>
+          <t>2025-05-08 08:51:33</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-06-06 09:07:28</t>
+          <t>2025-05-08 11:07:12</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>7006</v>
+        <v>8681</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5710,41 +5697,36 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M72" t="n">
-        <v>76</v>
-      </c>
-      <c r="N72" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>-30.38018663194444</v>
+        <v>-8.463335503472223</v>
       </c>
       <c r="S72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>251477</v>
+        <v>251840</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -5752,33 +5734,33 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D73" t="n">
-        <v>468.734375</v>
+        <v>89.28125</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-06-06 09:07:28</t>
+          <t>2025-05-08 11:07:12</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-06-06 09:26:28</t>
+          <t>2025-05-08 11:24:12</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-06-06 09:26:28</t>
+          <t>2025-05-08 11:24:12</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-06-09 09:15:12</t>
+          <t>2025-05-08 12:53:29</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>29999</v>
+        <v>5714</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5787,17 +5769,17 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M73" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N73" t="n">
-        <v>39760</v>
+        <v>39758</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -5805,15 +5787,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>39760</v>
+        <v>39758</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
-        <v>-33.38555772569445</v>
+        <v>-0.5371419270833333</v>
       </c>
       <c r="S73" t="n">
         <v>1</v>
@@ -5821,7 +5803,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>251782</v>
+        <v>251391</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -5832,30 +5814,30 @@
         <v>15</v>
       </c>
       <c r="D74" t="n">
-        <v>188.640625</v>
+        <v>91.640625</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-06-09 09:15:12</t>
+          <t>2025-05-08 12:53:29</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-06-09 09:30:12</t>
+          <t>2025-05-08 13:08:29</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-06-09 09:30:12</t>
+          <t>2025-05-08 13:08:29</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-06-09 12:38:50</t>
+          <t>2025-05-08 14:40:07</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>12073</v>
+        <v>5865</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -5864,17 +5846,17 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M74" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N74" t="n">
-        <v>39754</v>
+        <v>39749</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -5882,57 +5864,57 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>39754</v>
+        <v>39749</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
-        <v>-31.52697482638889</v>
+        <v>-1.611197916666667</v>
       </c>
       <c r="S74" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>244354</v>
+        <v>251395</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>34.5</v>
+        <v>17</v>
       </c>
       <c r="D75" t="n">
-        <v>78.36363636363636</v>
+        <v>35.34375</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 14:40:07</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-09 07:34:30</t>
+          <t>2025-05-08 14:57:07</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-09 07:34:30</t>
+          <t>2025-05-08 14:57:07</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-09 08:52:51</t>
+          <t>2025-05-09 07:32:28</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>4310</v>
+        <v>2262</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -5945,66 +5927,71 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M75" t="n">
         <v>70</v>
       </c>
-      <c r="O75" t="n">
-        <v>0</v>
+      <c r="N75" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P75" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
-        <v>-1.370044191921296</v>
+        <v>-2.314214409722222</v>
       </c>
       <c r="S75" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>251245</v>
+        <v>251396</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>34.5</v>
+        <v>15</v>
       </c>
       <c r="D76" t="n">
-        <v>13.70909090909091</v>
+        <v>35.34375</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-05-09 08:52:51</t>
+          <t>2025-05-09 07:32:28</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-05-09 09:27:21</t>
+          <t>2025-05-09 07:47:28</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-05-09 09:27:21</t>
+          <t>2025-05-09 07:47:28</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-05-09 09:41:04</t>
+          <t>2025-05-09 08:22:48</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>754</v>
+        <v>2262</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -6013,7 +6000,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L76" t="n">
@@ -6022,61 +6009,66 @@
       <c r="M76" t="n">
         <v>70</v>
       </c>
-      <c r="O76" t="n">
-        <v>0</v>
+      <c r="N76" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P76" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R76" s="1" t="n">
-        <v>-42.40352272726852</v>
+        <v>-2.349175347222222</v>
       </c>
       <c r="S76" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>251520</v>
+        <v>251548</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>32.5</v>
+        <v>19</v>
       </c>
       <c r="D77" t="n">
-        <v>297.0909090909091</v>
+        <v>206.90625</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-05-09 09:41:04</t>
+          <t>2025-05-09 08:22:48</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-05-09 10:13:34</t>
+          <t>2025-05-09 08:41:48</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-05-09 10:13:34</t>
+          <t>2025-05-09 08:41:48</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-05-12 07:10:39</t>
+          <t>2025-05-09 12:08:43</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>16340</v>
+        <v>13242</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -6085,70 +6077,75 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M77" t="n">
         <v>70</v>
       </c>
-      <c r="O77" t="n">
-        <v>0</v>
+      <c r="N77" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P77" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R77" s="1" t="n">
-        <v>-0.2990719696990741</v>
+        <v>-2.5060546875</v>
       </c>
       <c r="S77" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>251284</v>
+        <v>250894</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>30.5</v>
+        <v>32</v>
       </c>
       <c r="D78" t="n">
-        <v>297.0909090909091</v>
+        <v>691.59375</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-05-12 07:10:39</t>
+          <t>2025-05-09 12:08:43</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-05-12 07:41:09</t>
+          <t>2025-05-09 12:40:43</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-05-12 07:41:09</t>
+          <t>2025-05-09 12:40:43</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-05-12 12:38:15</t>
+          <t>2025-05-13 08:12:18</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>16340</v>
+        <v>44262</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -6157,75 +6154,73 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M78" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N78" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R78" s="1" t="n">
-        <v>-4.5265656565625</v>
+        <v>-0.3418836805555556</v>
       </c>
       <c r="S78" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>251062</v>
+        <v>250923</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>32.5</v>
+        <v>15</v>
       </c>
       <c r="D79" t="n">
-        <v>411.3454545454546</v>
+        <v>109.46875</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-05-12 12:38:15</t>
+          <t>2025-05-13 08:12:18</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-05-12 13:10:45</t>
+          <t>2025-05-13 08:27:18</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-05-12 13:10:45</t>
+          <t>2025-05-13 08:27:18</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-05-13 12:02:06</t>
+          <t>2025-05-13 10:16:46</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>22624</v>
+        <v>7006</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -6234,70 +6229,75 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M79" t="n">
-        <v>70</v>
-      </c>
-      <c r="O79" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N79" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P79" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R79" s="1" t="n">
-        <v>0</v>
+        <v>-6.4283203125</v>
       </c>
       <c r="S79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>244204</v>
+        <v>245089</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D80" t="n">
-        <v>56.91803278688525</v>
+        <v>1916.640625</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-13 10:16:46</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-05-09 07:42:00</t>
+          <t>2025-05-13 10:33:46</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-05-09 07:42:00</t>
+          <t>2025-05-13 10:33:46</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-05-09 08:38:55</t>
+          <t>2025-05-19 10:30:25</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>3472</v>
+        <v>122665</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -6306,14 +6306,14 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L80" t="n">
         <v>4</v>
       </c>
       <c r="M80" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O80" t="n">
         <v>0</v>
@@ -6323,19 +6323,19 @@
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R80" s="1" t="n">
-        <v>-1.360359744988426</v>
+        <v>0</v>
       </c>
       <c r="S80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>251466</v>
+        <v>251809</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -6343,33 +6343,33 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D81" t="n">
-        <v>91.26229508196721</v>
+        <v>142.3114754098361</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-05-09 08:38:55</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-05-09 09:05:55</t>
+          <t>2025-05-09 07:42:00</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-05-09 09:05:55</t>
+          <t>2025-05-09 07:42:00</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:10</t>
+          <t>2025-05-09 10:04:18</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>5567</v>
+        <v>8681</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -6382,7 +6382,7 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M81" t="n">
         <v>70</v>
@@ -6395,19 +6395,19 @@
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R81" s="1" t="n">
-        <v>-0.4424863387962963</v>
+        <v>0</v>
       </c>
       <c r="S81" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>251464</v>
+        <v>251743</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -6415,33 +6415,33 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D82" t="n">
-        <v>117.2622950819672</v>
+        <v>176.655737704918</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:10</t>
+          <t>2025-05-09 10:04:18</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-05-09 11:04:10</t>
+          <t>2025-05-09 10:29:18</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-05-09 11:04:10</t>
+          <t>2025-05-09 10:29:18</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2025-05-09 13:01:26</t>
+          <t>2025-05-09 13:25:58</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>7153</v>
+        <v>10776</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -6467,19 +6467,19 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R82" s="1" t="n">
-        <v>-0.5426684881597222</v>
+        <v>0</v>
       </c>
       <c r="S82" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>251580</v>
+        <v>251466</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -6487,33 +6487,33 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D83" t="n">
-        <v>117.2622950819672</v>
+        <v>91.26229508196721</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-05-09 13:01:26</t>
+          <t>2025-05-09 13:25:58</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-05-09 13:26:26</t>
+          <t>2025-05-09 13:52:58</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-05-09 13:26:26</t>
+          <t>2025-05-09 13:52:58</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2025-05-12 07:23:42</t>
+          <t>2025-05-12 07:24:13</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>7153</v>
+        <v>5567</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M83" t="n">
         <v>70</v>
@@ -6539,11 +6539,11 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R83" s="1" t="n">
-        <v>0</v>
+        <v>-3.308492714027778</v>
       </c>
       <c r="S83" t="n">
         <v>1</v>
@@ -6551,7 +6551,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>251252</v>
+        <v>251465</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -6559,33 +6559,33 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D84" t="n">
-        <v>247.2622950819672</v>
+        <v>102.0655737704918</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-05-12 07:23:42</t>
+          <t>2025-05-12 07:24:13</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-05-12 07:52:42</t>
+          <t>2025-05-12 07:51:13</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-05-12 07:52:42</t>
+          <t>2025-05-12 07:51:13</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2025-05-12 11:59:58</t>
+          <t>2025-05-12 09:33:17</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>15083</v>
+        <v>6226</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -6594,11 +6594,11 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M84" t="n">
         <v>70</v>
@@ -6611,11 +6611,11 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R84" s="1" t="n">
-        <v>0</v>
+        <v>-3.398121584699074</v>
       </c>
       <c r="S84" t="n">
         <v>1</v>
@@ -6623,41 +6623,41 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>251259</v>
+        <v>251580</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="D85" t="n">
-        <v>102.0408163265306</v>
+        <v>117.2622950819672</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-12 09:33:17</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-05-08 08:10:00</t>
+          <t>2025-05-12 10:02:17</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-05-08 08:10:00</t>
+          <t>2025-05-12 10:02:17</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-05-08 09:52:02</t>
+          <t>2025-05-12 11:59:33</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>5000</v>
+        <v>7153</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M85" t="n">
         <v>70</v>
@@ -6683,53 +6683,53 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R85" s="1" t="n">
-        <v>-2.411139455787037</v>
+        <v>0</v>
       </c>
       <c r="S85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>251463</v>
+        <v>251260</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D86" t="n">
-        <v>142.1836734693877</v>
+        <v>153.5901639344262</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-05-08 09:52:02</t>
+          <t>2025-05-12 11:59:33</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-05-08 10:52:02</t>
+          <t>2025-05-12 12:28:33</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-05-08 10:52:02</t>
+          <t>2025-05-12 12:28:33</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2025-05-08 13:14:13</t>
+          <t>2025-05-13 07:02:08</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>6967</v>
+        <v>9369</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -6738,11 +6738,11 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M86" t="n">
         <v>70</v>
@@ -6755,7 +6755,7 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R86" s="1" t="n">
@@ -6767,41 +6767,41 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>251374</v>
+        <v>251795</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D87" t="n">
-        <v>558.0204081632653</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-05-08 13:14:13</t>
+          <t>2025-05-13 07:02:08</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-05-08 14:04:13</t>
+          <t>2025-05-13 07:27:08</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-05-08 14:04:13</t>
+          <t>2025-05-13 07:27:08</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2025-05-12 07:22:14</t>
+          <t>2025-05-13 12:34:20</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>27343</v>
+        <v>18739</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -6810,11 +6810,11 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M87" t="n">
         <v>70</v>
@@ -6827,7 +6827,7 @@
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-06-19 00:00:00</t>
         </is>
       </c>
       <c r="R87" s="1" t="n">

--- a/PS-VRP/Dati_output/insert_inter_post.xlsx
+++ b/PS-VRP/Dati_output/insert_inter_post.xlsx
@@ -515,7 +515,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251782</v>
+        <v>245623</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -526,7 +526,7 @@
         <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>174.9710144927536</v>
+        <v>382.8840579710145</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -545,11 +545,11 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-12 10:24:58</t>
+          <t>2025-05-12 13:52:53</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>12073</v>
+        <v>26419</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,41 +558,36 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
-        <v>76</v>
-      </c>
-      <c r="N2" t="n">
-        <v>39754</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>39754</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-3.434007648958333</v>
+        <v>-107.5783917069213</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>250670</v>
+        <v>251416</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -603,30 +598,30 @@
         <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>22.65217391304348</v>
+        <v>162.6376811594203</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-12 10:24:58</t>
+          <t>2025-05-12 13:52:53</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-12 10:54:58</t>
+          <t>2025-05-12 14:22:53</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-12 10:54:58</t>
+          <t>2025-05-12 14:22:53</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-12 11:17:37</t>
+          <t>2025-05-13 09:05:31</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1563</v>
+        <v>11222</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -635,14 +630,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M3" t="n">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="N3" t="n">
+        <v>39755</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -652,11 +650,11 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-7.470571658611112</v>
+        <v>-0.3788345410648148</v>
       </c>
       <c r="S3" t="n">
         <v>2</v>
@@ -664,7 +662,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251561</v>
+        <v>251557</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -672,33 +670,33 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>78.76811594202898</v>
+        <v>97.17391304347827</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:17:37</t>
+          <t>2025-05-13 09:05:31</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:52:37</t>
+          <t>2025-05-13 09:30:31</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:52:37</t>
+          <t>2025-05-13 09:30:31</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-12 13:11:23</t>
+          <t>2025-05-13 11:07:41</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>5435</v>
+        <v>6705</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -711,7 +709,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
@@ -724,19 +722,19 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-5.5495772946875</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251245</v>
+        <v>245089</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -744,33 +742,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D5" t="n">
-        <v>10.92753623188406</v>
+        <v>1777.753623188406</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-12 13:11:23</t>
+          <t>2025-05-13 11:07:41</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-12 13:41:23</t>
+          <t>2025-05-13 11:47:41</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-12 13:41:23</t>
+          <t>2025-05-13 11:47:41</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-12 13:52:19</t>
+          <t>2025-05-19 09:25:26</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>754</v>
+        <v>122665</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -779,14 +777,14 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -796,11 +794,11 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-45.57799919484954</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -816,29 +814,29 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D6" t="n">
         <v>3051.101449275362</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-12 13:52:19</t>
+          <t>2025-05-19 09:25:26</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-12 14:22:19</t>
+          <t>2025-05-19 10:00:26</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-12 14:22:19</t>
+          <t>2025-05-19 10:00:26</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-21 09:13:25</t>
+          <t>2025-05-27 12:51:33</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -895,22 +893,22 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-21 09:13:25</t>
+          <t>2025-05-27 12:51:33</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-21 09:43:25</t>
+          <t>2025-05-27 13:21:33</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-21 09:43:25</t>
+          <t>2025-05-27 13:21:33</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-21 14:15:00</t>
+          <t>2025-05-28 09:53:07</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -951,7 +949,7 @@
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-6.59375</v>
+        <v>-13.4118961352662</v>
       </c>
       <c r="S7" t="n">
         <v>1</v>
@@ -959,7 +957,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>235572</v>
+        <v>251164</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -967,33 +965,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>144.3188405797102</v>
+        <v>144.9275362318841</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-21 14:15:00</t>
+          <t>2025-05-28 09:53:07</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-21 14:45:00</t>
+          <t>2025-05-28 10:18:07</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-21 14:45:00</t>
+          <t>2025-05-28 10:18:07</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-22 09:09:19</t>
+          <t>2025-05-28 12:43:03</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>9958</v>
+        <v>10000</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1002,28 +1000,33 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
-      <c r="O8" t="n">
-        <v>0</v>
+      <c r="N8" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2023-11-06 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-563.3814714170717</v>
+        <v>-21.52990136876157</v>
       </c>
       <c r="S8" t="n">
         <v>4</v>
@@ -1031,7 +1034,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251164</v>
+        <v>250641</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1039,33 +1042,33 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>144.9275362318841</v>
+        <v>74.14492753623189</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-22 09:09:19</t>
+          <t>2025-05-28 12:43:03</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-22 09:39:19</t>
+          <t>2025-05-28 13:08:03</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-22 09:39:19</t>
+          <t>2025-05-28 13:08:03</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-22 12:04:14</t>
+          <t>2025-05-28 14:22:12</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>10000</v>
+        <v>5116</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1083,32 +1086,27 @@
       <c r="M9" t="n">
         <v>70</v>
       </c>
-      <c r="N9" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O9" t="n">
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-15.50294887278935</v>
+        <v>-30.59875201288195</v>
       </c>
       <c r="S9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>244023</v>
+        <v>251061</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1119,30 +1117,30 @@
         <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>14.44927536231884</v>
+        <v>347.7826086956522</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-22 12:04:14</t>
+          <t>2025-05-28 14:22:12</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-22 12:29:14</t>
+          <t>2025-05-28 14:47:12</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-22 12:29:14</t>
+          <t>2025-05-28 14:47:12</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-22 12:43:41</t>
+          <t>2025-05-29 12:34:59</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>997</v>
+        <v>23997</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1151,7 +1149,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -1168,11 +1166,11 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-234.5303442028935</v>
+        <v>-24.52429549114584</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>
@@ -1180,41 +1178,41 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251061</v>
+        <v>251651</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D11" t="n">
-        <v>347.7826086956522</v>
+        <v>659.5774647887324</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-22 12:43:41</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-22 13:08:41</t>
+          <t>2025-05-08 07:21:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-22 13:08:41</t>
+          <t>2025-05-08 07:21:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-23 10:56:28</t>
+          <t>2025-05-09 10:20:34</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>23997</v>
+        <v>46830</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1223,14 +1221,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N11" t="n">
+        <v>39755</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1240,53 +1241,53 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-18.45588768115741</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251251</v>
+        <v>251340</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D12" t="n">
-        <v>229.8550724637681</v>
+        <v>461.9718309859155</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-23 10:56:28</t>
+          <t>2025-05-09 10:20:34</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-23 11:21:28</t>
+          <t>2025-05-09 10:41:34</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-23 11:21:28</t>
+          <t>2025-05-09 10:41:34</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-26 07:11:20</t>
+          <t>2025-05-12 10:23:32</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>15860</v>
+        <v>32800</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1295,14 +1296,14 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1312,74 +1313,72 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-3.299537037037037</v>
+        <v>-14.43302034428241</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251706</v>
+        <v>250759</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>50.79365079365079</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-12 10:23:32</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-12 10:42:32</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-12 10:42:32</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-12 12:40:49</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>3200</v>
+        <v>8398</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N13" t="n">
+        <v>39747</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1387,57 +1386,57 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39764</v>
+        <v>39747</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>0</v>
+        <v>-4.528354851331018</v>
       </c>
       <c r="S13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251546</v>
+        <v>251566</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>91.07042253521126</v>
+        <v>97.02816901408451</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-12 12:40:49</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:00</t>
+          <t>2025-05-12 13:10:49</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:00</t>
+          <t>2025-05-12 13:10:49</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-09 09:23:04</t>
+          <t>2025-05-12 14:47:51</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>6466</v>
+        <v>6889</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1450,7 +1449,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
@@ -1463,53 +1462,53 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-9.391021126759259</v>
+        <v>-5.616568857592593</v>
       </c>
       <c r="S14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251259</v>
+        <v>251485</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D15" t="n">
-        <v>70.4225352112676</v>
+        <v>67.71830985915493</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-09 09:23:04</t>
+          <t>2025-05-12 14:47:51</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-09 10:18:04</t>
+          <t>2025-05-13 07:04:51</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-09 10:18:04</t>
+          <t>2025-05-13 07:04:51</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-09 11:28:29</t>
+          <t>2025-05-13 08:12:34</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>5000</v>
+        <v>4808</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1522,7 +1521,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
@@ -1535,11 +1534,11 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-3.478120109548611</v>
+        <v>-20.34206768387732</v>
       </c>
       <c r="S15" t="n">
         <v>2</v>
@@ -1547,41 +1546,41 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251284</v>
+        <v>251743</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>230.1408450704225</v>
+        <v>151.7746478873239</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-09 11:28:29</t>
+          <t>2025-05-13 08:12:34</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-09 12:13:29</t>
+          <t>2025-05-13 08:29:34</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-09 12:13:29</t>
+          <t>2025-05-13 08:29:34</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-12 08:03:38</t>
+          <t>2025-05-13 11:01:21</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>16340</v>
+        <v>10776</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1590,75 +1589,70 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
       </c>
-      <c r="N16" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O16" t="n">
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-4.335856807511574</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>245275</v>
+        <v>251397</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="D17" t="n">
-        <v>342.1690140845071</v>
+        <v>76.54929577464789</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-12 08:03:38</t>
+          <t>2025-05-13 11:01:21</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-12 09:13:38</t>
+          <t>2025-05-13 11:18:21</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-12 09:13:38</t>
+          <t>2025-05-13 11:18:21</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-12 14:55:48</t>
+          <t>2025-05-13 12:34:54</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>24294</v>
+        <v>5435</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1667,11 +1661,11 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
@@ -1684,53 +1678,53 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>0</v>
+        <v>-15.52423708920139</v>
       </c>
       <c r="S17" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251050</v>
+        <v>251562</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>114.6760563380282</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-12 14:55:48</t>
+          <t>2025-05-13 12:34:54</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-13 09:30:48</t>
+          <t>2025-05-13 12:51:54</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-13 09:30:48</t>
+          <t>2025-05-13 12:51:54</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-13 09:30:48</t>
+          <t>2025-05-13 14:46:34</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>8142</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1739,75 +1733,70 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
       </c>
-      <c r="N18" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O18" t="n">
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-5.396390845069444</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251054</v>
+        <v>235572</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>140.2535211267606</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-13 09:30:48</t>
+          <t>2025-05-13 14:46:34</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-13 10:05:48</t>
+          <t>2025-05-14 07:07:34</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-13 10:05:48</t>
+          <t>2025-05-14 07:07:34</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-13 10:05:48</t>
+          <t>2025-05-14 09:27:49</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>9958</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1816,75 +1805,70 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
       </c>
-      <c r="N19" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O19" t="n">
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2023-11-06 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-5.420696400625</v>
+        <v>-555.3943270735532</v>
       </c>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251081</v>
+        <v>251561</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="D20" t="n">
-        <v>42.42253521126761</v>
+        <v>76.54929577464789</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-13 10:05:48</t>
+          <t>2025-05-14 09:27:49</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-13 12:10:48</t>
+          <t>2025-05-14 09:42:49</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-13 12:10:48</t>
+          <t>2025-05-14 09:42:49</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-13 12:53:13</t>
+          <t>2025-05-14 10:59:22</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>3012</v>
+        <v>5435</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1893,77 +1877,70 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
       </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O20" t="n">
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>39750</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-20.53696205008102</v>
+        <v>-7.457902973391204</v>
       </c>
       <c r="S20" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251109</v>
+        <v>251564</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="D21" t="n">
-        <v>266.5915492957747</v>
+        <v>38.26760563380282</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-13 12:53:13</t>
+          <t>2025-05-14 10:59:22</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-13 13:48:13</t>
+          <t>2025-05-14 11:18:22</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-13 13:48:13</t>
+          <t>2025-05-14 11:18:22</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-14 10:14:49</t>
+          <t>2025-05-14 11:56:38</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>18928</v>
+        <v>2717</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1972,11 +1949,11 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="M21" t="n">
         <v>70</v>
@@ -1989,53 +1966,53 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-26.42695618153935</v>
+        <v>-7.497672143969907</v>
       </c>
       <c r="S21" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251467</v>
+        <v>251626</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>30.5</v>
+        <v>15</v>
       </c>
       <c r="D22" t="n">
-        <v>113.2</v>
+        <v>176.056338028169</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-14 11:56:38</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-09 07:30:30</t>
+          <t>2025-05-14 12:11:38</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-09 07:30:30</t>
+          <t>2025-05-14 12:11:38</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-09 09:23:42</t>
+          <t>2025-05-15 07:07:42</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>6226</v>
+        <v>12500</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2048,7 +2025,7 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
         <v>70</v>
@@ -2061,53 +2038,53 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-0.3914583333333334</v>
+        <v>-15.29701682315972</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251252</v>
+        <v>245350</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>38.5</v>
+        <v>29</v>
       </c>
       <c r="D23" t="n">
-        <v>274.2363636363636</v>
+        <v>393.943661971831</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-09 09:23:42</t>
+          <t>2025-05-15 07:07:42</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-09 10:02:12</t>
+          <t>2025-05-15 07:36:42</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-09 10:02:12</t>
+          <t>2025-05-15 07:36:42</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-09 14:36:26</t>
+          <t>2025-05-15 14:10:38</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>15083</v>
+        <v>27970</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2116,11 +2093,11 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
@@ -2133,53 +2110,53 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251062</v>
+        <v>251346</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>30.5</v>
+        <v>19</v>
       </c>
       <c r="D24" t="n">
-        <v>411.3454545454546</v>
+        <v>54.35211267605634</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-09 14:36:26</t>
+          <t>2025-05-15 14:10:38</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-12 07:06:56</t>
+          <t>2025-05-15 14:29:38</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-12 07:06:56</t>
+          <t>2025-05-15 14:29:38</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-12 13:58:16</t>
+          <t>2025-05-16 07:24:00</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>22624</v>
+        <v>3859</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2188,11 +2165,11 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
@@ -2205,53 +2182,53 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>0</v>
+        <v>-18.30833333333333</v>
       </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251283</v>
+        <v>251761</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>30.5</v>
+        <v>23</v>
       </c>
       <c r="D25" t="n">
-        <v>13.70909090909091</v>
+        <v>187.0281690140845</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-12 13:58:16</t>
+          <t>2025-05-16 07:24:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-12 14:28:46</t>
+          <t>2025-05-16 07:47:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-12 14:28:46</t>
+          <t>2025-05-16 07:47:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-12 14:42:29</t>
+          <t>2025-05-16 10:54:01</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>754</v>
+        <v>13279</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2260,11 +2237,11 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
         <v>70</v>
@@ -2277,53 +2254,53 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-03-18 00:00:00</t>
+          <t>2025-05-19 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-55.61284090908564</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251246</v>
+        <v>251465</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>30.5</v>
+        <v>19</v>
       </c>
       <c r="D26" t="n">
-        <v>218.2181818181818</v>
+        <v>87.69014084507042</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-12 14:42:29</t>
+          <t>2025-05-16 10:54:01</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-13 07:12:59</t>
+          <t>2025-05-16 11:13:01</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-13 07:12:59</t>
+          <t>2025-05-16 11:13:01</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-13 10:51:12</t>
+          <t>2025-05-16 12:40:43</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>12002</v>
+        <v>6226</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2332,11 +2309,11 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M26" t="n">
         <v>70</v>
@@ -2353,7 +2330,7 @@
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-4.452228535358796</v>
+        <v>-7.528276604074073</v>
       </c>
       <c r="S26" t="n">
         <v>1</v>
@@ -2361,41 +2338,41 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251520</v>
+        <v>251467</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>32.5</v>
+        <v>15</v>
       </c>
       <c r="D27" t="n">
-        <v>297.0909090909091</v>
+        <v>87.69014084507042</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-13 10:51:12</t>
+          <t>2025-05-16 12:40:43</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-13 11:23:42</t>
+          <t>2025-05-16 12:55:43</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-13 11:23:42</t>
+          <t>2025-05-16 12:55:43</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-14 08:20:48</t>
+          <t>2025-05-16 14:23:24</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>16340</v>
+        <v>6226</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2404,11 +2381,11 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M27" t="n">
         <v>70</v>
@@ -2421,11 +2398,11 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-2.347777777777778</v>
+        <v>-7.599589201874999</v>
       </c>
       <c r="S27" t="n">
         <v>1</v>
@@ -2433,41 +2410,41 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251249</v>
+        <v>251260</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>32.5</v>
+        <v>23</v>
       </c>
       <c r="D28" t="n">
-        <v>86.50909090909092</v>
+        <v>131.9577464788732</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-14 08:20:48</t>
+          <t>2025-05-16 14:23:24</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-14 08:53:18</t>
+          <t>2025-05-16 14:46:24</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-14 08:53:18</t>
+          <t>2025-05-16 14:46:24</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-14 10:19:48</t>
+          <t>2025-05-19 08:58:21</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>4758</v>
+        <v>9369</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2476,7 +2453,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
@@ -2493,7 +2470,7 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
@@ -2505,41 +2482,41 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251416</v>
+        <v>251795</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D29" t="n">
-        <v>183.9672131147541</v>
+        <v>263.9295774647887</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-19 08:58:21</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-08 07:20:00</t>
+          <t>2025-05-19 09:13:21</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-08 07:20:00</t>
+          <t>2025-05-19 09:13:21</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-08 10:23:58</t>
+          <t>2025-05-19 13:37:17</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>11222</v>
+        <v>18739</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2548,18 +2525,15 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
       </c>
-      <c r="N29" t="n">
-        <v>39755</v>
-      </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
@@ -2568,125 +2542,132 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-06-19 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251564</v>
+        <v>251706</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>44.54098360655738</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-08 10:23:58</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-08 10:48:58</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-08 10:48:58</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-08 11:33:30</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>2717</v>
+        <v>3200</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>70</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>39764</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-1.481602914386574</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251626</v>
+        <v>251546</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="D31" t="n">
-        <v>204.9180327868852</v>
+        <v>91.07042253521126</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-08 11:33:30</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-08 11:53:30</t>
+          <t>2025-05-09 07:52:00</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-08 11:53:30</t>
+          <t>2025-05-09 07:52:00</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-09 07:18:25</t>
+          <t>2025-05-09 09:23:04</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>12500</v>
+        <v>6466</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2699,7 +2680,7 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M31" t="n">
         <v>70</v>
@@ -2716,7 +2697,7 @@
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-9.304462659375</v>
+        <v>-9.391021126759259</v>
       </c>
       <c r="S31" t="n">
         <v>7</v>
@@ -2724,41 +2705,41 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251424</v>
+        <v>245275</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="D32" t="n">
-        <v>158.3934426229508</v>
+        <v>342.1690140845071</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-09 07:18:25</t>
+          <t>2025-05-09 09:23:04</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-09 07:43:25</t>
+          <t>2025-05-09 10:43:04</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-09 07:43:25</t>
+          <t>2025-05-09 10:43:04</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-09 10:21:49</t>
+          <t>2025-05-12 08:25:14</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>9662</v>
+        <v>24294</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2767,11 +2748,11 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="M32" t="n">
         <v>70</v>
@@ -2784,49 +2765,49 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>-11.43181921675926</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251371</v>
+        <v>251050</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>20</v>
+        <v>155</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-09 10:21:49</t>
+          <t>2025-05-12 08:25:14</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-09 10:41:49</t>
+          <t>2025-05-12 11:00:14</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-09 10:41:49</t>
+          <t>2025-05-12 11:00:14</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-09 10:41:49</t>
+          <t>2025-05-12 11:00:14</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2839,19 +2820,17 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M33" t="n">
         <v>70</v>
       </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+      <c r="N33" t="n">
+        <v>39747</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -2859,57 +2838,57 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>39666</v>
+        <v>39747</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-15.44570810564815</v>
+        <v>-4.458499608761574</v>
       </c>
       <c r="S33" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251505</v>
+        <v>251054</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D34" t="n">
-        <v>233.6885245901639</v>
+        <v>0</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-09 10:41:49</t>
+          <t>2025-05-12 11:00:14</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-09 11:06:49</t>
+          <t>2025-05-12 11:35:14</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-09 11:06:49</t>
+          <t>2025-05-12 11:35:14</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:30</t>
+          <t>2025-05-12 11:35:14</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>14255</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2918,142 +2897,154 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="M34" t="n">
         <v>70</v>
       </c>
-      <c r="O34" t="n">
-        <v>0</v>
+      <c r="N34" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>-7.292019581053241</v>
+        <v>-4.48280516431713</v>
       </c>
       <c r="S34" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251373</v>
+        <v>251081</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C35" t="n">
+        <v>125</v>
+      </c>
+      <c r="D35" t="n">
+        <v>42.42253521126761</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:35:14</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2025-05-12 13:40:14</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2025-05-12 13:40:14</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2025-05-12 14:22:39</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>3012</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
         <v>20</v>
-      </c>
-      <c r="D35" t="n">
-        <v>280.2295081967213</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:30</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:20:30</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:20:30</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2025-05-12 12:00:44</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
-        <v>17094</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>5</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
       </c>
-      <c r="O35" t="n">
-        <v>0</v>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>39750</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
-        <v>-14.50051229508102</v>
+        <v>-19.59907081377315</v>
       </c>
       <c r="S35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>244354</v>
+        <v>251109</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="D36" t="n">
-        <v>70.65573770491804</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-12 12:00:44</t>
+          <t>2025-05-12 14:22:39</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-12 12:25:44</t>
+          <t>2025-05-13 07:17:39</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-12 12:25:44</t>
+          <t>2025-05-13 07:17:39</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-12 13:36:23</t>
+          <t>2025-05-13 11:44:15</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>4310</v>
+        <v>18928</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3062,11 +3053,11 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="M36" t="n">
         <v>70</v>
@@ -3079,19 +3070,19 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
-        <v>-4.566939890706019</v>
+        <v>-25.48906494523148</v>
       </c>
       <c r="S36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>251485</v>
+        <v>251846</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -3099,33 +3090,33 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D37" t="n">
-        <v>78.81967213114754</v>
+        <v>186.7540983606557</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-12 13:36:23</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-12 14:01:23</t>
+          <t>2025-05-08 07:20:00</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-12 14:01:23</t>
+          <t>2025-05-08 07:20:00</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-13 07:20:12</t>
+          <t>2025-05-08 10:26:45</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>4808</v>
+        <v>11392</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3138,7 +3129,7 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M37" t="n">
         <v>70</v>
@@ -3151,19 +3142,19 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>-20.30570355190972</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251463</v>
+        <v>251462</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -3171,33 +3162,33 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D38" t="n">
-        <v>114.2131147540984</v>
+        <v>102.0655737704918</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-13 07:20:12</t>
+          <t>2025-05-08 10:26:45</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-13 07:45:12</t>
+          <t>2025-05-08 10:46:45</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-13 07:45:12</t>
+          <t>2025-05-08 10:46:45</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-13 09:39:25</t>
+          <t>2025-05-08 12:28:49</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>6967</v>
+        <v>6226</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3210,7 +3201,7 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
@@ -3227,7 +3218,7 @@
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>-4.402379326041667</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>1</v>
@@ -3235,7 +3226,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>251462</v>
+        <v>251594</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -3246,30 +3237,30 @@
         <v>30</v>
       </c>
       <c r="D39" t="n">
-        <v>102.0655737704918</v>
+        <v>106</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-13 09:39:25</t>
+          <t>2025-05-08 12:28:49</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-13 10:09:25</t>
+          <t>2025-05-08 12:58:49</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-13 10:09:25</t>
+          <t>2025-05-08 12:58:49</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-13 11:51:29</t>
+          <t>2025-05-08 14:44:49</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>6226</v>
+        <v>6466</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3282,7 +3273,7 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M39" t="n">
         <v>70</v>
@@ -3295,19 +3286,19 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-4.494091530057871</v>
+        <v>-1.614458105648148</v>
       </c>
       <c r="S39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251557</v>
+        <v>251371</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3318,30 +3309,30 @@
         <v>20</v>
       </c>
       <c r="D40" t="n">
-        <v>109.9180327868852</v>
+        <v>0</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-13 11:51:29</t>
+          <t>2025-05-08 14:44:49</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-13 12:11:29</t>
+          <t>2025-05-09 07:04:49</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-13 12:11:29</t>
+          <t>2025-05-09 07:04:49</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-13 14:01:24</t>
+          <t>2025-05-09 07:04:49</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>6705</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3354,66 +3345,73 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M40" t="n">
         <v>70</v>
       </c>
-      <c r="O40" t="n">
-        <v>0</v>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>39666</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>0</v>
+        <v>-15.2950136612037</v>
       </c>
       <c r="S40" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>245090</v>
+        <v>251742</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D41" t="n">
-        <v>7277.718309859155</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-09 07:04:49</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-08 12:21:00</t>
+          <t>2025-05-09 07:24:49</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-08 12:21:00</t>
+          <t>2025-05-09 07:24:49</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-29 13:38:43</t>
+          <t>2025-05-09 09:39:40</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>516718</v>
+        <v>8226</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3422,70 +3420,75 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M41" t="n">
-        <v>76</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N41" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>0</v>
+        <v>-2.402550091076389</v>
       </c>
       <c r="S41" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>250759</v>
+        <v>251283</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D42" t="n">
-        <v>118.2816901408451</v>
+        <v>12.36065573770492</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-29 13:38:43</t>
+          <t>2025-05-09 09:39:40</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-29 13:55:43</t>
+          <t>2025-05-09 10:09:40</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-29 13:55:43</t>
+          <t>2025-05-09 10:09:40</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-30 07:54:00</t>
+          <t>2025-05-09 10:22:01</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>8398</v>
+        <v>754</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3494,33 +3497,28 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M42" t="n">
-        <v>76</v>
-      </c>
-      <c r="N42" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-03-18 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-22.32916666666667</v>
+        <v>-52.43196721311343</v>
       </c>
       <c r="S42" t="n">
         <v>1</v>
@@ -3528,41 +3526,41 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251477</v>
+        <v>251505</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D43" t="n">
-        <v>422.5211267605634</v>
+        <v>233.6885245901639</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-30 07:54:00</t>
+          <t>2025-05-09 10:22:01</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-30 08:11:00</t>
+          <t>2025-05-09 10:47:01</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-30 08:11:00</t>
+          <t>2025-05-09 10:47:01</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-06-02 07:13:31</t>
+          <t>2025-05-09 14:40:43</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>29999</v>
+        <v>14255</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3571,75 +3569,70 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M43" t="n">
-        <v>76</v>
-      </c>
-      <c r="N43" t="n">
-        <v>39760</v>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>39760</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-26.30105633803241</v>
+        <v>-4.611612021863426</v>
       </c>
       <c r="S43" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251225</v>
+        <v>251840</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-06-02 07:13:31</t>
+          <t>2025-05-09 14:40:43</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-06-02 07:30:31</t>
+          <t>2025-05-12 07:00:43</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-06-02 07:30:31</t>
+          <t>2025-05-12 07:00:43</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-06-02 07:30:31</t>
+          <t>2025-05-12 08:34:23</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>5714</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3648,17 +3641,17 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M44" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N44" t="n">
-        <v>39747</v>
+        <v>39758</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -3666,15 +3659,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>39747</v>
+        <v>39758</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-25.31286189358796</v>
+        <v>-4.357217668483797</v>
       </c>
       <c r="S44" t="n">
         <v>1</v>
@@ -3682,41 +3675,41 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>251227</v>
+        <v>251373</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>280.2295081967213</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-06-02 07:30:31</t>
+          <t>2025-05-12 08:34:23</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-06-02 07:45:31</t>
+          <t>2025-05-12 08:54:23</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-06-02 07:45:31</t>
+          <t>2025-05-12 08:54:23</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-06-02 07:45:31</t>
+          <t>2025-05-12 13:34:37</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>17094</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3725,75 +3718,70 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L45" t="n">
+        <v>5</v>
+      </c>
+      <c r="M45" t="n">
+        <v>70</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>2025-04-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="R45" s="1" t="n">
+        <v>-14.56571038251157</v>
+      </c>
+      <c r="S45" t="n">
         <v>4</v>
-      </c>
-      <c r="M45" t="n">
-        <v>76</v>
-      </c>
-      <c r="N45" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P45" t="n">
-        <v>39746</v>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>2025-05-05 00:00:00</t>
-        </is>
-      </c>
-      <c r="R45" s="1" t="n">
-        <v>-27.32327856025463</v>
-      </c>
-      <c r="S45" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>243569</v>
+        <v>251475</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D46" t="n">
-        <v>36.63380281690141</v>
+        <v>142.3114754098361</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-06-02 07:45:31</t>
+          <t>2025-05-12 13:34:37</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-06-02 08:02:31</t>
+          <t>2025-05-12 13:59:37</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-06-02 08:02:31</t>
+          <t>2025-05-12 13:59:37</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-06-02 08:39:09</t>
+          <t>2025-05-13 08:21:56</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>2601</v>
+        <v>8681</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3802,14 +3790,14 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M46" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -3819,53 +3807,53 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>-259.3605242566551</v>
+        <v>-13.34856557377315</v>
       </c>
       <c r="S46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>243335</v>
+        <v>251809</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D47" t="n">
-        <v>464.8450704225352</v>
+        <v>142.3114754098361</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-06-02 08:39:09</t>
+          <t>2025-05-13 08:21:56</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-06-02 09:11:09</t>
+          <t>2025-05-13 08:41:56</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-06-02 09:11:09</t>
+          <t>2025-05-13 08:41:56</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-06-03 08:56:00</t>
+          <t>2025-05-13 11:04:14</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>33004</v>
+        <v>8681</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3874,14 +3862,14 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
         <v>4</v>
       </c>
       <c r="M47" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -3891,53 +3879,53 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>-305.3722222222222</v>
+        <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>245623</v>
+        <v>251249</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D48" t="n">
-        <v>372.0985915492957</v>
+        <v>78</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-06-03 08:56:00</t>
+          <t>2025-05-13 11:04:14</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-06-03 09:15:00</t>
+          <t>2025-05-13 11:34:14</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-06-03 09:15:00</t>
+          <t>2025-05-13 11:34:14</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-06-04 07:27:05</t>
+          <t>2025-05-13 12:52:14</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>26419</v>
+        <v>4758</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3946,14 +3934,14 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M48" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
@@ -3963,53 +3951,53 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-130.3104851330208</v>
+        <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>251750</v>
+        <v>244023</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D49" t="n">
-        <v>54.80281690140845</v>
+        <v>16.34426229508197</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-06-04 07:27:05</t>
+          <t>2025-05-13 12:52:14</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-06-04 07:44:05</t>
+          <t>2025-05-13 13:12:14</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-06-04 07:44:05</t>
+          <t>2025-05-13 13:12:14</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-06-04 08:38:54</t>
+          <t>2025-05-13 13:28:35</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>3891</v>
+        <v>997</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4018,14 +4006,14 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M49" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -4035,11 +4023,11 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>-9.360348200312501</v>
+        <v>-225.5615209471759</v>
       </c>
       <c r="S49" t="n">
         <v>1</v>
@@ -4047,41 +4035,41 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251651</v>
+        <v>251247</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D50" t="n">
-        <v>659.5774647887324</v>
+        <v>441.5409836065574</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-13 13:28:35</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-08 07:21:00</t>
+          <t>2025-05-13 13:48:35</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-08 07:21:00</t>
+          <t>2025-05-13 13:48:35</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-09 10:20:34</t>
+          <t>2025-05-14 13:10:07</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>46830</v>
+        <v>26934</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4090,17 +4078,14 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M50" t="n">
-        <v>76</v>
-      </c>
-      <c r="N50" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -4110,53 +4095,53 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>0</v>
+        <v>-5.548702185787037</v>
       </c>
       <c r="S50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251566</v>
+        <v>251251</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D51" t="n">
-        <v>97.02816901408451</v>
+        <v>260</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-09 10:20:34</t>
+          <t>2025-05-14 13:10:07</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-09 10:52:34</t>
+          <t>2025-05-14 13:30:07</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-09 10:52:34</t>
+          <t>2025-05-14 13:30:07</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-09 12:29:36</t>
+          <t>2025-05-15 09:50:07</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>6889</v>
+        <v>15860</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4165,11 +4150,11 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M51" t="n">
         <v>70</v>
@@ -4182,53 +4167,53 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-2.520559467916667</v>
+        <v>0</v>
       </c>
       <c r="S51" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>251340</v>
+        <v>251225</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D52" t="n">
-        <v>461.9718309859155</v>
+        <v>0</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-09 12:29:36</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-09 13:03:36</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-09 13:03:36</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-12 12:45:34</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>32800</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4237,70 +4222,75 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M52" t="n">
         <v>76</v>
       </c>
-      <c r="O52" t="n">
-        <v>0</v>
+      <c r="N52" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P52" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-14.53165101721065</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="S52" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>251562</v>
+        <v>251227</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D53" t="n">
-        <v>114.6760563380282</v>
+        <v>0</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-12 12:45:34</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-12 13:15:34</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-12 13:15:34</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-13 07:10:15</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>8142</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4309,28 +4299,33 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M53" t="n">
-        <v>70</v>
-      </c>
-      <c r="O53" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N53" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P53" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>0</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="S53" t="n">
         <v>1</v>
@@ -4338,41 +4333,41 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>251519</v>
+        <v>243569</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D54" t="n">
-        <v>185.5633802816901</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-13 07:10:15</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-13 07:25:15</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-13 07:25:15</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-13 10:30:49</t>
+          <t>2025-05-08 13:27:38</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>13175</v>
+        <v>2601</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4381,70 +4376,70 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L54" t="n">
+        <v>3</v>
+      </c>
+      <c r="M54" t="n">
+        <v>76</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>2024-09-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="R54" s="1" t="n">
+        <v>-234.5608568075116</v>
+      </c>
+      <c r="S54" t="n">
         <v>2</v>
-      </c>
-      <c r="M54" t="n">
-        <v>70</v>
-      </c>
-      <c r="O54" t="n">
-        <v>0</v>
-      </c>
-      <c r="P54" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>2025-06-10 00:00:00</t>
-        </is>
-      </c>
-      <c r="R54" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S54" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>244204</v>
+        <v>250670</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D55" t="n">
-        <v>48.90140845070422</v>
+        <v>22.01408450704225</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-13 10:30:49</t>
+          <t>2025-05-08 13:27:38</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-13 10:49:49</t>
+          <t>2025-05-08 13:44:38</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-13 10:49:49</t>
+          <t>2025-05-08 13:44:38</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-13 11:38:43</t>
+          <t>2025-05-08 14:06:38</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>3472</v>
+        <v>1563</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4453,14 +4448,14 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
         <v>4</v>
       </c>
       <c r="M55" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -4470,53 +4465,53 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>-5.485221048518519</v>
+        <v>-3.587949921747685</v>
       </c>
       <c r="S55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>244355</v>
+        <v>243335</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D56" t="n">
-        <v>60.70422535211268</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-13 11:38:43</t>
+          <t>2025-05-08 14:06:38</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-13 11:53:43</t>
+          <t>2025-05-08 14:36:38</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-13 11:53:43</t>
+          <t>2025-05-08 14:36:38</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-13 12:54:25</t>
+          <t>2025-05-09 14:21:29</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>4310</v>
+        <v>33004</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4525,14 +4520,14 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
         <v>4</v>
       </c>
       <c r="M56" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -4542,53 +4537,53 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>-5.537793427233797</v>
+        <v>-280.5982589984375</v>
       </c>
       <c r="S56" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>251455</v>
+        <v>251750</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D57" t="n">
-        <v>74.6056338028169</v>
+        <v>54.80281690140845</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-13 12:54:25</t>
+          <t>2025-05-09 14:21:29</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-13 13:09:25</t>
+          <t>2025-05-09 14:38:29</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-13 13:09:25</t>
+          <t>2025-05-09 14:38:29</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-13 14:24:01</t>
+          <t>2025-05-12 07:33:17</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>5297</v>
+        <v>3891</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4597,75 +4592,70 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M57" t="n">
-        <v>70</v>
-      </c>
-      <c r="N57" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-6.600019561817129</v>
+        <v>0</v>
       </c>
       <c r="S57" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251742</v>
+        <v>251424</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D58" t="n">
-        <v>115.8591549295775</v>
+        <v>150.96875</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-13 14:24:01</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-13 14:39:01</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-13 14:39:01</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-14 08:34:53</t>
+          <t>2025-05-07 09:49:58</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>8226</v>
+        <v>9662</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4683,66 +4673,61 @@
       <c r="M58" t="n">
         <v>70</v>
       </c>
-      <c r="N58" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O58" t="n">
+        <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-7.357560641631944</v>
+        <v>-9.409700520833333</v>
       </c>
       <c r="S58" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>251547</v>
+        <v>250819</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D59" t="n">
-        <v>184.9154929577465</v>
+        <v>133.234375</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-14 08:34:53</t>
+          <t>2025-05-07 09:49:58</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-14 08:49:53</t>
+          <t>2025-05-07 10:08:58</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-14 08:49:53</t>
+          <t>2025-05-07 10:08:58</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-14 11:54:48</t>
+          <t>2025-05-07 12:22:12</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>13129</v>
+        <v>8527</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4755,71 +4740,66 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M59" t="n">
         <v>70</v>
       </c>
-      <c r="N59" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O59" t="n">
+        <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>-7.496390845069445</v>
+        <v>-19.51541883680556</v>
       </c>
       <c r="S59" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>250641</v>
+        <v>251246</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D60" t="n">
-        <v>72.05633802816901</v>
+        <v>187.53125</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-14 11:54:48</t>
+          <t>2025-05-07 12:22:12</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-14 12:13:48</t>
+          <t>2025-05-07 12:37:12</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-14 12:13:48</t>
+          <t>2025-05-07 12:37:12</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-14 13:25:51</t>
+          <t>2025-05-08 07:44:44</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>5116</v>
+        <v>12002</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4828,7 +4808,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -4845,53 +4825,53 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>-16.55962441314815</v>
+        <v>0</v>
       </c>
       <c r="S60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>245350</v>
+        <v>251456</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D61" t="n">
-        <v>393.943661971831</v>
+        <v>140.609375</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-14 13:25:51</t>
+          <t>2025-05-08 07:44:44</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-14 13:48:51</t>
+          <t>2025-05-08 08:05:44</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-14 13:48:51</t>
+          <t>2025-05-08 08:05:44</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-15 12:22:48</t>
+          <t>2025-05-08 10:26:20</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>27970</v>
+        <v>8999</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4900,70 +4880,75 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M61" t="n">
         <v>70</v>
       </c>
-      <c r="O61" t="n">
-        <v>0</v>
+      <c r="N61" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P61" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>0</v>
+        <v>-2.4349609375</v>
       </c>
       <c r="S61" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>251346</v>
+        <v>251519</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D62" t="n">
-        <v>54.35211267605634</v>
+        <v>205.859375</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-15 12:22:48</t>
+          <t>2025-05-08 10:26:20</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-15 12:41:48</t>
+          <t>2025-05-08 10:43:20</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-15 12:41:48</t>
+          <t>2025-05-08 10:43:20</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-15 13:36:09</t>
+          <t>2025-05-08 14:09:12</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>3859</v>
+        <v>13175</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4976,7 +4961,7 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M62" t="n">
         <v>70</v>
@@ -4989,53 +4974,53 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>-17.56677425665509</v>
+        <v>0</v>
       </c>
       <c r="S62" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>251761</v>
+        <v>244355</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D63" t="n">
-        <v>187.0281690140845</v>
+        <v>67.34375</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-15 13:36:09</t>
+          <t>2025-05-08 14:09:12</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-15 13:59:09</t>
+          <t>2025-05-08 14:28:12</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-15 13:59:09</t>
+          <t>2025-05-08 14:28:12</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-16 09:06:10</t>
+          <t>2025-05-09 07:35:32</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>13279</v>
+        <v>4310</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5061,53 +5046,53 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-05-19 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>0</v>
+        <v>-1.316351996527778</v>
       </c>
       <c r="S63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>251464</v>
+        <v>251547</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C64" t="n">
         <v>15</v>
       </c>
       <c r="D64" t="n">
-        <v>100.7464788732394</v>
+        <v>205.140625</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-16 09:06:10</t>
+          <t>2025-05-09 07:35:32</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-16 09:21:10</t>
+          <t>2025-05-09 07:50:32</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-16 09:21:10</t>
+          <t>2025-05-09 07:50:32</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-16 11:01:55</t>
+          <t>2025-05-09 11:15:41</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>7153</v>
+        <v>13129</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5125,61 +5110,66 @@
       <c r="M64" t="n">
         <v>70</v>
       </c>
-      <c r="O64" t="n">
-        <v>0</v>
+      <c r="N64" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P64" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>-7.459673317685185</v>
+        <v>-2.469227430555556</v>
       </c>
       <c r="S64" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>251374</v>
+        <v>251455</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D65" t="n">
-        <v>385.112676056338</v>
+        <v>82.765625</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-16 11:01:55</t>
+          <t>2025-05-09 11:15:41</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-16 11:22:55</t>
+          <t>2025-05-09 11:30:41</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-16 11:22:55</t>
+          <t>2025-05-09 11:30:41</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-19 09:48:02</t>
+          <t>2025-05-09 12:53:27</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>27343</v>
+        <v>5297</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5188,70 +5178,75 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M65" t="n">
         <v>70</v>
       </c>
-      <c r="O65" t="n">
-        <v>0</v>
+      <c r="N65" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P65" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>-4.408362676053241</v>
+        <v>-2.537120225694444</v>
       </c>
       <c r="S65" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>250819</v>
+        <v>251391</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D66" t="n">
-        <v>174.0204081632653</v>
+        <v>91.640625</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 12:53:27</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-09 13:10:27</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-09 13:10:27</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-08 10:49:01</t>
+          <t>2025-05-09 14:42:05</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>8527</v>
+        <v>5865</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5264,66 +5259,71 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M66" t="n">
         <v>70</v>
       </c>
-      <c r="O66" t="n">
-        <v>0</v>
+      <c r="N66" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P66" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>-20.45070861678241</v>
+        <v>-2.612565104166667</v>
       </c>
       <c r="S66" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>251247</v>
+        <v>251395</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D67" t="n">
-        <v>549.6734693877551</v>
+        <v>35.34375</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-08 10:49:01</t>
+          <t>2025-05-09 14:42:05</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-08 11:24:01</t>
+          <t>2025-05-09 14:59:05</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-08 11:24:01</t>
+          <t>2025-05-09 14:59:05</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-09 12:33:41</t>
+          <t>2025-05-12 07:34:26</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>26934</v>
+        <v>2262</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L67" t="n">
@@ -5341,27 +5341,32 @@
       <c r="M67" t="n">
         <v>70</v>
       </c>
-      <c r="O67" t="n">
-        <v>0</v>
+      <c r="N67" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P67" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>-0.5233985260763889</v>
+        <v>-5.315581597222222</v>
       </c>
       <c r="S67" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>251594</v>
+        <v>251396</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -5369,33 +5374,33 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D68" t="n">
-        <v>101.03125</v>
+        <v>35.34375</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-12 07:34:26</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-12 07:49:26</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-12 07:49:26</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-07 09:00:01</t>
+          <t>2025-05-12 08:24:46</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>6466</v>
+        <v>2262</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5408,32 +5413,37 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M68" t="n">
         <v>70</v>
       </c>
-      <c r="O68" t="n">
-        <v>0</v>
+      <c r="N68" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P68" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>-0.3750217013888889</v>
+        <v>-5.350542534722222</v>
       </c>
       <c r="S68" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>251846</v>
+        <v>251548</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -5444,30 +5454,30 @@
         <v>19</v>
       </c>
       <c r="D69" t="n">
-        <v>178</v>
+        <v>206.90625</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-07 09:00:01</t>
+          <t>2025-05-12 08:24:46</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-07 09:19:01</t>
+          <t>2025-05-12 08:43:46</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-07 09:19:01</t>
+          <t>2025-05-12 08:43:46</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-07 12:17:01</t>
+          <t>2025-05-12 12:10:41</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>11392</v>
+        <v>13242</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5480,24 +5490,29 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M69" t="n">
         <v>70</v>
       </c>
-      <c r="O69" t="n">
-        <v>0</v>
+      <c r="N69" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P69" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>0</v>
+        <v>-5.507421875</v>
       </c>
       <c r="S69" t="n">
         <v>7</v>
@@ -5505,7 +5520,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>251456</v>
+        <v>245090</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -5513,33 +5528,33 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D70" t="n">
-        <v>140.609375</v>
+        <v>8073.71875</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-07 12:17:01</t>
+          <t>2025-05-12 12:10:41</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-07 12:34:01</t>
+          <t>2025-05-12 12:42:41</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-07 12:34:01</t>
+          <t>2025-05-12 12:42:41</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-07 14:54:38</t>
+          <t>2025-06-04 11:16:24</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>8999</v>
+        <v>516718</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5548,33 +5563,28 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M70" t="n">
-        <v>70</v>
-      </c>
-      <c r="N70" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>-1.621278211805556</v>
+        <v>0</v>
       </c>
       <c r="S70" t="n">
         <v>1</v>
@@ -5582,7 +5592,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>251397</v>
+        <v>250894</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -5593,30 +5603,30 @@
         <v>15</v>
       </c>
       <c r="D71" t="n">
-        <v>84.921875</v>
+        <v>691.59375</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-07 14:54:38</t>
+          <t>2025-06-04 11:16:24</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-08 07:09:38</t>
+          <t>2025-06-04 11:31:24</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-08 07:09:38</t>
+          <t>2025-06-04 11:31:24</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-08 08:34:33</t>
+          <t>2025-06-06 07:03:00</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>5435</v>
+        <v>44262</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5625,14 +5635,17 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M71" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N71" t="n">
+        <v>39755</v>
       </c>
       <c r="O71" t="n">
         <v>0</v>
@@ -5642,11 +5655,11 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-10.35733506944444</v>
+        <v>-24.29375</v>
       </c>
       <c r="S71" t="n">
         <v>4</v>
@@ -5654,7 +5667,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>251475</v>
+        <v>250923</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -5662,33 +5675,33 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D72" t="n">
-        <v>135.640625</v>
+        <v>109.46875</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-08 08:34:33</t>
+          <t>2025-06-06 07:03:00</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-08 08:51:33</t>
+          <t>2025-06-06 07:18:00</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-08 08:51:33</t>
+          <t>2025-06-06 07:18:00</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-08 11:07:12</t>
+          <t>2025-06-06 09:07:28</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>8681</v>
+        <v>7006</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5697,36 +5710,41 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M72" t="n">
-        <v>70</v>
-      </c>
-      <c r="O72" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N72" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P72" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>-8.463335503472223</v>
+        <v>-30.38018663194444</v>
       </c>
       <c r="S72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>251840</v>
+        <v>251477</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -5734,33 +5752,33 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D73" t="n">
-        <v>89.28125</v>
+        <v>468.734375</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-08 11:07:12</t>
+          <t>2025-06-06 09:07:28</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-08 11:24:12</t>
+          <t>2025-06-06 09:26:28</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-08 11:24:12</t>
+          <t>2025-06-06 09:26:28</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-08 12:53:29</t>
+          <t>2025-06-09 09:15:12</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>5714</v>
+        <v>29999</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5769,17 +5787,17 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M73" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N73" t="n">
-        <v>39758</v>
+        <v>39760</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -5787,15 +5805,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>39758</v>
+        <v>39760</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
-        <v>-0.5371419270833333</v>
+        <v>-33.38555772569445</v>
       </c>
       <c r="S73" t="n">
         <v>1</v>
@@ -5803,7 +5821,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>251391</v>
+        <v>251782</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -5814,30 +5832,30 @@
         <v>15</v>
       </c>
       <c r="D74" t="n">
-        <v>91.640625</v>
+        <v>188.640625</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-08 12:53:29</t>
+          <t>2025-06-09 09:15:12</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-08 13:08:29</t>
+          <t>2025-06-09 09:30:12</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-08 13:08:29</t>
+          <t>2025-06-09 09:30:12</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-08 14:40:07</t>
+          <t>2025-06-09 12:38:50</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>5865</v>
+        <v>12073</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -5846,17 +5864,17 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M74" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N74" t="n">
-        <v>39749</v>
+        <v>39754</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -5864,57 +5882,57 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>39749</v>
+        <v>39754</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
-        <v>-1.611197916666667</v>
+        <v>-31.52697482638889</v>
       </c>
       <c r="S74" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>251395</v>
+        <v>244354</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>17</v>
+        <v>34.5</v>
       </c>
       <c r="D75" t="n">
-        <v>35.34375</v>
+        <v>78.36363636363636</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-08 14:40:07</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-08 14:57:07</t>
+          <t>2025-05-09 07:34:30</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-08 14:57:07</t>
+          <t>2025-05-09 07:34:30</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-09 07:32:28</t>
+          <t>2025-05-09 08:52:51</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>2262</v>
+        <v>4310</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -5927,71 +5945,66 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M75" t="n">
         <v>70</v>
       </c>
-      <c r="N75" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O75" t="n">
+        <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
-        <v>-2.314214409722222</v>
+        <v>-1.370044191921296</v>
       </c>
       <c r="S75" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>251396</v>
+        <v>251245</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>15</v>
+        <v>34.5</v>
       </c>
       <c r="D76" t="n">
-        <v>35.34375</v>
+        <v>13.70909090909091</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-05-09 07:32:28</t>
+          <t>2025-05-09 08:52:51</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-05-09 07:47:28</t>
+          <t>2025-05-09 09:27:21</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-05-09 07:47:28</t>
+          <t>2025-05-09 09:27:21</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-05-09 08:22:48</t>
+          <t>2025-05-09 09:41:04</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>2262</v>
+        <v>754</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -6000,7 +6013,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L76" t="n">
@@ -6009,66 +6022,61 @@
       <c r="M76" t="n">
         <v>70</v>
       </c>
-      <c r="N76" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O76" t="n">
+        <v>0</v>
       </c>
       <c r="P76" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R76" s="1" t="n">
-        <v>-2.349175347222222</v>
+        <v>-42.40352272726852</v>
       </c>
       <c r="S76" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>251548</v>
+        <v>251520</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>19</v>
+        <v>32.5</v>
       </c>
       <c r="D77" t="n">
-        <v>206.90625</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-05-09 08:22:48</t>
+          <t>2025-05-09 09:41:04</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-05-09 08:41:48</t>
+          <t>2025-05-09 10:13:34</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-05-09 08:41:48</t>
+          <t>2025-05-09 10:13:34</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-05-09 12:08:43</t>
+          <t>2025-05-12 07:10:39</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>13242</v>
+        <v>16340</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -6077,75 +6085,70 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M77" t="n">
         <v>70</v>
       </c>
-      <c r="N77" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O77" t="n">
+        <v>0</v>
       </c>
       <c r="P77" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R77" s="1" t="n">
-        <v>-2.5060546875</v>
+        <v>-0.2990719696990741</v>
       </c>
       <c r="S77" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>250894</v>
+        <v>251284</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>32</v>
+        <v>30.5</v>
       </c>
       <c r="D78" t="n">
-        <v>691.59375</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-05-09 12:08:43</t>
+          <t>2025-05-12 07:10:39</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-05-09 12:40:43</t>
+          <t>2025-05-12 07:41:09</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-05-09 12:40:43</t>
+          <t>2025-05-12 07:41:09</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-05-13 08:12:18</t>
+          <t>2025-05-12 12:38:15</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>44262</v>
+        <v>16340</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -6154,73 +6157,75 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M78" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N78" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O78" t="n">
-        <v>0</v>
+        <v>39747</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P78" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R78" s="1" t="n">
-        <v>-0.3418836805555556</v>
+        <v>-4.5265656565625</v>
       </c>
       <c r="S78" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>250923</v>
+        <v>251062</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>15</v>
+        <v>32.5</v>
       </c>
       <c r="D79" t="n">
-        <v>109.46875</v>
+        <v>411.3454545454546</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-05-13 08:12:18</t>
+          <t>2025-05-12 12:38:15</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-05-13 08:27:18</t>
+          <t>2025-05-12 13:10:45</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-05-13 08:27:18</t>
+          <t>2025-05-12 13:10:45</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-05-13 10:16:46</t>
+          <t>2025-05-13 12:02:06</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>7006</v>
+        <v>22624</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -6229,75 +6234,70 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M79" t="n">
-        <v>76</v>
-      </c>
-      <c r="N79" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R79" s="1" t="n">
-        <v>-6.4283203125</v>
+        <v>0</v>
       </c>
       <c r="S79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>245089</v>
+        <v>244204</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D80" t="n">
-        <v>1916.640625</v>
+        <v>56.91803278688525</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-05-13 10:16:46</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-05-13 10:33:46</t>
+          <t>2025-05-09 07:42:00</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-05-13 10:33:46</t>
+          <t>2025-05-09 07:42:00</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-05-19 10:30:25</t>
+          <t>2025-05-09 08:38:55</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>122665</v>
+        <v>3472</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -6306,14 +6306,14 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L80" t="n">
         <v>4</v>
       </c>
       <c r="M80" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O80" t="n">
         <v>0</v>
@@ -6323,19 +6323,19 @@
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R80" s="1" t="n">
-        <v>0</v>
+        <v>-1.360359744988426</v>
       </c>
       <c r="S80" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>251809</v>
+        <v>251466</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -6343,33 +6343,33 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D81" t="n">
-        <v>142.3114754098361</v>
+        <v>91.26229508196721</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-09 08:38:55</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-05-09 07:42:00</t>
+          <t>2025-05-09 09:05:55</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-05-09 07:42:00</t>
+          <t>2025-05-09 09:05:55</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-05-09 10:04:18</t>
+          <t>2025-05-09 10:37:10</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>8681</v>
+        <v>5567</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -6382,7 +6382,7 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M81" t="n">
         <v>70</v>
@@ -6395,19 +6395,19 @@
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R81" s="1" t="n">
-        <v>0</v>
+        <v>-0.4424863387962963</v>
       </c>
       <c r="S81" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>251743</v>
+        <v>251464</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -6415,33 +6415,33 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D82" t="n">
-        <v>176.655737704918</v>
+        <v>117.2622950819672</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-05-09 10:04:18</t>
+          <t>2025-05-09 10:37:10</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-05-09 10:29:18</t>
+          <t>2025-05-09 11:04:10</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-05-09 10:29:18</t>
+          <t>2025-05-09 11:04:10</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2025-05-09 13:25:58</t>
+          <t>2025-05-09 13:01:26</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>10776</v>
+        <v>7153</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -6467,19 +6467,19 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R82" s="1" t="n">
-        <v>0</v>
+        <v>-0.5426684881597222</v>
       </c>
       <c r="S82" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>251466</v>
+        <v>251580</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -6487,33 +6487,33 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D83" t="n">
-        <v>91.26229508196721</v>
+        <v>117.2622950819672</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-05-09 13:25:58</t>
+          <t>2025-05-09 13:01:26</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-05-09 13:52:58</t>
+          <t>2025-05-09 13:26:26</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-05-09 13:52:58</t>
+          <t>2025-05-09 13:26:26</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2025-05-12 07:24:13</t>
+          <t>2025-05-12 07:23:42</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>5567</v>
+        <v>7153</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M83" t="n">
         <v>70</v>
@@ -6539,11 +6539,11 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R83" s="1" t="n">
-        <v>-3.308492714027778</v>
+        <v>0</v>
       </c>
       <c r="S83" t="n">
         <v>1</v>
@@ -6551,7 +6551,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>251465</v>
+        <v>251252</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -6559,33 +6559,33 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D84" t="n">
-        <v>102.0655737704918</v>
+        <v>247.2622950819672</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-05-12 07:24:13</t>
+          <t>2025-05-12 07:23:42</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-05-12 07:51:13</t>
+          <t>2025-05-12 07:52:42</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-05-12 07:51:13</t>
+          <t>2025-05-12 07:52:42</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2025-05-12 09:33:17</t>
+          <t>2025-05-12 11:59:58</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>6226</v>
+        <v>15083</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -6594,11 +6594,11 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M84" t="n">
         <v>70</v>
@@ -6611,11 +6611,11 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R84" s="1" t="n">
-        <v>-3.398121584699074</v>
+        <v>0</v>
       </c>
       <c r="S84" t="n">
         <v>1</v>
@@ -6623,41 +6623,41 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>251580</v>
+        <v>251259</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="D85" t="n">
-        <v>117.2622950819672</v>
+        <v>102.0408163265306</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-05-12 09:33:17</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-05-12 10:02:17</t>
+          <t>2025-05-08 08:10:00</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-05-12 10:02:17</t>
+          <t>2025-05-08 08:10:00</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-05-12 11:59:33</t>
+          <t>2025-05-08 09:52:02</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>7153</v>
+        <v>5000</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M85" t="n">
         <v>70</v>
@@ -6683,53 +6683,53 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R85" s="1" t="n">
-        <v>0</v>
+        <v>-2.411139455787037</v>
       </c>
       <c r="S85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>251260</v>
+        <v>251463</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="D86" t="n">
-        <v>153.5901639344262</v>
+        <v>142.1836734693877</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-05-12 11:59:33</t>
+          <t>2025-05-08 09:52:02</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-05-12 12:28:33</t>
+          <t>2025-05-08 10:52:02</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-05-12 12:28:33</t>
+          <t>2025-05-08 10:52:02</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2025-05-13 07:02:08</t>
+          <t>2025-05-08 13:14:13</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>9369</v>
+        <v>6967</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -6738,11 +6738,11 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M86" t="n">
         <v>70</v>
@@ -6755,7 +6755,7 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R86" s="1" t="n">
@@ -6767,41 +6767,41 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>251795</v>
+        <v>251374</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D87" t="n">
-        <v>307.1967213114754</v>
+        <v>558.0204081632653</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-05-13 07:02:08</t>
+          <t>2025-05-08 13:14:13</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-05-13 07:27:08</t>
+          <t>2025-05-08 14:04:13</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-05-13 07:27:08</t>
+          <t>2025-05-08 14:04:13</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2025-05-13 12:34:20</t>
+          <t>2025-05-12 07:22:14</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>18739</v>
+        <v>27343</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -6810,11 +6810,11 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M87" t="n">
         <v>70</v>
@@ -6827,7 +6827,7 @@
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>2025-06-19 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R87" s="1" t="n">

--- a/PS-VRP/Dati_output/insert_inter_post.xlsx
+++ b/PS-VRP/Dati_output/insert_inter_post.xlsx
@@ -515,18 +515,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>245623</v>
+        <v>251706</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>382.8840579710145</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -535,93 +535,100 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:30:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:30:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-12 13:52:53</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>26419</v>
+        <v>3200</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>152</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>39764</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-107.5783917069213</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251416</v>
+        <v>251782</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D3" t="n">
-        <v>162.6376811594203</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-12 13:52:53</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-12 14:22:53</t>
+          <t>2025-05-09 07:42:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-12 14:22:53</t>
+          <t>2025-05-09 07:42:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-13 09:05:31</t>
+          <t>2025-05-09 10:32:02</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>11222</v>
+        <v>12073</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -630,73 +637,75 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N3" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
+        <v>39754</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>39754</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.3788345410648148</v>
+        <v>-0.4389182316087963</v>
       </c>
       <c r="S3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251557</v>
+        <v>251546</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D4" t="n">
-        <v>97.17391304347827</v>
+        <v>91.07042253521126</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-13 09:05:31</t>
+          <t>2025-05-09 10:32:02</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-13 09:30:31</t>
+          <t>2025-05-09 11:19:02</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-13 09:30:31</t>
+          <t>2025-05-09 11:19:02</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-13 11:07:41</t>
+          <t>2025-05-09 12:50:06</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>6705</v>
+        <v>6466</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -709,7 +718,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
@@ -722,53 +731,53 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0</v>
+        <v>-9.534800469479167</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>245089</v>
+        <v>251050</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="D5" t="n">
-        <v>1777.753623188406</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-13 11:07:41</t>
+          <t>2025-05-09 12:50:06</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-13 11:47:41</t>
+          <t>2025-05-12 08:10:06</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-13 11:47:41</t>
+          <t>2025-05-12 08:10:06</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-19 09:25:26</t>
+          <t>2025-05-12 08:10:06</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>122665</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -777,70 +786,75 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M5" t="n">
-        <v>76</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N5" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>0</v>
+        <v>-4.340356025034722</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251987</v>
+        <v>251054</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>35</v>
       </c>
       <c r="D6" t="n">
-        <v>3051.101449275362</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-19 09:25:26</t>
+          <t>2025-05-12 08:10:06</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-19 10:00:26</t>
+          <t>2025-05-12 08:45:06</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-19 10:00:26</t>
+          <t>2025-05-12 08:45:06</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-27 12:51:33</t>
+          <t>2025-05-12 08:45:06</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>210526</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -849,70 +863,75 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="M6" t="n">
-        <v>76</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N6" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-09-01 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>0</v>
+        <v>-4.364661580590278</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251229</v>
+        <v>251081</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="D7" t="n">
-        <v>271.5797101449276</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-27 12:51:33</t>
+          <t>2025-05-12 08:45:06</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-27 13:21:33</t>
+          <t>2025-05-12 10:50:06</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-27 13:21:33</t>
+          <t>2025-05-12 10:50:06</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-28 09:53:07</t>
+          <t>2025-05-12 11:32:32</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>18739</v>
+        <v>3012</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -921,18 +940,18 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>39723 (esterno)</t>
+          <t>39750 (esterno)</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -941,57 +960,57 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39723</v>
+        <v>39750</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-13.4118961352662</v>
+        <v>-19.4809272300463</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251164</v>
+        <v>251284</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>144.9275362318841</v>
+        <v>230.1408450704225</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-28 09:53:07</t>
+          <t>2025-05-12 11:32:32</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-28 10:18:07</t>
+          <t>2025-05-12 13:12:32</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-28 10:18:07</t>
+          <t>2025-05-12 13:12:32</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-28 12:43:03</t>
+          <t>2025-05-13 09:02:40</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>10000</v>
+        <v>16340</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1000,17 +1019,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
       <c r="N8" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1018,57 +1037,57 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-21.52990136876157</v>
+        <v>-5.376858372453704</v>
       </c>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>250641</v>
+        <v>251109</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="D9" t="n">
-        <v>74.14492753623189</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-28 12:43:03</t>
+          <t>2025-05-13 09:02:40</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-28 13:08:03</t>
+          <t>2025-05-13 10:22:40</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-28 13:08:03</t>
+          <t>2025-05-13 10:22:40</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-28 14:22:12</t>
+          <t>2025-05-13 14:49:16</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>5116</v>
+        <v>18928</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1077,11 +1096,11 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
@@ -1094,11 +1113,11 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-30.59875201288195</v>
+        <v>-25.61754694835648</v>
       </c>
       <c r="S9" t="n">
         <v>2</v>
@@ -1106,41 +1125,41 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251061</v>
+        <v>245275</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D10" t="n">
-        <v>347.7826086956522</v>
+        <v>342.1690140845071</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-28 14:22:12</t>
+          <t>2025-05-13 14:49:16</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-28 14:47:12</t>
+          <t>2025-05-14 07:34:16</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-28 14:47:12</t>
+          <t>2025-05-14 07:34:16</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-29 12:34:59</t>
+          <t>2025-05-14 13:16:26</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>23997</v>
+        <v>24294</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1149,11 +1168,11 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
@@ -1166,53 +1185,53 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-24.52429549114584</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251651</v>
+        <v>251520</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="D11" t="n">
-        <v>659.5774647887324</v>
+        <v>230.1408450704225</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-14 13:16:26</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:21:00</t>
+          <t>2025-05-14 14:26:26</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:21:00</t>
+          <t>2025-05-14 14:26:26</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-09 10:20:34</t>
+          <t>2025-05-15 10:16:34</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>46830</v>
+        <v>16340</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1221,17 +1240,14 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M11" t="n">
-        <v>76</v>
-      </c>
-      <c r="N11" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1245,49 +1261,49 @@
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>0</v>
+        <v>-3.428178794988426</v>
       </c>
       <c r="S11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251340</v>
+        <v>251846</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="D12" t="n">
-        <v>461.9718309859155</v>
+        <v>160.4507042253521</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-09 10:20:34</t>
+          <t>2025-05-15 10:16:34</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-09 10:41:34</t>
+          <t>2025-05-15 11:16:34</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-09 10:41:34</t>
+          <t>2025-05-15 11:16:34</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-12 10:23:32</t>
+          <t>2025-05-15 13:57:01</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>32800</v>
+        <v>11392</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1296,14 +1312,14 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
         <v>2</v>
       </c>
       <c r="M12" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1313,53 +1329,53 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-14.43302034428241</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>250759</v>
+        <v>251340</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D13" t="n">
-        <v>118.2816901408451</v>
+        <v>461.9718309859155</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-12 10:23:32</t>
+          <t>2025-05-15 13:57:01</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-12 10:42:32</t>
+          <t>2025-05-15 14:34:01</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-12 10:42:32</t>
+          <t>2025-05-15 14:34:01</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-12 12:40:49</t>
+          <t>2025-05-16 14:16:00</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>8398</v>
+        <v>32800</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1368,75 +1384,70 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M13" t="n">
         <v>76</v>
       </c>
-      <c r="N13" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O13" t="n">
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-4.528354851331018</v>
+        <v>-18.59444444444444</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251566</v>
+        <v>251651</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D14" t="n">
-        <v>97.02816901408451</v>
+        <v>659.5774647887324</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-12 12:40:49</t>
+          <t>2025-05-16 14:16:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-12 13:10:49</t>
+          <t>2025-05-19 07:06:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-12 13:10:49</t>
+          <t>2025-05-19 07:06:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-12 14:47:51</t>
+          <t>2025-05-20 10:05:34</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>6889</v>
+        <v>46830</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1445,70 +1456,73 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
+        <v>5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>76</v>
+      </c>
+      <c r="N14" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>2025-05-12 00:00:00</t>
+        </is>
+      </c>
+      <c r="R14" s="1" t="n">
+        <v>-7.420539906099537</v>
+      </c>
+      <c r="S14" t="n">
         <v>4</v>
-      </c>
-      <c r="M14" t="n">
-        <v>70</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>2025-05-07 00:00:00</t>
-        </is>
-      </c>
-      <c r="R14" s="1" t="n">
-        <v>-5.616568857592593</v>
-      </c>
-      <c r="S14" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251485</v>
+        <v>251519</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="D15" t="n">
-        <v>67.71830985915493</v>
+        <v>185.5633802816901</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-12 14:47:51</t>
+          <t>2025-05-20 10:05:34</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-13 07:04:51</t>
+          <t>2025-05-20 10:57:34</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-13 07:04:51</t>
+          <t>2025-05-20 10:57:34</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-13 08:12:34</t>
+          <t>2025-05-20 14:03:08</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>4808</v>
+        <v>13175</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1521,7 +1535,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
@@ -1534,53 +1548,53 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-20.34206768387732</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251743</v>
+        <v>251456</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>17</v>
+        <v>32.5</v>
       </c>
       <c r="D16" t="n">
-        <v>151.7746478873239</v>
+        <v>163.6181818181818</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-13 08:12:34</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-13 08:29:34</t>
+          <t>2025-05-09 07:32:30</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-13 08:29:34</t>
+          <t>2025-05-09 07:32:30</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-13 11:01:21</t>
+          <t>2025-05-09 10:16:07</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>10776</v>
+        <v>8999</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1593,66 +1607,71 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
       </c>
-      <c r="O16" t="n">
-        <v>0</v>
+      <c r="N16" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>0</v>
+        <v>-3.427859848483796</v>
       </c>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251397</v>
+        <v>251424</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>17</v>
+        <v>32.5</v>
       </c>
       <c r="D17" t="n">
-        <v>76.54929577464789</v>
+        <v>175.6727272727273</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-13 11:01:21</t>
+          <t>2025-05-09 10:16:07</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-13 11:18:21</t>
+          <t>2025-05-09 10:48:37</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-13 11:18:21</t>
+          <t>2025-05-09 10:48:37</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-13 12:34:54</t>
+          <t>2025-05-09 13:44:17</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>5435</v>
+        <v>9662</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1665,7 +1684,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
@@ -1682,7 +1701,7 @@
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-15.52423708920139</v>
+        <v>-11.57242424241898</v>
       </c>
       <c r="S17" t="n">
         <v>4</v>
@@ -1690,41 +1709,41 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251562</v>
+        <v>251742</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>17</v>
+        <v>30.5</v>
       </c>
       <c r="D18" t="n">
-        <v>114.6760563380282</v>
+        <v>149.5636363636364</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-13 12:34:54</t>
+          <t>2025-05-09 13:44:17</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-13 12:51:54</t>
+          <t>2025-05-09 14:14:47</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-13 12:51:54</t>
+          <t>2025-05-09 14:14:47</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-13 14:46:34</t>
+          <t>2025-05-12 08:44:21</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>8142</v>
+        <v>8226</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1737,16 +1756,21 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
       </c>
-      <c r="O18" t="n">
-        <v>0</v>
+      <c r="N18" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1754,49 +1778,49 @@
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>0</v>
+        <v>-5.364135101006944</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>235572</v>
+        <v>251743</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>21</v>
+        <v>30.5</v>
       </c>
       <c r="D19" t="n">
-        <v>140.2535211267606</v>
+        <v>195.9272727272727</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-13 14:46:34</t>
+          <t>2025-05-12 08:44:21</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-14 07:07:34</t>
+          <t>2025-05-12 09:14:51</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-14 07:07:34</t>
+          <t>2025-05-12 09:14:51</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-14 09:27:49</t>
+          <t>2025-05-12 12:30:46</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>9958</v>
+        <v>10776</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1805,11 +1829,11 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
@@ -1822,11 +1846,11 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2023-11-06 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-555.3943270735532</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>4</v>
@@ -1834,41 +1858,41 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251561</v>
+        <v>251229</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>15</v>
+        <v>34.5</v>
       </c>
       <c r="D20" t="n">
-        <v>76.54929577464789</v>
+        <v>340.7090909090909</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-14 09:27:49</t>
+          <t>2025-05-12 12:30:46</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-14 09:42:49</t>
+          <t>2025-05-12 13:05:16</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-14 09:42:49</t>
+          <t>2025-05-12 13:05:16</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-14 10:59:22</t>
+          <t>2025-05-13 10:45:59</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>5435</v>
+        <v>18739</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1877,70 +1901,77 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
       </c>
-      <c r="O20" t="n">
-        <v>0</v>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>39723</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-7.457902973391204</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251564</v>
+        <v>251397</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>19</v>
+        <v>36.5</v>
       </c>
       <c r="D21" t="n">
-        <v>38.26760563380282</v>
+        <v>98.81818181818181</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-14 10:59:22</t>
+          <t>2025-05-13 10:45:59</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-14 11:18:22</t>
+          <t>2025-05-13 11:22:29</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-14 11:18:22</t>
+          <t>2025-05-13 11:22:29</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-14 11:56:38</t>
+          <t>2025-05-13 13:01:18</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2717</v>
+        <v>5435</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1966,53 +1997,53 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-7.497672143969907</v>
+        <v>-15.54257575758102</v>
       </c>
       <c r="S21" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251626</v>
+        <v>251467</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>15</v>
+        <v>32.5</v>
       </c>
       <c r="D22" t="n">
-        <v>176.056338028169</v>
+        <v>113.2</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-14 11:56:38</t>
+          <t>2025-05-13 13:01:18</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-14 12:11:38</t>
+          <t>2025-05-13 13:33:48</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-14 12:11:38</t>
+          <t>2025-05-13 13:33:48</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-15 07:07:42</t>
+          <t>2025-05-14 07:27:00</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>12500</v>
+        <v>6226</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2025,7 +2056,7 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M22" t="n">
         <v>70</v>
@@ -2038,53 +2069,53 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-15.29701682315972</v>
+        <v>-5.310422979803241</v>
       </c>
       <c r="S22" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>245350</v>
+        <v>251260</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>29</v>
+        <v>38.5</v>
       </c>
       <c r="D23" t="n">
-        <v>393.943661971831</v>
+        <v>170.3454545454545</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-15 07:07:42</t>
+          <t>2025-05-14 07:27:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-15 07:36:42</t>
+          <t>2025-05-14 08:05:30</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-15 07:36:42</t>
+          <t>2025-05-14 08:05:30</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-15 14:10:38</t>
+          <t>2025-05-14 10:55:51</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>27970</v>
+        <v>9369</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2093,11 +2124,11 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
@@ -2110,53 +2141,53 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251346</v>
+        <v>251416</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D24" t="n">
-        <v>54.35211267605634</v>
+        <v>183.9672131147541</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-15 14:10:38</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-15 14:29:38</t>
+          <t>2025-05-08 07:20:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-15 14:29:38</t>
+          <t>2025-05-08 07:20:00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-16 07:24:00</t>
+          <t>2025-05-08 10:23:58</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>3859</v>
+        <v>11222</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2169,11 +2200,14 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
       </c>
+      <c r="N24" t="n">
+        <v>39755</v>
+      </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
@@ -2182,11 +2216,11 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-18.30833333333333</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>2</v>
@@ -2194,41 +2228,41 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251761</v>
+        <v>244355</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D25" t="n">
-        <v>187.0281690140845</v>
+        <v>70.65573770491804</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-16 07:24:00</t>
+          <t>2025-05-08 10:23:58</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-16 07:47:00</t>
+          <t>2025-05-08 10:53:58</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-16 07:47:00</t>
+          <t>2025-05-08 10:53:58</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-16 10:54:01</t>
+          <t>2025-05-08 12:04:37</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>13279</v>
+        <v>4310</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2254,53 +2288,53 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-05-19 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>0</v>
+        <v>-0.5032103825115741</v>
       </c>
       <c r="S25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251465</v>
+        <v>251475</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D26" t="n">
-        <v>87.69014084507042</v>
+        <v>142.3114754098361</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-16 10:54:01</t>
+          <t>2025-05-08 12:04:37</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-16 11:13:01</t>
+          <t>2025-05-08 12:24:37</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-16 11:13:01</t>
+          <t>2025-05-08 12:24:37</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-16 12:40:43</t>
+          <t>2025-05-08 14:46:56</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>6226</v>
+        <v>8681</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2313,7 +2347,7 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
         <v>70</v>
@@ -2326,53 +2360,53 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-7.528276604074073</v>
+        <v>-8.61592668488426</v>
       </c>
       <c r="S26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251467</v>
+        <v>251164</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D27" t="n">
-        <v>87.69014084507042</v>
+        <v>163.9344262295082</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-16 12:40:43</t>
+          <t>2025-05-08 14:46:56</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-16 12:55:43</t>
+          <t>2025-05-09 07:16:56</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-16 12:55:43</t>
+          <t>2025-05-09 07:16:56</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-16 14:23:24</t>
+          <t>2025-05-09 10:00:52</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>6226</v>
+        <v>10000</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2385,66 +2419,71 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M27" t="n">
         <v>70</v>
       </c>
-      <c r="O27" t="n">
-        <v>0</v>
+      <c r="N27" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-7.599589201874999</v>
+        <v>-2.417270036435185</v>
       </c>
       <c r="S27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251260</v>
+        <v>251840</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D28" t="n">
-        <v>131.9577464788732</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-16 14:23:24</t>
+          <t>2025-05-09 10:00:52</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-16 14:46:24</t>
+          <t>2025-05-09 10:25:52</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-16 14:46:24</t>
+          <t>2025-05-09 10:25:52</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-19 08:58:21</t>
+          <t>2025-05-09 11:59:32</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>9369</v>
+        <v>5714</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2453,28 +2492,33 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M28" t="n">
         <v>70</v>
       </c>
-      <c r="O28" t="n">
-        <v>0</v>
+      <c r="N28" t="n">
+        <v>39758</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>39758</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>0</v>
+        <v>-1.499681238611111</v>
       </c>
       <c r="S28" t="n">
         <v>1</v>
@@ -2482,41 +2526,41 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251795</v>
+        <v>251594</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D29" t="n">
-        <v>263.9295774647887</v>
+        <v>106</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-19 08:58:21</t>
+          <t>2025-05-09 11:59:32</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-19 09:13:21</t>
+          <t>2025-05-09 12:24:32</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-19 09:13:21</t>
+          <t>2025-05-09 12:24:32</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-19 13:37:17</t>
+          <t>2025-05-09 14:10:32</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>18739</v>
+        <v>6466</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2525,11 +2569,11 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
@@ -2542,132 +2586,125 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-06-19 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>0</v>
+        <v>-2.590653460833333</v>
       </c>
       <c r="S29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251706</v>
+        <v>250819</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D30" t="n">
-        <v>50.79365079365079</v>
+        <v>139.7868852459016</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 14:10:32</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 14:40:32</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 14:40:32</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-12 09:00:19</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>3200</v>
+        <v>8527</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>39764</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>0</v>
+        <v>-24.37522768670139</v>
       </c>
       <c r="S30" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251546</v>
+        <v>251373</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="D31" t="n">
-        <v>91.07042253521126</v>
+        <v>280.2295081967213</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-12 09:00:19</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:00</t>
+          <t>2025-05-12 09:25:19</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:00</t>
+          <t>2025-05-12 09:25:19</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-09 09:23:04</t>
+          <t>2025-05-12 14:05:33</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>6466</v>
+        <v>17094</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2693,53 +2730,53 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-9.391021126759259</v>
+        <v>-14.58719262295139</v>
       </c>
       <c r="S31" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>245275</v>
+        <v>251505</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="D32" t="n">
-        <v>342.1690140845071</v>
+        <v>233.6885245901639</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-09 09:23:04</t>
+          <t>2025-05-12 14:05:33</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-09 10:43:04</t>
+          <t>2025-05-12 14:25:33</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-09 10:43:04</t>
+          <t>2025-05-12 14:25:33</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-12 08:25:14</t>
+          <t>2025-05-13 10:19:14</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>24294</v>
+        <v>14255</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2748,11 +2785,11 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="M32" t="n">
         <v>70</v>
@@ -2765,11 +2802,11 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>0</v>
+        <v>-8.43003187613426</v>
       </c>
       <c r="S32" t="n">
         <v>7</v>
@@ -2777,41 +2814,41 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251050</v>
+        <v>251466</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>91.26229508196721</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-12 08:25:14</t>
+          <t>2025-05-13 10:19:14</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-12 11:00:14</t>
+          <t>2025-05-13 10:49:14</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-12 11:00:14</t>
+          <t>2025-05-13 10:49:14</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-12 11:00:14</t>
+          <t>2025-05-13 12:20:30</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>5567</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2820,75 +2857,70 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="M33" t="n">
         <v>70</v>
       </c>
-      <c r="N33" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O33" t="n">
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-4.458499608761574</v>
+        <v>-4.514241803275463</v>
       </c>
       <c r="S33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251054</v>
+        <v>251465</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>102.0655737704918</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-12 11:00:14</t>
+          <t>2025-05-13 12:20:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-12 11:35:14</t>
+          <t>2025-05-13 12:45:30</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-12 11:35:14</t>
+          <t>2025-05-13 12:45:30</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-12 11:35:14</t>
+          <t>2025-05-13 14:27:34</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>6226</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2897,75 +2929,70 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="M34" t="n">
         <v>70</v>
       </c>
-      <c r="N34" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O34" t="n">
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>-4.48280516431713</v>
+        <v>-4.602481785069444</v>
       </c>
       <c r="S34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251081</v>
+        <v>251562</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="D35" t="n">
-        <v>42.42253521126761</v>
+        <v>133.4754098360656</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-12 11:35:14</t>
+          <t>2025-05-13 14:27:34</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-12 13:40:14</t>
+          <t>2025-05-13 14:47:34</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-12 13:40:14</t>
+          <t>2025-05-13 14:47:34</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-12 14:22:39</t>
+          <t>2025-05-14 09:01:02</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>3012</v>
+        <v>8142</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2974,77 +3001,70 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
       </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O35" t="n">
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>39750</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
-        <v>-19.59907081377315</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>251109</v>
+        <v>251251</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D36" t="n">
-        <v>266.5915492957747</v>
+        <v>260</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-12 14:22:39</t>
+          <t>2025-05-14 09:01:02</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-13 07:17:39</t>
+          <t>2025-05-14 09:41:02</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-13 07:17:39</t>
+          <t>2025-05-14 09:41:02</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-13 11:44:15</t>
+          <t>2025-05-14 14:01:02</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>18928</v>
+        <v>15860</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3053,11 +3073,11 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="M36" t="n">
         <v>70</v>
@@ -3070,53 +3090,53 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
-        <v>-25.48906494523148</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>251846</v>
+        <v>250923</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D37" t="n">
-        <v>186.7540983606557</v>
+        <v>98.67605633802818</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-08 07:20:00</t>
+          <t>2025-05-08 12:21:00</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-08 07:20:00</t>
+          <t>2025-05-08 12:21:00</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-08 10:26:45</t>
+          <t>2025-05-08 13:59:40</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>11392</v>
+        <v>7006</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3125,70 +3145,75 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L37" t="n">
+        <v>5</v>
+      </c>
+      <c r="M37" t="n">
+        <v>76</v>
+      </c>
+      <c r="N37" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>39749</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>2025-04-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="R37" s="1" t="n">
+        <v>-1.583108372453704</v>
+      </c>
+      <c r="S37" t="n">
         <v>2</v>
-      </c>
-      <c r="M37" t="n">
-        <v>70</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>2025-05-30 00:00:00</t>
-        </is>
-      </c>
-      <c r="R37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251462</v>
+        <v>250670</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D38" t="n">
-        <v>102.0655737704918</v>
+        <v>22.01408450704225</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-08 10:26:45</t>
+          <t>2025-05-08 13:59:40</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-08 10:46:45</t>
+          <t>2025-05-08 14:16:40</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-08 10:46:45</t>
+          <t>2025-05-08 14:16:40</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-08 12:28:49</t>
+          <t>2025-05-08 14:38:41</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>6226</v>
+        <v>1563</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3197,70 +3222,70 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L38" t="n">
+        <v>4</v>
+      </c>
+      <c r="M38" t="n">
+        <v>76</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>2025-05-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="R38" s="1" t="n">
+        <v>-3.610201486701389</v>
+      </c>
+      <c r="S38" t="n">
         <v>2</v>
-      </c>
-      <c r="M38" t="n">
-        <v>70</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>2025-05-09 00:00:00</t>
-        </is>
-      </c>
-      <c r="R38" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>251594</v>
+        <v>251225</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D39" t="n">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-08 12:28:49</t>
+          <t>2025-05-08 14:38:41</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-08 12:58:49</t>
+          <t>2025-05-08 14:53:41</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-08 12:58:49</t>
+          <t>2025-05-08 14:53:41</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-08 14:44:49</t>
+          <t>2025-05-08 14:53:41</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>6466</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3269,70 +3294,75 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
         <v>4</v>
       </c>
       <c r="M39" t="n">
-        <v>70</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N39" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-1.614458105648148</v>
+        <v>-0.6206181533680556</v>
       </c>
       <c r="S39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251371</v>
+        <v>243569</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-08 14:44:49</t>
+          <t>2025-05-08 14:53:41</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-09 07:04:49</t>
+          <t>2025-05-09 07:10:41</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-09 07:04:49</t>
+          <t>2025-05-09 07:10:41</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-09 07:04:49</t>
+          <t>2025-05-09 07:47:19</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>2601</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3341,77 +3371,70 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M40" t="n">
-        <v>70</v>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>39666</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2024-09-16 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-15.2950136612037</v>
+        <v>-235.3245305164352</v>
       </c>
       <c r="S40" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>251742</v>
+        <v>245623</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D41" t="n">
-        <v>134.8524590163935</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-09 07:04:49</t>
+          <t>2025-05-09 07:47:19</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-09 07:24:49</t>
+          <t>2025-05-09 08:19:19</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-09 07:24:49</t>
+          <t>2025-05-09 08:19:19</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-09 09:39:40</t>
+          <t>2025-05-09 14:31:25</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>8226</v>
+        <v>26419</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3420,75 +3443,70 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M41" t="n">
-        <v>70</v>
-      </c>
-      <c r="N41" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-2.402550091076389</v>
+        <v>-104.6051545383449</v>
       </c>
       <c r="S41" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251283</v>
+        <v>243335</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D42" t="n">
-        <v>12.36065573770492</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-09 09:39:40</t>
+          <t>2025-05-09 14:31:25</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-09 10:09:40</t>
+          <t>2025-05-09 14:50:25</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-09 10:09:40</t>
+          <t>2025-05-09 14:50:25</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-09 10:22:01</t>
+          <t>2025-05-12 14:35:16</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>754</v>
+        <v>33004</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3497,14 +3515,14 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M42" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -3514,11 +3532,11 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-03-18 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-52.43196721311343</v>
+        <v>-283.6078247261343</v>
       </c>
       <c r="S42" t="n">
         <v>1</v>
@@ -3526,41 +3544,41 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251505</v>
+        <v>251987</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D43" t="n">
-        <v>233.6885245901639</v>
+        <v>2965.154929577465</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-09 10:22:01</t>
+          <t>2025-05-12 14:35:16</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-09 10:47:01</t>
+          <t>2025-05-13 07:09:16</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-09 10:47:01</t>
+          <t>2025-05-13 07:09:16</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-09 14:40:43</t>
+          <t>2025-05-21 08:34:25</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>14255</v>
+        <v>210526</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3569,14 +3587,14 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M43" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -3586,53 +3604,53 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-09-01 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-4.611612021863426</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251840</v>
+        <v>251564</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D44" t="n">
-        <v>93.67213114754098</v>
+        <v>38.26760563380282</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-09 14:40:43</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:43</t>
+          <t>2025-05-08 07:32:00</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:43</t>
+          <t>2025-05-08 07:32:00</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-05-12 08:34:23</t>
+          <t>2025-05-08 08:10:16</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>5714</v>
+        <v>2717</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3645,71 +3663,66 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M44" t="n">
         <v>70</v>
       </c>
-      <c r="N44" t="n">
-        <v>39758</v>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O44" t="n">
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>39758</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-4.357217668483797</v>
+        <v>-1.340463615023148</v>
       </c>
       <c r="S44" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>251373</v>
+        <v>251455</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D45" t="n">
-        <v>280.2295081967213</v>
+        <v>74.6056338028169</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-12 08:34:23</t>
+          <t>2025-05-08 08:10:16</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-12 08:54:23</t>
+          <t>2025-05-08 08:27:16</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-12 08:54:23</t>
+          <t>2025-05-08 08:27:16</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-12 13:34:37</t>
+          <t>2025-05-08 09:41:52</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>17094</v>
+        <v>5297</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3722,66 +3735,71 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M45" t="n">
         <v>70</v>
       </c>
-      <c r="O45" t="n">
-        <v>0</v>
+      <c r="N45" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>-14.56571038251157</v>
+        <v>-1.40407863849537</v>
       </c>
       <c r="S45" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>251475</v>
+        <v>251346</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D46" t="n">
-        <v>142.3114754098361</v>
+        <v>54.35211267605634</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-12 13:34:37</t>
+          <t>2025-05-08 09:41:52</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-12 13:59:37</t>
+          <t>2025-05-08 10:04:52</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-12 13:59:37</t>
+          <t>2025-05-08 10:04:52</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-13 08:21:56</t>
+          <t>2025-05-08 10:59:13</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>8681</v>
+        <v>3859</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3794,7 +3812,7 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M46" t="n">
         <v>70</v>
@@ -3807,53 +3825,53 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>-13.34856557377315</v>
+        <v>-10.45779538341435</v>
       </c>
       <c r="S46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>251809</v>
+        <v>244204</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D47" t="n">
-        <v>142.3114754098361</v>
+        <v>48.90140845070422</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-05-13 08:21:56</t>
+          <t>2025-05-08 10:59:13</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-13 08:41:56</t>
+          <t>2025-05-08 11:22:13</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-05-13 08:41:56</t>
+          <t>2025-05-08 11:22:13</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-05-13 11:04:14</t>
+          <t>2025-05-08 12:11:07</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>8681</v>
+        <v>3472</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3879,11 +3897,11 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>0</v>
+        <v>-0.5077269170601851</v>
       </c>
       <c r="S47" t="n">
         <v>4</v>
@@ -3891,41 +3909,41 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>251249</v>
+        <v>251547</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D48" t="n">
-        <v>78</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-13 11:04:14</t>
+          <t>2025-05-08 12:11:07</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-13 11:34:14</t>
+          <t>2025-05-08 12:26:07</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-13 11:34:14</t>
+          <t>2025-05-08 12:26:07</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-05-13 12:52:14</t>
+          <t>2025-05-09 07:31:02</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>4758</v>
+        <v>13129</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3934,70 +3952,75 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M48" t="n">
         <v>70</v>
       </c>
-      <c r="O48" t="n">
-        <v>0</v>
+      <c r="N48" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>0</v>
+        <v>-2.313223787164352</v>
       </c>
       <c r="S48" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>244023</v>
+        <v>250759</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D49" t="n">
-        <v>16.34426229508197</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-13 12:52:14</t>
+          <t>2025-05-09 07:31:02</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-13 13:12:14</t>
+          <t>2025-05-09 08:01:02</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-13 13:12:14</t>
+          <t>2025-05-09 08:01:02</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-13 13:28:35</t>
+          <t>2025-05-09 09:59:19</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>997</v>
+        <v>8398</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4006,28 +4029,33 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M49" t="n">
-        <v>70</v>
-      </c>
-      <c r="O49" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N49" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P49" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>-225.5615209471759</v>
+        <v>-1.416197183101852</v>
       </c>
       <c r="S49" t="n">
         <v>1</v>
@@ -4035,41 +4063,41 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251247</v>
+        <v>235572</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D50" t="n">
-        <v>441.5409836065574</v>
+        <v>140.2535211267606</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-13 13:28:35</t>
+          <t>2025-05-09 09:59:19</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-13 13:48:35</t>
+          <t>2025-05-09 10:31:19</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-13 13:48:35</t>
+          <t>2025-05-09 10:31:19</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-14 13:10:07</t>
+          <t>2025-05-09 12:51:34</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>26934</v>
+        <v>9958</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4078,11 +4106,11 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M50" t="n">
         <v>70</v>
@@ -4095,53 +4123,53 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2023-11-06 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>-5.548702185787037</v>
+        <v>-550.5358176838773</v>
       </c>
       <c r="S50" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251251</v>
+        <v>251462</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D51" t="n">
-        <v>260</v>
+        <v>87.69014084507042</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-14 13:10:07</t>
+          <t>2025-05-09 12:51:34</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-14 13:30:07</t>
+          <t>2025-05-09 13:12:34</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-14 13:30:07</t>
+          <t>2025-05-09 13:12:34</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-15 09:50:07</t>
+          <t>2025-05-09 14:40:16</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>15860</v>
+        <v>6226</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4150,11 +4178,11 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M51" t="n">
         <v>70</v>
@@ -4167,11 +4195,11 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>0</v>
+        <v>-0.6112969483564815</v>
       </c>
       <c r="S51" t="n">
         <v>1</v>
@@ -4179,41 +4207,41 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>251225</v>
+        <v>245350</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>393.943661971831</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-09 14:40:16</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-12 07:11:16</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-12 07:11:16</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-12 13:45:12</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>27970</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4222,75 +4250,70 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M52" t="n">
-        <v>76</v>
-      </c>
-      <c r="N52" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>0</v>
       </c>
       <c r="S52" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>251227</v>
+        <v>251557</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>94.43661971830986</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-12 13:45:12</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-12 14:16:12</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-12 14:16:12</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-13 07:50:38</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>6705</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4299,33 +4322,28 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M53" t="n">
-        <v>76</v>
-      </c>
-      <c r="N53" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>0</v>
       </c>
       <c r="S53" t="n">
         <v>1</v>
@@ -4333,41 +4351,41 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>243569</v>
+        <v>251062</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D54" t="n">
-        <v>36.63380281690141</v>
+        <v>318.6478873239437</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-13 07:50:38</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-13 08:13:38</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-13 08:13:38</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-08 13:27:38</t>
+          <t>2025-05-13 13:32:17</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>2601</v>
+        <v>22624</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4376,14 +4394,14 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M54" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
@@ -4393,53 +4411,53 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>-234.5608568075116</v>
+        <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>250670</v>
+        <v>251245</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D55" t="n">
-        <v>22.01408450704225</v>
+        <v>12.36065573770492</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-08 13:27:38</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-08 13:44:38</t>
+          <t>2025-05-09 07:46:00</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-08 13:44:38</t>
+          <t>2025-05-09 07:46:00</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-08 14:06:38</t>
+          <t>2025-05-09 07:58:21</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>1563</v>
+        <v>754</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4448,14 +4466,14 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M55" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -4465,53 +4483,53 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>-3.587949921747685</v>
+        <v>-42.33219489981482</v>
       </c>
       <c r="S55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>243335</v>
+        <v>251391</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D56" t="n">
-        <v>464.8450704225352</v>
+        <v>96.14754098360656</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-08 14:06:38</t>
+          <t>2025-05-09 07:58:21</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-08 14:36:38</t>
+          <t>2025-05-09 08:25:21</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-08 14:36:38</t>
+          <t>2025-05-09 08:25:21</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-09 14:21:29</t>
+          <t>2025-05-09 10:01:30</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>33004</v>
+        <v>5865</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4520,70 +4538,75 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M56" t="n">
-        <v>152</v>
-      </c>
-      <c r="O56" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N56" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P56" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>-280.5982589984375</v>
+        <v>-2.417714025497685</v>
       </c>
       <c r="S56" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>251750</v>
+        <v>251259</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D57" t="n">
-        <v>54.80281690140845</v>
+        <v>81.9672131147541</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-09 14:21:29</t>
+          <t>2025-05-09 10:01:30</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-09 14:38:29</t>
+          <t>2025-05-09 10:34:30</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-09 14:38:29</t>
+          <t>2025-05-09 10:34:30</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-12 07:33:17</t>
+          <t>2025-05-09 11:56:28</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>3891</v>
+        <v>5000</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4592,14 +4615,14 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M57" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -4609,53 +4632,53 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>0</v>
+        <v>-3.497552367939815</v>
       </c>
       <c r="S57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251424</v>
+        <v>251061</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D58" t="n">
-        <v>150.96875</v>
+        <v>393.3934426229508</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-09 11:56:28</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-09 12:27:28</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-09 12:27:28</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-07 09:49:58</t>
+          <t>2025-05-12 11:00:52</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>9662</v>
+        <v>23997</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4664,11 +4687,11 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M58" t="n">
         <v>70</v>
@@ -4681,53 +4704,53 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-9.409700520833333</v>
+        <v>-7.458936703101852</v>
       </c>
       <c r="S58" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>250819</v>
+        <v>250894</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D59" t="n">
-        <v>133.234375</v>
+        <v>725.6065573770492</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-07 09:49:58</t>
+          <t>2025-05-12 11:00:52</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-07 10:08:58</t>
+          <t>2025-05-12 11:42:52</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-07 10:08:58</t>
+          <t>2025-05-12 11:42:52</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-07 12:22:12</t>
+          <t>2025-05-14 07:48:28</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>8527</v>
+        <v>44262</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4736,14 +4759,17 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M59" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N59" t="n">
+        <v>39755</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -4753,53 +4779,53 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>-19.51541883680556</v>
+        <v>-1.325330145717593</v>
       </c>
       <c r="S59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>251246</v>
+        <v>251750</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D60" t="n">
-        <v>187.53125</v>
+        <v>63.78688524590164</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-07 12:22:12</t>
+          <t>2025-05-14 07:48:28</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-07 12:37:12</t>
+          <t>2025-05-14 08:32:28</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-07 12:37:12</t>
+          <t>2025-05-14 08:32:28</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-08 07:44:44</t>
+          <t>2025-05-14 09:36:15</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>12002</v>
+        <v>3891</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4808,14 +4834,14 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M60" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
@@ -4825,7 +4851,7 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
@@ -4837,41 +4863,41 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>251456</v>
+        <v>245090</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D61" t="n">
-        <v>140.609375</v>
+        <v>8470.786885245901</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-08 07:44:44</t>
+          <t>2025-05-14 09:36:15</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-08 08:05:44</t>
+          <t>2025-05-14 10:20:15</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-08 08:05:44</t>
+          <t>2025-05-14 10:20:15</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-08 10:26:20</t>
+          <t>2025-06-09 07:31:02</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>8999</v>
+        <v>516718</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4880,33 +4906,28 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M61" t="n">
-        <v>70</v>
-      </c>
-      <c r="N61" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>-2.4349609375</v>
+        <v>0</v>
       </c>
       <c r="S61" t="n">
         <v>1</v>
@@ -4914,41 +4935,41 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>251519</v>
+        <v>251477</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D62" t="n">
-        <v>205.859375</v>
+        <v>434.768115942029</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-08 10:26:20</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:20</t>
+          <t>2025-05-12 07:30:00</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:20</t>
+          <t>2025-05-12 07:30:00</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-08 14:09:12</t>
+          <t>2025-05-12 14:44:46</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>13175</v>
+        <v>29999</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4957,70 +4978,75 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M62" t="n">
-        <v>70</v>
-      </c>
-      <c r="O62" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N62" t="n">
+        <v>39760</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P62" t="n">
-        <v>0</v>
+        <v>39760</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>0</v>
+        <v>-5.614422302743056</v>
       </c>
       <c r="S62" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>244355</v>
+        <v>251247</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D63" t="n">
-        <v>67.34375</v>
+        <v>390.3478260869565</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-08 14:09:12</t>
+          <t>2025-05-12 14:44:46</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-08 14:28:12</t>
+          <t>2025-05-13 07:29:46</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-08 14:28:12</t>
+          <t>2025-05-13 07:29:46</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-09 07:35:32</t>
+          <t>2025-05-13 14:00:06</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>4310</v>
+        <v>26934</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5029,11 +5055,11 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M63" t="n">
         <v>70</v>
@@ -5046,53 +5072,53 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>-1.316351996527778</v>
+        <v>-4.58341384863426</v>
       </c>
       <c r="S63" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>251547</v>
+        <v>251809</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D64" t="n">
-        <v>205.140625</v>
+        <v>125.8115942028985</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-09 07:35:32</t>
+          <t>2025-05-13 14:00:06</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-09 07:50:32</t>
+          <t>2025-05-13 14:35:06</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-09 07:50:32</t>
+          <t>2025-05-13 14:35:06</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-09 11:15:41</t>
+          <t>2025-05-14 08:40:55</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>13129</v>
+        <v>8681</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5110,66 +5136,61 @@
       <c r="M64" t="n">
         <v>70</v>
       </c>
-      <c r="N64" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O64" t="n">
+        <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>-2.469227430555556</v>
+        <v>0</v>
       </c>
       <c r="S64" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>251455</v>
+        <v>251249</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D65" t="n">
-        <v>82.765625</v>
+        <v>68.95652173913044</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-09 11:15:41</t>
+          <t>2025-05-14 08:40:55</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-09 11:30:41</t>
+          <t>2025-05-14 09:15:55</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-09 11:30:41</t>
+          <t>2025-05-14 09:15:55</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-09 12:53:27</t>
+          <t>2025-05-14 10:24:53</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>5297</v>
+        <v>4758</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5178,75 +5199,70 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M65" t="n">
         <v>70</v>
       </c>
-      <c r="N65" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O65" t="n">
+        <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>-2.537120225694444</v>
+        <v>0</v>
       </c>
       <c r="S65" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251391</v>
+        <v>251795</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D66" t="n">
-        <v>91.640625</v>
+        <v>271.5797101449276</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-09 12:53:27</t>
+          <t>2025-05-14 10:24:53</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-09 13:10:27</t>
+          <t>2025-05-14 10:49:53</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-09 13:10:27</t>
+          <t>2025-05-14 10:49:53</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-09 14:42:05</t>
+          <t>2025-05-15 07:21:27</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>5865</v>
+        <v>18739</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5255,41 +5271,36 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M66" t="n">
         <v>70</v>
       </c>
-      <c r="N66" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O66" t="n">
+        <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-06-19 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>-2.612565104166667</v>
+        <v>0</v>
       </c>
       <c r="S66" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>251395</v>
+        <v>244023</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -5297,33 +5308,33 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D67" t="n">
-        <v>35.34375</v>
+        <v>15.578125</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-09 14:42:05</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-09 14:59:05</t>
+          <t>2025-05-07 07:23:00</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-09 14:59:05</t>
+          <t>2025-05-07 07:23:00</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-12 07:34:26</t>
+          <t>2025-05-07 07:38:34</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>2262</v>
+        <v>997</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5341,32 +5352,27 @@
       <c r="M67" t="n">
         <v>70</v>
       </c>
-      <c r="N67" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O67" t="n">
+        <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>-5.315581597222222</v>
+        <v>-219.31845703125</v>
       </c>
       <c r="S67" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>251396</v>
+        <v>251227</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -5374,33 +5380,33 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D68" t="n">
-        <v>35.34375</v>
+        <v>0</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-12 07:34:26</t>
+          <t>2025-05-07 07:38:34</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-12 07:49:26</t>
+          <t>2025-05-07 08:12:34</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-12 07:49:26</t>
+          <t>2025-05-07 08:12:34</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-12 08:24:46</t>
+          <t>2025-05-07 08:12:34</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>2262</v>
+        <v>0</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5409,17 +5415,17 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M68" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N68" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -5427,23 +5433,23 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>-5.350542534722222</v>
+        <v>-1.342068142361111</v>
       </c>
       <c r="S68" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>251548</v>
+        <v>251395</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -5451,33 +5457,33 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D69" t="n">
-        <v>206.90625</v>
+        <v>35.34375</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-12 08:24:46</t>
+          <t>2025-05-07 08:12:34</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-12 08:43:46</t>
+          <t>2025-05-07 08:46:34</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-12 08:43:46</t>
+          <t>2025-05-07 08:46:34</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-12 12:10:41</t>
+          <t>2025-05-07 09:21:55</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>13242</v>
+        <v>2262</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5490,7 +5496,7 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M69" t="n">
         <v>70</v>
@@ -5508,11 +5514,11 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>-5.507421875</v>
+        <v>-0.3902235243055556</v>
       </c>
       <c r="S69" t="n">
         <v>7</v>
@@ -5520,7 +5526,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>245090</v>
+        <v>251371</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -5528,33 +5534,33 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D70" t="n">
-        <v>8073.71875</v>
+        <v>0</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-12 12:10:41</t>
+          <t>2025-05-07 09:21:55</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-12 12:42:41</t>
+          <t>2025-05-07 09:40:55</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-12 12:42:41</t>
+          <t>2025-05-07 09:40:55</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-06-04 11:16:24</t>
+          <t>2025-05-07 09:40:55</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>516718</v>
+        <v>0</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5563,36 +5569,43 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M70" t="n">
-        <v>76</v>
-      </c>
-      <c r="O70" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P70" t="n">
-        <v>0</v>
+        <v>39666</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>0</v>
+        <v>-13.40341796875</v>
       </c>
       <c r="S70" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>250894</v>
+        <v>251396</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -5600,33 +5613,33 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D71" t="n">
-        <v>691.59375</v>
+        <v>35.34375</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-06-04 11:16:24</t>
+          <t>2025-05-07 09:40:55</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-06-04 11:31:24</t>
+          <t>2025-05-07 09:59:55</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-06-04 11:31:24</t>
+          <t>2025-05-07 09:59:55</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-06-06 07:03:00</t>
+          <t>2025-05-07 10:35:15</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>44262</v>
+        <v>2262</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5635,39 +5648,41 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M71" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N71" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O71" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P71" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-24.29375</v>
+        <v>-0.4411566840277778</v>
       </c>
       <c r="S71" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>250923</v>
+        <v>251548</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -5675,33 +5690,33 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D72" t="n">
-        <v>109.46875</v>
+        <v>206.90625</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-06-06 07:03:00</t>
+          <t>2025-05-07 10:35:15</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-06-06 07:18:00</t>
+          <t>2025-05-07 10:54:15</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-06-06 07:18:00</t>
+          <t>2025-05-07 10:54:15</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-06-06 09:07:28</t>
+          <t>2025-05-07 14:21:10</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>7006</v>
+        <v>13242</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5710,14 +5725,14 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M72" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N72" t="n">
         <v>39749</v>
@@ -5732,19 +5747,19 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>-30.38018663194444</v>
+        <v>-0.5980360243055556</v>
       </c>
       <c r="S72" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>251477</v>
+        <v>251463</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -5752,33 +5767,33 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D73" t="n">
-        <v>468.734375</v>
+        <v>108.859375</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-06-06 09:07:28</t>
+          <t>2025-05-07 14:21:10</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-06-06 09:26:28</t>
+          <t>2025-05-07 14:36:10</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-06-06 09:26:28</t>
+          <t>2025-05-07 14:36:10</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-06-09 09:15:12</t>
+          <t>2025-05-08 08:25:01</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>29999</v>
+        <v>6967</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5787,33 +5802,28 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M73" t="n">
-        <v>76</v>
-      </c>
-      <c r="N73" t="n">
-        <v>39760</v>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>39760</v>
+        <v>0</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
-        <v>-33.38555772569445</v>
+        <v>0</v>
       </c>
       <c r="S73" t="n">
         <v>1</v>
@@ -5821,7 +5831,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>251782</v>
+        <v>251626</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -5829,33 +5839,33 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D74" t="n">
-        <v>188.640625</v>
+        <v>195.3125</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-06-09 09:15:12</t>
+          <t>2025-05-08 08:25:01</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-06-09 09:30:12</t>
+          <t>2025-05-08 08:42:01</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-06-09 09:30:12</t>
+          <t>2025-05-08 08:42:01</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-06-09 12:38:50</t>
+          <t>2025-05-08 11:57:20</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>12073</v>
+        <v>12500</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -5864,75 +5874,70 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L74" t="n">
         <v>3</v>
       </c>
       <c r="M74" t="n">
-        <v>76</v>
-      </c>
-      <c r="N74" t="n">
-        <v>39754</v>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0</v>
       </c>
       <c r="P74" t="n">
-        <v>39754</v>
+        <v>0</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
-        <v>-31.52697482638889</v>
+        <v>-8.498155381944445</v>
       </c>
       <c r="S74" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>244354</v>
+        <v>250641</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>34.5</v>
+        <v>21</v>
       </c>
       <c r="D75" t="n">
-        <v>78.36363636363636</v>
+        <v>79.9375</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 11:57:20</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-09 07:34:30</t>
+          <t>2025-05-08 12:18:20</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-09 07:34:30</t>
+          <t>2025-05-08 12:18:20</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-09 08:52:51</t>
+          <t>2025-05-08 13:38:16</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>4310</v>
+        <v>5116</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -5945,7 +5950,7 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M75" t="n">
         <v>70</v>
@@ -5958,49 +5963,49 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
-        <v>-1.370044191921296</v>
+        <v>-10.56825086805556</v>
       </c>
       <c r="S75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>251245</v>
+        <v>251283</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>34.5</v>
+        <v>15</v>
       </c>
       <c r="D76" t="n">
-        <v>13.70909090909091</v>
+        <v>11.78125</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-05-09 08:52:51</t>
+          <t>2025-05-08 13:38:16</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-05-09 09:27:21</t>
+          <t>2025-05-08 13:53:16</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-05-09 09:27:21</t>
+          <t>2025-05-08 13:53:16</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-05-09 09:41:04</t>
+          <t>2025-05-08 14:05:03</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -6030,11 +6035,11 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-03-18 00:00:00</t>
         </is>
       </c>
       <c r="R76" s="1" t="n">
-        <v>-42.40352272726852</v>
+        <v>-51.58684895833333</v>
       </c>
       <c r="S76" t="n">
         <v>1</v>
@@ -6042,41 +6047,41 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>251520</v>
+        <v>251561</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>32.5</v>
+        <v>17</v>
       </c>
       <c r="D77" t="n">
-        <v>297.0909090909091</v>
+        <v>84.921875</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-05-09 09:41:04</t>
+          <t>2025-05-08 14:05:03</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-05-09 10:13:34</t>
+          <t>2025-05-08 14:22:03</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-05-09 10:13:34</t>
+          <t>2025-05-08 14:22:03</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-05-12 07:10:39</t>
+          <t>2025-05-09 07:46:59</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>16340</v>
+        <v>5435</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -6085,11 +6090,11 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M77" t="n">
         <v>70</v>
@@ -6102,53 +6107,53 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R77" s="1" t="n">
-        <v>-0.2990719696990741</v>
+        <v>-2.324294704861111</v>
       </c>
       <c r="S77" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>251284</v>
+        <v>251246</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>30.5</v>
+        <v>17</v>
       </c>
       <c r="D78" t="n">
-        <v>297.0909090909091</v>
+        <v>187.53125</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-05-12 07:10:39</t>
+          <t>2025-05-09 07:46:59</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-05-12 07:41:09</t>
+          <t>2025-05-09 08:03:59</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-05-12 07:41:09</t>
+          <t>2025-05-09 08:03:59</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-05-12 12:38:15</t>
+          <t>2025-05-09 11:11:30</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>16340</v>
+        <v>12002</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -6157,33 +6162,28 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M78" t="n">
         <v>70</v>
       </c>
-      <c r="N78" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O78" t="n">
+        <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R78" s="1" t="n">
-        <v>-4.5265656565625</v>
+        <v>-0.4663302951388889</v>
       </c>
       <c r="S78" t="n">
         <v>1</v>
@@ -6191,41 +6191,41 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>251062</v>
+        <v>251374</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>32.5</v>
+        <v>17</v>
       </c>
       <c r="D79" t="n">
-        <v>411.3454545454546</v>
+        <v>427.234375</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-05-12 12:38:15</t>
+          <t>2025-05-09 11:11:30</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-05-12 13:10:45</t>
+          <t>2025-05-09 11:28:30</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-05-12 13:10:45</t>
+          <t>2025-05-09 11:28:30</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-05-13 12:02:06</t>
+          <t>2025-05-12 10:35:45</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>22624</v>
+        <v>27343</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M79" t="n">
         <v>70</v>
@@ -6251,7 +6251,7 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R79" s="1" t="n">
@@ -6263,41 +6263,41 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>244204</v>
+        <v>245089</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D80" t="n">
-        <v>56.91803278688525</v>
+        <v>1916.640625</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-12 10:35:45</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-05-09 07:42:00</t>
+          <t>2025-05-12 11:11:45</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-05-09 07:42:00</t>
+          <t>2025-05-12 11:11:45</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-05-09 08:38:55</t>
+          <t>2025-05-16 11:08:23</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>3472</v>
+        <v>122665</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -6306,14 +6306,14 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L80" t="n">
         <v>4</v>
       </c>
       <c r="M80" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O80" t="n">
         <v>0</v>
@@ -6323,53 +6323,53 @@
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R80" s="1" t="n">
-        <v>-1.360359744988426</v>
+        <v>0</v>
       </c>
       <c r="S80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>251466</v>
+        <v>251566</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D81" t="n">
-        <v>91.26229508196721</v>
+        <v>140.5918367346939</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-05-09 08:38:55</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-05-09 09:05:55</t>
+          <t>2025-05-08 07:45:00</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-05-09 09:05:55</t>
+          <t>2025-05-08 07:45:00</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:10</t>
+          <t>2025-05-08 10:05:35</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>5567</v>
+        <v>6889</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -6382,7 +6382,7 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M81" t="n">
         <v>70</v>
@@ -6395,53 +6395,53 @@
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R81" s="1" t="n">
-        <v>-0.4424863387962963</v>
+        <v>-1.420549886620371</v>
       </c>
       <c r="S81" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>251464</v>
+        <v>244354</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D82" t="n">
-        <v>117.2622950819672</v>
+        <v>87.95918367346938</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:10</t>
+          <t>2025-05-08 10:05:35</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-05-09 11:04:10</t>
+          <t>2025-05-08 10:40:35</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-05-09 11:04:10</t>
+          <t>2025-05-08 10:40:35</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2025-05-09 13:01:26</t>
+          <t>2025-05-08 12:08:33</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>7153</v>
+        <v>4310</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -6467,53 +6467,53 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R82" s="1" t="n">
-        <v>-0.5426684881597222</v>
+        <v>-0.5059382086111111</v>
       </c>
       <c r="S82" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>251580</v>
+        <v>251485</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D83" t="n">
-        <v>117.2622950819672</v>
+        <v>98.12244897959184</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-05-09 13:01:26</t>
+          <t>2025-05-08 12:08:33</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-05-09 13:26:26</t>
+          <t>2025-05-08 12:48:33</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-05-09 13:26:26</t>
+          <t>2025-05-08 12:48:33</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2025-05-12 07:23:42</t>
+          <t>2025-05-08 14:26:40</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>7153</v>
+        <v>4808</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M83" t="n">
         <v>70</v>
@@ -6539,53 +6539,53 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R83" s="1" t="n">
-        <v>0</v>
+        <v>-15.60185657596065</v>
       </c>
       <c r="S83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>251252</v>
+        <v>251464</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D84" t="n">
-        <v>247.2622950819672</v>
+        <v>145.9795918367347</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-05-12 07:23:42</t>
+          <t>2025-05-08 14:26:40</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-05-12 07:52:42</t>
+          <t>2025-05-09 07:06:40</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-05-12 07:52:42</t>
+          <t>2025-05-09 07:06:40</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2025-05-12 11:59:58</t>
+          <t>2025-05-09 09:32:39</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>15083</v>
+        <v>7153</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -6594,11 +6594,11 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M84" t="n">
         <v>70</v>
@@ -6611,11 +6611,11 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R84" s="1" t="n">
-        <v>0</v>
+        <v>-0.3976757369560185</v>
       </c>
       <c r="S84" t="n">
         <v>1</v>
@@ -6623,7 +6623,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>251259</v>
+        <v>251761</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -6631,33 +6631,33 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="D85" t="n">
-        <v>102.0408163265306</v>
+        <v>271</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 09:32:39</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-05-08 08:10:00</t>
+          <t>2025-05-09 10:07:39</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-05-08 08:10:00</t>
+          <t>2025-05-09 10:07:39</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-05-08 09:52:02</t>
+          <t>2025-05-09 14:38:39</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>5000</v>
+        <v>13279</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M85" t="n">
         <v>70</v>
@@ -6683,11 +6683,11 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-19 00:00:00</t>
         </is>
       </c>
       <c r="R85" s="1" t="n">
-        <v>-2.411139455787037</v>
+        <v>0</v>
       </c>
       <c r="S85" t="n">
         <v>2</v>
@@ -6695,7 +6695,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>251463</v>
+        <v>251580</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -6703,33 +6703,33 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="D86" t="n">
-        <v>142.1836734693877</v>
+        <v>145.9795918367347</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-05-08 09:52:02</t>
+          <t>2025-05-09 14:38:39</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-05-08 10:52:02</t>
+          <t>2025-05-12 07:13:39</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-05-08 10:52:02</t>
+          <t>2025-05-12 07:13:39</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2025-05-08 13:14:13</t>
+          <t>2025-05-12 09:39:37</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>6967</v>
+        <v>7153</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R86" s="1" t="n">
@@ -6767,7 +6767,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>251374</v>
+        <v>251252</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -6775,33 +6775,33 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D87" t="n">
-        <v>558.0204081632653</v>
+        <v>307.8163265306122</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-05-08 13:14:13</t>
+          <t>2025-05-12 09:39:37</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-05-08 14:04:13</t>
+          <t>2025-05-12 10:24:37</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-05-08 14:04:13</t>
+          <t>2025-05-12 10:24:37</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2025-05-12 07:22:14</t>
+          <t>2025-05-13 07:32:26</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>27343</v>
+        <v>15083</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M87" t="n">
         <v>70</v>
@@ -6827,7 +6827,7 @@
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R87" s="1" t="n">

--- a/PS-VRP/Dati_output/insert_inter_post.xlsx
+++ b/PS-VRP/Dati_output/insert_inter_post.xlsx
@@ -515,81 +515,74 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251706</v>
+        <v>244204</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>50.79365079365079</v>
+        <v>48.90140845070422</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-08 08:22:54</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>3200</v>
+        <v>3472</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>39764</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>0</v>
+        <v>-0.3492370892013889</v>
       </c>
       <c r="S2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -598,33 +591,33 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D3" t="n">
         <v>170.0422535211268</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 08:22:54</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-09 07:42:00</t>
+          <t>2025-05-08 08:54:54</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-09 07:42:00</t>
+          <t>2025-05-08 08:54:54</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-09 10:32:02</t>
+          <t>2025-05-08 11:44:56</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -663,7 +656,7 @@
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.4389182316087963</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -671,41 +664,41 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251546</v>
+        <v>251164</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D4" t="n">
-        <v>91.07042253521126</v>
+        <v>140.8450704225352</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-09 10:32:02</t>
+          <t>2025-05-08 11:44:56</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-09 11:19:02</t>
+          <t>2025-05-08 12:20:56</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-09 11:19:02</t>
+          <t>2025-05-08 12:20:56</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-09 12:50:06</t>
+          <t>2025-05-08 14:41:47</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>6466</v>
+        <v>10000</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -718,66 +711,71 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
       </c>
-      <c r="O4" t="n">
-        <v>0</v>
+      <c r="N4" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-9.534800469479167</v>
+        <v>-1.612353286388889</v>
       </c>
       <c r="S4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251050</v>
+        <v>251416</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>200</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>158.056338028169</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-09 12:50:06</t>
+          <t>2025-05-08 14:41:47</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-12 08:10:06</t>
+          <t>2025-05-09 07:04:47</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-12 08:10:06</t>
+          <t>2025-05-09 07:04:47</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-12 08:10:06</t>
+          <t>2025-05-09 09:42:50</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>11222</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -786,33 +784,31 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
       <c r="N5" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-4.340356025034722</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>2</v>
@@ -820,41 +816,41 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251054</v>
+        <v>251547</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-12 08:10:06</t>
+          <t>2025-05-09 09:42:50</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-12 08:45:06</t>
+          <t>2025-05-09 10:01:50</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-12 08:45:06</t>
+          <t>2025-05-09 10:01:50</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-12 08:45:06</t>
+          <t>2025-05-09 13:06:45</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>13129</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -863,17 +859,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
       <c r="N6" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -881,57 +877,57 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-4.364661580590278</v>
+        <v>-2.546361502349537</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251081</v>
+        <v>251477</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="D7" t="n">
-        <v>42.42253521126761</v>
+        <v>422.5211267605634</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-12 08:45:06</t>
+          <t>2025-05-09 13:06:45</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-12 10:50:06</t>
+          <t>2025-05-09 13:38:45</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-12 10:50:06</t>
+          <t>2025-05-09 13:38:45</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-12 11:32:32</t>
+          <t>2025-05-12 12:41:16</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>3012</v>
+        <v>29999</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -940,19 +936,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N7" t="n">
+        <v>39760</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -960,57 +954,57 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39750</v>
+        <v>39760</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-19.4809272300463</v>
+        <v>-5.52866784037037</v>
       </c>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251284</v>
+        <v>250894</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>230.1408450704225</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:32:32</t>
+          <t>2025-05-12 12:41:16</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-12 13:12:32</t>
+          <t>2025-05-12 13:00:16</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-12 13:12:32</t>
+          <t>2025-05-12 13:00:16</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-13 09:02:40</t>
+          <t>2025-05-14 07:23:41</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>16340</v>
+        <v>44262</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1019,75 +1013,73 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N8" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-5.376858372453704</v>
+        <v>-1.308118153368055</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251109</v>
+        <v>251475</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="D9" t="n">
-        <v>266.5915492957747</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-13 09:02:40</t>
+          <t>2025-05-14 07:23:41</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-13 10:22:40</t>
+          <t>2025-05-14 07:55:41</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-13 10:22:40</t>
+          <t>2025-05-14 07:55:41</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-13 14:49:16</t>
+    